--- a/LODEdit/Additional/memory_map.xlsx
+++ b/LODEdit/Additional/memory_map.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brett\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brett\Documents\memcardrex-plugins-LODEdit\LODEdit\Additional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1ADC2E-A347-4DCF-ADB0-B6B3BFCA5206}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87F61A5-09A5-4CCA-8158-C4328D7D595C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>Address</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Slot ID</t>
-  </si>
-  <si>
-    <t>Checksum</t>
   </si>
   <si>
     <t>Party Slot 1</t>
@@ -218,7 +215,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,12 +250,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF666666"/>
-        <bgColor rgb="FF666666"/>
       </patternFill>
     </fill>
     <fill>
@@ -310,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -347,67 +338,66 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -630,7 +620,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T2" sqref="T2"/>
+      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -697,7 +687,7 @@
         <v>7</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -708,7 +698,7 @@
         <f t="shared" ref="B2:B520" si="0">DEC2HEX(A2)</f>
         <v>10</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="26" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="21"/>
@@ -721,7 +711,7 @@
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
       <c r="M2" s="21"/>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="33" t="s">
         <v>9</v>
       </c>
       <c r="O2" s="21"/>
@@ -730,7 +720,7 @@
       <c r="R2" s="21"/>
       <c r="S2" s="6"/>
       <c r="T2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -741,7 +731,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="33" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="21"/>
@@ -749,7 +739,7 @@
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="27" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="21"/>
@@ -913,12 +903,10 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
       <c r="S9" s="13"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -1535,14 +1523,14 @@
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
-      <c r="K33" s="23" t="s">
-        <v>12</v>
+      <c r="K33" s="27" t="s">
+        <v>11</v>
       </c>
       <c r="L33" s="21"/>
       <c r="M33" s="21"/>
       <c r="N33" s="21"/>
-      <c r="O33" s="24" t="s">
-        <v>13</v>
+      <c r="O33" s="23" t="s">
+        <v>12</v>
       </c>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
@@ -1557,14 +1545,14 @@
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="C34" s="33" t="s">
-        <v>14</v>
+      <c r="C34" s="25" t="s">
+        <v>13</v>
       </c>
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
-      <c r="G34" s="20" t="s">
-        <v>15</v>
+      <c r="G34" s="26" t="s">
+        <v>14</v>
       </c>
       <c r="H34" s="21"/>
       <c r="I34" s="10"/>
@@ -1573,14 +1561,14 @@
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
-      <c r="O34" s="30" t="s">
-        <v>16</v>
+      <c r="O34" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
       <c r="S34" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -1591,14 +1579,14 @@
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-      <c r="C35" s="27" t="s">
-        <v>18</v>
+      <c r="C35" s="22" t="s">
+        <v>17</v>
       </c>
       <c r="D35" s="21"/>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
       <c r="G35" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
@@ -1607,12 +1595,12 @@
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
-      <c r="O35" s="31"/>
+      <c r="O35" s="24"/>
       <c r="P35" s="21"/>
       <c r="Q35" s="21"/>
       <c r="R35" s="21"/>
       <c r="S35" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
@@ -1991,8 +1979,8 @@
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
-      <c r="G50" s="30" t="s">
-        <v>16</v>
+      <c r="G50" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
@@ -2015,14 +2003,14 @@
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="C51" s="27" t="s">
-        <v>18</v>
+      <c r="C51" s="22" t="s">
+        <v>17</v>
       </c>
       <c r="D51" s="21"/>
       <c r="E51" s="21"/>
       <c r="F51" s="21"/>
       <c r="G51" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
@@ -2036,7 +2024,7 @@
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
       <c r="S51" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
@@ -2051,8 +2039,8 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
-      <c r="G52" s="24" t="s">
-        <v>23</v>
+      <c r="G52" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="H52" s="21"/>
       <c r="I52" s="10"/>
@@ -2065,7 +2053,7 @@
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
       <c r="S52" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
@@ -2199,7 +2187,7 @@
       <c r="Q57" s="10"/>
       <c r="R57" s="10"/>
       <c r="S57" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
@@ -2501,7 +2489,7 @@
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
       <c r="G69" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
@@ -2515,7 +2503,7 @@
       <c r="Q69" s="10"/>
       <c r="R69" s="10"/>
       <c r="S69" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
@@ -2561,10 +2549,10 @@
       </c>
       <c r="H71" s="10"/>
       <c r="I71" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J71" s="10"/>
-      <c r="K71" s="27"/>
+      <c r="K71" s="22"/>
       <c r="L71" s="21"/>
       <c r="M71" s="21"/>
       <c r="N71" s="21"/>
@@ -2573,7 +2561,7 @@
       <c r="Q71" s="21"/>
       <c r="R71" s="21"/>
       <c r="S71" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.2">
@@ -2584,8 +2572,8 @@
         <f t="shared" si="0"/>
         <v>470</v>
       </c>
-      <c r="C72" s="26" t="s">
-        <v>30</v>
+      <c r="C72" s="30" t="s">
+        <v>29</v>
       </c>
       <c r="D72" s="21"/>
       <c r="E72" s="21"/>
@@ -2976,7 +2964,7 @@
         <f t="shared" si="0"/>
         <v>560</v>
       </c>
-      <c r="C87" s="27"/>
+      <c r="C87" s="22"/>
       <c r="D87" s="21"/>
       <c r="E87" s="21"/>
       <c r="F87" s="21"/>
@@ -2985,7 +2973,7 @@
       <c r="I87" s="21"/>
       <c r="J87" s="21"/>
       <c r="K87" s="10"/>
-      <c r="L87" s="28"/>
+      <c r="L87" s="31"/>
       <c r="M87" s="21"/>
       <c r="N87" s="21"/>
       <c r="O87" s="21"/>
@@ -3002,8 +2990,8 @@
         <f t="shared" si="0"/>
         <v>570</v>
       </c>
-      <c r="C88" s="29" t="s">
-        <v>31</v>
+      <c r="C88" s="32" t="s">
+        <v>30</v>
       </c>
       <c r="D88" s="21"/>
       <c r="E88" s="21"/>
@@ -3030,7 +3018,7 @@
         <f t="shared" si="0"/>
         <v>580</v>
       </c>
-      <c r="C89" s="28"/>
+      <c r="C89" s="31"/>
       <c r="D89" s="21"/>
       <c r="E89" s="21"/>
       <c r="F89" s="21"/>
@@ -3039,7 +3027,7 @@
       <c r="I89" s="21"/>
       <c r="J89" s="21"/>
       <c r="K89" s="21"/>
-      <c r="L89" s="30"/>
+      <c r="L89" s="20"/>
       <c r="M89" s="21"/>
       <c r="N89" s="21"/>
       <c r="O89" s="21"/>
@@ -3056,8 +3044,8 @@
         <f t="shared" si="0"/>
         <v>590</v>
       </c>
-      <c r="C90" s="30" t="s">
-        <v>32</v>
+      <c r="C90" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="D90" s="21"/>
       <c r="E90" s="21"/>
@@ -3084,7 +3072,7 @@
         <f t="shared" si="0"/>
         <v>5A0</v>
       </c>
-      <c r="C91" s="30"/>
+      <c r="C91" s="20"/>
       <c r="D91" s="21"/>
       <c r="E91" s="21"/>
       <c r="F91" s="21"/>
@@ -3096,8 +3084,8 @@
       <c r="L91" s="10"/>
       <c r="M91" s="10"/>
       <c r="N91" s="10"/>
-      <c r="O91" s="24" t="s">
-        <v>33</v>
+      <c r="O91" s="23" t="s">
+        <v>32</v>
       </c>
       <c r="P91" s="21"/>
       <c r="Q91" s="10"/>
@@ -3114,26 +3102,26 @@
       </c>
       <c r="E92" s="10"/>
       <c r="F92" s="10"/>
-      <c r="G92" s="32" t="s">
+      <c r="G92" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H92" s="21"/>
+      <c r="I92" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="H92" s="21"/>
-      <c r="I92" s="20" t="s">
+      <c r="J92" s="21"/>
+      <c r="K92" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="J92" s="21"/>
-      <c r="K92" s="33" t="s">
+      <c r="L92" s="21"/>
+      <c r="M92" s="29" t="s">
         <v>36</v>
-      </c>
-      <c r="L92" s="21"/>
-      <c r="M92" s="34" t="s">
-        <v>37</v>
       </c>
       <c r="N92" s="21"/>
       <c r="O92" s="10"/>
       <c r="P92" s="10"/>
-      <c r="Q92" s="23" t="s">
-        <v>38</v>
+      <c r="Q92" s="27" t="s">
+        <v>37</v>
       </c>
       <c r="R92" s="21"/>
       <c r="S92" s="12"/>
@@ -3146,8 +3134,8 @@
         <f t="shared" si="0"/>
         <v>5C0</v>
       </c>
-      <c r="C93" s="33" t="s">
-        <v>39</v>
+      <c r="C93" s="25" t="s">
+        <v>38</v>
       </c>
       <c r="D93" s="21"/>
       <c r="E93" s="21"/>
@@ -3163,13 +3151,13 @@
       <c r="O93" s="10"/>
       <c r="P93" s="10"/>
       <c r="Q93" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="R93" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="R93" s="17" t="s">
+      <c r="S93" s="16" t="s">
         <v>41</v>
-      </c>
-      <c r="S93" s="16" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.2">
@@ -3946,7 +3934,7 @@
       <c r="L123" s="10"/>
       <c r="M123" s="10"/>
       <c r="N123" s="10"/>
-      <c r="O123" s="31"/>
+      <c r="O123" s="24"/>
       <c r="P123" s="21"/>
       <c r="Q123" s="21"/>
       <c r="R123" s="21"/>
@@ -3960,7 +3948,7 @@
         <f t="shared" si="0"/>
         <v>7B0</v>
       </c>
-      <c r="C124" s="31"/>
+      <c r="C124" s="24"/>
       <c r="D124" s="21"/>
       <c r="E124" s="21"/>
       <c r="F124" s="21"/>
@@ -14275,16 +14263,19 @@
       <c r="S520" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="K71:R71"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="C35:F35"/>
+  <mergeCells count="32">
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="C72:R86"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="L87:R87"/>
+    <mergeCell ref="C88:R88"/>
+    <mergeCell ref="C89:K89"/>
+    <mergeCell ref="L89:R89"/>
     <mergeCell ref="C90:R90"/>
     <mergeCell ref="Q92:R92"/>
     <mergeCell ref="O123:R123"/>
@@ -14296,19 +14287,15 @@
     <mergeCell ref="K92:L92"/>
     <mergeCell ref="M92:N92"/>
     <mergeCell ref="C93:G93"/>
-    <mergeCell ref="C72:R86"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="L87:R87"/>
-    <mergeCell ref="C88:R88"/>
-    <mergeCell ref="C89:K89"/>
-    <mergeCell ref="L89:R89"/>
-    <mergeCell ref="C2:M2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="I3:R3"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="K71:R71"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="C35:F35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LODEdit/Additional/memory_map.xlsx
+++ b/LODEdit/Additional/memory_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brett\Documents\memcardrex-plugins-LODEdit\LODEdit\Additional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87F61A5-09A5-4CCA-8158-C4328D7D595C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCB2B83-87EF-42E2-8D01-7EB38572046A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>Address</t>
   </si>
@@ -164,6 +164,9 @@
   <si>
     <t>Zychronix, greenbrettmichael</t>
   </si>
+  <si>
+    <t>Stardust</t>
+  </si>
 </sst>
 </file>
 
@@ -215,7 +218,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,6 +291,12 @@
         <bgColor rgb="FFFF00FF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -301,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -356,36 +365,27 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -393,11 +393,25 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,9 +632,9 @@
   </sheetPr>
   <dimension ref="A1:T520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -698,26 +712,26 @@
         <f t="shared" ref="B2:B520" si="0">DEC2HEX(A2)</f>
         <v>10</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="33" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
       <c r="S2" s="6"/>
       <c r="T2" t="s">
         <v>43</v>
@@ -731,26 +745,26 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="27" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
       <c r="S3" s="6"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -903,10 +917,10 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
       <c r="S9" s="13"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -1523,18 +1537,18 @@
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
-      <c r="K33" s="27" t="s">
+      <c r="K33" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="23" t="s">
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
       <c r="S33" s="12"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
@@ -1545,28 +1559,28 @@
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="26" t="s">
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="21"/>
+      <c r="H34" s="24"/>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
-      <c r="O34" s="20" t="s">
+      <c r="O34" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
       <c r="S34" s="16" t="s">
         <v>16</v>
       </c>
@@ -1579,26 +1593,28 @@
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
       <c r="G35" s="17" t="s">
         <v>18</v>
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
+      <c r="K35" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
       <c r="S35" s="16" t="s">
         <v>19</v>
       </c>
@@ -1957,14 +1973,18 @@
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
+      <c r="K49" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="24"/>
       <c r="S49" s="12"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
@@ -1975,24 +1995,28 @@
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="20" t="s">
+      <c r="C50" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="10"/>
+      <c r="O50" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="37"/>
+      <c r="R50" s="37"/>
       <c r="S50" s="12"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
@@ -2003,12 +2027,12 @@
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
       <c r="G51" s="5" t="s">
         <v>20</v>
       </c>
@@ -2039,10 +2063,10 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
-      <c r="G52" s="23" t="s">
+      <c r="G52" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="H52" s="21"/>
+      <c r="H52" s="24"/>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
       <c r="L52" s="10"/>
@@ -2552,14 +2576,14 @@
         <v>27</v>
       </c>
       <c r="J71" s="10"/>
-      <c r="K71" s="22"/>
-      <c r="L71" s="21"/>
-      <c r="M71" s="21"/>
-      <c r="N71" s="21"/>
-      <c r="O71" s="21"/>
-      <c r="P71" s="21"/>
-      <c r="Q71" s="21"/>
-      <c r="R71" s="21"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="24"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="24"/>
+      <c r="O71" s="24"/>
+      <c r="P71" s="24"/>
+      <c r="Q71" s="24"/>
+      <c r="R71" s="24"/>
       <c r="S71" s="16" t="s">
         <v>28</v>
       </c>
@@ -2572,24 +2596,24 @@
         <f t="shared" si="0"/>
         <v>470</v>
       </c>
-      <c r="C72" s="30" t="s">
+      <c r="C72" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
-      <c r="I72" s="21"/>
-      <c r="J72" s="21"/>
-      <c r="K72" s="21"/>
-      <c r="L72" s="21"/>
-      <c r="M72" s="21"/>
-      <c r="N72" s="21"/>
-      <c r="O72" s="21"/>
-      <c r="P72" s="21"/>
-      <c r="Q72" s="21"/>
-      <c r="R72" s="21"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="24"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="24"/>
+      <c r="O72" s="24"/>
+      <c r="P72" s="24"/>
+      <c r="Q72" s="24"/>
+      <c r="R72" s="24"/>
       <c r="S72" s="12"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
@@ -2600,22 +2624,22 @@
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
-      <c r="J73" s="21"/>
-      <c r="K73" s="21"/>
-      <c r="L73" s="21"/>
-      <c r="M73" s="21"/>
-      <c r="N73" s="21"/>
-      <c r="O73" s="21"/>
-      <c r="P73" s="21"/>
-      <c r="Q73" s="21"/>
-      <c r="R73" s="21"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="24"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="24"/>
+      <c r="O73" s="24"/>
+      <c r="P73" s="24"/>
+      <c r="Q73" s="24"/>
+      <c r="R73" s="24"/>
       <c r="S73" s="12"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
@@ -2626,22 +2650,22 @@
         <f t="shared" si="0"/>
         <v>490</v>
       </c>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="21"/>
-      <c r="I74" s="21"/>
-      <c r="J74" s="21"/>
-      <c r="K74" s="21"/>
-      <c r="L74" s="21"/>
-      <c r="M74" s="21"/>
-      <c r="N74" s="21"/>
-      <c r="O74" s="21"/>
-      <c r="P74" s="21"/>
-      <c r="Q74" s="21"/>
-      <c r="R74" s="21"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="24"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="24"/>
+      <c r="M74" s="24"/>
+      <c r="N74" s="24"/>
+      <c r="O74" s="24"/>
+      <c r="P74" s="24"/>
+      <c r="Q74" s="24"/>
+      <c r="R74" s="24"/>
       <c r="S74" s="12"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
@@ -2652,22 +2676,22 @@
         <f t="shared" si="0"/>
         <v>4A0</v>
       </c>
-      <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="21"/>
-      <c r="I75" s="21"/>
-      <c r="J75" s="21"/>
-      <c r="K75" s="21"/>
-      <c r="L75" s="21"/>
-      <c r="M75" s="21"/>
-      <c r="N75" s="21"/>
-      <c r="O75" s="21"/>
-      <c r="P75" s="21"/>
-      <c r="Q75" s="21"/>
-      <c r="R75" s="21"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="24"/>
+      <c r="M75" s="24"/>
+      <c r="N75" s="24"/>
+      <c r="O75" s="24"/>
+      <c r="P75" s="24"/>
+      <c r="Q75" s="24"/>
+      <c r="R75" s="24"/>
       <c r="S75" s="12"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
@@ -2678,22 +2702,22 @@
         <f t="shared" si="0"/>
         <v>4B0</v>
       </c>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
-      <c r="J76" s="21"/>
-      <c r="K76" s="21"/>
-      <c r="L76" s="21"/>
-      <c r="M76" s="21"/>
-      <c r="N76" s="21"/>
-      <c r="O76" s="21"/>
-      <c r="P76" s="21"/>
-      <c r="Q76" s="21"/>
-      <c r="R76" s="21"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24"/>
+      <c r="K76" s="24"/>
+      <c r="L76" s="24"/>
+      <c r="M76" s="24"/>
+      <c r="N76" s="24"/>
+      <c r="O76" s="24"/>
+      <c r="P76" s="24"/>
+      <c r="Q76" s="24"/>
+      <c r="R76" s="24"/>
       <c r="S76" s="12"/>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
@@ -2704,22 +2728,22 @@
         <f t="shared" si="0"/>
         <v>4C0</v>
       </c>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="21"/>
-      <c r="L77" s="21"/>
-      <c r="M77" s="21"/>
-      <c r="N77" s="21"/>
-      <c r="O77" s="21"/>
-      <c r="P77" s="21"/>
-      <c r="Q77" s="21"/>
-      <c r="R77" s="21"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="24"/>
+      <c r="K77" s="24"/>
+      <c r="L77" s="24"/>
+      <c r="M77" s="24"/>
+      <c r="N77" s="24"/>
+      <c r="O77" s="24"/>
+      <c r="P77" s="24"/>
+      <c r="Q77" s="24"/>
+      <c r="R77" s="24"/>
       <c r="S77" s="12"/>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.2">
@@ -2730,22 +2754,22 @@
         <f t="shared" si="0"/>
         <v>4D0</v>
       </c>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="21"/>
-      <c r="H78" s="21"/>
-      <c r="I78" s="21"/>
-      <c r="J78" s="21"/>
-      <c r="K78" s="21"/>
-      <c r="L78" s="21"/>
-      <c r="M78" s="21"/>
-      <c r="N78" s="21"/>
-      <c r="O78" s="21"/>
-      <c r="P78" s="21"/>
-      <c r="Q78" s="21"/>
-      <c r="R78" s="21"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="24"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="24"/>
+      <c r="O78" s="24"/>
+      <c r="P78" s="24"/>
+      <c r="Q78" s="24"/>
+      <c r="R78" s="24"/>
       <c r="S78" s="12"/>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.2">
@@ -2756,22 +2780,22 @@
         <f t="shared" si="0"/>
         <v>4E0</v>
       </c>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="21"/>
-      <c r="H79" s="21"/>
-      <c r="I79" s="21"/>
-      <c r="J79" s="21"/>
-      <c r="K79" s="21"/>
-      <c r="L79" s="21"/>
-      <c r="M79" s="21"/>
-      <c r="N79" s="21"/>
-      <c r="O79" s="21"/>
-      <c r="P79" s="21"/>
-      <c r="Q79" s="21"/>
-      <c r="R79" s="21"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="24"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="24"/>
+      <c r="M79" s="24"/>
+      <c r="N79" s="24"/>
+      <c r="O79" s="24"/>
+      <c r="P79" s="24"/>
+      <c r="Q79" s="24"/>
+      <c r="R79" s="24"/>
       <c r="S79" s="12"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.2">
@@ -2782,22 +2806,22 @@
         <f t="shared" si="0"/>
         <v>4F0</v>
       </c>
-      <c r="C80" s="21"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="21"/>
-      <c r="H80" s="21"/>
-      <c r="I80" s="21"/>
-      <c r="J80" s="21"/>
-      <c r="K80" s="21"/>
-      <c r="L80" s="21"/>
-      <c r="M80" s="21"/>
-      <c r="N80" s="21"/>
-      <c r="O80" s="21"/>
-      <c r="P80" s="21"/>
-      <c r="Q80" s="21"/>
-      <c r="R80" s="21"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="24"/>
+      <c r="J80" s="24"/>
+      <c r="K80" s="24"/>
+      <c r="L80" s="24"/>
+      <c r="M80" s="24"/>
+      <c r="N80" s="24"/>
+      <c r="O80" s="24"/>
+      <c r="P80" s="24"/>
+      <c r="Q80" s="24"/>
+      <c r="R80" s="24"/>
       <c r="S80" s="12"/>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.2">
@@ -2808,22 +2832,22 @@
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="21"/>
-      <c r="I81" s="21"/>
-      <c r="J81" s="21"/>
-      <c r="K81" s="21"/>
-      <c r="L81" s="21"/>
-      <c r="M81" s="21"/>
-      <c r="N81" s="21"/>
-      <c r="O81" s="21"/>
-      <c r="P81" s="21"/>
-      <c r="Q81" s="21"/>
-      <c r="R81" s="21"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="24"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="24"/>
+      <c r="M81" s="24"/>
+      <c r="N81" s="24"/>
+      <c r="O81" s="24"/>
+      <c r="P81" s="24"/>
+      <c r="Q81" s="24"/>
+      <c r="R81" s="24"/>
       <c r="S81" s="12"/>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.2">
@@ -2834,22 +2858,22 @@
         <f t="shared" si="0"/>
         <v>510</v>
       </c>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="21"/>
-      <c r="H82" s="21"/>
-      <c r="I82" s="21"/>
-      <c r="J82" s="21"/>
-      <c r="K82" s="21"/>
-      <c r="L82" s="21"/>
-      <c r="M82" s="21"/>
-      <c r="N82" s="21"/>
-      <c r="O82" s="21"/>
-      <c r="P82" s="21"/>
-      <c r="Q82" s="21"/>
-      <c r="R82" s="21"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="24"/>
+      <c r="M82" s="24"/>
+      <c r="N82" s="24"/>
+      <c r="O82" s="24"/>
+      <c r="P82" s="24"/>
+      <c r="Q82" s="24"/>
+      <c r="R82" s="24"/>
       <c r="S82" s="12"/>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.2">
@@ -2860,22 +2884,22 @@
         <f t="shared" si="0"/>
         <v>520</v>
       </c>
-      <c r="C83" s="21"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="21"/>
-      <c r="H83" s="21"/>
-      <c r="I83" s="21"/>
-      <c r="J83" s="21"/>
-      <c r="K83" s="21"/>
-      <c r="L83" s="21"/>
-      <c r="M83" s="21"/>
-      <c r="N83" s="21"/>
-      <c r="O83" s="21"/>
-      <c r="P83" s="21"/>
-      <c r="Q83" s="21"/>
-      <c r="R83" s="21"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="24"/>
+      <c r="M83" s="24"/>
+      <c r="N83" s="24"/>
+      <c r="O83" s="24"/>
+      <c r="P83" s="24"/>
+      <c r="Q83" s="24"/>
+      <c r="R83" s="24"/>
       <c r="S83" s="12"/>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.2">
@@ -2886,22 +2910,22 @@
         <f t="shared" si="0"/>
         <v>530</v>
       </c>
-      <c r="C84" s="21"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="21"/>
-      <c r="H84" s="21"/>
-      <c r="I84" s="21"/>
-      <c r="J84" s="21"/>
-      <c r="K84" s="21"/>
-      <c r="L84" s="21"/>
-      <c r="M84" s="21"/>
-      <c r="N84" s="21"/>
-      <c r="O84" s="21"/>
-      <c r="P84" s="21"/>
-      <c r="Q84" s="21"/>
-      <c r="R84" s="21"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="24"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="24"/>
+      <c r="M84" s="24"/>
+      <c r="N84" s="24"/>
+      <c r="O84" s="24"/>
+      <c r="P84" s="24"/>
+      <c r="Q84" s="24"/>
+      <c r="R84" s="24"/>
       <c r="S84" s="12"/>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.2">
@@ -2912,22 +2936,22 @@
         <f t="shared" si="0"/>
         <v>540</v>
       </c>
-      <c r="C85" s="21"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="21"/>
-      <c r="H85" s="21"/>
-      <c r="I85" s="21"/>
-      <c r="J85" s="21"/>
-      <c r="K85" s="21"/>
-      <c r="L85" s="21"/>
-      <c r="M85" s="21"/>
-      <c r="N85" s="21"/>
-      <c r="O85" s="21"/>
-      <c r="P85" s="21"/>
-      <c r="Q85" s="21"/>
-      <c r="R85" s="21"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24"/>
+      <c r="M85" s="24"/>
+      <c r="N85" s="24"/>
+      <c r="O85" s="24"/>
+      <c r="P85" s="24"/>
+      <c r="Q85" s="24"/>
+      <c r="R85" s="24"/>
       <c r="S85" s="12"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.2">
@@ -2938,22 +2962,22 @@
         <f t="shared" si="0"/>
         <v>550</v>
       </c>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="21"/>
-      <c r="H86" s="21"/>
-      <c r="I86" s="21"/>
-      <c r="J86" s="21"/>
-      <c r="K86" s="21"/>
-      <c r="L86" s="21"/>
-      <c r="M86" s="21"/>
-      <c r="N86" s="21"/>
-      <c r="O86" s="21"/>
-      <c r="P86" s="21"/>
-      <c r="Q86" s="21"/>
-      <c r="R86" s="21"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="24"/>
+      <c r="J86" s="24"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="24"/>
+      <c r="M86" s="24"/>
+      <c r="N86" s="24"/>
+      <c r="O86" s="24"/>
+      <c r="P86" s="24"/>
+      <c r="Q86" s="24"/>
+      <c r="R86" s="24"/>
       <c r="S86" s="12"/>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.2">
@@ -2964,22 +2988,22 @@
         <f t="shared" si="0"/>
         <v>560</v>
       </c>
-      <c r="C87" s="22"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="21"/>
-      <c r="H87" s="21"/>
-      <c r="I87" s="21"/>
-      <c r="J87" s="21"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="24"/>
+      <c r="J87" s="24"/>
       <c r="K87" s="10"/>
-      <c r="L87" s="31"/>
-      <c r="M87" s="21"/>
-      <c r="N87" s="21"/>
-      <c r="O87" s="21"/>
-      <c r="P87" s="21"/>
-      <c r="Q87" s="21"/>
-      <c r="R87" s="21"/>
+      <c r="L87" s="30"/>
+      <c r="M87" s="24"/>
+      <c r="N87" s="24"/>
+      <c r="O87" s="24"/>
+      <c r="P87" s="24"/>
+      <c r="Q87" s="24"/>
+      <c r="R87" s="24"/>
       <c r="S87" s="12"/>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.2">
@@ -2990,24 +3014,24 @@
         <f t="shared" si="0"/>
         <v>570</v>
       </c>
-      <c r="C88" s="32" t="s">
+      <c r="C88" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D88" s="21"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="21"/>
-      <c r="H88" s="21"/>
-      <c r="I88" s="21"/>
-      <c r="J88" s="21"/>
-      <c r="K88" s="21"/>
-      <c r="L88" s="21"/>
-      <c r="M88" s="21"/>
-      <c r="N88" s="21"/>
-      <c r="O88" s="21"/>
-      <c r="P88" s="21"/>
-      <c r="Q88" s="21"/>
-      <c r="R88" s="21"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="24"/>
+      <c r="J88" s="24"/>
+      <c r="K88" s="24"/>
+      <c r="L88" s="24"/>
+      <c r="M88" s="24"/>
+      <c r="N88" s="24"/>
+      <c r="O88" s="24"/>
+      <c r="P88" s="24"/>
+      <c r="Q88" s="24"/>
+      <c r="R88" s="24"/>
       <c r="S88" s="12"/>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.2">
@@ -3018,22 +3042,22 @@
         <f t="shared" si="0"/>
         <v>580</v>
       </c>
-      <c r="C89" s="31"/>
-      <c r="D89" s="21"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="21"/>
-      <c r="G89" s="21"/>
-      <c r="H89" s="21"/>
-      <c r="I89" s="21"/>
-      <c r="J89" s="21"/>
-      <c r="K89" s="21"/>
-      <c r="L89" s="20"/>
-      <c r="M89" s="21"/>
-      <c r="N89" s="21"/>
-      <c r="O89" s="21"/>
-      <c r="P89" s="21"/>
-      <c r="Q89" s="21"/>
-      <c r="R89" s="21"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="24"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="32"/>
+      <c r="M89" s="24"/>
+      <c r="N89" s="24"/>
+      <c r="O89" s="24"/>
+      <c r="P89" s="24"/>
+      <c r="Q89" s="24"/>
+      <c r="R89" s="24"/>
       <c r="S89" s="12"/>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.2">
@@ -3044,24 +3068,24 @@
         <f t="shared" si="0"/>
         <v>590</v>
       </c>
-      <c r="C90" s="20" t="s">
+      <c r="C90" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D90" s="21"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="21"/>
-      <c r="H90" s="21"/>
-      <c r="I90" s="21"/>
-      <c r="J90" s="21"/>
-      <c r="K90" s="21"/>
-      <c r="L90" s="21"/>
-      <c r="M90" s="21"/>
-      <c r="N90" s="21"/>
-      <c r="O90" s="21"/>
-      <c r="P90" s="21"/>
-      <c r="Q90" s="21"/>
-      <c r="R90" s="21"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="24"/>
+      <c r="I90" s="24"/>
+      <c r="J90" s="24"/>
+      <c r="K90" s="24"/>
+      <c r="L90" s="24"/>
+      <c r="M90" s="24"/>
+      <c r="N90" s="24"/>
+      <c r="O90" s="24"/>
+      <c r="P90" s="24"/>
+      <c r="Q90" s="24"/>
+      <c r="R90" s="24"/>
       <c r="S90" s="12"/>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.2">
@@ -3072,22 +3096,22 @@
         <f t="shared" si="0"/>
         <v>5A0</v>
       </c>
-      <c r="C91" s="20"/>
-      <c r="D91" s="21"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="21"/>
-      <c r="G91" s="21"/>
-      <c r="H91" s="21"/>
-      <c r="I91" s="21"/>
-      <c r="J91" s="21"/>
-      <c r="K91" s="21"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="24"/>
       <c r="L91" s="10"/>
       <c r="M91" s="10"/>
       <c r="N91" s="10"/>
-      <c r="O91" s="23" t="s">
+      <c r="O91" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="P91" s="21"/>
+      <c r="P91" s="24"/>
       <c r="Q91" s="10"/>
       <c r="R91" s="10"/>
       <c r="S91" s="12"/>
@@ -3102,28 +3126,28 @@
       </c>
       <c r="E92" s="10"/>
       <c r="F92" s="10"/>
-      <c r="G92" s="28" t="s">
+      <c r="G92" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="H92" s="21"/>
-      <c r="I92" s="26" t="s">
+      <c r="H92" s="24"/>
+      <c r="I92" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="J92" s="21"/>
-      <c r="K92" s="25" t="s">
+      <c r="J92" s="24"/>
+      <c r="K92" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="L92" s="21"/>
-      <c r="M92" s="29" t="s">
+      <c r="L92" s="24"/>
+      <c r="M92" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="N92" s="21"/>
+      <c r="N92" s="24"/>
       <c r="O92" s="10"/>
       <c r="P92" s="10"/>
-      <c r="Q92" s="27" t="s">
+      <c r="Q92" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="R92" s="21"/>
+      <c r="R92" s="24"/>
       <c r="S92" s="12"/>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.2">
@@ -3134,13 +3158,13 @@
         <f t="shared" si="0"/>
         <v>5C0</v>
       </c>
-      <c r="C93" s="25" t="s">
+      <c r="C93" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D93" s="21"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="21"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
       <c r="H93" s="10"/>
       <c r="I93" s="10"/>
       <c r="J93" s="10"/>
@@ -3934,10 +3958,10 @@
       <c r="L123" s="10"/>
       <c r="M123" s="10"/>
       <c r="N123" s="10"/>
-      <c r="O123" s="24"/>
-      <c r="P123" s="21"/>
-      <c r="Q123" s="21"/>
-      <c r="R123" s="21"/>
+      <c r="O123" s="33"/>
+      <c r="P123" s="24"/>
+      <c r="Q123" s="24"/>
+      <c r="R123" s="24"/>
       <c r="S123" s="12"/>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.2">
@@ -3948,22 +3972,22 @@
         <f t="shared" si="0"/>
         <v>7B0</v>
       </c>
-      <c r="C124" s="24"/>
-      <c r="D124" s="21"/>
-      <c r="E124" s="21"/>
-      <c r="F124" s="21"/>
-      <c r="G124" s="21"/>
-      <c r="H124" s="21"/>
-      <c r="I124" s="21"/>
-      <c r="J124" s="21"/>
-      <c r="K124" s="21"/>
-      <c r="L124" s="21"/>
-      <c r="M124" s="21"/>
-      <c r="N124" s="21"/>
-      <c r="O124" s="21"/>
-      <c r="P124" s="21"/>
-      <c r="Q124" s="21"/>
-      <c r="R124" s="21"/>
+      <c r="C124" s="33"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="24"/>
+      <c r="F124" s="24"/>
+      <c r="G124" s="24"/>
+      <c r="H124" s="24"/>
+      <c r="I124" s="24"/>
+      <c r="J124" s="24"/>
+      <c r="K124" s="24"/>
+      <c r="L124" s="24"/>
+      <c r="M124" s="24"/>
+      <c r="N124" s="24"/>
+      <c r="O124" s="24"/>
+      <c r="P124" s="24"/>
+      <c r="Q124" s="24"/>
+      <c r="R124" s="24"/>
       <c r="S124" s="12"/>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.2">
@@ -3974,22 +3998,22 @@
         <f t="shared" si="0"/>
         <v>7C0</v>
       </c>
-      <c r="C125" s="21"/>
-      <c r="D125" s="21"/>
-      <c r="E125" s="21"/>
-      <c r="F125" s="21"/>
-      <c r="G125" s="21"/>
-      <c r="H125" s="21"/>
-      <c r="I125" s="21"/>
-      <c r="J125" s="21"/>
-      <c r="K125" s="21"/>
-      <c r="L125" s="21"/>
-      <c r="M125" s="21"/>
-      <c r="N125" s="21"/>
-      <c r="O125" s="21"/>
-      <c r="P125" s="21"/>
-      <c r="Q125" s="21"/>
-      <c r="R125" s="21"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="24"/>
+      <c r="F125" s="24"/>
+      <c r="G125" s="24"/>
+      <c r="H125" s="24"/>
+      <c r="I125" s="24"/>
+      <c r="J125" s="24"/>
+      <c r="K125" s="24"/>
+      <c r="L125" s="24"/>
+      <c r="M125" s="24"/>
+      <c r="N125" s="24"/>
+      <c r="O125" s="24"/>
+      <c r="P125" s="24"/>
+      <c r="Q125" s="24"/>
+      <c r="R125" s="24"/>
       <c r="S125" s="12"/>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.2">
@@ -4000,22 +4024,22 @@
         <f t="shared" si="0"/>
         <v>7D0</v>
       </c>
-      <c r="C126" s="21"/>
-      <c r="D126" s="21"/>
-      <c r="E126" s="21"/>
-      <c r="F126" s="21"/>
-      <c r="G126" s="21"/>
-      <c r="H126" s="21"/>
-      <c r="I126" s="21"/>
-      <c r="J126" s="21"/>
-      <c r="K126" s="21"/>
-      <c r="L126" s="21"/>
-      <c r="M126" s="21"/>
-      <c r="N126" s="21"/>
-      <c r="O126" s="21"/>
-      <c r="P126" s="21"/>
-      <c r="Q126" s="21"/>
-      <c r="R126" s="21"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="24"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="24"/>
+      <c r="H126" s="24"/>
+      <c r="I126" s="24"/>
+      <c r="J126" s="24"/>
+      <c r="K126" s="24"/>
+      <c r="L126" s="24"/>
+      <c r="M126" s="24"/>
+      <c r="N126" s="24"/>
+      <c r="O126" s="24"/>
+      <c r="P126" s="24"/>
+      <c r="Q126" s="24"/>
+      <c r="R126" s="24"/>
       <c r="S126" s="12"/>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.2">
@@ -4026,22 +4050,22 @@
         <f t="shared" si="0"/>
         <v>7E0</v>
       </c>
-      <c r="C127" s="21"/>
-      <c r="D127" s="21"/>
-      <c r="E127" s="21"/>
-      <c r="F127" s="21"/>
-      <c r="G127" s="21"/>
-      <c r="H127" s="21"/>
-      <c r="I127" s="21"/>
-      <c r="J127" s="21"/>
-      <c r="K127" s="21"/>
-      <c r="L127" s="21"/>
-      <c r="M127" s="21"/>
-      <c r="N127" s="21"/>
-      <c r="O127" s="21"/>
-      <c r="P127" s="21"/>
-      <c r="Q127" s="21"/>
-      <c r="R127" s="21"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="24"/>
+      <c r="F127" s="24"/>
+      <c r="G127" s="24"/>
+      <c r="H127" s="24"/>
+      <c r="I127" s="24"/>
+      <c r="J127" s="24"/>
+      <c r="K127" s="24"/>
+      <c r="L127" s="24"/>
+      <c r="M127" s="24"/>
+      <c r="N127" s="24"/>
+      <c r="O127" s="24"/>
+      <c r="P127" s="24"/>
+      <c r="Q127" s="24"/>
+      <c r="R127" s="24"/>
       <c r="S127" s="12"/>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.2">
@@ -4052,22 +4076,22 @@
         <f t="shared" si="0"/>
         <v>7F0</v>
       </c>
-      <c r="C128" s="21"/>
-      <c r="D128" s="21"/>
-      <c r="E128" s="21"/>
-      <c r="F128" s="21"/>
-      <c r="G128" s="21"/>
-      <c r="H128" s="21"/>
-      <c r="I128" s="21"/>
-      <c r="J128" s="21"/>
-      <c r="K128" s="21"/>
-      <c r="L128" s="21"/>
-      <c r="M128" s="21"/>
-      <c r="N128" s="21"/>
-      <c r="O128" s="21"/>
-      <c r="P128" s="21"/>
-      <c r="Q128" s="21"/>
-      <c r="R128" s="21"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="24"/>
+      <c r="F128" s="24"/>
+      <c r="G128" s="24"/>
+      <c r="H128" s="24"/>
+      <c r="I128" s="24"/>
+      <c r="J128" s="24"/>
+      <c r="K128" s="24"/>
+      <c r="L128" s="24"/>
+      <c r="M128" s="24"/>
+      <c r="N128" s="24"/>
+      <c r="O128" s="24"/>
+      <c r="P128" s="24"/>
+      <c r="Q128" s="24"/>
+      <c r="R128" s="24"/>
       <c r="S128" s="12"/>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.2">
@@ -14263,19 +14287,20 @@
       <c r="S520" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="C2:M2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="I3:R3"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="C72:R86"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="L87:R87"/>
-    <mergeCell ref="C88:R88"/>
-    <mergeCell ref="C89:K89"/>
-    <mergeCell ref="L89:R89"/>
+  <mergeCells count="36">
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="K71:R71"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="O49:R49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="O50:R50"/>
+    <mergeCell ref="K35:N35"/>
     <mergeCell ref="C90:R90"/>
     <mergeCell ref="Q92:R92"/>
     <mergeCell ref="O123:R123"/>
@@ -14287,15 +14312,18 @@
     <mergeCell ref="K92:L92"/>
     <mergeCell ref="M92:N92"/>
     <mergeCell ref="C93:G93"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="K71:R71"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C72:R86"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="L87:R87"/>
+    <mergeCell ref="C88:R88"/>
+    <mergeCell ref="C89:K89"/>
+    <mergeCell ref="L89:R89"/>
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="O33:R33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LODEdit/Additional/memory_map.xlsx
+++ b/LODEdit/Additional/memory_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brett\Documents\memcardrex-plugins-LODEdit\LODEdit\Additional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCB2B83-87EF-42E2-8D01-7EB38572046A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F21711-BEA6-4667-9113-FA59BDDD716A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Address</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>Stardust</t>
+  </si>
+  <si>
+    <t>7AB-800 seem random</t>
   </si>
 </sst>
 </file>
@@ -633,8 +636,8 @@
   <dimension ref="A1:T520"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P42" sqref="P42"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S124" sqref="S124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3962,7 +3965,9 @@
       <c r="P123" s="24"/>
       <c r="Q123" s="24"/>
       <c r="R123" s="24"/>
-      <c r="S123" s="12"/>
+      <c r="S123" s="12" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124" s="7">

--- a/LODEdit/Additional/memory_map.xlsx
+++ b/LODEdit/Additional/memory_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brett\Documents\memcardrex-plugins-LODEdit\LODEdit\Additional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F21711-BEA6-4667-9113-FA59BDDD716A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DE4F333-88C1-4B57-AD19-001FC3CF86BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15240" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="128">
   <si>
     <t>Address</t>
   </si>
@@ -75,13 +75,7 @@
     <t>Party Slot 3</t>
   </si>
   <si>
-    <t>S1 LV/D</t>
-  </si>
-  <si>
     <t>Gold</t>
-  </si>
-  <si>
-    <t>LV/D Level + Dragoon LV</t>
   </si>
   <si>
     <t>Time Played</t>
@@ -129,9 +123,6 @@
     <t>Unused Inventory</t>
   </si>
   <si>
-    <t>D. EXP</t>
-  </si>
-  <si>
     <t>D.HP</t>
   </si>
   <si>
@@ -142,9 +133,6 @@
   </si>
   <si>
     <t>D.TSP</t>
-  </si>
-  <si>
-    <t>D. LV/D</t>
   </si>
   <si>
     <t>Dart Equips</t>
@@ -168,14 +156,272 @@
     <t>Stardust</t>
   </si>
   <si>
-    <t>7AB-800 seem random</t>
+    <t>Rose Exp</t>
+  </si>
+  <si>
+    <t>Meru Exp</t>
+  </si>
+  <si>
+    <t>Shana Exp</t>
+  </si>
+  <si>
+    <t>Haschel Exp</t>
+  </si>
+  <si>
+    <t>Albert Exp</t>
+  </si>
+  <si>
+    <t>Kongol Exp</t>
+  </si>
+  <si>
+    <t>Dart Exp</t>
+  </si>
+  <si>
+    <t>A.HP</t>
+  </si>
+  <si>
+    <t>H.HP</t>
+  </si>
+  <si>
+    <t>M.HP</t>
+  </si>
+  <si>
+    <t>S.HP</t>
+  </si>
+  <si>
+    <t>R.HP</t>
+  </si>
+  <si>
+    <t>K.HP</t>
+  </si>
+  <si>
+    <t>Dart HP</t>
+  </si>
+  <si>
+    <t>Dart Max HP</t>
+  </si>
+  <si>
+    <t>Lavitz Exp</t>
+  </si>
+  <si>
+    <t>L.HP</t>
+  </si>
+  <si>
+    <t>L.MP</t>
+  </si>
+  <si>
+    <t>L.SP</t>
+  </si>
+  <si>
+    <t>L.DLv</t>
+  </si>
+  <si>
+    <t>L.Lv</t>
+  </si>
+  <si>
+    <t>L.TSP</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D.Lv</t>
+  </si>
+  <si>
+    <t>D.DLv</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>S.Mp</t>
+  </si>
+  <si>
+    <t>S.SP</t>
+  </si>
+  <si>
+    <t>S.TSP</t>
+  </si>
+  <si>
+    <t>S.Lv</t>
+  </si>
+  <si>
+    <t>S.DLv</t>
+  </si>
+  <si>
+    <t>R.MP</t>
+  </si>
+  <si>
+    <t>R.SP</t>
+  </si>
+  <si>
+    <t>R.TSP</t>
+  </si>
+  <si>
+    <t>R.Lv</t>
+  </si>
+  <si>
+    <t>R.DLv</t>
+  </si>
+  <si>
+    <t>H.MP</t>
+  </si>
+  <si>
+    <t>H.SP</t>
+  </si>
+  <si>
+    <t>H.TSP</t>
+  </si>
+  <si>
+    <t>H.Lv</t>
+  </si>
+  <si>
+    <t>H.DLv</t>
+  </si>
+  <si>
+    <t>A.MP</t>
+  </si>
+  <si>
+    <t>A.SP</t>
+  </si>
+  <si>
+    <t>A.TSP</t>
+  </si>
+  <si>
+    <t>A.Lv</t>
+  </si>
+  <si>
+    <t>A.DLv</t>
+  </si>
+  <si>
+    <t>M.MP</t>
+  </si>
+  <si>
+    <t>M.SP</t>
+  </si>
+  <si>
+    <t>M.TSP</t>
+  </si>
+  <si>
+    <t>M.Lv</t>
+  </si>
+  <si>
+    <t>M.DLv</t>
+  </si>
+  <si>
+    <t>K.MP</t>
+  </si>
+  <si>
+    <t>K.SP</t>
+  </si>
+  <si>
+    <t>K.TSP</t>
+  </si>
+  <si>
+    <t>7AB-800 seem random, checksum?</t>
+  </si>
+  <si>
+    <t>K.Lv</t>
+  </si>
+  <si>
+    <t>K.DLv</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>Miranda Exp</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -220,8 +466,21 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,6 +559,126 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -313,7 +692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -371,32 +750,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -405,16 +785,118 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,8 +1118,8 @@
   <dimension ref="A1:T520"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S124" sqref="S124"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -704,7 +1186,7 @@
         <v>7</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -715,29 +1197,29 @@
         <f t="shared" ref="B2:B520" si="0">DEC2HEX(A2)</f>
         <v>10</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
       <c r="S2" s="6"/>
       <c r="T2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -748,26 +1230,26 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="26" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
       <c r="S3" s="6"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -1540,18 +2022,18 @@
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
-      <c r="K33" s="26" t="s">
+      <c r="K33" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="27" t="s">
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
       <c r="S33" s="12"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
@@ -1562,31 +2044,35 @@
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="24"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="H34" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="I34" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="J34" s="48"/>
+      <c r="K34" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="L34" s="47"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
-      <c r="O34" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="O34" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="16"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
@@ -1596,30 +2082,30 @@
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-      <c r="C35" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
+      <c r="C35" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
       <c r="G35" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
-      <c r="K35" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="38"/>
+      <c r="K35" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="25"/>
       <c r="P35" s="20"/>
       <c r="Q35" s="20"/>
       <c r="R35" s="20"/>
       <c r="S35" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
@@ -1976,18 +2462,18 @@
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
-      <c r="K49" s="26" t="s">
+      <c r="K49" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L49" s="24"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="27" t="s">
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="24"/>
-      <c r="R49" s="24"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
       <c r="S49" s="12"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
@@ -1998,28 +2484,28 @@
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
-      <c r="O50" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="P50" s="37"/>
-      <c r="Q50" s="37"/>
-      <c r="R50" s="37"/>
+      <c r="O50" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="P50" s="33"/>
+      <c r="Q50" s="33"/>
+      <c r="R50" s="33"/>
       <c r="S50" s="12"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
@@ -2030,14 +2516,14 @@
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="C51" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
+      <c r="C51" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
       <c r="G51" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
@@ -2051,7 +2537,7 @@
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
       <c r="S51" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
@@ -2066,10 +2552,10 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
-      <c r="G52" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H52" s="24"/>
+      <c r="G52" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" s="27"/>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
       <c r="L52" s="10"/>
@@ -2080,7 +2566,7 @@
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
       <c r="S52" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
@@ -2214,7 +2700,7 @@
       <c r="Q57" s="10"/>
       <c r="R57" s="10"/>
       <c r="S57" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
@@ -2516,7 +3002,7 @@
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
       <c r="G69" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
@@ -2530,7 +3016,7 @@
       <c r="Q69" s="10"/>
       <c r="R69" s="10"/>
       <c r="S69" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
@@ -2576,19 +3062,19 @@
       </c>
       <c r="H71" s="10"/>
       <c r="I71" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J71" s="10"/>
-      <c r="K71" s="29"/>
-      <c r="L71" s="24"/>
-      <c r="M71" s="24"/>
-      <c r="N71" s="24"/>
-      <c r="O71" s="24"/>
-      <c r="P71" s="24"/>
-      <c r="Q71" s="24"/>
-      <c r="R71" s="24"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="27"/>
+      <c r="M71" s="27"/>
+      <c r="N71" s="27"/>
+      <c r="O71" s="27"/>
+      <c r="P71" s="27"/>
+      <c r="Q71" s="27"/>
+      <c r="R71" s="27"/>
       <c r="S71" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.2">
@@ -2599,24 +3085,24 @@
         <f t="shared" si="0"/>
         <v>470</v>
       </c>
-      <c r="C72" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D72" s="24"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24"/>
-      <c r="I72" s="24"/>
-      <c r="J72" s="24"/>
-      <c r="K72" s="24"/>
-      <c r="L72" s="24"/>
-      <c r="M72" s="24"/>
-      <c r="N72" s="24"/>
-      <c r="O72" s="24"/>
-      <c r="P72" s="24"/>
-      <c r="Q72" s="24"/>
-      <c r="R72" s="24"/>
+      <c r="C72" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="27"/>
+      <c r="K72" s="27"/>
+      <c r="L72" s="27"/>
+      <c r="M72" s="27"/>
+      <c r="N72" s="27"/>
+      <c r="O72" s="27"/>
+      <c r="P72" s="27"/>
+      <c r="Q72" s="27"/>
+      <c r="R72" s="27"/>
       <c r="S72" s="12"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
@@ -2627,22 +3113,22 @@
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="24"/>
-      <c r="K73" s="24"/>
-      <c r="L73" s="24"/>
-      <c r="M73" s="24"/>
-      <c r="N73" s="24"/>
-      <c r="O73" s="24"/>
-      <c r="P73" s="24"/>
-      <c r="Q73" s="24"/>
-      <c r="R73" s="24"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="27"/>
+      <c r="L73" s="27"/>
+      <c r="M73" s="27"/>
+      <c r="N73" s="27"/>
+      <c r="O73" s="27"/>
+      <c r="P73" s="27"/>
+      <c r="Q73" s="27"/>
+      <c r="R73" s="27"/>
       <c r="S73" s="12"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
@@ -2653,22 +3139,22 @@
         <f t="shared" si="0"/>
         <v>490</v>
       </c>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="24"/>
-      <c r="I74" s="24"/>
-      <c r="J74" s="24"/>
-      <c r="K74" s="24"/>
-      <c r="L74" s="24"/>
-      <c r="M74" s="24"/>
-      <c r="N74" s="24"/>
-      <c r="O74" s="24"/>
-      <c r="P74" s="24"/>
-      <c r="Q74" s="24"/>
-      <c r="R74" s="24"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="27"/>
+      <c r="L74" s="27"/>
+      <c r="M74" s="27"/>
+      <c r="N74" s="27"/>
+      <c r="O74" s="27"/>
+      <c r="P74" s="27"/>
+      <c r="Q74" s="27"/>
+      <c r="R74" s="27"/>
       <c r="S74" s="12"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
@@ -2679,22 +3165,22 @@
         <f t="shared" si="0"/>
         <v>4A0</v>
       </c>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="24"/>
-      <c r="J75" s="24"/>
-      <c r="K75" s="24"/>
-      <c r="L75" s="24"/>
-      <c r="M75" s="24"/>
-      <c r="N75" s="24"/>
-      <c r="O75" s="24"/>
-      <c r="P75" s="24"/>
-      <c r="Q75" s="24"/>
-      <c r="R75" s="24"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="27"/>
+      <c r="L75" s="27"/>
+      <c r="M75" s="27"/>
+      <c r="N75" s="27"/>
+      <c r="O75" s="27"/>
+      <c r="P75" s="27"/>
+      <c r="Q75" s="27"/>
+      <c r="R75" s="27"/>
       <c r="S75" s="12"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
@@ -2705,22 +3191,22 @@
         <f t="shared" si="0"/>
         <v>4B0</v>
       </c>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="24"/>
-      <c r="K76" s="24"/>
-      <c r="L76" s="24"/>
-      <c r="M76" s="24"/>
-      <c r="N76" s="24"/>
-      <c r="O76" s="24"/>
-      <c r="P76" s="24"/>
-      <c r="Q76" s="24"/>
-      <c r="R76" s="24"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="27"/>
+      <c r="L76" s="27"/>
+      <c r="M76" s="27"/>
+      <c r="N76" s="27"/>
+      <c r="O76" s="27"/>
+      <c r="P76" s="27"/>
+      <c r="Q76" s="27"/>
+      <c r="R76" s="27"/>
       <c r="S76" s="12"/>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
@@ -2731,22 +3217,22 @@
         <f t="shared" si="0"/>
         <v>4C0</v>
       </c>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="24"/>
-      <c r="J77" s="24"/>
-      <c r="K77" s="24"/>
-      <c r="L77" s="24"/>
-      <c r="M77" s="24"/>
-      <c r="N77" s="24"/>
-      <c r="O77" s="24"/>
-      <c r="P77" s="24"/>
-      <c r="Q77" s="24"/>
-      <c r="R77" s="24"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="27"/>
+      <c r="L77" s="27"/>
+      <c r="M77" s="27"/>
+      <c r="N77" s="27"/>
+      <c r="O77" s="27"/>
+      <c r="P77" s="27"/>
+      <c r="Q77" s="27"/>
+      <c r="R77" s="27"/>
       <c r="S77" s="12"/>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.2">
@@ -2757,22 +3243,22 @@
         <f t="shared" si="0"/>
         <v>4D0</v>
       </c>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
-      <c r="J78" s="24"/>
-      <c r="K78" s="24"/>
-      <c r="L78" s="24"/>
-      <c r="M78" s="24"/>
-      <c r="N78" s="24"/>
-      <c r="O78" s="24"/>
-      <c r="P78" s="24"/>
-      <c r="Q78" s="24"/>
-      <c r="R78" s="24"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="27"/>
+      <c r="K78" s="27"/>
+      <c r="L78" s="27"/>
+      <c r="M78" s="27"/>
+      <c r="N78" s="27"/>
+      <c r="O78" s="27"/>
+      <c r="P78" s="27"/>
+      <c r="Q78" s="27"/>
+      <c r="R78" s="27"/>
       <c r="S78" s="12"/>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.2">
@@ -2783,22 +3269,22 @@
         <f t="shared" si="0"/>
         <v>4E0</v>
       </c>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="24"/>
-      <c r="J79" s="24"/>
-      <c r="K79" s="24"/>
-      <c r="L79" s="24"/>
-      <c r="M79" s="24"/>
-      <c r="N79" s="24"/>
-      <c r="O79" s="24"/>
-      <c r="P79" s="24"/>
-      <c r="Q79" s="24"/>
-      <c r="R79" s="24"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="27"/>
+      <c r="J79" s="27"/>
+      <c r="K79" s="27"/>
+      <c r="L79" s="27"/>
+      <c r="M79" s="27"/>
+      <c r="N79" s="27"/>
+      <c r="O79" s="27"/>
+      <c r="P79" s="27"/>
+      <c r="Q79" s="27"/>
+      <c r="R79" s="27"/>
       <c r="S79" s="12"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.2">
@@ -2809,22 +3295,22 @@
         <f t="shared" si="0"/>
         <v>4F0</v>
       </c>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="24"/>
-      <c r="I80" s="24"/>
-      <c r="J80" s="24"/>
-      <c r="K80" s="24"/>
-      <c r="L80" s="24"/>
-      <c r="M80" s="24"/>
-      <c r="N80" s="24"/>
-      <c r="O80" s="24"/>
-      <c r="P80" s="24"/>
-      <c r="Q80" s="24"/>
-      <c r="R80" s="24"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="27"/>
+      <c r="K80" s="27"/>
+      <c r="L80" s="27"/>
+      <c r="M80" s="27"/>
+      <c r="N80" s="27"/>
+      <c r="O80" s="27"/>
+      <c r="P80" s="27"/>
+      <c r="Q80" s="27"/>
+      <c r="R80" s="27"/>
       <c r="S80" s="12"/>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.2">
@@ -2835,22 +3321,22 @@
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="24"/>
-      <c r="I81" s="24"/>
-      <c r="J81" s="24"/>
-      <c r="K81" s="24"/>
-      <c r="L81" s="24"/>
-      <c r="M81" s="24"/>
-      <c r="N81" s="24"/>
-      <c r="O81" s="24"/>
-      <c r="P81" s="24"/>
-      <c r="Q81" s="24"/>
-      <c r="R81" s="24"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="27"/>
+      <c r="K81" s="27"/>
+      <c r="L81" s="27"/>
+      <c r="M81" s="27"/>
+      <c r="N81" s="27"/>
+      <c r="O81" s="27"/>
+      <c r="P81" s="27"/>
+      <c r="Q81" s="27"/>
+      <c r="R81" s="27"/>
       <c r="S81" s="12"/>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.2">
@@ -2861,22 +3347,22 @@
         <f t="shared" si="0"/>
         <v>510</v>
       </c>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="24"/>
-      <c r="I82" s="24"/>
-      <c r="J82" s="24"/>
-      <c r="K82" s="24"/>
-      <c r="L82" s="24"/>
-      <c r="M82" s="24"/>
-      <c r="N82" s="24"/>
-      <c r="O82" s="24"/>
-      <c r="P82" s="24"/>
-      <c r="Q82" s="24"/>
-      <c r="R82" s="24"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="27"/>
+      <c r="J82" s="27"/>
+      <c r="K82" s="27"/>
+      <c r="L82" s="27"/>
+      <c r="M82" s="27"/>
+      <c r="N82" s="27"/>
+      <c r="O82" s="27"/>
+      <c r="P82" s="27"/>
+      <c r="Q82" s="27"/>
+      <c r="R82" s="27"/>
       <c r="S82" s="12"/>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.2">
@@ -2887,22 +3373,22 @@
         <f t="shared" si="0"/>
         <v>520</v>
       </c>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="24"/>
-      <c r="K83" s="24"/>
-      <c r="L83" s="24"/>
-      <c r="M83" s="24"/>
-      <c r="N83" s="24"/>
-      <c r="O83" s="24"/>
-      <c r="P83" s="24"/>
-      <c r="Q83" s="24"/>
-      <c r="R83" s="24"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="27"/>
+      <c r="K83" s="27"/>
+      <c r="L83" s="27"/>
+      <c r="M83" s="27"/>
+      <c r="N83" s="27"/>
+      <c r="O83" s="27"/>
+      <c r="P83" s="27"/>
+      <c r="Q83" s="27"/>
+      <c r="R83" s="27"/>
       <c r="S83" s="12"/>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.2">
@@ -2913,22 +3399,22 @@
         <f t="shared" si="0"/>
         <v>530</v>
       </c>
-      <c r="C84" s="24"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="24"/>
-      <c r="I84" s="24"/>
-      <c r="J84" s="24"/>
-      <c r="K84" s="24"/>
-      <c r="L84" s="24"/>
-      <c r="M84" s="24"/>
-      <c r="N84" s="24"/>
-      <c r="O84" s="24"/>
-      <c r="P84" s="24"/>
-      <c r="Q84" s="24"/>
-      <c r="R84" s="24"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="27"/>
+      <c r="J84" s="27"/>
+      <c r="K84" s="27"/>
+      <c r="L84" s="27"/>
+      <c r="M84" s="27"/>
+      <c r="N84" s="27"/>
+      <c r="O84" s="27"/>
+      <c r="P84" s="27"/>
+      <c r="Q84" s="27"/>
+      <c r="R84" s="27"/>
       <c r="S84" s="12"/>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.2">
@@ -2939,22 +3425,22 @@
         <f t="shared" si="0"/>
         <v>540</v>
       </c>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="24"/>
-      <c r="I85" s="24"/>
-      <c r="J85" s="24"/>
-      <c r="K85" s="24"/>
-      <c r="L85" s="24"/>
-      <c r="M85" s="24"/>
-      <c r="N85" s="24"/>
-      <c r="O85" s="24"/>
-      <c r="P85" s="24"/>
-      <c r="Q85" s="24"/>
-      <c r="R85" s="24"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27"/>
+      <c r="I85" s="27"/>
+      <c r="J85" s="27"/>
+      <c r="K85" s="27"/>
+      <c r="L85" s="27"/>
+      <c r="M85" s="27"/>
+      <c r="N85" s="27"/>
+      <c r="O85" s="27"/>
+      <c r="P85" s="27"/>
+      <c r="Q85" s="27"/>
+      <c r="R85" s="27"/>
       <c r="S85" s="12"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.2">
@@ -2965,22 +3451,22 @@
         <f t="shared" si="0"/>
         <v>550</v>
       </c>
-      <c r="C86" s="24"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="24"/>
-      <c r="I86" s="24"/>
-      <c r="J86" s="24"/>
-      <c r="K86" s="24"/>
-      <c r="L86" s="24"/>
-      <c r="M86" s="24"/>
-      <c r="N86" s="24"/>
-      <c r="O86" s="24"/>
-      <c r="P86" s="24"/>
-      <c r="Q86" s="24"/>
-      <c r="R86" s="24"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="27"/>
+      <c r="I86" s="27"/>
+      <c r="J86" s="27"/>
+      <c r="K86" s="27"/>
+      <c r="L86" s="27"/>
+      <c r="M86" s="27"/>
+      <c r="N86" s="27"/>
+      <c r="O86" s="27"/>
+      <c r="P86" s="27"/>
+      <c r="Q86" s="27"/>
+      <c r="R86" s="27"/>
       <c r="S86" s="12"/>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.2">
@@ -2991,22 +3477,22 @@
         <f t="shared" si="0"/>
         <v>560</v>
       </c>
-      <c r="C87" s="29"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24"/>
-      <c r="H87" s="24"/>
-      <c r="I87" s="24"/>
-      <c r="J87" s="24"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="27"/>
+      <c r="J87" s="27"/>
       <c r="K87" s="10"/>
-      <c r="L87" s="30"/>
-      <c r="M87" s="24"/>
-      <c r="N87" s="24"/>
-      <c r="O87" s="24"/>
-      <c r="P87" s="24"/>
-      <c r="Q87" s="24"/>
-      <c r="R87" s="24"/>
+      <c r="L87" s="38"/>
+      <c r="M87" s="27"/>
+      <c r="N87" s="27"/>
+      <c r="O87" s="27"/>
+      <c r="P87" s="27"/>
+      <c r="Q87" s="27"/>
+      <c r="R87" s="27"/>
       <c r="S87" s="12"/>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.2">
@@ -3017,24 +3503,24 @@
         <f t="shared" si="0"/>
         <v>570</v>
       </c>
-      <c r="C88" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="24"/>
-      <c r="J88" s="24"/>
-      <c r="K88" s="24"/>
-      <c r="L88" s="24"/>
-      <c r="M88" s="24"/>
-      <c r="N88" s="24"/>
-      <c r="O88" s="24"/>
-      <c r="P88" s="24"/>
-      <c r="Q88" s="24"/>
-      <c r="R88" s="24"/>
+      <c r="C88" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="27"/>
+      <c r="J88" s="27"/>
+      <c r="K88" s="27"/>
+      <c r="L88" s="27"/>
+      <c r="M88" s="27"/>
+      <c r="N88" s="27"/>
+      <c r="O88" s="27"/>
+      <c r="P88" s="27"/>
+      <c r="Q88" s="27"/>
+      <c r="R88" s="27"/>
       <c r="S88" s="12"/>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.2">
@@ -3045,22 +3531,22 @@
         <f t="shared" si="0"/>
         <v>580</v>
       </c>
-      <c r="C89" s="30"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="24"/>
-      <c r="H89" s="24"/>
-      <c r="I89" s="24"/>
-      <c r="J89" s="24"/>
-      <c r="K89" s="24"/>
-      <c r="L89" s="32"/>
-      <c r="M89" s="24"/>
-      <c r="N89" s="24"/>
-      <c r="O89" s="24"/>
-      <c r="P89" s="24"/>
-      <c r="Q89" s="24"/>
-      <c r="R89" s="24"/>
+      <c r="C89" s="38"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="27"/>
+      <c r="J89" s="27"/>
+      <c r="K89" s="27"/>
+      <c r="L89" s="26"/>
+      <c r="M89" s="27"/>
+      <c r="N89" s="27"/>
+      <c r="O89" s="27"/>
+      <c r="P89" s="27"/>
+      <c r="Q89" s="27"/>
+      <c r="R89" s="27"/>
       <c r="S89" s="12"/>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.2">
@@ -3071,24 +3557,24 @@
         <f t="shared" si="0"/>
         <v>590</v>
       </c>
-      <c r="C90" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D90" s="24"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="24"/>
-      <c r="H90" s="24"/>
-      <c r="I90" s="24"/>
-      <c r="J90" s="24"/>
-      <c r="K90" s="24"/>
-      <c r="L90" s="24"/>
-      <c r="M90" s="24"/>
-      <c r="N90" s="24"/>
-      <c r="O90" s="24"/>
-      <c r="P90" s="24"/>
-      <c r="Q90" s="24"/>
-      <c r="R90" s="24"/>
+      <c r="C90" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="27"/>
+      <c r="I90" s="27"/>
+      <c r="J90" s="27"/>
+      <c r="K90" s="27"/>
+      <c r="L90" s="27"/>
+      <c r="M90" s="27"/>
+      <c r="N90" s="27"/>
+      <c r="O90" s="27"/>
+      <c r="P90" s="27"/>
+      <c r="Q90" s="27"/>
+      <c r="R90" s="27"/>
       <c r="S90" s="12"/>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.2">
@@ -3099,24 +3585,24 @@
         <f t="shared" si="0"/>
         <v>5A0</v>
       </c>
-      <c r="C91" s="32"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="24"/>
-      <c r="I91" s="24"/>
-      <c r="J91" s="24"/>
-      <c r="K91" s="24"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="27"/>
+      <c r="K91" s="27"/>
       <c r="L91" s="10"/>
       <c r="M91" s="10"/>
       <c r="N91" s="10"/>
-      <c r="O91" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="P91" s="24"/>
-      <c r="Q91" s="10"/>
-      <c r="R91" s="10"/>
+      <c r="O91" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="P91" s="45"/>
+      <c r="Q91" s="45"/>
+      <c r="R91" s="45"/>
       <c r="S91" s="12"/>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.2">
@@ -3129,28 +3615,30 @@
       </c>
       <c r="E92" s="10"/>
       <c r="F92" s="10"/>
-      <c r="G92" s="34" t="s">
+      <c r="G92" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="H92" s="27"/>
+      <c r="I92" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="J92" s="27"/>
+      <c r="K92" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="L92" s="27"/>
+      <c r="M92" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="H92" s="24"/>
-      <c r="I92" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="J92" s="24"/>
-      <c r="K92" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="L92" s="24"/>
-      <c r="M92" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="N92" s="24"/>
+      <c r="N92" s="27"/>
       <c r="O92" s="10"/>
       <c r="P92" s="10"/>
-      <c r="Q92" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="R92" s="24"/>
+      <c r="Q92" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="R92" s="59" t="s">
+        <v>71</v>
+      </c>
       <c r="S92" s="12"/>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.2">
@@ -3161,13 +3649,13 @@
         <f t="shared" si="0"/>
         <v>5C0</v>
       </c>
-      <c r="C93" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D93" s="24"/>
-      <c r="E93" s="24"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="24"/>
+      <c r="C93" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="27"/>
       <c r="H93" s="10"/>
       <c r="I93" s="10"/>
       <c r="J93" s="10"/>
@@ -3178,13 +3666,13 @@
       <c r="O93" s="10"/>
       <c r="P93" s="10"/>
       <c r="Q93" s="19" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R93" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="S93" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.2">
@@ -3195,18 +3683,30 @@
         <f t="shared" si="0"/>
         <v>5D0</v>
       </c>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
+      <c r="C94" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F94" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G94" s="17" t="s">
+        <v>69</v>
+      </c>
       <c r="H94" s="10"/>
       <c r="I94" s="10"/>
       <c r="J94" s="10"/>
-      <c r="K94" s="10"/>
-      <c r="L94" s="10"/>
-      <c r="M94" s="10"/>
-      <c r="N94" s="10"/>
+      <c r="K94" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="L94" s="43"/>
+      <c r="M94" s="43"/>
+      <c r="N94" s="43"/>
       <c r="O94" s="10"/>
       <c r="P94" s="10"/>
       <c r="Q94" s="10"/>
@@ -3221,18 +3721,30 @@
         <f t="shared" si="0"/>
         <v>5E0</v>
       </c>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="10"/>
-      <c r="J95" s="10"/>
-      <c r="K95" s="10"/>
-      <c r="L95" s="10"/>
-      <c r="M95" s="10"/>
-      <c r="N95" s="10"/>
+      <c r="C95" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D95" s="43"/>
+      <c r="E95" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="F95" s="55"/>
+      <c r="G95" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="H95" s="56"/>
+      <c r="I95" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="J95" s="55"/>
+      <c r="K95" s="22"/>
+      <c r="L95" s="22"/>
+      <c r="M95" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="N95" s="54" t="s">
+        <v>60</v>
+      </c>
       <c r="O95" s="10"/>
       <c r="P95" s="10"/>
       <c r="Q95" s="10"/>
@@ -3257,9 +3769,15 @@
       <c r="J96" s="10"/>
       <c r="K96" s="10"/>
       <c r="L96" s="10"/>
-      <c r="M96" s="10"/>
-      <c r="N96" s="10"/>
-      <c r="O96" s="10"/>
+      <c r="M96" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="N96" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="O96" s="23" t="s">
+        <v>72</v>
+      </c>
       <c r="P96" s="10"/>
       <c r="Q96" s="10"/>
       <c r="R96" s="10"/>
@@ -3277,18 +3795,24 @@
       <c r="D97" s="10"/>
       <c r="E97" s="10"/>
       <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="10"/>
-      <c r="I97" s="10"/>
-      <c r="J97" s="10"/>
+      <c r="G97" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="H97" s="42"/>
+      <c r="I97" s="42"/>
+      <c r="J97" s="42"/>
       <c r="K97" s="10"/>
       <c r="L97" s="10"/>
       <c r="M97" s="10"/>
       <c r="N97" s="10"/>
-      <c r="O97" s="10"/>
-      <c r="P97" s="10"/>
-      <c r="Q97" s="10"/>
-      <c r="R97" s="10"/>
+      <c r="O97" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="P97" s="50"/>
+      <c r="Q97" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="R97" s="61"/>
       <c r="S97" s="12"/>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.2">
@@ -3299,14 +3823,22 @@
         <f t="shared" si="0"/>
         <v>610</v>
       </c>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
+      <c r="C98" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="D98" s="61"/>
+      <c r="E98" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="F98" s="62"/>
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
-      <c r="I98" s="10"/>
-      <c r="J98" s="10"/>
+      <c r="I98" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="J98" s="49" t="s">
+        <v>82</v>
+      </c>
       <c r="K98" s="10"/>
       <c r="L98" s="10"/>
       <c r="M98" s="10"/>
@@ -3351,22 +3883,32 @@
         <f t="shared" si="0"/>
         <v>630</v>
       </c>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
+      <c r="C100" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D100" s="33"/>
+      <c r="E100" s="33"/>
+      <c r="F100" s="33"/>
       <c r="G100" s="10"/>
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
       <c r="J100" s="10"/>
-      <c r="K100" s="10"/>
-      <c r="L100" s="10"/>
-      <c r="M100" s="10"/>
-      <c r="N100" s="10"/>
-      <c r="O100" s="10"/>
-      <c r="P100" s="10"/>
-      <c r="Q100" s="10"/>
-      <c r="R100" s="10"/>
+      <c r="K100" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="L100" s="33"/>
+      <c r="M100" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="N100" s="64"/>
+      <c r="O100" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="P100" s="33"/>
+      <c r="Q100" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="R100" s="64"/>
       <c r="S100" s="12"/>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.2">
@@ -3379,8 +3921,12 @@
       </c>
       <c r="C101" s="10"/>
       <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
+      <c r="E101" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F101" s="65" t="s">
+        <v>87</v>
+      </c>
       <c r="G101" s="10"/>
       <c r="H101" s="10"/>
       <c r="I101" s="10"/>
@@ -3405,20 +3951,30 @@
       </c>
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="10"/>
+      <c r="E102" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="F102" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="G102" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="H102" s="23" t="s">
+        <v>127</v>
+      </c>
       <c r="I102" s="10"/>
       <c r="J102" s="10"/>
       <c r="K102" s="10"/>
       <c r="L102" s="10"/>
       <c r="M102" s="10"/>
       <c r="N102" s="10"/>
-      <c r="O102" s="10"/>
-      <c r="P102" s="10"/>
-      <c r="Q102" s="10"/>
-      <c r="R102" s="10"/>
+      <c r="O102" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="P102" s="33"/>
+      <c r="Q102" s="33"/>
+      <c r="R102" s="33"/>
       <c r="S102" s="12"/>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.2">
@@ -3433,18 +3989,30 @@
       <c r="D103" s="10"/>
       <c r="E103" s="10"/>
       <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="10"/>
-      <c r="I103" s="10"/>
-      <c r="J103" s="10"/>
-      <c r="K103" s="10"/>
-      <c r="L103" s="10"/>
-      <c r="M103" s="10"/>
-      <c r="N103" s="10"/>
+      <c r="G103" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H103" s="33"/>
+      <c r="I103" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="J103" s="64"/>
+      <c r="K103" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="L103" s="33"/>
+      <c r="M103" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="N103" s="64"/>
       <c r="O103" s="10"/>
       <c r="P103" s="10"/>
-      <c r="Q103" s="10"/>
-      <c r="R103" s="10"/>
+      <c r="Q103" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="R103" s="65" t="s">
+        <v>92</v>
+      </c>
       <c r="S103" s="12"/>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
@@ -3469,8 +4037,12 @@
       <c r="N104" s="10"/>
       <c r="O104" s="10"/>
       <c r="P104" s="10"/>
-      <c r="Q104" s="10"/>
-      <c r="R104" s="10"/>
+      <c r="Q104" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="R104" s="23" t="s">
+        <v>119</v>
+      </c>
       <c r="S104" s="12"/>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.2">
@@ -3481,18 +4053,28 @@
         <f t="shared" si="0"/>
         <v>680</v>
       </c>
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
+      <c r="C105" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D105" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E105" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F105" s="23" t="s">
+        <v>123</v>
+      </c>
       <c r="G105" s="10"/>
       <c r="H105" s="10"/>
       <c r="I105" s="10"/>
       <c r="J105" s="10"/>
-      <c r="K105" s="10"/>
-      <c r="L105" s="10"/>
-      <c r="M105" s="10"/>
-      <c r="N105" s="10"/>
+      <c r="K105" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="L105" s="43"/>
+      <c r="M105" s="43"/>
+      <c r="N105" s="43"/>
       <c r="O105" s="10"/>
       <c r="P105" s="10"/>
       <c r="Q105" s="10"/>
@@ -3507,18 +4089,30 @@
         <f t="shared" si="0"/>
         <v>690</v>
       </c>
-      <c r="C106" s="10"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="10"/>
-      <c r="I106" s="10"/>
-      <c r="J106" s="10"/>
+      <c r="C106" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D106" s="43"/>
+      <c r="E106" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="F106" s="55"/>
+      <c r="G106" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="H106" s="43"/>
+      <c r="I106" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="J106" s="55"/>
       <c r="K106" s="10"/>
       <c r="L106" s="10"/>
-      <c r="M106" s="10"/>
-      <c r="N106" s="10"/>
+      <c r="M106" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="N106" s="54" t="s">
+        <v>97</v>
+      </c>
       <c r="O106" s="10"/>
       <c r="P106" s="10"/>
       <c r="Q106" s="10"/>
@@ -3543,11 +4137,21 @@
       <c r="J107" s="10"/>
       <c r="K107" s="10"/>
       <c r="L107" s="10"/>
-      <c r="M107" s="10"/>
-      <c r="N107" s="10"/>
-      <c r="O107" s="10"/>
-      <c r="P107" s="10"/>
-      <c r="Q107" s="10"/>
+      <c r="M107" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="N107" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="O107" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="P107" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q107" s="23" t="s">
+        <v>77</v>
+      </c>
       <c r="R107" s="10"/>
       <c r="S107" s="12"/>
     </row>
@@ -3563,18 +4167,24 @@
       <c r="D108" s="10"/>
       <c r="E108" s="10"/>
       <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="10"/>
-      <c r="I108" s="10"/>
-      <c r="J108" s="10"/>
+      <c r="G108" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="H108" s="41"/>
+      <c r="I108" s="41"/>
+      <c r="J108" s="41"/>
       <c r="K108" s="10"/>
       <c r="L108" s="10"/>
       <c r="M108" s="10"/>
       <c r="N108" s="10"/>
-      <c r="O108" s="10"/>
-      <c r="P108" s="10"/>
-      <c r="Q108" s="10"/>
-      <c r="R108" s="10"/>
+      <c r="O108" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="P108" s="41"/>
+      <c r="Q108" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="R108" s="67"/>
       <c r="S108" s="12"/>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.2">
@@ -3585,14 +4195,22 @@
         <f t="shared" si="0"/>
         <v>6C0</v>
       </c>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
+      <c r="C109" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D109" s="41"/>
+      <c r="E109" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="F109" s="68"/>
       <c r="G109" s="10"/>
       <c r="H109" s="10"/>
-      <c r="I109" s="10"/>
-      <c r="J109" s="10"/>
+      <c r="I109" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="J109" s="70" t="s">
+        <v>102</v>
+      </c>
       <c r="K109" s="10"/>
       <c r="L109" s="10"/>
       <c r="M109" s="10"/>
@@ -3617,11 +4235,21 @@
       <c r="F110" s="10"/>
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
-      <c r="I110" s="10"/>
-      <c r="J110" s="10"/>
-      <c r="K110" s="10"/>
-      <c r="L110" s="10"/>
-      <c r="M110" s="10"/>
+      <c r="I110" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="J110" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="K110" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="L110" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="M110" s="23" t="s">
+        <v>113</v>
+      </c>
       <c r="N110" s="10"/>
       <c r="O110" s="10"/>
       <c r="P110" s="10"/>
@@ -3637,22 +4265,32 @@
         <f t="shared" si="0"/>
         <v>6E0</v>
       </c>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10"/>
+      <c r="C111" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D111" s="44"/>
+      <c r="E111" s="44"/>
+      <c r="F111" s="44"/>
       <c r="G111" s="10"/>
       <c r="H111" s="10"/>
       <c r="I111" s="10"/>
       <c r="J111" s="10"/>
-      <c r="K111" s="10"/>
-      <c r="L111" s="10"/>
-      <c r="M111" s="10"/>
-      <c r="N111" s="10"/>
-      <c r="O111" s="10"/>
-      <c r="P111" s="10"/>
-      <c r="Q111" s="10"/>
-      <c r="R111" s="10"/>
+      <c r="K111" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="L111" s="44"/>
+      <c r="M111" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="N111" s="71"/>
+      <c r="O111" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="P111" s="44"/>
+      <c r="Q111" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="R111" s="71"/>
       <c r="S111" s="12"/>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.2">
@@ -3665,8 +4303,12 @@
       </c>
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
+      <c r="E112" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="F112" s="73" t="s">
+        <v>108</v>
+      </c>
       <c r="G112" s="10"/>
       <c r="H112" s="10"/>
       <c r="I112" s="10"/>
@@ -3691,9 +4333,15 @@
       </c>
       <c r="C113" s="10"/>
       <c r="D113" s="10"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="10"/>
-      <c r="G113" s="10"/>
+      <c r="E113" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="F113" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G113" s="23" t="s">
+        <v>116</v>
+      </c>
       <c r="H113" s="10"/>
       <c r="I113" s="10"/>
       <c r="J113" s="10"/>
@@ -3701,10 +4349,12 @@
       <c r="L113" s="10"/>
       <c r="M113" s="10"/>
       <c r="N113" s="10"/>
-      <c r="O113" s="10"/>
-      <c r="P113" s="10"/>
-      <c r="Q113" s="10"/>
-      <c r="R113" s="10"/>
+      <c r="O113" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="P113" s="50"/>
+      <c r="Q113" s="50"/>
+      <c r="R113" s="50"/>
       <c r="S113" s="12"/>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.2">
@@ -3719,18 +4369,30 @@
       <c r="D114" s="10"/>
       <c r="E114" s="10"/>
       <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
-      <c r="H114" s="10"/>
-      <c r="I114" s="10"/>
-      <c r="J114" s="10"/>
-      <c r="K114" s="10"/>
-      <c r="L114" s="10"/>
-      <c r="M114" s="10"/>
-      <c r="N114" s="10"/>
+      <c r="G114" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="H114" s="74"/>
+      <c r="I114" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="J114" s="61"/>
+      <c r="K114" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="L114" s="50"/>
+      <c r="M114" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="N114" s="61"/>
       <c r="O114" s="10"/>
       <c r="P114" s="10"/>
-      <c r="Q114" s="10"/>
-      <c r="R114" s="10"/>
+      <c r="Q114" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="R114" s="49" t="s">
+        <v>102</v>
+      </c>
       <c r="S114" s="12"/>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.2">
@@ -3961,12 +4623,12 @@
       <c r="L123" s="10"/>
       <c r="M123" s="10"/>
       <c r="N123" s="10"/>
-      <c r="O123" s="33"/>
-      <c r="P123" s="24"/>
-      <c r="Q123" s="24"/>
-      <c r="R123" s="24"/>
+      <c r="O123" s="34"/>
+      <c r="P123" s="27"/>
+      <c r="Q123" s="27"/>
+      <c r="R123" s="27"/>
       <c r="S123" s="12" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.2">
@@ -3977,22 +4639,22 @@
         <f t="shared" si="0"/>
         <v>7B0</v>
       </c>
-      <c r="C124" s="33"/>
-      <c r="D124" s="24"/>
-      <c r="E124" s="24"/>
-      <c r="F124" s="24"/>
-      <c r="G124" s="24"/>
-      <c r="H124" s="24"/>
-      <c r="I124" s="24"/>
-      <c r="J124" s="24"/>
-      <c r="K124" s="24"/>
-      <c r="L124" s="24"/>
-      <c r="M124" s="24"/>
-      <c r="N124" s="24"/>
-      <c r="O124" s="24"/>
-      <c r="P124" s="24"/>
-      <c r="Q124" s="24"/>
-      <c r="R124" s="24"/>
+      <c r="C124" s="34"/>
+      <c r="D124" s="27"/>
+      <c r="E124" s="27"/>
+      <c r="F124" s="27"/>
+      <c r="G124" s="27"/>
+      <c r="H124" s="27"/>
+      <c r="I124" s="27"/>
+      <c r="J124" s="27"/>
+      <c r="K124" s="27"/>
+      <c r="L124" s="27"/>
+      <c r="M124" s="27"/>
+      <c r="N124" s="27"/>
+      <c r="O124" s="27"/>
+      <c r="P124" s="27"/>
+      <c r="Q124" s="27"/>
+      <c r="R124" s="27"/>
       <c r="S124" s="12"/>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.2">
@@ -4003,22 +4665,22 @@
         <f t="shared" si="0"/>
         <v>7C0</v>
       </c>
-      <c r="C125" s="24"/>
-      <c r="D125" s="24"/>
-      <c r="E125" s="24"/>
-      <c r="F125" s="24"/>
-      <c r="G125" s="24"/>
-      <c r="H125" s="24"/>
-      <c r="I125" s="24"/>
-      <c r="J125" s="24"/>
-      <c r="K125" s="24"/>
-      <c r="L125" s="24"/>
-      <c r="M125" s="24"/>
-      <c r="N125" s="24"/>
-      <c r="O125" s="24"/>
-      <c r="P125" s="24"/>
-      <c r="Q125" s="24"/>
-      <c r="R125" s="24"/>
+      <c r="C125" s="27"/>
+      <c r="D125" s="27"/>
+      <c r="E125" s="27"/>
+      <c r="F125" s="27"/>
+      <c r="G125" s="27"/>
+      <c r="H125" s="27"/>
+      <c r="I125" s="27"/>
+      <c r="J125" s="27"/>
+      <c r="K125" s="27"/>
+      <c r="L125" s="27"/>
+      <c r="M125" s="27"/>
+      <c r="N125" s="27"/>
+      <c r="O125" s="27"/>
+      <c r="P125" s="27"/>
+      <c r="Q125" s="27"/>
+      <c r="R125" s="27"/>
       <c r="S125" s="12"/>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.2">
@@ -4029,22 +4691,22 @@
         <f t="shared" si="0"/>
         <v>7D0</v>
       </c>
-      <c r="C126" s="24"/>
-      <c r="D126" s="24"/>
-      <c r="E126" s="24"/>
-      <c r="F126" s="24"/>
-      <c r="G126" s="24"/>
-      <c r="H126" s="24"/>
-      <c r="I126" s="24"/>
-      <c r="J126" s="24"/>
-      <c r="K126" s="24"/>
-      <c r="L126" s="24"/>
-      <c r="M126" s="24"/>
-      <c r="N126" s="24"/>
-      <c r="O126" s="24"/>
-      <c r="P126" s="24"/>
-      <c r="Q126" s="24"/>
-      <c r="R126" s="24"/>
+      <c r="C126" s="27"/>
+      <c r="D126" s="27"/>
+      <c r="E126" s="27"/>
+      <c r="F126" s="27"/>
+      <c r="G126" s="27"/>
+      <c r="H126" s="27"/>
+      <c r="I126" s="27"/>
+      <c r="J126" s="27"/>
+      <c r="K126" s="27"/>
+      <c r="L126" s="27"/>
+      <c r="M126" s="27"/>
+      <c r="N126" s="27"/>
+      <c r="O126" s="27"/>
+      <c r="P126" s="27"/>
+      <c r="Q126" s="27"/>
+      <c r="R126" s="27"/>
       <c r="S126" s="12"/>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.2">
@@ -4055,22 +4717,22 @@
         <f t="shared" si="0"/>
         <v>7E0</v>
       </c>
-      <c r="C127" s="24"/>
-      <c r="D127" s="24"/>
-      <c r="E127" s="24"/>
-      <c r="F127" s="24"/>
-      <c r="G127" s="24"/>
-      <c r="H127" s="24"/>
-      <c r="I127" s="24"/>
-      <c r="J127" s="24"/>
-      <c r="K127" s="24"/>
-      <c r="L127" s="24"/>
-      <c r="M127" s="24"/>
-      <c r="N127" s="24"/>
-      <c r="O127" s="24"/>
-      <c r="P127" s="24"/>
-      <c r="Q127" s="24"/>
-      <c r="R127" s="24"/>
+      <c r="C127" s="27"/>
+      <c r="D127" s="27"/>
+      <c r="E127" s="27"/>
+      <c r="F127" s="27"/>
+      <c r="G127" s="27"/>
+      <c r="H127" s="27"/>
+      <c r="I127" s="27"/>
+      <c r="J127" s="27"/>
+      <c r="K127" s="27"/>
+      <c r="L127" s="27"/>
+      <c r="M127" s="27"/>
+      <c r="N127" s="27"/>
+      <c r="O127" s="27"/>
+      <c r="P127" s="27"/>
+      <c r="Q127" s="27"/>
+      <c r="R127" s="27"/>
       <c r="S127" s="12"/>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.2">
@@ -4081,22 +4743,22 @@
         <f t="shared" si="0"/>
         <v>7F0</v>
       </c>
-      <c r="C128" s="24"/>
-      <c r="D128" s="24"/>
-      <c r="E128" s="24"/>
-      <c r="F128" s="24"/>
-      <c r="G128" s="24"/>
-      <c r="H128" s="24"/>
-      <c r="I128" s="24"/>
-      <c r="J128" s="24"/>
-      <c r="K128" s="24"/>
-      <c r="L128" s="24"/>
-      <c r="M128" s="24"/>
-      <c r="N128" s="24"/>
-      <c r="O128" s="24"/>
-      <c r="P128" s="24"/>
-      <c r="Q128" s="24"/>
-      <c r="R128" s="24"/>
+      <c r="C128" s="27"/>
+      <c r="D128" s="27"/>
+      <c r="E128" s="27"/>
+      <c r="F128" s="27"/>
+      <c r="G128" s="27"/>
+      <c r="H128" s="27"/>
+      <c r="I128" s="27"/>
+      <c r="J128" s="27"/>
+      <c r="K128" s="27"/>
+      <c r="L128" s="27"/>
+      <c r="M128" s="27"/>
+      <c r="N128" s="27"/>
+      <c r="O128" s="27"/>
+      <c r="P128" s="27"/>
+      <c r="Q128" s="27"/>
+      <c r="R128" s="27"/>
       <c r="S128" s="12"/>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.2">
@@ -14292,44 +14954,85 @@
       <c r="S520" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="76">
+    <mergeCell ref="O113:R113"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="I114:J114"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="M114:N114"/>
+    <mergeCell ref="Q108:R108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="M111:N111"/>
+    <mergeCell ref="O111:P111"/>
+    <mergeCell ref="Q111:R111"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="M103:N103"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="O100:P100"/>
+    <mergeCell ref="Q100:R100"/>
+    <mergeCell ref="C111:F111"/>
+    <mergeCell ref="O91:R91"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="O108:P108"/>
+    <mergeCell ref="O97:P97"/>
+    <mergeCell ref="K100:L100"/>
+    <mergeCell ref="K111:L111"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="Q97:R97"/>
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="C72:R86"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="L87:R87"/>
+    <mergeCell ref="C88:R88"/>
+    <mergeCell ref="C89:K89"/>
+    <mergeCell ref="L89:R89"/>
+    <mergeCell ref="C90:R90"/>
+    <mergeCell ref="O123:R123"/>
+    <mergeCell ref="C124:R128"/>
+    <mergeCell ref="C91:K91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="C100:F100"/>
+    <mergeCell ref="G108:J108"/>
+    <mergeCell ref="G97:J97"/>
+    <mergeCell ref="O102:R102"/>
+    <mergeCell ref="K105:N105"/>
     <mergeCell ref="G50:J50"/>
     <mergeCell ref="C51:F51"/>
     <mergeCell ref="G52:H52"/>
     <mergeCell ref="K71:R71"/>
     <mergeCell ref="O34:R34"/>
     <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:H34"/>
     <mergeCell ref="C35:F35"/>
     <mergeCell ref="K49:N49"/>
     <mergeCell ref="O49:R49"/>
     <mergeCell ref="C50:F50"/>
     <mergeCell ref="O50:R50"/>
     <mergeCell ref="K35:N35"/>
-    <mergeCell ref="C90:R90"/>
-    <mergeCell ref="Q92:R92"/>
-    <mergeCell ref="O123:R123"/>
-    <mergeCell ref="C124:R128"/>
-    <mergeCell ref="C91:K91"/>
-    <mergeCell ref="O91:P91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="K92:L92"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="C72:R86"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="L87:R87"/>
-    <mergeCell ref="C88:R88"/>
-    <mergeCell ref="C89:K89"/>
-    <mergeCell ref="L89:R89"/>
-    <mergeCell ref="C2:M2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="I3:R3"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LODEdit/Additional/memory_map.xlsx
+++ b/LODEdit/Additional/memory_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brett\Documents\memcardrex-plugins-LODEdit\LODEdit\Additional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DE4F333-88C1-4B57-AD19-001FC3CF86BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9264AA86-98F9-4BAA-BA7A-0680EAD3E29A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15240" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="130">
   <si>
     <t>Address</t>
   </si>
@@ -416,6 +416,12 @@
   <si>
     <t>R4</t>
   </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
 </sst>
 </file>
 
@@ -692,7 +698,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -757,87 +763,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -846,22 +776,10 @@
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -870,10 +788,31 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -888,13 +827,83 @@
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1118,8 +1127,8 @@
   <dimension ref="A1:T520"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J101" sqref="J101"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S99" sqref="S99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1197,26 +1206,26 @@
         <f t="shared" ref="B2:B520" si="0">DEC2HEX(A2)</f>
         <v>10</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="40" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
       <c r="S2" s="6"/>
       <c r="T2" t="s">
         <v>39</v>
@@ -1230,26 +1239,26 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="32" t="s">
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
       <c r="S3" s="6"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -2022,18 +2031,18 @@
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
-      <c r="K33" s="32" t="s">
+      <c r="K33" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="29" t="s">
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="61"/>
+      <c r="R33" s="61"/>
       <c r="S33" s="12"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
@@ -2044,34 +2053,34 @@
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="46" t="s">
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="H34" s="60" t="s">
+      <c r="H34" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="I34" s="48" t="s">
+      <c r="I34" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="J34" s="48"/>
-      <c r="K34" s="47" t="s">
+      <c r="J34" s="75"/>
+      <c r="K34" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="L34" s="47"/>
+      <c r="L34" s="76"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
-      <c r="O34" s="26" t="s">
+      <c r="O34" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="27"/>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="61"/>
+      <c r="R34" s="61"/>
       <c r="S34" s="16"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -2082,24 +2091,24 @@
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
       <c r="G35" s="17" t="s">
         <v>16</v>
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
-      <c r="K35" s="33" t="s">
+      <c r="K35" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
       <c r="O35" s="25"/>
       <c r="P35" s="20"/>
       <c r="Q35" s="20"/>
@@ -2462,18 +2471,18 @@
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
-      <c r="K49" s="32" t="s">
+      <c r="K49" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="29" t="s">
+      <c r="L49" s="61"/>
+      <c r="M49" s="61"/>
+      <c r="N49" s="61"/>
+      <c r="O49" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="27"/>
-      <c r="R49" s="27"/>
+      <c r="P49" s="61"/>
+      <c r="Q49" s="61"/>
+      <c r="R49" s="61"/>
       <c r="S49" s="12"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
@@ -2484,28 +2493,28 @@
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="26" t="s">
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="61"/>
+      <c r="J50" s="61"/>
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
-      <c r="O50" s="33" t="s">
+      <c r="O50" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="P50" s="33"/>
-      <c r="Q50" s="33"/>
-      <c r="R50" s="33"/>
+      <c r="P50" s="51"/>
+      <c r="Q50" s="51"/>
+      <c r="R50" s="51"/>
       <c r="S50" s="12"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
@@ -2516,12 +2525,12 @@
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C51" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61"/>
       <c r="G51" s="5" t="s">
         <v>18</v>
       </c>
@@ -2552,10 +2561,10 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
-      <c r="G52" s="29" t="s">
+      <c r="G52" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="H52" s="27"/>
+      <c r="H52" s="61"/>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
       <c r="L52" s="10"/>
@@ -3065,14 +3074,14 @@
         <v>25</v>
       </c>
       <c r="J71" s="10"/>
-      <c r="K71" s="28"/>
-      <c r="L71" s="27"/>
-      <c r="M71" s="27"/>
-      <c r="N71" s="27"/>
-      <c r="O71" s="27"/>
-      <c r="P71" s="27"/>
-      <c r="Q71" s="27"/>
-      <c r="R71" s="27"/>
+      <c r="K71" s="66"/>
+      <c r="L71" s="61"/>
+      <c r="M71" s="61"/>
+      <c r="N71" s="61"/>
+      <c r="O71" s="61"/>
+      <c r="P71" s="61"/>
+      <c r="Q71" s="61"/>
+      <c r="R71" s="61"/>
       <c r="S71" s="16" t="s">
         <v>26</v>
       </c>
@@ -3085,24 +3094,24 @@
         <f t="shared" si="0"/>
         <v>470</v>
       </c>
-      <c r="C72" s="37" t="s">
+      <c r="C72" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="27"/>
-      <c r="J72" s="27"/>
-      <c r="K72" s="27"/>
-      <c r="L72" s="27"/>
-      <c r="M72" s="27"/>
-      <c r="N72" s="27"/>
-      <c r="O72" s="27"/>
-      <c r="P72" s="27"/>
-      <c r="Q72" s="27"/>
-      <c r="R72" s="27"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="61"/>
+      <c r="H72" s="61"/>
+      <c r="I72" s="61"/>
+      <c r="J72" s="61"/>
+      <c r="K72" s="61"/>
+      <c r="L72" s="61"/>
+      <c r="M72" s="61"/>
+      <c r="N72" s="61"/>
+      <c r="O72" s="61"/>
+      <c r="P72" s="61"/>
+      <c r="Q72" s="61"/>
+      <c r="R72" s="61"/>
       <c r="S72" s="12"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
@@ -3113,22 +3122,22 @@
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="27"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="27"/>
-      <c r="L73" s="27"/>
-      <c r="M73" s="27"/>
-      <c r="N73" s="27"/>
-      <c r="O73" s="27"/>
-      <c r="P73" s="27"/>
-      <c r="Q73" s="27"/>
-      <c r="R73" s="27"/>
+      <c r="C73" s="61"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="61"/>
+      <c r="F73" s="61"/>
+      <c r="G73" s="61"/>
+      <c r="H73" s="61"/>
+      <c r="I73" s="61"/>
+      <c r="J73" s="61"/>
+      <c r="K73" s="61"/>
+      <c r="L73" s="61"/>
+      <c r="M73" s="61"/>
+      <c r="N73" s="61"/>
+      <c r="O73" s="61"/>
+      <c r="P73" s="61"/>
+      <c r="Q73" s="61"/>
+      <c r="R73" s="61"/>
       <c r="S73" s="12"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
@@ -3139,22 +3148,22 @@
         <f t="shared" si="0"/>
         <v>490</v>
       </c>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="27"/>
-      <c r="I74" s="27"/>
-      <c r="J74" s="27"/>
-      <c r="K74" s="27"/>
-      <c r="L74" s="27"/>
-      <c r="M74" s="27"/>
-      <c r="N74" s="27"/>
-      <c r="O74" s="27"/>
-      <c r="P74" s="27"/>
-      <c r="Q74" s="27"/>
-      <c r="R74" s="27"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="61"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="61"/>
+      <c r="G74" s="61"/>
+      <c r="H74" s="61"/>
+      <c r="I74" s="61"/>
+      <c r="J74" s="61"/>
+      <c r="K74" s="61"/>
+      <c r="L74" s="61"/>
+      <c r="M74" s="61"/>
+      <c r="N74" s="61"/>
+      <c r="O74" s="61"/>
+      <c r="P74" s="61"/>
+      <c r="Q74" s="61"/>
+      <c r="R74" s="61"/>
       <c r="S74" s="12"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
@@ -3165,22 +3174,22 @@
         <f t="shared" si="0"/>
         <v>4A0</v>
       </c>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="27"/>
-      <c r="I75" s="27"/>
-      <c r="J75" s="27"/>
-      <c r="K75" s="27"/>
-      <c r="L75" s="27"/>
-      <c r="M75" s="27"/>
-      <c r="N75" s="27"/>
-      <c r="O75" s="27"/>
-      <c r="P75" s="27"/>
-      <c r="Q75" s="27"/>
-      <c r="R75" s="27"/>
+      <c r="C75" s="61"/>
+      <c r="D75" s="61"/>
+      <c r="E75" s="61"/>
+      <c r="F75" s="61"/>
+      <c r="G75" s="61"/>
+      <c r="H75" s="61"/>
+      <c r="I75" s="61"/>
+      <c r="J75" s="61"/>
+      <c r="K75" s="61"/>
+      <c r="L75" s="61"/>
+      <c r="M75" s="61"/>
+      <c r="N75" s="61"/>
+      <c r="O75" s="61"/>
+      <c r="P75" s="61"/>
+      <c r="Q75" s="61"/>
+      <c r="R75" s="61"/>
       <c r="S75" s="12"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
@@ -3191,22 +3200,22 @@
         <f t="shared" si="0"/>
         <v>4B0</v>
       </c>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="27"/>
-      <c r="J76" s="27"/>
-      <c r="K76" s="27"/>
-      <c r="L76" s="27"/>
-      <c r="M76" s="27"/>
-      <c r="N76" s="27"/>
-      <c r="O76" s="27"/>
-      <c r="P76" s="27"/>
-      <c r="Q76" s="27"/>
-      <c r="R76" s="27"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+      <c r="G76" s="61"/>
+      <c r="H76" s="61"/>
+      <c r="I76" s="61"/>
+      <c r="J76" s="61"/>
+      <c r="K76" s="61"/>
+      <c r="L76" s="61"/>
+      <c r="M76" s="61"/>
+      <c r="N76" s="61"/>
+      <c r="O76" s="61"/>
+      <c r="P76" s="61"/>
+      <c r="Q76" s="61"/>
+      <c r="R76" s="61"/>
       <c r="S76" s="12"/>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
@@ -3217,22 +3226,22 @@
         <f t="shared" si="0"/>
         <v>4C0</v>
       </c>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="27"/>
-      <c r="J77" s="27"/>
-      <c r="K77" s="27"/>
-      <c r="L77" s="27"/>
-      <c r="M77" s="27"/>
-      <c r="N77" s="27"/>
-      <c r="O77" s="27"/>
-      <c r="P77" s="27"/>
-      <c r="Q77" s="27"/>
-      <c r="R77" s="27"/>
+      <c r="C77" s="61"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="61"/>
+      <c r="F77" s="61"/>
+      <c r="G77" s="61"/>
+      <c r="H77" s="61"/>
+      <c r="I77" s="61"/>
+      <c r="J77" s="61"/>
+      <c r="K77" s="61"/>
+      <c r="L77" s="61"/>
+      <c r="M77" s="61"/>
+      <c r="N77" s="61"/>
+      <c r="O77" s="61"/>
+      <c r="P77" s="61"/>
+      <c r="Q77" s="61"/>
+      <c r="R77" s="61"/>
       <c r="S77" s="12"/>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.2">
@@ -3243,22 +3252,22 @@
         <f t="shared" si="0"/>
         <v>4D0</v>
       </c>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="27"/>
-      <c r="K78" s="27"/>
-      <c r="L78" s="27"/>
-      <c r="M78" s="27"/>
-      <c r="N78" s="27"/>
-      <c r="O78" s="27"/>
-      <c r="P78" s="27"/>
-      <c r="Q78" s="27"/>
-      <c r="R78" s="27"/>
+      <c r="C78" s="61"/>
+      <c r="D78" s="61"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="61"/>
+      <c r="G78" s="61"/>
+      <c r="H78" s="61"/>
+      <c r="I78" s="61"/>
+      <c r="J78" s="61"/>
+      <c r="K78" s="61"/>
+      <c r="L78" s="61"/>
+      <c r="M78" s="61"/>
+      <c r="N78" s="61"/>
+      <c r="O78" s="61"/>
+      <c r="P78" s="61"/>
+      <c r="Q78" s="61"/>
+      <c r="R78" s="61"/>
       <c r="S78" s="12"/>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.2">
@@ -3269,22 +3278,22 @@
         <f t="shared" si="0"/>
         <v>4E0</v>
       </c>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="27"/>
-      <c r="J79" s="27"/>
-      <c r="K79" s="27"/>
-      <c r="L79" s="27"/>
-      <c r="M79" s="27"/>
-      <c r="N79" s="27"/>
-      <c r="O79" s="27"/>
-      <c r="P79" s="27"/>
-      <c r="Q79" s="27"/>
-      <c r="R79" s="27"/>
+      <c r="C79" s="61"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="61"/>
+      <c r="F79" s="61"/>
+      <c r="G79" s="61"/>
+      <c r="H79" s="61"/>
+      <c r="I79" s="61"/>
+      <c r="J79" s="61"/>
+      <c r="K79" s="61"/>
+      <c r="L79" s="61"/>
+      <c r="M79" s="61"/>
+      <c r="N79" s="61"/>
+      <c r="O79" s="61"/>
+      <c r="P79" s="61"/>
+      <c r="Q79" s="61"/>
+      <c r="R79" s="61"/>
       <c r="S79" s="12"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.2">
@@ -3295,22 +3304,22 @@
         <f t="shared" si="0"/>
         <v>4F0</v>
       </c>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="27"/>
-      <c r="J80" s="27"/>
-      <c r="K80" s="27"/>
-      <c r="L80" s="27"/>
-      <c r="M80" s="27"/>
-      <c r="N80" s="27"/>
-      <c r="O80" s="27"/>
-      <c r="P80" s="27"/>
-      <c r="Q80" s="27"/>
-      <c r="R80" s="27"/>
+      <c r="C80" s="61"/>
+      <c r="D80" s="61"/>
+      <c r="E80" s="61"/>
+      <c r="F80" s="61"/>
+      <c r="G80" s="61"/>
+      <c r="H80" s="61"/>
+      <c r="I80" s="61"/>
+      <c r="J80" s="61"/>
+      <c r="K80" s="61"/>
+      <c r="L80" s="61"/>
+      <c r="M80" s="61"/>
+      <c r="N80" s="61"/>
+      <c r="O80" s="61"/>
+      <c r="P80" s="61"/>
+      <c r="Q80" s="61"/>
+      <c r="R80" s="61"/>
       <c r="S80" s="12"/>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.2">
@@ -3321,22 +3330,22 @@
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="27"/>
-      <c r="I81" s="27"/>
-      <c r="J81" s="27"/>
-      <c r="K81" s="27"/>
-      <c r="L81" s="27"/>
-      <c r="M81" s="27"/>
-      <c r="N81" s="27"/>
-      <c r="O81" s="27"/>
-      <c r="P81" s="27"/>
-      <c r="Q81" s="27"/>
-      <c r="R81" s="27"/>
+      <c r="C81" s="61"/>
+      <c r="D81" s="61"/>
+      <c r="E81" s="61"/>
+      <c r="F81" s="61"/>
+      <c r="G81" s="61"/>
+      <c r="H81" s="61"/>
+      <c r="I81" s="61"/>
+      <c r="J81" s="61"/>
+      <c r="K81" s="61"/>
+      <c r="L81" s="61"/>
+      <c r="M81" s="61"/>
+      <c r="N81" s="61"/>
+      <c r="O81" s="61"/>
+      <c r="P81" s="61"/>
+      <c r="Q81" s="61"/>
+      <c r="R81" s="61"/>
       <c r="S81" s="12"/>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.2">
@@ -3347,22 +3356,22 @@
         <f t="shared" si="0"/>
         <v>510</v>
       </c>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="27"/>
-      <c r="J82" s="27"/>
-      <c r="K82" s="27"/>
-      <c r="L82" s="27"/>
-      <c r="M82" s="27"/>
-      <c r="N82" s="27"/>
-      <c r="O82" s="27"/>
-      <c r="P82" s="27"/>
-      <c r="Q82" s="27"/>
-      <c r="R82" s="27"/>
+      <c r="C82" s="61"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+      <c r="G82" s="61"/>
+      <c r="H82" s="61"/>
+      <c r="I82" s="61"/>
+      <c r="J82" s="61"/>
+      <c r="K82" s="61"/>
+      <c r="L82" s="61"/>
+      <c r="M82" s="61"/>
+      <c r="N82" s="61"/>
+      <c r="O82" s="61"/>
+      <c r="P82" s="61"/>
+      <c r="Q82" s="61"/>
+      <c r="R82" s="61"/>
       <c r="S82" s="12"/>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.2">
@@ -3373,22 +3382,22 @@
         <f t="shared" si="0"/>
         <v>520</v>
       </c>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="27"/>
-      <c r="J83" s="27"/>
-      <c r="K83" s="27"/>
-      <c r="L83" s="27"/>
-      <c r="M83" s="27"/>
-      <c r="N83" s="27"/>
-      <c r="O83" s="27"/>
-      <c r="P83" s="27"/>
-      <c r="Q83" s="27"/>
-      <c r="R83" s="27"/>
+      <c r="C83" s="61"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="61"/>
+      <c r="F83" s="61"/>
+      <c r="G83" s="61"/>
+      <c r="H83" s="61"/>
+      <c r="I83" s="61"/>
+      <c r="J83" s="61"/>
+      <c r="K83" s="61"/>
+      <c r="L83" s="61"/>
+      <c r="M83" s="61"/>
+      <c r="N83" s="61"/>
+      <c r="O83" s="61"/>
+      <c r="P83" s="61"/>
+      <c r="Q83" s="61"/>
+      <c r="R83" s="61"/>
       <c r="S83" s="12"/>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.2">
@@ -3399,22 +3408,22 @@
         <f t="shared" si="0"/>
         <v>530</v>
       </c>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="27"/>
-      <c r="J84" s="27"/>
-      <c r="K84" s="27"/>
-      <c r="L84" s="27"/>
-      <c r="M84" s="27"/>
-      <c r="N84" s="27"/>
-      <c r="O84" s="27"/>
-      <c r="P84" s="27"/>
-      <c r="Q84" s="27"/>
-      <c r="R84" s="27"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="61"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="61"/>
+      <c r="G84" s="61"/>
+      <c r="H84" s="61"/>
+      <c r="I84" s="61"/>
+      <c r="J84" s="61"/>
+      <c r="K84" s="61"/>
+      <c r="L84" s="61"/>
+      <c r="M84" s="61"/>
+      <c r="N84" s="61"/>
+      <c r="O84" s="61"/>
+      <c r="P84" s="61"/>
+      <c r="Q84" s="61"/>
+      <c r="R84" s="61"/>
       <c r="S84" s="12"/>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.2">
@@ -3425,22 +3434,22 @@
         <f t="shared" si="0"/>
         <v>540</v>
       </c>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="27"/>
-      <c r="J85" s="27"/>
-      <c r="K85" s="27"/>
-      <c r="L85" s="27"/>
-      <c r="M85" s="27"/>
-      <c r="N85" s="27"/>
-      <c r="O85" s="27"/>
-      <c r="P85" s="27"/>
-      <c r="Q85" s="27"/>
-      <c r="R85" s="27"/>
+      <c r="C85" s="61"/>
+      <c r="D85" s="61"/>
+      <c r="E85" s="61"/>
+      <c r="F85" s="61"/>
+      <c r="G85" s="61"/>
+      <c r="H85" s="61"/>
+      <c r="I85" s="61"/>
+      <c r="J85" s="61"/>
+      <c r="K85" s="61"/>
+      <c r="L85" s="61"/>
+      <c r="M85" s="61"/>
+      <c r="N85" s="61"/>
+      <c r="O85" s="61"/>
+      <c r="P85" s="61"/>
+      <c r="Q85" s="61"/>
+      <c r="R85" s="61"/>
       <c r="S85" s="12"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.2">
@@ -3451,22 +3460,22 @@
         <f t="shared" si="0"/>
         <v>550</v>
       </c>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="27"/>
-      <c r="H86" s="27"/>
-      <c r="I86" s="27"/>
-      <c r="J86" s="27"/>
-      <c r="K86" s="27"/>
-      <c r="L86" s="27"/>
-      <c r="M86" s="27"/>
-      <c r="N86" s="27"/>
-      <c r="O86" s="27"/>
-      <c r="P86" s="27"/>
-      <c r="Q86" s="27"/>
-      <c r="R86" s="27"/>
+      <c r="C86" s="61"/>
+      <c r="D86" s="61"/>
+      <c r="E86" s="61"/>
+      <c r="F86" s="61"/>
+      <c r="G86" s="61"/>
+      <c r="H86" s="61"/>
+      <c r="I86" s="61"/>
+      <c r="J86" s="61"/>
+      <c r="K86" s="61"/>
+      <c r="L86" s="61"/>
+      <c r="M86" s="61"/>
+      <c r="N86" s="61"/>
+      <c r="O86" s="61"/>
+      <c r="P86" s="61"/>
+      <c r="Q86" s="61"/>
+      <c r="R86" s="61"/>
       <c r="S86" s="12"/>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.2">
@@ -3477,22 +3486,22 @@
         <f t="shared" si="0"/>
         <v>560</v>
       </c>
-      <c r="C87" s="28"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="27"/>
-      <c r="I87" s="27"/>
-      <c r="J87" s="27"/>
+      <c r="C87" s="66"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="61"/>
+      <c r="F87" s="61"/>
+      <c r="G87" s="61"/>
+      <c r="H87" s="61"/>
+      <c r="I87" s="61"/>
+      <c r="J87" s="61"/>
       <c r="K87" s="10"/>
-      <c r="L87" s="38"/>
-      <c r="M87" s="27"/>
-      <c r="N87" s="27"/>
-      <c r="O87" s="27"/>
-      <c r="P87" s="27"/>
-      <c r="Q87" s="27"/>
-      <c r="R87" s="27"/>
+      <c r="L87" s="67"/>
+      <c r="M87" s="61"/>
+      <c r="N87" s="61"/>
+      <c r="O87" s="61"/>
+      <c r="P87" s="61"/>
+      <c r="Q87" s="61"/>
+      <c r="R87" s="61"/>
       <c r="S87" s="12"/>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.2">
@@ -3503,24 +3512,24 @@
         <f t="shared" si="0"/>
         <v>570</v>
       </c>
-      <c r="C88" s="39" t="s">
+      <c r="C88" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="27"/>
-      <c r="J88" s="27"/>
-      <c r="K88" s="27"/>
-      <c r="L88" s="27"/>
-      <c r="M88" s="27"/>
-      <c r="N88" s="27"/>
-      <c r="O88" s="27"/>
-      <c r="P88" s="27"/>
-      <c r="Q88" s="27"/>
-      <c r="R88" s="27"/>
+      <c r="D88" s="61"/>
+      <c r="E88" s="61"/>
+      <c r="F88" s="61"/>
+      <c r="G88" s="61"/>
+      <c r="H88" s="61"/>
+      <c r="I88" s="61"/>
+      <c r="J88" s="61"/>
+      <c r="K88" s="61"/>
+      <c r="L88" s="61"/>
+      <c r="M88" s="61"/>
+      <c r="N88" s="61"/>
+      <c r="O88" s="61"/>
+      <c r="P88" s="61"/>
+      <c r="Q88" s="61"/>
+      <c r="R88" s="61"/>
       <c r="S88" s="12"/>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.2">
@@ -3531,22 +3540,22 @@
         <f t="shared" si="0"/>
         <v>580</v>
       </c>
-      <c r="C89" s="38"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="27"/>
-      <c r="I89" s="27"/>
-      <c r="J89" s="27"/>
-      <c r="K89" s="27"/>
-      <c r="L89" s="26"/>
-      <c r="M89" s="27"/>
-      <c r="N89" s="27"/>
-      <c r="O89" s="27"/>
-      <c r="P89" s="27"/>
-      <c r="Q89" s="27"/>
-      <c r="R89" s="27"/>
+      <c r="C89" s="67"/>
+      <c r="D89" s="61"/>
+      <c r="E89" s="61"/>
+      <c r="F89" s="61"/>
+      <c r="G89" s="61"/>
+      <c r="H89" s="61"/>
+      <c r="I89" s="61"/>
+      <c r="J89" s="61"/>
+      <c r="K89" s="61"/>
+      <c r="L89" s="69"/>
+      <c r="M89" s="61"/>
+      <c r="N89" s="61"/>
+      <c r="O89" s="61"/>
+      <c r="P89" s="61"/>
+      <c r="Q89" s="61"/>
+      <c r="R89" s="61"/>
       <c r="S89" s="12"/>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.2">
@@ -3557,24 +3566,24 @@
         <f t="shared" si="0"/>
         <v>590</v>
       </c>
-      <c r="C90" s="26" t="s">
+      <c r="C90" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="D90" s="27"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="27"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="27"/>
-      <c r="I90" s="27"/>
-      <c r="J90" s="27"/>
-      <c r="K90" s="27"/>
-      <c r="L90" s="27"/>
-      <c r="M90" s="27"/>
-      <c r="N90" s="27"/>
-      <c r="O90" s="27"/>
-      <c r="P90" s="27"/>
-      <c r="Q90" s="27"/>
-      <c r="R90" s="27"/>
+      <c r="D90" s="61"/>
+      <c r="E90" s="61"/>
+      <c r="F90" s="61"/>
+      <c r="G90" s="61"/>
+      <c r="H90" s="61"/>
+      <c r="I90" s="61"/>
+      <c r="J90" s="61"/>
+      <c r="K90" s="61"/>
+      <c r="L90" s="61"/>
+      <c r="M90" s="61"/>
+      <c r="N90" s="61"/>
+      <c r="O90" s="61"/>
+      <c r="P90" s="61"/>
+      <c r="Q90" s="61"/>
+      <c r="R90" s="61"/>
       <c r="S90" s="12"/>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.2">
@@ -3585,24 +3594,24 @@
         <f t="shared" si="0"/>
         <v>5A0</v>
       </c>
-      <c r="C91" s="26"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="27"/>
-      <c r="J91" s="27"/>
-      <c r="K91" s="27"/>
+      <c r="C91" s="69"/>
+      <c r="D91" s="61"/>
+      <c r="E91" s="61"/>
+      <c r="F91" s="61"/>
+      <c r="G91" s="61"/>
+      <c r="H91" s="61"/>
+      <c r="I91" s="61"/>
+      <c r="J91" s="61"/>
+      <c r="K91" s="61"/>
       <c r="L91" s="10"/>
       <c r="M91" s="10"/>
       <c r="N91" s="10"/>
-      <c r="O91" s="45" t="s">
+      <c r="O91" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="P91" s="45"/>
-      <c r="Q91" s="45"/>
-      <c r="R91" s="45"/>
+      <c r="P91" s="55"/>
+      <c r="Q91" s="55"/>
+      <c r="R91" s="55"/>
       <c r="S91" s="12"/>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.2">
@@ -3615,28 +3624,28 @@
       </c>
       <c r="E92" s="10"/>
       <c r="F92" s="10"/>
-      <c r="G92" s="35" t="s">
+      <c r="G92" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="H92" s="27"/>
-      <c r="I92" s="31" t="s">
+      <c r="H92" s="61"/>
+      <c r="I92" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="J92" s="27"/>
-      <c r="K92" s="30" t="s">
+      <c r="J92" s="61"/>
+      <c r="K92" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="L92" s="27"/>
-      <c r="M92" s="36" t="s">
+      <c r="L92" s="61"/>
+      <c r="M92" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N92" s="27"/>
+      <c r="N92" s="61"/>
       <c r="O92" s="10"/>
       <c r="P92" s="10"/>
-      <c r="Q92" s="58" t="s">
+      <c r="Q92" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="R92" s="59" t="s">
+      <c r="R92" s="32" t="s">
         <v>71</v>
       </c>
       <c r="S92" s="12"/>
@@ -3649,13 +3658,13 @@
         <f t="shared" si="0"/>
         <v>5C0</v>
       </c>
-      <c r="C93" s="30" t="s">
+      <c r="C93" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="D93" s="27"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
+      <c r="D93" s="61"/>
+      <c r="E93" s="61"/>
+      <c r="F93" s="61"/>
+      <c r="G93" s="61"/>
       <c r="H93" s="10"/>
       <c r="I93" s="10"/>
       <c r="J93" s="10"/>
@@ -3701,12 +3710,12 @@
       <c r="H94" s="10"/>
       <c r="I94" s="10"/>
       <c r="J94" s="10"/>
-      <c r="K94" s="43" t="s">
+      <c r="K94" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="L94" s="43"/>
-      <c r="M94" s="43"/>
-      <c r="N94" s="43"/>
+      <c r="L94" s="53"/>
+      <c r="M94" s="53"/>
+      <c r="N94" s="53"/>
       <c r="O94" s="10"/>
       <c r="P94" s="10"/>
       <c r="Q94" s="10"/>
@@ -3721,28 +3730,28 @@
         <f t="shared" si="0"/>
         <v>5E0</v>
       </c>
-      <c r="C95" s="43" t="s">
+      <c r="C95" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="D95" s="43"/>
-      <c r="E95" s="55" t="s">
+      <c r="D95" s="53"/>
+      <c r="E95" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="F95" s="55"/>
-      <c r="G95" s="56" t="s">
+      <c r="F95" s="52"/>
+      <c r="G95" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="H95" s="56"/>
-      <c r="I95" s="55" t="s">
+      <c r="H95" s="59"/>
+      <c r="I95" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="J95" s="55"/>
+      <c r="J95" s="52"/>
       <c r="K95" s="22"/>
       <c r="L95" s="22"/>
-      <c r="M95" s="57" t="s">
+      <c r="M95" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="N95" s="54" t="s">
+      <c r="N95" s="29" t="s">
         <v>60</v>
       </c>
       <c r="O95" s="10"/>
@@ -3778,8 +3787,12 @@
       <c r="O96" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="P96" s="10"/>
-      <c r="Q96" s="10"/>
+      <c r="P96" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q96" s="26" t="s">
+        <v>129</v>
+      </c>
       <c r="R96" s="10"/>
       <c r="S96" s="12"/>
     </row>
@@ -3795,24 +3808,24 @@
       <c r="D97" s="10"/>
       <c r="E97" s="10"/>
       <c r="F97" s="10"/>
-      <c r="G97" s="42" t="s">
+      <c r="G97" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="H97" s="42"/>
-      <c r="I97" s="42"/>
-      <c r="J97" s="42"/>
+      <c r="H97" s="74"/>
+      <c r="I97" s="74"/>
+      <c r="J97" s="74"/>
       <c r="K97" s="10"/>
       <c r="L97" s="10"/>
       <c r="M97" s="10"/>
       <c r="N97" s="10"/>
-      <c r="O97" s="51" t="s">
+      <c r="O97" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="P97" s="50"/>
-      <c r="Q97" s="61" t="s">
+      <c r="P97" s="42"/>
+      <c r="Q97" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="R97" s="61"/>
+      <c r="R97" s="44"/>
       <c r="S97" s="12"/>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.2">
@@ -3823,20 +3836,20 @@
         <f t="shared" si="0"/>
         <v>610</v>
       </c>
-      <c r="C98" s="61" t="s">
+      <c r="C98" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="D98" s="61"/>
-      <c r="E98" s="62" t="s">
+      <c r="D98" s="44"/>
+      <c r="E98" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="F98" s="62"/>
+      <c r="F98" s="54"/>
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
-      <c r="I98" s="63" t="s">
+      <c r="I98" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="J98" s="49" t="s">
+      <c r="J98" s="28" t="s">
         <v>82</v>
       </c>
       <c r="K98" s="10"/>
@@ -3883,32 +3896,32 @@
         <f t="shared" si="0"/>
         <v>630</v>
       </c>
-      <c r="C100" s="33" t="s">
+      <c r="C100" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="D100" s="33"/>
-      <c r="E100" s="33"/>
-      <c r="F100" s="33"/>
+      <c r="D100" s="51"/>
+      <c r="E100" s="51"/>
+      <c r="F100" s="51"/>
       <c r="G100" s="10"/>
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
       <c r="J100" s="10"/>
-      <c r="K100" s="52" t="s">
+      <c r="K100" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="L100" s="33"/>
-      <c r="M100" s="64" t="s">
+      <c r="L100" s="51"/>
+      <c r="M100" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="N100" s="64"/>
-      <c r="O100" s="33" t="s">
+      <c r="N100" s="50"/>
+      <c r="O100" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P100" s="33"/>
-      <c r="Q100" s="64" t="s">
+      <c r="P100" s="51"/>
+      <c r="Q100" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="R100" s="64"/>
+      <c r="R100" s="50"/>
       <c r="S100" s="12"/>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.2">
@@ -3924,7 +3937,7 @@
       <c r="E101" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="F101" s="65" t="s">
+      <c r="F101" s="35" t="s">
         <v>87</v>
       </c>
       <c r="G101" s="10"/>
@@ -3969,12 +3982,12 @@
       <c r="L102" s="10"/>
       <c r="M102" s="10"/>
       <c r="N102" s="10"/>
-      <c r="O102" s="33" t="s">
+      <c r="O102" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="P102" s="33"/>
-      <c r="Q102" s="33"/>
-      <c r="R102" s="33"/>
+      <c r="P102" s="51"/>
+      <c r="Q102" s="51"/>
+      <c r="R102" s="51"/>
       <c r="S102" s="12"/>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.2">
@@ -3989,28 +4002,28 @@
       <c r="D103" s="10"/>
       <c r="E103" s="10"/>
       <c r="F103" s="10"/>
-      <c r="G103" s="33" t="s">
+      <c r="G103" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="H103" s="33"/>
-      <c r="I103" s="64" t="s">
+      <c r="H103" s="51"/>
+      <c r="I103" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="J103" s="64"/>
-      <c r="K103" s="33" t="s">
+      <c r="J103" s="50"/>
+      <c r="K103" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="L103" s="33"/>
-      <c r="M103" s="64" t="s">
+      <c r="L103" s="51"/>
+      <c r="M103" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="N103" s="64"/>
+      <c r="N103" s="50"/>
       <c r="O103" s="10"/>
       <c r="P103" s="10"/>
       <c r="Q103" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="R103" s="65" t="s">
+      <c r="R103" s="35" t="s">
         <v>92</v>
       </c>
       <c r="S103" s="12"/>
@@ -4069,12 +4082,12 @@
       <c r="H105" s="10"/>
       <c r="I105" s="10"/>
       <c r="J105" s="10"/>
-      <c r="K105" s="43" t="s">
+      <c r="K105" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="L105" s="43"/>
-      <c r="M105" s="43"/>
-      <c r="N105" s="43"/>
+      <c r="L105" s="53"/>
+      <c r="M105" s="53"/>
+      <c r="N105" s="53"/>
       <c r="O105" s="10"/>
       <c r="P105" s="10"/>
       <c r="Q105" s="10"/>
@@ -4089,28 +4102,28 @@
         <f t="shared" si="0"/>
         <v>690</v>
       </c>
-      <c r="C106" s="43" t="s">
+      <c r="C106" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="D106" s="43"/>
-      <c r="E106" s="55" t="s">
+      <c r="D106" s="53"/>
+      <c r="E106" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="F106" s="55"/>
-      <c r="G106" s="43" t="s">
+      <c r="F106" s="52"/>
+      <c r="G106" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="H106" s="43"/>
-      <c r="I106" s="55" t="s">
+      <c r="H106" s="53"/>
+      <c r="I106" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="J106" s="55"/>
+      <c r="J106" s="52"/>
       <c r="K106" s="10"/>
       <c r="L106" s="10"/>
-      <c r="M106" s="66" t="s">
+      <c r="M106" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="N106" s="54" t="s">
+      <c r="N106" s="29" t="s">
         <v>97</v>
       </c>
       <c r="O106" s="10"/>
@@ -4167,24 +4180,24 @@
       <c r="D108" s="10"/>
       <c r="E108" s="10"/>
       <c r="F108" s="10"/>
-      <c r="G108" s="41" t="s">
+      <c r="G108" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="H108" s="41"/>
-      <c r="I108" s="41"/>
-      <c r="J108" s="41"/>
+      <c r="H108" s="46"/>
+      <c r="I108" s="46"/>
+      <c r="J108" s="46"/>
       <c r="K108" s="10"/>
       <c r="L108" s="10"/>
       <c r="M108" s="10"/>
       <c r="N108" s="10"/>
-      <c r="O108" s="41" t="s">
+      <c r="O108" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="P108" s="41"/>
-      <c r="Q108" s="67" t="s">
+      <c r="P108" s="46"/>
+      <c r="Q108" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="R108" s="67"/>
+      <c r="R108" s="45"/>
       <c r="S108" s="12"/>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.2">
@@ -4195,20 +4208,20 @@
         <f t="shared" si="0"/>
         <v>6C0</v>
       </c>
-      <c r="C109" s="41" t="s">
+      <c r="C109" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="D109" s="41"/>
-      <c r="E109" s="68" t="s">
+      <c r="D109" s="46"/>
+      <c r="E109" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="F109" s="68"/>
+      <c r="F109" s="47"/>
       <c r="G109" s="10"/>
       <c r="H109" s="10"/>
-      <c r="I109" s="69" t="s">
+      <c r="I109" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="J109" s="70" t="s">
+      <c r="J109" s="38" t="s">
         <v>102</v>
       </c>
       <c r="K109" s="10"/>
@@ -4265,32 +4278,32 @@
         <f t="shared" si="0"/>
         <v>6E0</v>
       </c>
-      <c r="C111" s="44" t="s">
+      <c r="C111" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D111" s="44"/>
-      <c r="E111" s="44"/>
-      <c r="F111" s="44"/>
+      <c r="D111" s="49"/>
+      <c r="E111" s="49"/>
+      <c r="F111" s="49"/>
       <c r="G111" s="10"/>
       <c r="H111" s="10"/>
       <c r="I111" s="10"/>
       <c r="J111" s="10"/>
-      <c r="K111" s="53" t="s">
+      <c r="K111" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="L111" s="44"/>
-      <c r="M111" s="71" t="s">
+      <c r="L111" s="49"/>
+      <c r="M111" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="N111" s="71"/>
-      <c r="O111" s="44" t="s">
+      <c r="N111" s="48"/>
+      <c r="O111" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="P111" s="44"/>
-      <c r="Q111" s="71" t="s">
+      <c r="P111" s="49"/>
+      <c r="Q111" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="R111" s="71"/>
+      <c r="R111" s="48"/>
       <c r="S111" s="12"/>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.2">
@@ -4303,10 +4316,10 @@
       </c>
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
-      <c r="E112" s="72" t="s">
+      <c r="E112" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="F112" s="73" t="s">
+      <c r="F112" s="40" t="s">
         <v>108</v>
       </c>
       <c r="G112" s="10"/>
@@ -4349,12 +4362,12 @@
       <c r="L113" s="10"/>
       <c r="M113" s="10"/>
       <c r="N113" s="10"/>
-      <c r="O113" s="50" t="s">
+      <c r="O113" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="P113" s="50"/>
-      <c r="Q113" s="50"/>
-      <c r="R113" s="50"/>
+      <c r="P113" s="42"/>
+      <c r="Q113" s="42"/>
+      <c r="R113" s="42"/>
       <c r="S113" s="12"/>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.2">
@@ -4369,28 +4382,28 @@
       <c r="D114" s="10"/>
       <c r="E114" s="10"/>
       <c r="F114" s="10"/>
-      <c r="G114" s="74" t="s">
+      <c r="G114" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="H114" s="74"/>
-      <c r="I114" s="61" t="s">
+      <c r="H114" s="43"/>
+      <c r="I114" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="J114" s="61"/>
-      <c r="K114" s="50" t="s">
+      <c r="J114" s="44"/>
+      <c r="K114" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="L114" s="50"/>
-      <c r="M114" s="61" t="s">
+      <c r="L114" s="42"/>
+      <c r="M114" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="N114" s="61"/>
+      <c r="N114" s="44"/>
       <c r="O114" s="10"/>
       <c r="P114" s="10"/>
-      <c r="Q114" s="75" t="s">
+      <c r="Q114" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="R114" s="49" t="s">
+      <c r="R114" s="28" t="s">
         <v>102</v>
       </c>
       <c r="S114" s="12"/>
@@ -4623,10 +4636,10 @@
       <c r="L123" s="10"/>
       <c r="M123" s="10"/>
       <c r="N123" s="10"/>
-      <c r="O123" s="34"/>
-      <c r="P123" s="27"/>
-      <c r="Q123" s="27"/>
-      <c r="R123" s="27"/>
+      <c r="O123" s="70"/>
+      <c r="P123" s="61"/>
+      <c r="Q123" s="61"/>
+      <c r="R123" s="61"/>
       <c r="S123" s="12" t="s">
         <v>106</v>
       </c>
@@ -4639,22 +4652,22 @@
         <f t="shared" si="0"/>
         <v>7B0</v>
       </c>
-      <c r="C124" s="34"/>
-      <c r="D124" s="27"/>
-      <c r="E124" s="27"/>
-      <c r="F124" s="27"/>
-      <c r="G124" s="27"/>
-      <c r="H124" s="27"/>
-      <c r="I124" s="27"/>
-      <c r="J124" s="27"/>
-      <c r="K124" s="27"/>
-      <c r="L124" s="27"/>
-      <c r="M124" s="27"/>
-      <c r="N124" s="27"/>
-      <c r="O124" s="27"/>
-      <c r="P124" s="27"/>
-      <c r="Q124" s="27"/>
-      <c r="R124" s="27"/>
+      <c r="C124" s="70"/>
+      <c r="D124" s="61"/>
+      <c r="E124" s="61"/>
+      <c r="F124" s="61"/>
+      <c r="G124" s="61"/>
+      <c r="H124" s="61"/>
+      <c r="I124" s="61"/>
+      <c r="J124" s="61"/>
+      <c r="K124" s="61"/>
+      <c r="L124" s="61"/>
+      <c r="M124" s="61"/>
+      <c r="N124" s="61"/>
+      <c r="O124" s="61"/>
+      <c r="P124" s="61"/>
+      <c r="Q124" s="61"/>
+      <c r="R124" s="61"/>
       <c r="S124" s="12"/>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.2">
@@ -4665,22 +4678,22 @@
         <f t="shared" si="0"/>
         <v>7C0</v>
       </c>
-      <c r="C125" s="27"/>
-      <c r="D125" s="27"/>
-      <c r="E125" s="27"/>
-      <c r="F125" s="27"/>
-      <c r="G125" s="27"/>
-      <c r="H125" s="27"/>
-      <c r="I125" s="27"/>
-      <c r="J125" s="27"/>
-      <c r="K125" s="27"/>
-      <c r="L125" s="27"/>
-      <c r="M125" s="27"/>
-      <c r="N125" s="27"/>
-      <c r="O125" s="27"/>
-      <c r="P125" s="27"/>
-      <c r="Q125" s="27"/>
-      <c r="R125" s="27"/>
+      <c r="C125" s="61"/>
+      <c r="D125" s="61"/>
+      <c r="E125" s="61"/>
+      <c r="F125" s="61"/>
+      <c r="G125" s="61"/>
+      <c r="H125" s="61"/>
+      <c r="I125" s="61"/>
+      <c r="J125" s="61"/>
+      <c r="K125" s="61"/>
+      <c r="L125" s="61"/>
+      <c r="M125" s="61"/>
+      <c r="N125" s="61"/>
+      <c r="O125" s="61"/>
+      <c r="P125" s="61"/>
+      <c r="Q125" s="61"/>
+      <c r="R125" s="61"/>
       <c r="S125" s="12"/>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.2">
@@ -4691,22 +4704,22 @@
         <f t="shared" si="0"/>
         <v>7D0</v>
       </c>
-      <c r="C126" s="27"/>
-      <c r="D126" s="27"/>
-      <c r="E126" s="27"/>
-      <c r="F126" s="27"/>
-      <c r="G126" s="27"/>
-      <c r="H126" s="27"/>
-      <c r="I126" s="27"/>
-      <c r="J126" s="27"/>
-      <c r="K126" s="27"/>
-      <c r="L126" s="27"/>
-      <c r="M126" s="27"/>
-      <c r="N126" s="27"/>
-      <c r="O126" s="27"/>
-      <c r="P126" s="27"/>
-      <c r="Q126" s="27"/>
-      <c r="R126" s="27"/>
+      <c r="C126" s="61"/>
+      <c r="D126" s="61"/>
+      <c r="E126" s="61"/>
+      <c r="F126" s="61"/>
+      <c r="G126" s="61"/>
+      <c r="H126" s="61"/>
+      <c r="I126" s="61"/>
+      <c r="J126" s="61"/>
+      <c r="K126" s="61"/>
+      <c r="L126" s="61"/>
+      <c r="M126" s="61"/>
+      <c r="N126" s="61"/>
+      <c r="O126" s="61"/>
+      <c r="P126" s="61"/>
+      <c r="Q126" s="61"/>
+      <c r="R126" s="61"/>
       <c r="S126" s="12"/>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.2">
@@ -4717,22 +4730,22 @@
         <f t="shared" si="0"/>
         <v>7E0</v>
       </c>
-      <c r="C127" s="27"/>
-      <c r="D127" s="27"/>
-      <c r="E127" s="27"/>
-      <c r="F127" s="27"/>
-      <c r="G127" s="27"/>
-      <c r="H127" s="27"/>
-      <c r="I127" s="27"/>
-      <c r="J127" s="27"/>
-      <c r="K127" s="27"/>
-      <c r="L127" s="27"/>
-      <c r="M127" s="27"/>
-      <c r="N127" s="27"/>
-      <c r="O127" s="27"/>
-      <c r="P127" s="27"/>
-      <c r="Q127" s="27"/>
-      <c r="R127" s="27"/>
+      <c r="C127" s="61"/>
+      <c r="D127" s="61"/>
+      <c r="E127" s="61"/>
+      <c r="F127" s="61"/>
+      <c r="G127" s="61"/>
+      <c r="H127" s="61"/>
+      <c r="I127" s="61"/>
+      <c r="J127" s="61"/>
+      <c r="K127" s="61"/>
+      <c r="L127" s="61"/>
+      <c r="M127" s="61"/>
+      <c r="N127" s="61"/>
+      <c r="O127" s="61"/>
+      <c r="P127" s="61"/>
+      <c r="Q127" s="61"/>
+      <c r="R127" s="61"/>
       <c r="S127" s="12"/>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.2">
@@ -4743,22 +4756,22 @@
         <f t="shared" si="0"/>
         <v>7F0</v>
       </c>
-      <c r="C128" s="27"/>
-      <c r="D128" s="27"/>
-      <c r="E128" s="27"/>
-      <c r="F128" s="27"/>
-      <c r="G128" s="27"/>
-      <c r="H128" s="27"/>
-      <c r="I128" s="27"/>
-      <c r="J128" s="27"/>
-      <c r="K128" s="27"/>
-      <c r="L128" s="27"/>
-      <c r="M128" s="27"/>
-      <c r="N128" s="27"/>
-      <c r="O128" s="27"/>
-      <c r="P128" s="27"/>
-      <c r="Q128" s="27"/>
-      <c r="R128" s="27"/>
+      <c r="C128" s="61"/>
+      <c r="D128" s="61"/>
+      <c r="E128" s="61"/>
+      <c r="F128" s="61"/>
+      <c r="G128" s="61"/>
+      <c r="H128" s="61"/>
+      <c r="I128" s="61"/>
+      <c r="J128" s="61"/>
+      <c r="K128" s="61"/>
+      <c r="L128" s="61"/>
+      <c r="M128" s="61"/>
+      <c r="N128" s="61"/>
+      <c r="O128" s="61"/>
+      <c r="P128" s="61"/>
+      <c r="Q128" s="61"/>
+      <c r="R128" s="61"/>
       <c r="S128" s="12"/>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.2">
@@ -14955,54 +14968,20 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="O113:R113"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="I114:J114"/>
-    <mergeCell ref="K114:L114"/>
-    <mergeCell ref="M114:N114"/>
-    <mergeCell ref="Q108:R108"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="M111:N111"/>
-    <mergeCell ref="O111:P111"/>
-    <mergeCell ref="Q111:R111"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="K103:L103"/>
-    <mergeCell ref="M103:N103"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="I106:J106"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="O100:P100"/>
-    <mergeCell ref="Q100:R100"/>
-    <mergeCell ref="C111:F111"/>
-    <mergeCell ref="O91:R91"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="O108:P108"/>
-    <mergeCell ref="O97:P97"/>
-    <mergeCell ref="K100:L100"/>
-    <mergeCell ref="K111:L111"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="Q97:R97"/>
-    <mergeCell ref="C2:M2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="I3:R3"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="C72:R86"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="L87:R87"/>
-    <mergeCell ref="C88:R88"/>
-    <mergeCell ref="C89:K89"/>
-    <mergeCell ref="L89:R89"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="K71:R71"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="O49:R49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="O50:R50"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
     <mergeCell ref="C90:R90"/>
     <mergeCell ref="O123:R123"/>
     <mergeCell ref="C124:R128"/>
@@ -15017,20 +14996,54 @@
     <mergeCell ref="G97:J97"/>
     <mergeCell ref="O102:R102"/>
     <mergeCell ref="K105:N105"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="K71:R71"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="O49:R49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="O50:R50"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="C72:R86"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="L87:R87"/>
+    <mergeCell ref="C88:R88"/>
+    <mergeCell ref="C89:K89"/>
+    <mergeCell ref="L89:R89"/>
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="O91:R91"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="O108:P108"/>
+    <mergeCell ref="O97:P97"/>
+    <mergeCell ref="K100:L100"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="Q97:R97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="O100:P100"/>
+    <mergeCell ref="Q100:R100"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="M103:N103"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="Q108:R108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="M111:N111"/>
+    <mergeCell ref="O111:P111"/>
+    <mergeCell ref="Q111:R111"/>
+    <mergeCell ref="C111:F111"/>
+    <mergeCell ref="K111:L111"/>
+    <mergeCell ref="O113:R113"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="I114:J114"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="M114:N114"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LODEdit/Additional/memory_map.xlsx
+++ b/LODEdit/Additional/memory_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brett\Documents\memcardrex-plugins-LODEdit\LODEdit\Additional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9264AA86-98F9-4BAA-BA7A-0680EAD3E29A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0C1685-5FFB-4FA3-903E-AA78E5712D7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="169">
   <si>
     <t>Address</t>
   </si>
@@ -135,9 +135,6 @@
     <t>D.TSP</t>
   </si>
   <si>
-    <t>Dart Equips</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
@@ -421,6 +418,126 @@
   </si>
   <si>
     <t>L5</t>
+  </si>
+  <si>
+    <t>DW</t>
+  </si>
+  <si>
+    <t>DH</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>LW</t>
+  </si>
+  <si>
+    <t>LH</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>RB</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>HW</t>
+  </si>
+  <si>
+    <t>HH</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>HB</t>
+  </si>
+  <si>
+    <t>HA</t>
+  </si>
+  <si>
+    <t>AW</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>MH</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>KC</t>
+  </si>
+  <si>
+    <t>KB</t>
+  </si>
+  <si>
+    <t>KA</t>
   </si>
 </sst>
 </file>
@@ -698,7 +815,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -803,19 +920,92 @@
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -827,85 +1017,14 @@
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1127,19 +1246,19 @@
   <dimension ref="A1:T520"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S99" sqref="S99"/>
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K113" sqref="K113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" hidden="1" customWidth="1"/>
-    <col min="3" max="18" width="3.42578125" customWidth="1"/>
-    <col min="19" max="19" width="188.85546875" customWidth="1"/>
-    <col min="20" max="20" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1328125" hidden="1" customWidth="1"/>
+    <col min="3" max="18" width="3.3984375" customWidth="1"/>
+    <col min="19" max="19" width="188.86328125" customWidth="1"/>
+    <col min="20" max="20" width="25.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1195,10 +1314,10 @@
         <v>7</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>16</v>
       </c>
@@ -1206,32 +1325,32 @@
         <f t="shared" ref="B2:B520" si="0">DEC2HEX(A2)</f>
         <v>10</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="62" t="s">
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
       <c r="S2" s="6"/>
       <c r="T2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7">
         <v>32</v>
       </c>
@@ -1239,29 +1358,29 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="63" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
       <c r="S3" s="6"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7">
         <v>48</v>
       </c>
@@ -1287,7 +1406,7 @@
       <c r="R4" s="10"/>
       <c r="S4" s="11"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>64</v>
       </c>
@@ -1313,7 +1432,7 @@
       <c r="R5" s="10"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>80</v>
       </c>
@@ -1339,7 +1458,7 @@
       <c r="R6" s="10"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="7">
         <v>96</v>
       </c>
@@ -1365,7 +1484,7 @@
       <c r="R7" s="10"/>
       <c r="S7" s="13"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
         <v>112</v>
       </c>
@@ -1391,7 +1510,7 @@
       <c r="R8" s="10"/>
       <c r="S8" s="13"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>128</v>
       </c>
@@ -1417,7 +1536,7 @@
       <c r="R9" s="21"/>
       <c r="S9" s="13"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>144</v>
       </c>
@@ -1443,7 +1562,7 @@
       <c r="R10" s="10"/>
       <c r="S10" s="13"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="7">
         <v>160</v>
       </c>
@@ -1469,7 +1588,7 @@
       <c r="R11" s="10"/>
       <c r="S11" s="13"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="7">
         <v>176</v>
       </c>
@@ -1495,7 +1614,7 @@
       <c r="R12" s="10"/>
       <c r="S12" s="13"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>192</v>
       </c>
@@ -1521,7 +1640,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>208</v>
       </c>
@@ -1547,7 +1666,7 @@
       <c r="R14" s="10"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="7">
         <v>224</v>
       </c>
@@ -1573,7 +1692,7 @@
       <c r="R15" s="10"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="7">
         <v>240</v>
       </c>
@@ -1599,7 +1718,7 @@
       <c r="R16" s="10"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>256</v>
       </c>
@@ -1625,7 +1744,7 @@
       <c r="R17" s="10"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>272</v>
       </c>
@@ -1651,7 +1770,7 @@
       <c r="R18" s="10"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="7">
         <v>288</v>
       </c>
@@ -1677,7 +1796,7 @@
       <c r="R19" s="10"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="7">
         <v>304</v>
       </c>
@@ -1703,7 +1822,7 @@
       <c r="R20" s="10"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>320</v>
       </c>
@@ -1729,7 +1848,7 @@
       <c r="R21" s="10"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>336</v>
       </c>
@@ -1755,7 +1874,7 @@
       <c r="R22" s="10"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="7">
         <v>352</v>
       </c>
@@ -1781,7 +1900,7 @@
       <c r="R23" s="10"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="7">
         <v>368</v>
       </c>
@@ -1807,7 +1926,7 @@
       <c r="R24" s="10"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>384</v>
       </c>
@@ -1833,7 +1952,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>400</v>
       </c>
@@ -1859,7 +1978,7 @@
       <c r="R26" s="10"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="7">
         <v>416</v>
       </c>
@@ -1885,7 +2004,7 @@
       <c r="R27" s="10"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="7">
         <v>432</v>
       </c>
@@ -1911,7 +2030,7 @@
       <c r="R28" s="10"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>448</v>
       </c>
@@ -1937,7 +2056,7 @@
       <c r="R29" s="10"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>464</v>
       </c>
@@ -1963,7 +2082,7 @@
       <c r="R30" s="10"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="7">
         <v>480</v>
       </c>
@@ -1989,7 +2108,7 @@
       <c r="R31" s="10"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="7">
         <v>496</v>
       </c>
@@ -2015,7 +2134,7 @@
       <c r="R32" s="10"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>512</v>
       </c>
@@ -2031,21 +2150,21 @@
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
-      <c r="K33" s="63" t="s">
+      <c r="K33" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="L33" s="61"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="64" t="s">
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="P33" s="61"/>
-      <c r="Q33" s="61"/>
-      <c r="R33" s="61"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>528</v>
       </c>
@@ -2053,37 +2172,37 @@
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="C34" s="72" t="s">
+      <c r="C34" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
       <c r="G34" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="H34" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="I34" s="75" t="s">
+      <c r="I34" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="J34" s="49"/>
+      <c r="K34" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="J34" s="75"/>
-      <c r="K34" s="76" t="s">
-        <v>55</v>
-      </c>
-      <c r="L34" s="76"/>
+      <c r="L34" s="50"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
-      <c r="O34" s="69" t="s">
+      <c r="O34" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="P34" s="61"/>
-      <c r="Q34" s="61"/>
-      <c r="R34" s="61"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
       <c r="S34" s="16"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="7">
         <v>544</v>
       </c>
@@ -2091,24 +2210,24 @@
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-      <c r="C35" s="66" t="s">
+      <c r="C35" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
       <c r="G35" s="17" t="s">
         <v>16</v>
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
-      <c r="K35" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="L35" s="51"/>
-      <c r="M35" s="51"/>
-      <c r="N35" s="51"/>
+      <c r="K35" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
       <c r="O35" s="25"/>
       <c r="P35" s="20"/>
       <c r="Q35" s="20"/>
@@ -2117,7 +2236,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="7">
         <v>560</v>
       </c>
@@ -2143,7 +2262,7 @@
       <c r="R36" s="10"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>576</v>
       </c>
@@ -2169,7 +2288,7 @@
       <c r="R37" s="10"/>
       <c r="S37" s="12"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>592</v>
       </c>
@@ -2195,7 +2314,7 @@
       <c r="R38" s="10"/>
       <c r="S38" s="12"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="7">
         <v>608</v>
       </c>
@@ -2221,7 +2340,7 @@
       <c r="R39" s="10"/>
       <c r="S39" s="12"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="7">
         <v>624</v>
       </c>
@@ -2247,7 +2366,7 @@
       <c r="R40" s="10"/>
       <c r="S40" s="12"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>640</v>
       </c>
@@ -2273,7 +2392,7 @@
       <c r="R41" s="10"/>
       <c r="S41" s="12"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>656</v>
       </c>
@@ -2299,7 +2418,7 @@
       <c r="R42" s="10"/>
       <c r="S42" s="12"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="7">
         <v>672</v>
       </c>
@@ -2325,7 +2444,7 @@
       <c r="R43" s="10"/>
       <c r="S43" s="12"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="7">
         <v>688</v>
       </c>
@@ -2351,7 +2470,7 @@
       <c r="R44" s="10"/>
       <c r="S44" s="12"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>704</v>
       </c>
@@ -2377,7 +2496,7 @@
       <c r="R45" s="10"/>
       <c r="S45" s="12"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <v>720</v>
       </c>
@@ -2403,7 +2522,7 @@
       <c r="R46" s="10"/>
       <c r="S46" s="12"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="7">
         <v>736</v>
       </c>
@@ -2429,7 +2548,7 @@
       <c r="R47" s="10"/>
       <c r="S47" s="12"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="7">
         <v>752</v>
       </c>
@@ -2455,7 +2574,7 @@
       <c r="R48" s="10"/>
       <c r="S48" s="12"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <v>768</v>
       </c>
@@ -2471,21 +2590,21 @@
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
-      <c r="K49" s="63" t="s">
+      <c r="K49" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="L49" s="61"/>
-      <c r="M49" s="61"/>
-      <c r="N49" s="61"/>
-      <c r="O49" s="64" t="s">
+      <c r="L49" s="43"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="P49" s="61"/>
-      <c r="Q49" s="61"/>
-      <c r="R49" s="61"/>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="43"/>
+      <c r="R49" s="43"/>
       <c r="S49" s="12"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <v>784</v>
       </c>
@@ -2493,31 +2612,31 @@
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="C50" s="72" t="s">
+      <c r="C50" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="61"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="69" t="s">
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="H50" s="61"/>
-      <c r="I50" s="61"/>
-      <c r="J50" s="61"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
-      <c r="O50" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="P50" s="51"/>
-      <c r="Q50" s="51"/>
-      <c r="R50" s="51"/>
+      <c r="O50" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="P50" s="48"/>
+      <c r="Q50" s="48"/>
+      <c r="R50" s="48"/>
       <c r="S50" s="12"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="7">
         <v>800</v>
       </c>
@@ -2525,12 +2644,12 @@
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="C51" s="66" t="s">
+      <c r="C51" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="61"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
       <c r="G51" s="5" t="s">
         <v>18</v>
       </c>
@@ -2549,7 +2668,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="7">
         <v>816</v>
       </c>
@@ -2561,10 +2680,10 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
-      <c r="G52" s="64" t="s">
+      <c r="G52" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H52" s="61"/>
+      <c r="H52" s="43"/>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
       <c r="L52" s="10"/>
@@ -2578,7 +2697,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
         <v>832</v>
       </c>
@@ -2604,7 +2723,7 @@
       <c r="R53" s="10"/>
       <c r="S53" s="12"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
         <v>848</v>
       </c>
@@ -2630,7 +2749,7 @@
       <c r="R54" s="10"/>
       <c r="S54" s="12"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="7">
         <v>864</v>
       </c>
@@ -2656,7 +2775,7 @@
       <c r="R55" s="10"/>
       <c r="S55" s="12"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="7">
         <v>880</v>
       </c>
@@ -2682,7 +2801,7 @@
       <c r="R56" s="10"/>
       <c r="S56" s="12"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
         <v>896</v>
       </c>
@@ -2712,7 +2831,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
         <v>912</v>
       </c>
@@ -2738,7 +2857,7 @@
       <c r="R58" s="10"/>
       <c r="S58" s="12"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="7">
         <v>928</v>
       </c>
@@ -2764,7 +2883,7 @@
       <c r="R59" s="10"/>
       <c r="S59" s="12"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="7">
         <v>944</v>
       </c>
@@ -2790,7 +2909,7 @@
       <c r="R60" s="10"/>
       <c r="S60" s="12"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
         <v>960</v>
       </c>
@@ -2816,7 +2935,7 @@
       <c r="R61" s="10"/>
       <c r="S61" s="12"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
         <v>976</v>
       </c>
@@ -2842,7 +2961,7 @@
       <c r="R62" s="10"/>
       <c r="S62" s="12"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="7">
         <v>992</v>
       </c>
@@ -2868,7 +2987,7 @@
       <c r="R63" s="10"/>
       <c r="S63" s="12"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="7">
         <v>1008</v>
       </c>
@@ -2894,7 +3013,7 @@
       <c r="R64" s="10"/>
       <c r="S64" s="12"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
         <v>1024</v>
       </c>
@@ -2920,7 +3039,7 @@
       <c r="R65" s="10"/>
       <c r="S65" s="12"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="3">
         <v>1040</v>
       </c>
@@ -2946,7 +3065,7 @@
       <c r="R66" s="10"/>
       <c r="S66" s="12"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="7">
         <v>1056</v>
       </c>
@@ -2972,7 +3091,7 @@
       <c r="R67" s="10"/>
       <c r="S67" s="12"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="7">
         <v>1072</v>
       </c>
@@ -2998,7 +3117,7 @@
       <c r="R68" s="10"/>
       <c r="S68" s="12"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="3">
         <v>1088</v>
       </c>
@@ -3028,7 +3147,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="3">
         <v>1104</v>
       </c>
@@ -3054,7 +3173,7 @@
       <c r="R70" s="10"/>
       <c r="S70" s="12"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="7">
         <v>1120</v>
       </c>
@@ -3074,19 +3193,19 @@
         <v>25</v>
       </c>
       <c r="J71" s="10"/>
-      <c r="K71" s="66"/>
-      <c r="L71" s="61"/>
-      <c r="M71" s="61"/>
-      <c r="N71" s="61"/>
-      <c r="O71" s="61"/>
-      <c r="P71" s="61"/>
-      <c r="Q71" s="61"/>
-      <c r="R71" s="61"/>
+      <c r="K71" s="44"/>
+      <c r="L71" s="43"/>
+      <c r="M71" s="43"/>
+      <c r="N71" s="43"/>
+      <c r="O71" s="43"/>
+      <c r="P71" s="43"/>
+      <c r="Q71" s="43"/>
+      <c r="R71" s="43"/>
       <c r="S71" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="7">
         <v>1136</v>
       </c>
@@ -3094,27 +3213,27 @@
         <f t="shared" si="0"/>
         <v>470</v>
       </c>
-      <c r="C72" s="65" t="s">
+      <c r="C72" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D72" s="61"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="61"/>
-      <c r="G72" s="61"/>
-      <c r="H72" s="61"/>
-      <c r="I72" s="61"/>
-      <c r="J72" s="61"/>
-      <c r="K72" s="61"/>
-      <c r="L72" s="61"/>
-      <c r="M72" s="61"/>
-      <c r="N72" s="61"/>
-      <c r="O72" s="61"/>
-      <c r="P72" s="61"/>
-      <c r="Q72" s="61"/>
-      <c r="R72" s="61"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43"/>
+      <c r="G72" s="43"/>
+      <c r="H72" s="43"/>
+      <c r="I72" s="43"/>
+      <c r="J72" s="43"/>
+      <c r="K72" s="43"/>
+      <c r="L72" s="43"/>
+      <c r="M72" s="43"/>
+      <c r="N72" s="43"/>
+      <c r="O72" s="43"/>
+      <c r="P72" s="43"/>
+      <c r="Q72" s="43"/>
+      <c r="R72" s="43"/>
       <c r="S72" s="12"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>1152</v>
       </c>
@@ -3122,25 +3241,25 @@
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
-      <c r="C73" s="61"/>
-      <c r="D73" s="61"/>
-      <c r="E73" s="61"/>
-      <c r="F73" s="61"/>
-      <c r="G73" s="61"/>
-      <c r="H73" s="61"/>
-      <c r="I73" s="61"/>
-      <c r="J73" s="61"/>
-      <c r="K73" s="61"/>
-      <c r="L73" s="61"/>
-      <c r="M73" s="61"/>
-      <c r="N73" s="61"/>
-      <c r="O73" s="61"/>
-      <c r="P73" s="61"/>
-      <c r="Q73" s="61"/>
-      <c r="R73" s="61"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="43"/>
+      <c r="H73" s="43"/>
+      <c r="I73" s="43"/>
+      <c r="J73" s="43"/>
+      <c r="K73" s="43"/>
+      <c r="L73" s="43"/>
+      <c r="M73" s="43"/>
+      <c r="N73" s="43"/>
+      <c r="O73" s="43"/>
+      <c r="P73" s="43"/>
+      <c r="Q73" s="43"/>
+      <c r="R73" s="43"/>
       <c r="S73" s="12"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>1168</v>
       </c>
@@ -3148,25 +3267,25 @@
         <f t="shared" si="0"/>
         <v>490</v>
       </c>
-      <c r="C74" s="61"/>
-      <c r="D74" s="61"/>
-      <c r="E74" s="61"/>
-      <c r="F74" s="61"/>
-      <c r="G74" s="61"/>
-      <c r="H74" s="61"/>
-      <c r="I74" s="61"/>
-      <c r="J74" s="61"/>
-      <c r="K74" s="61"/>
-      <c r="L74" s="61"/>
-      <c r="M74" s="61"/>
-      <c r="N74" s="61"/>
-      <c r="O74" s="61"/>
-      <c r="P74" s="61"/>
-      <c r="Q74" s="61"/>
-      <c r="R74" s="61"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="43"/>
+      <c r="J74" s="43"/>
+      <c r="K74" s="43"/>
+      <c r="L74" s="43"/>
+      <c r="M74" s="43"/>
+      <c r="N74" s="43"/>
+      <c r="O74" s="43"/>
+      <c r="P74" s="43"/>
+      <c r="Q74" s="43"/>
+      <c r="R74" s="43"/>
       <c r="S74" s="12"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="7">
         <v>1184</v>
       </c>
@@ -3174,25 +3293,25 @@
         <f t="shared" si="0"/>
         <v>4A0</v>
       </c>
-      <c r="C75" s="61"/>
-      <c r="D75" s="61"/>
-      <c r="E75" s="61"/>
-      <c r="F75" s="61"/>
-      <c r="G75" s="61"/>
-      <c r="H75" s="61"/>
-      <c r="I75" s="61"/>
-      <c r="J75" s="61"/>
-      <c r="K75" s="61"/>
-      <c r="L75" s="61"/>
-      <c r="M75" s="61"/>
-      <c r="N75" s="61"/>
-      <c r="O75" s="61"/>
-      <c r="P75" s="61"/>
-      <c r="Q75" s="61"/>
-      <c r="R75" s="61"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="43"/>
+      <c r="I75" s="43"/>
+      <c r="J75" s="43"/>
+      <c r="K75" s="43"/>
+      <c r="L75" s="43"/>
+      <c r="M75" s="43"/>
+      <c r="N75" s="43"/>
+      <c r="O75" s="43"/>
+      <c r="P75" s="43"/>
+      <c r="Q75" s="43"/>
+      <c r="R75" s="43"/>
       <c r="S75" s="12"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="7">
         <v>1200</v>
       </c>
@@ -3200,25 +3319,25 @@
         <f t="shared" si="0"/>
         <v>4B0</v>
       </c>
-      <c r="C76" s="61"/>
-      <c r="D76" s="61"/>
-      <c r="E76" s="61"/>
-      <c r="F76" s="61"/>
-      <c r="G76" s="61"/>
-      <c r="H76" s="61"/>
-      <c r="I76" s="61"/>
-      <c r="J76" s="61"/>
-      <c r="K76" s="61"/>
-      <c r="L76" s="61"/>
-      <c r="M76" s="61"/>
-      <c r="N76" s="61"/>
-      <c r="O76" s="61"/>
-      <c r="P76" s="61"/>
-      <c r="Q76" s="61"/>
-      <c r="R76" s="61"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="43"/>
+      <c r="I76" s="43"/>
+      <c r="J76" s="43"/>
+      <c r="K76" s="43"/>
+      <c r="L76" s="43"/>
+      <c r="M76" s="43"/>
+      <c r="N76" s="43"/>
+      <c r="O76" s="43"/>
+      <c r="P76" s="43"/>
+      <c r="Q76" s="43"/>
+      <c r="R76" s="43"/>
       <c r="S76" s="12"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>1216</v>
       </c>
@@ -3226,25 +3345,25 @@
         <f t="shared" si="0"/>
         <v>4C0</v>
       </c>
-      <c r="C77" s="61"/>
-      <c r="D77" s="61"/>
-      <c r="E77" s="61"/>
-      <c r="F77" s="61"/>
-      <c r="G77" s="61"/>
-      <c r="H77" s="61"/>
-      <c r="I77" s="61"/>
-      <c r="J77" s="61"/>
-      <c r="K77" s="61"/>
-      <c r="L77" s="61"/>
-      <c r="M77" s="61"/>
-      <c r="N77" s="61"/>
-      <c r="O77" s="61"/>
-      <c r="P77" s="61"/>
-      <c r="Q77" s="61"/>
-      <c r="R77" s="61"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="43"/>
+      <c r="I77" s="43"/>
+      <c r="J77" s="43"/>
+      <c r="K77" s="43"/>
+      <c r="L77" s="43"/>
+      <c r="M77" s="43"/>
+      <c r="N77" s="43"/>
+      <c r="O77" s="43"/>
+      <c r="P77" s="43"/>
+      <c r="Q77" s="43"/>
+      <c r="R77" s="43"/>
       <c r="S77" s="12"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>1232</v>
       </c>
@@ -3252,25 +3371,25 @@
         <f t="shared" si="0"/>
         <v>4D0</v>
       </c>
-      <c r="C78" s="61"/>
-      <c r="D78" s="61"/>
-      <c r="E78" s="61"/>
-      <c r="F78" s="61"/>
-      <c r="G78" s="61"/>
-      <c r="H78" s="61"/>
-      <c r="I78" s="61"/>
-      <c r="J78" s="61"/>
-      <c r="K78" s="61"/>
-      <c r="L78" s="61"/>
-      <c r="M78" s="61"/>
-      <c r="N78" s="61"/>
-      <c r="O78" s="61"/>
-      <c r="P78" s="61"/>
-      <c r="Q78" s="61"/>
-      <c r="R78" s="61"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="43"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="43"/>
+      <c r="I78" s="43"/>
+      <c r="J78" s="43"/>
+      <c r="K78" s="43"/>
+      <c r="L78" s="43"/>
+      <c r="M78" s="43"/>
+      <c r="N78" s="43"/>
+      <c r="O78" s="43"/>
+      <c r="P78" s="43"/>
+      <c r="Q78" s="43"/>
+      <c r="R78" s="43"/>
       <c r="S78" s="12"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="7">
         <v>1248</v>
       </c>
@@ -3278,25 +3397,25 @@
         <f t="shared" si="0"/>
         <v>4E0</v>
       </c>
-      <c r="C79" s="61"/>
-      <c r="D79" s="61"/>
-      <c r="E79" s="61"/>
-      <c r="F79" s="61"/>
-      <c r="G79" s="61"/>
-      <c r="H79" s="61"/>
-      <c r="I79" s="61"/>
-      <c r="J79" s="61"/>
-      <c r="K79" s="61"/>
-      <c r="L79" s="61"/>
-      <c r="M79" s="61"/>
-      <c r="N79" s="61"/>
-      <c r="O79" s="61"/>
-      <c r="P79" s="61"/>
-      <c r="Q79" s="61"/>
-      <c r="R79" s="61"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="43"/>
+      <c r="G79" s="43"/>
+      <c r="H79" s="43"/>
+      <c r="I79" s="43"/>
+      <c r="J79" s="43"/>
+      <c r="K79" s="43"/>
+      <c r="L79" s="43"/>
+      <c r="M79" s="43"/>
+      <c r="N79" s="43"/>
+      <c r="O79" s="43"/>
+      <c r="P79" s="43"/>
+      <c r="Q79" s="43"/>
+      <c r="R79" s="43"/>
       <c r="S79" s="12"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="7">
         <v>1264</v>
       </c>
@@ -3304,25 +3423,25 @@
         <f t="shared" si="0"/>
         <v>4F0</v>
       </c>
-      <c r="C80" s="61"/>
-      <c r="D80" s="61"/>
-      <c r="E80" s="61"/>
-      <c r="F80" s="61"/>
-      <c r="G80" s="61"/>
-      <c r="H80" s="61"/>
-      <c r="I80" s="61"/>
-      <c r="J80" s="61"/>
-      <c r="K80" s="61"/>
-      <c r="L80" s="61"/>
-      <c r="M80" s="61"/>
-      <c r="N80" s="61"/>
-      <c r="O80" s="61"/>
-      <c r="P80" s="61"/>
-      <c r="Q80" s="61"/>
-      <c r="R80" s="61"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="43"/>
+      <c r="H80" s="43"/>
+      <c r="I80" s="43"/>
+      <c r="J80" s="43"/>
+      <c r="K80" s="43"/>
+      <c r="L80" s="43"/>
+      <c r="M80" s="43"/>
+      <c r="N80" s="43"/>
+      <c r="O80" s="43"/>
+      <c r="P80" s="43"/>
+      <c r="Q80" s="43"/>
+      <c r="R80" s="43"/>
       <c r="S80" s="12"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>1280</v>
       </c>
@@ -3330,25 +3449,25 @@
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="C81" s="61"/>
-      <c r="D81" s="61"/>
-      <c r="E81" s="61"/>
-      <c r="F81" s="61"/>
-      <c r="G81" s="61"/>
-      <c r="H81" s="61"/>
-      <c r="I81" s="61"/>
-      <c r="J81" s="61"/>
-      <c r="K81" s="61"/>
-      <c r="L81" s="61"/>
-      <c r="M81" s="61"/>
-      <c r="N81" s="61"/>
-      <c r="O81" s="61"/>
-      <c r="P81" s="61"/>
-      <c r="Q81" s="61"/>
-      <c r="R81" s="61"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="43"/>
+      <c r="F81" s="43"/>
+      <c r="G81" s="43"/>
+      <c r="H81" s="43"/>
+      <c r="I81" s="43"/>
+      <c r="J81" s="43"/>
+      <c r="K81" s="43"/>
+      <c r="L81" s="43"/>
+      <c r="M81" s="43"/>
+      <c r="N81" s="43"/>
+      <c r="O81" s="43"/>
+      <c r="P81" s="43"/>
+      <c r="Q81" s="43"/>
+      <c r="R81" s="43"/>
       <c r="S81" s="12"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>1296</v>
       </c>
@@ -3356,25 +3475,25 @@
         <f t="shared" si="0"/>
         <v>510</v>
       </c>
-      <c r="C82" s="61"/>
-      <c r="D82" s="61"/>
-      <c r="E82" s="61"/>
-      <c r="F82" s="61"/>
-      <c r="G82" s="61"/>
-      <c r="H82" s="61"/>
-      <c r="I82" s="61"/>
-      <c r="J82" s="61"/>
-      <c r="K82" s="61"/>
-      <c r="L82" s="61"/>
-      <c r="M82" s="61"/>
-      <c r="N82" s="61"/>
-      <c r="O82" s="61"/>
-      <c r="P82" s="61"/>
-      <c r="Q82" s="61"/>
-      <c r="R82" s="61"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="43"/>
+      <c r="F82" s="43"/>
+      <c r="G82" s="43"/>
+      <c r="H82" s="43"/>
+      <c r="I82" s="43"/>
+      <c r="J82" s="43"/>
+      <c r="K82" s="43"/>
+      <c r="L82" s="43"/>
+      <c r="M82" s="43"/>
+      <c r="N82" s="43"/>
+      <c r="O82" s="43"/>
+      <c r="P82" s="43"/>
+      <c r="Q82" s="43"/>
+      <c r="R82" s="43"/>
       <c r="S82" s="12"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="7">
         <v>1312</v>
       </c>
@@ -3382,25 +3501,25 @@
         <f t="shared" si="0"/>
         <v>520</v>
       </c>
-      <c r="C83" s="61"/>
-      <c r="D83" s="61"/>
-      <c r="E83" s="61"/>
-      <c r="F83" s="61"/>
-      <c r="G83" s="61"/>
-      <c r="H83" s="61"/>
-      <c r="I83" s="61"/>
-      <c r="J83" s="61"/>
-      <c r="K83" s="61"/>
-      <c r="L83" s="61"/>
-      <c r="M83" s="61"/>
-      <c r="N83" s="61"/>
-      <c r="O83" s="61"/>
-      <c r="P83" s="61"/>
-      <c r="Q83" s="61"/>
-      <c r="R83" s="61"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="43"/>
+      <c r="G83" s="43"/>
+      <c r="H83" s="43"/>
+      <c r="I83" s="43"/>
+      <c r="J83" s="43"/>
+      <c r="K83" s="43"/>
+      <c r="L83" s="43"/>
+      <c r="M83" s="43"/>
+      <c r="N83" s="43"/>
+      <c r="O83" s="43"/>
+      <c r="P83" s="43"/>
+      <c r="Q83" s="43"/>
+      <c r="R83" s="43"/>
       <c r="S83" s="12"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="7">
         <v>1328</v>
       </c>
@@ -3408,25 +3527,25 @@
         <f t="shared" si="0"/>
         <v>530</v>
       </c>
-      <c r="C84" s="61"/>
-      <c r="D84" s="61"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="61"/>
-      <c r="G84" s="61"/>
-      <c r="H84" s="61"/>
-      <c r="I84" s="61"/>
-      <c r="J84" s="61"/>
-      <c r="K84" s="61"/>
-      <c r="L84" s="61"/>
-      <c r="M84" s="61"/>
-      <c r="N84" s="61"/>
-      <c r="O84" s="61"/>
-      <c r="P84" s="61"/>
-      <c r="Q84" s="61"/>
-      <c r="R84" s="61"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="43"/>
+      <c r="I84" s="43"/>
+      <c r="J84" s="43"/>
+      <c r="K84" s="43"/>
+      <c r="L84" s="43"/>
+      <c r="M84" s="43"/>
+      <c r="N84" s="43"/>
+      <c r="O84" s="43"/>
+      <c r="P84" s="43"/>
+      <c r="Q84" s="43"/>
+      <c r="R84" s="43"/>
       <c r="S84" s="12"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>1344</v>
       </c>
@@ -3434,25 +3553,25 @@
         <f t="shared" si="0"/>
         <v>540</v>
       </c>
-      <c r="C85" s="61"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="61"/>
-      <c r="G85" s="61"/>
-      <c r="H85" s="61"/>
-      <c r="I85" s="61"/>
-      <c r="J85" s="61"/>
-      <c r="K85" s="61"/>
-      <c r="L85" s="61"/>
-      <c r="M85" s="61"/>
-      <c r="N85" s="61"/>
-      <c r="O85" s="61"/>
-      <c r="P85" s="61"/>
-      <c r="Q85" s="61"/>
-      <c r="R85" s="61"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="43"/>
+      <c r="F85" s="43"/>
+      <c r="G85" s="43"/>
+      <c r="H85" s="43"/>
+      <c r="I85" s="43"/>
+      <c r="J85" s="43"/>
+      <c r="K85" s="43"/>
+      <c r="L85" s="43"/>
+      <c r="M85" s="43"/>
+      <c r="N85" s="43"/>
+      <c r="O85" s="43"/>
+      <c r="P85" s="43"/>
+      <c r="Q85" s="43"/>
+      <c r="R85" s="43"/>
       <c r="S85" s="12"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>1360</v>
       </c>
@@ -3460,25 +3579,25 @@
         <f t="shared" si="0"/>
         <v>550</v>
       </c>
-      <c r="C86" s="61"/>
-      <c r="D86" s="61"/>
-      <c r="E86" s="61"/>
-      <c r="F86" s="61"/>
-      <c r="G86" s="61"/>
-      <c r="H86" s="61"/>
-      <c r="I86" s="61"/>
-      <c r="J86" s="61"/>
-      <c r="K86" s="61"/>
-      <c r="L86" s="61"/>
-      <c r="M86" s="61"/>
-      <c r="N86" s="61"/>
-      <c r="O86" s="61"/>
-      <c r="P86" s="61"/>
-      <c r="Q86" s="61"/>
-      <c r="R86" s="61"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="43"/>
+      <c r="F86" s="43"/>
+      <c r="G86" s="43"/>
+      <c r="H86" s="43"/>
+      <c r="I86" s="43"/>
+      <c r="J86" s="43"/>
+      <c r="K86" s="43"/>
+      <c r="L86" s="43"/>
+      <c r="M86" s="43"/>
+      <c r="N86" s="43"/>
+      <c r="O86" s="43"/>
+      <c r="P86" s="43"/>
+      <c r="Q86" s="43"/>
+      <c r="R86" s="43"/>
       <c r="S86" s="12"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="7">
         <v>1376</v>
       </c>
@@ -3486,25 +3605,25 @@
         <f t="shared" si="0"/>
         <v>560</v>
       </c>
-      <c r="C87" s="66"/>
-      <c r="D87" s="61"/>
-      <c r="E87" s="61"/>
-      <c r="F87" s="61"/>
-      <c r="G87" s="61"/>
-      <c r="H87" s="61"/>
-      <c r="I87" s="61"/>
-      <c r="J87" s="61"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="43"/>
+      <c r="F87" s="43"/>
+      <c r="G87" s="43"/>
+      <c r="H87" s="43"/>
+      <c r="I87" s="43"/>
+      <c r="J87" s="43"/>
       <c r="K87" s="10"/>
-      <c r="L87" s="67"/>
-      <c r="M87" s="61"/>
-      <c r="N87" s="61"/>
-      <c r="O87" s="61"/>
-      <c r="P87" s="61"/>
-      <c r="Q87" s="61"/>
-      <c r="R87" s="61"/>
+      <c r="L87" s="59"/>
+      <c r="M87" s="43"/>
+      <c r="N87" s="43"/>
+      <c r="O87" s="43"/>
+      <c r="P87" s="43"/>
+      <c r="Q87" s="43"/>
+      <c r="R87" s="43"/>
       <c r="S87" s="12"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="7">
         <v>1392</v>
       </c>
@@ -3512,27 +3631,27 @@
         <f t="shared" si="0"/>
         <v>570</v>
       </c>
-      <c r="C88" s="68" t="s">
+      <c r="C88" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="61"/>
-      <c r="E88" s="61"/>
-      <c r="F88" s="61"/>
-      <c r="G88" s="61"/>
-      <c r="H88" s="61"/>
-      <c r="I88" s="61"/>
-      <c r="J88" s="61"/>
-      <c r="K88" s="61"/>
-      <c r="L88" s="61"/>
-      <c r="M88" s="61"/>
-      <c r="N88" s="61"/>
-      <c r="O88" s="61"/>
-      <c r="P88" s="61"/>
-      <c r="Q88" s="61"/>
-      <c r="R88" s="61"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="43"/>
+      <c r="F88" s="43"/>
+      <c r="G88" s="43"/>
+      <c r="H88" s="43"/>
+      <c r="I88" s="43"/>
+      <c r="J88" s="43"/>
+      <c r="K88" s="43"/>
+      <c r="L88" s="43"/>
+      <c r="M88" s="43"/>
+      <c r="N88" s="43"/>
+      <c r="O88" s="43"/>
+      <c r="P88" s="43"/>
+      <c r="Q88" s="43"/>
+      <c r="R88" s="43"/>
       <c r="S88" s="12"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="3">
         <v>1408</v>
       </c>
@@ -3540,25 +3659,25 @@
         <f t="shared" si="0"/>
         <v>580</v>
       </c>
-      <c r="C89" s="67"/>
-      <c r="D89" s="61"/>
-      <c r="E89" s="61"/>
-      <c r="F89" s="61"/>
-      <c r="G89" s="61"/>
-      <c r="H89" s="61"/>
-      <c r="I89" s="61"/>
-      <c r="J89" s="61"/>
-      <c r="K89" s="61"/>
-      <c r="L89" s="69"/>
-      <c r="M89" s="61"/>
-      <c r="N89" s="61"/>
-      <c r="O89" s="61"/>
-      <c r="P89" s="61"/>
-      <c r="Q89" s="61"/>
-      <c r="R89" s="61"/>
+      <c r="C89" s="59"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="43"/>
+      <c r="G89" s="43"/>
+      <c r="H89" s="43"/>
+      <c r="I89" s="43"/>
+      <c r="J89" s="43"/>
+      <c r="K89" s="43"/>
+      <c r="L89" s="42"/>
+      <c r="M89" s="43"/>
+      <c r="N89" s="43"/>
+      <c r="O89" s="43"/>
+      <c r="P89" s="43"/>
+      <c r="Q89" s="43"/>
+      <c r="R89" s="43"/>
       <c r="S89" s="12"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="3">
         <v>1424</v>
       </c>
@@ -3566,27 +3685,27 @@
         <f t="shared" si="0"/>
         <v>590</v>
       </c>
-      <c r="C90" s="69" t="s">
+      <c r="C90" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D90" s="61"/>
-      <c r="E90" s="61"/>
-      <c r="F90" s="61"/>
-      <c r="G90" s="61"/>
-      <c r="H90" s="61"/>
-      <c r="I90" s="61"/>
-      <c r="J90" s="61"/>
-      <c r="K90" s="61"/>
-      <c r="L90" s="61"/>
-      <c r="M90" s="61"/>
-      <c r="N90" s="61"/>
-      <c r="O90" s="61"/>
-      <c r="P90" s="61"/>
-      <c r="Q90" s="61"/>
-      <c r="R90" s="61"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="43"/>
+      <c r="F90" s="43"/>
+      <c r="G90" s="43"/>
+      <c r="H90" s="43"/>
+      <c r="I90" s="43"/>
+      <c r="J90" s="43"/>
+      <c r="K90" s="43"/>
+      <c r="L90" s="43"/>
+      <c r="M90" s="43"/>
+      <c r="N90" s="43"/>
+      <c r="O90" s="43"/>
+      <c r="P90" s="43"/>
+      <c r="Q90" s="43"/>
+      <c r="R90" s="43"/>
       <c r="S90" s="12"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="7">
         <v>1440</v>
       </c>
@@ -3594,27 +3713,27 @@
         <f t="shared" si="0"/>
         <v>5A0</v>
       </c>
-      <c r="C91" s="69"/>
-      <c r="D91" s="61"/>
-      <c r="E91" s="61"/>
-      <c r="F91" s="61"/>
-      <c r="G91" s="61"/>
-      <c r="H91" s="61"/>
-      <c r="I91" s="61"/>
-      <c r="J91" s="61"/>
-      <c r="K91" s="61"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="43"/>
+      <c r="E91" s="43"/>
+      <c r="F91" s="43"/>
+      <c r="G91" s="43"/>
+      <c r="H91" s="43"/>
+      <c r="I91" s="43"/>
+      <c r="J91" s="43"/>
+      <c r="K91" s="43"/>
       <c r="L91" s="10"/>
       <c r="M91" s="10"/>
       <c r="N91" s="10"/>
-      <c r="O91" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="P91" s="55"/>
-      <c r="Q91" s="55"/>
-      <c r="R91" s="55"/>
+      <c r="O91" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="P91" s="62"/>
+      <c r="Q91" s="62"/>
+      <c r="R91" s="62"/>
       <c r="S91" s="12"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="7">
         <v>1456</v>
       </c>
@@ -3624,33 +3743,33 @@
       </c>
       <c r="E92" s="10"/>
       <c r="F92" s="10"/>
-      <c r="G92" s="71" t="s">
+      <c r="G92" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="H92" s="61"/>
-      <c r="I92" s="60" t="s">
+      <c r="H92" s="43"/>
+      <c r="I92" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="J92" s="61"/>
-      <c r="K92" s="72" t="s">
+      <c r="J92" s="43"/>
+      <c r="K92" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="L92" s="61"/>
-      <c r="M92" s="73" t="s">
+      <c r="L92" s="43"/>
+      <c r="M92" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="N92" s="61"/>
+      <c r="N92" s="43"/>
       <c r="O92" s="10"/>
       <c r="P92" s="10"/>
       <c r="Q92" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="R92" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="R92" s="32" t="s">
-        <v>71</v>
-      </c>
       <c r="S92" s="12"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="3">
         <v>1472</v>
       </c>
@@ -3658,14 +3777,22 @@
         <f t="shared" si="0"/>
         <v>5C0</v>
       </c>
-      <c r="C93" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="D93" s="61"/>
-      <c r="E93" s="61"/>
-      <c r="F93" s="61"/>
-      <c r="G93" s="61"/>
-      <c r="H93" s="10"/>
+      <c r="C93" s="78" t="s">
+        <v>129</v>
+      </c>
+      <c r="D93" s="78" t="s">
+        <v>130</v>
+      </c>
+      <c r="E93" s="78" t="s">
+        <v>131</v>
+      </c>
+      <c r="F93" s="78" t="s">
+        <v>132</v>
+      </c>
+      <c r="G93" s="78" t="s">
+        <v>133</v>
+      </c>
+      <c r="H93" s="77"/>
       <c r="I93" s="10"/>
       <c r="J93" s="10"/>
       <c r="K93" s="10"/>
@@ -3675,16 +3802,16 @@
       <c r="O93" s="10"/>
       <c r="P93" s="10"/>
       <c r="Q93" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="R93" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="R93" s="17" t="s">
+      <c r="S93" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="S93" s="16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="3">
         <v>1488</v>
       </c>
@@ -3693,36 +3820,36 @@
         <v>5D0</v>
       </c>
       <c r="C94" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D94" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D94" s="17" t="s">
+      <c r="E94" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E94" s="17" t="s">
+      <c r="F94" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F94" s="17" t="s">
+      <c r="G94" s="17" t="s">
         <v>68</v>
-      </c>
-      <c r="G94" s="17" t="s">
-        <v>69</v>
       </c>
       <c r="H94" s="10"/>
       <c r="I94" s="10"/>
       <c r="J94" s="10"/>
-      <c r="K94" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="L94" s="53"/>
-      <c r="M94" s="53"/>
-      <c r="N94" s="53"/>
+      <c r="K94" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="L94" s="57"/>
+      <c r="M94" s="57"/>
+      <c r="N94" s="57"/>
       <c r="O94" s="10"/>
       <c r="P94" s="10"/>
       <c r="Q94" s="10"/>
       <c r="R94" s="10"/>
       <c r="S94" s="12"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="7">
         <v>1504</v>
       </c>
@@ -3730,37 +3857,45 @@
         <f t="shared" si="0"/>
         <v>5E0</v>
       </c>
-      <c r="C95" s="53" t="s">
+      <c r="C95" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="D95" s="57"/>
+      <c r="E95" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="D95" s="53"/>
-      <c r="E95" s="52" t="s">
+      <c r="F95" s="66"/>
+      <c r="G95" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="F95" s="52"/>
-      <c r="G95" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="H95" s="59"/>
-      <c r="I95" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="J95" s="52"/>
+      <c r="H95" s="67"/>
+      <c r="I95" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="J95" s="66"/>
       <c r="K95" s="22"/>
       <c r="L95" s="22"/>
       <c r="M95" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N95" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="O95" s="10"/>
-      <c r="P95" s="10"/>
-      <c r="Q95" s="10"/>
-      <c r="R95" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="O95" s="78" t="s">
+        <v>134</v>
+      </c>
+      <c r="P95" s="78" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q95" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="R95" s="78" t="s">
+        <v>137</v>
+      </c>
       <c r="S95" s="12"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="7">
         <v>1520</v>
       </c>
@@ -3768,7 +3903,9 @@
         <f t="shared" si="0"/>
         <v>5F0</v>
       </c>
-      <c r="C96" s="10"/>
+      <c r="C96" s="78" t="s">
+        <v>138</v>
+      </c>
       <c r="D96" s="10"/>
       <c r="E96" s="10"/>
       <c r="F96" s="10"/>
@@ -3779,24 +3916,24 @@
       <c r="K96" s="10"/>
       <c r="L96" s="10"/>
       <c r="M96" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="N96" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="N96" s="23" t="s">
-        <v>64</v>
-      </c>
       <c r="O96" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P96" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q96" s="26" t="s">
         <v>128</v>
-      </c>
-      <c r="Q96" s="26" t="s">
-        <v>129</v>
       </c>
       <c r="R96" s="10"/>
       <c r="S96" s="12"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="3">
         <v>1536</v>
       </c>
@@ -3808,27 +3945,27 @@
       <c r="D97" s="10"/>
       <c r="E97" s="10"/>
       <c r="F97" s="10"/>
-      <c r="G97" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="H97" s="74"/>
-      <c r="I97" s="74"/>
-      <c r="J97" s="74"/>
+      <c r="G97" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="H97" s="56"/>
+      <c r="I97" s="56"/>
+      <c r="J97" s="56"/>
       <c r="K97" s="10"/>
       <c r="L97" s="10"/>
       <c r="M97" s="10"/>
       <c r="N97" s="10"/>
-      <c r="O97" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="P97" s="42"/>
-      <c r="Q97" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="R97" s="44"/>
+      <c r="O97" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="P97" s="64"/>
+      <c r="Q97" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="R97" s="68"/>
       <c r="S97" s="12"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="3">
         <v>1552</v>
       </c>
@@ -3836,33 +3973,43 @@
         <f t="shared" si="0"/>
         <v>610</v>
       </c>
-      <c r="C98" s="44" t="s">
+      <c r="C98" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="D98" s="68"/>
+      <c r="E98" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="D98" s="44"/>
-      <c r="E98" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="F98" s="54"/>
+      <c r="F98" s="69"/>
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
       <c r="I98" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="J98" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="J98" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="K98" s="10"/>
-      <c r="L98" s="10"/>
-      <c r="M98" s="10"/>
-      <c r="N98" s="10"/>
-      <c r="O98" s="10"/>
+      <c r="K98" s="78" t="s">
+        <v>139</v>
+      </c>
+      <c r="L98" s="78" t="s">
+        <v>140</v>
+      </c>
+      <c r="M98" s="78" t="s">
+        <v>141</v>
+      </c>
+      <c r="N98" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="O98" s="78" t="s">
+        <v>143</v>
+      </c>
       <c r="P98" s="10"/>
       <c r="Q98" s="10"/>
       <c r="R98" s="10"/>
       <c r="S98" s="12"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="7">
         <v>1568</v>
       </c>
@@ -3888,7 +4035,7 @@
       <c r="R99" s="10"/>
       <c r="S99" s="12"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="7">
         <v>1584</v>
       </c>
@@ -3896,35 +4043,35 @@
         <f t="shared" si="0"/>
         <v>630</v>
       </c>
-      <c r="C100" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="D100" s="51"/>
-      <c r="E100" s="51"/>
-      <c r="F100" s="51"/>
+      <c r="C100" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D100" s="48"/>
+      <c r="E100" s="48"/>
+      <c r="F100" s="48"/>
       <c r="G100" s="10"/>
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
       <c r="J100" s="10"/>
-      <c r="K100" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="L100" s="51"/>
-      <c r="M100" s="50" t="s">
+      <c r="K100" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="L100" s="48"/>
+      <c r="M100" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="N100" s="70"/>
+      <c r="O100" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="N100" s="50"/>
-      <c r="O100" s="51" t="s">
+      <c r="P100" s="48"/>
+      <c r="Q100" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="P100" s="51"/>
-      <c r="Q100" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="R100" s="50"/>
+      <c r="R100" s="70"/>
       <c r="S100" s="12"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="3">
         <v>1600</v>
       </c>
@@ -3935,16 +4082,26 @@
       <c r="C101" s="10"/>
       <c r="D101" s="10"/>
       <c r="E101" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F101" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="F101" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="G101" s="10"/>
-      <c r="H101" s="10"/>
-      <c r="I101" s="10"/>
-      <c r="J101" s="10"/>
-      <c r="K101" s="10"/>
+      <c r="G101" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="H101" s="78" t="s">
+        <v>145</v>
+      </c>
+      <c r="I101" s="78" t="s">
+        <v>146</v>
+      </c>
+      <c r="J101" s="78" t="s">
+        <v>147</v>
+      </c>
+      <c r="K101" s="78" t="s">
+        <v>148</v>
+      </c>
       <c r="L101" s="10"/>
       <c r="M101" s="10"/>
       <c r="N101" s="10"/>
@@ -3954,7 +4111,7 @@
       <c r="R101" s="10"/>
       <c r="S101" s="12"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="3">
         <v>1616</v>
       </c>
@@ -3965,16 +4122,16 @@
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
       <c r="E102" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F102" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="F102" s="23" t="s">
+      <c r="G102" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="G102" s="23" t="s">
+      <c r="H102" s="23" t="s">
         <v>126</v>
-      </c>
-      <c r="H102" s="23" t="s">
-        <v>127</v>
       </c>
       <c r="I102" s="10"/>
       <c r="J102" s="10"/>
@@ -3982,15 +4139,15 @@
       <c r="L102" s="10"/>
       <c r="M102" s="10"/>
       <c r="N102" s="10"/>
-      <c r="O102" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="P102" s="51"/>
-      <c r="Q102" s="51"/>
-      <c r="R102" s="51"/>
+      <c r="O102" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="P102" s="48"/>
+      <c r="Q102" s="48"/>
+      <c r="R102" s="48"/>
       <c r="S102" s="12"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="7">
         <v>1632</v>
       </c>
@@ -4002,33 +4159,33 @@
       <c r="D103" s="10"/>
       <c r="E103" s="10"/>
       <c r="F103" s="10"/>
-      <c r="G103" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="H103" s="51"/>
-      <c r="I103" s="50" t="s">
+      <c r="G103" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="H103" s="48"/>
+      <c r="I103" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="J103" s="70"/>
+      <c r="K103" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="J103" s="50"/>
-      <c r="K103" s="51" t="s">
+      <c r="L103" s="48"/>
+      <c r="M103" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="L103" s="51"/>
-      <c r="M103" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="N103" s="50"/>
+      <c r="N103" s="70"/>
       <c r="O103" s="10"/>
       <c r="P103" s="10"/>
       <c r="Q103" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="R103" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="R103" s="35" t="s">
-        <v>92</v>
-      </c>
       <c r="S103" s="12"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="7">
         <v>1648</v>
       </c>
@@ -4036,11 +4193,21 @@
         <f t="shared" si="0"/>
         <v>670</v>
       </c>
-      <c r="C104" s="10"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
+      <c r="C104" s="78" t="s">
+        <v>149</v>
+      </c>
+      <c r="D104" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="E104" s="78" t="s">
+        <v>151</v>
+      </c>
+      <c r="F104" s="78" t="s">
+        <v>152</v>
+      </c>
+      <c r="G104" s="78" t="s">
+        <v>153</v>
+      </c>
       <c r="H104" s="10"/>
       <c r="I104" s="10"/>
       <c r="J104" s="10"/>
@@ -4051,14 +4218,14 @@
       <c r="O104" s="10"/>
       <c r="P104" s="10"/>
       <c r="Q104" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="R104" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="R104" s="23" t="s">
-        <v>119</v>
-      </c>
       <c r="S104" s="12"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="3">
         <v>1664</v>
       </c>
@@ -4067,34 +4234,34 @@
         <v>680</v>
       </c>
       <c r="C105" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D105" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="D105" s="23" t="s">
+      <c r="E105" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="E105" s="23" t="s">
+      <c r="F105" s="23" t="s">
         <v>122</v>
-      </c>
-      <c r="F105" s="23" t="s">
-        <v>123</v>
       </c>
       <c r="G105" s="10"/>
       <c r="H105" s="10"/>
       <c r="I105" s="10"/>
       <c r="J105" s="10"/>
-      <c r="K105" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="L105" s="53"/>
-      <c r="M105" s="53"/>
-      <c r="N105" s="53"/>
+      <c r="K105" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="L105" s="57"/>
+      <c r="M105" s="57"/>
+      <c r="N105" s="57"/>
       <c r="O105" s="10"/>
       <c r="P105" s="10"/>
       <c r="Q105" s="10"/>
       <c r="R105" s="10"/>
       <c r="S105" s="12"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="3">
         <v>1680</v>
       </c>
@@ -4102,37 +4269,45 @@
         <f t="shared" si="0"/>
         <v>690</v>
       </c>
-      <c r="C106" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="D106" s="53"/>
-      <c r="E106" s="52" t="s">
+      <c r="C106" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="D106" s="57"/>
+      <c r="E106" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="F106" s="66"/>
+      <c r="G106" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="F106" s="52"/>
-      <c r="G106" s="53" t="s">
+      <c r="H106" s="57"/>
+      <c r="I106" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="H106" s="53"/>
-      <c r="I106" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="J106" s="52"/>
+      <c r="J106" s="66"/>
       <c r="K106" s="10"/>
       <c r="L106" s="10"/>
       <c r="M106" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="N106" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="N106" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="O106" s="10"/>
-      <c r="P106" s="10"/>
-      <c r="Q106" s="10"/>
-      <c r="R106" s="10"/>
+      <c r="O106" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="P106" s="78" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q106" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="R106" s="78" t="s">
+        <v>157</v>
+      </c>
       <c r="S106" s="12"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="7">
         <v>1696</v>
       </c>
@@ -4140,7 +4315,9 @@
         <f t="shared" si="0"/>
         <v>6A0</v>
       </c>
-      <c r="C107" s="10"/>
+      <c r="C107" s="78" t="s">
+        <v>158</v>
+      </c>
       <c r="D107" s="10"/>
       <c r="E107" s="10"/>
       <c r="F107" s="10"/>
@@ -4151,24 +4328,24 @@
       <c r="K107" s="10"/>
       <c r="L107" s="10"/>
       <c r="M107" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="N107" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="N107" s="23" t="s">
+      <c r="O107" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="O107" s="23" t="s">
+      <c r="P107" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="P107" s="23" t="s">
+      <c r="Q107" s="23" t="s">
         <v>76</v>
-      </c>
-      <c r="Q107" s="23" t="s">
-        <v>77</v>
       </c>
       <c r="R107" s="10"/>
       <c r="S107" s="12"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="7">
         <v>1712</v>
       </c>
@@ -4180,27 +4357,27 @@
       <c r="D108" s="10"/>
       <c r="E108" s="10"/>
       <c r="F108" s="10"/>
-      <c r="G108" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="H108" s="46"/>
-      <c r="I108" s="46"/>
-      <c r="J108" s="46"/>
+      <c r="G108" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="H108" s="55"/>
+      <c r="I108" s="55"/>
+      <c r="J108" s="55"/>
       <c r="K108" s="10"/>
       <c r="L108" s="10"/>
       <c r="M108" s="10"/>
       <c r="N108" s="10"/>
-      <c r="O108" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="P108" s="46"/>
-      <c r="Q108" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="R108" s="45"/>
+      <c r="O108" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="P108" s="55"/>
+      <c r="Q108" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="R108" s="71"/>
       <c r="S108" s="12"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="3">
         <v>1728</v>
       </c>
@@ -4208,33 +4385,43 @@
         <f t="shared" si="0"/>
         <v>6C0</v>
       </c>
-      <c r="C109" s="46" t="s">
+      <c r="C109" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="D109" s="55"/>
+      <c r="E109" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="D109" s="46"/>
-      <c r="E109" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="F109" s="47"/>
+      <c r="F109" s="72"/>
       <c r="G109" s="10"/>
       <c r="H109" s="10"/>
       <c r="I109" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="J109" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="J109" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="K109" s="10"/>
-      <c r="L109" s="10"/>
-      <c r="M109" s="10"/>
-      <c r="N109" s="10"/>
-      <c r="O109" s="10"/>
+      <c r="K109" s="78" t="s">
+        <v>159</v>
+      </c>
+      <c r="L109" s="78" t="s">
+        <v>160</v>
+      </c>
+      <c r="M109" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="N109" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="O109" s="78" t="s">
+        <v>163</v>
+      </c>
       <c r="P109" s="10"/>
       <c r="Q109" s="10"/>
       <c r="R109" s="10"/>
       <c r="S109" s="12"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="3">
         <v>1744</v>
       </c>
@@ -4249,19 +4436,19 @@
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
       <c r="I110" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="J110" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="J110" s="23" t="s">
+      <c r="K110" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="K110" s="23" t="s">
+      <c r="L110" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="L110" s="23" t="s">
+      <c r="M110" s="23" t="s">
         <v>112</v>
-      </c>
-      <c r="M110" s="23" t="s">
-        <v>113</v>
       </c>
       <c r="N110" s="10"/>
       <c r="O110" s="10"/>
@@ -4270,7 +4457,7 @@
       <c r="R110" s="10"/>
       <c r="S110" s="12"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="7">
         <v>1760</v>
       </c>
@@ -4278,35 +4465,35 @@
         <f t="shared" si="0"/>
         <v>6E0</v>
       </c>
-      <c r="C111" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="D111" s="49"/>
-      <c r="E111" s="49"/>
-      <c r="F111" s="49"/>
+      <c r="C111" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="D111" s="74"/>
+      <c r="E111" s="74"/>
+      <c r="F111" s="74"/>
       <c r="G111" s="10"/>
       <c r="H111" s="10"/>
       <c r="I111" s="10"/>
       <c r="J111" s="10"/>
-      <c r="K111" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="L111" s="49"/>
-      <c r="M111" s="48" t="s">
+      <c r="K111" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="L111" s="74"/>
+      <c r="M111" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="N111" s="73"/>
+      <c r="O111" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="N111" s="48"/>
-      <c r="O111" s="49" t="s">
+      <c r="P111" s="74"/>
+      <c r="Q111" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="P111" s="49"/>
-      <c r="Q111" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="R111" s="48"/>
+      <c r="R111" s="73"/>
       <c r="S111" s="12"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="7">
         <v>1776</v>
       </c>
@@ -4317,16 +4504,26 @@
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
       <c r="E112" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="F112" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="F112" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="G112" s="10"/>
-      <c r="H112" s="10"/>
-      <c r="I112" s="10"/>
-      <c r="J112" s="10"/>
-      <c r="K112" s="10"/>
+      <c r="G112" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="H112" s="78" t="s">
+        <v>165</v>
+      </c>
+      <c r="I112" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="J112" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="K112" s="78" t="s">
+        <v>168</v>
+      </c>
       <c r="L112" s="10"/>
       <c r="M112" s="10"/>
       <c r="N112" s="10"/>
@@ -4336,7 +4533,7 @@
       <c r="R112" s="10"/>
       <c r="S112" s="12"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A113" s="3">
         <v>1792</v>
       </c>
@@ -4347,13 +4544,13 @@
       <c r="C113" s="10"/>
       <c r="D113" s="10"/>
       <c r="E113" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="F113" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F113" s="23" t="s">
+      <c r="G113" s="23" t="s">
         <v>115</v>
-      </c>
-      <c r="G113" s="23" t="s">
-        <v>116</v>
       </c>
       <c r="H113" s="10"/>
       <c r="I113" s="10"/>
@@ -4362,15 +4559,15 @@
       <c r="L113" s="10"/>
       <c r="M113" s="10"/>
       <c r="N113" s="10"/>
-      <c r="O113" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="P113" s="42"/>
-      <c r="Q113" s="42"/>
-      <c r="R113" s="42"/>
+      <c r="O113" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="P113" s="64"/>
+      <c r="Q113" s="64"/>
+      <c r="R113" s="64"/>
       <c r="S113" s="12"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A114" s="3">
         <v>1808</v>
       </c>
@@ -4382,33 +4579,33 @@
       <c r="D114" s="10"/>
       <c r="E114" s="10"/>
       <c r="F114" s="10"/>
-      <c r="G114" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="H114" s="43"/>
-      <c r="I114" s="44" t="s">
+      <c r="G114" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="H114" s="76"/>
+      <c r="I114" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="J114" s="68"/>
+      <c r="K114" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="J114" s="44"/>
-      <c r="K114" s="42" t="s">
+      <c r="L114" s="64"/>
+      <c r="M114" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="L114" s="42"/>
-      <c r="M114" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="N114" s="44"/>
+      <c r="N114" s="68"/>
       <c r="O114" s="10"/>
       <c r="P114" s="10"/>
       <c r="Q114" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="R114" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="R114" s="28" t="s">
-        <v>102</v>
-      </c>
       <c r="S114" s="12"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A115" s="7">
         <v>1824</v>
       </c>
@@ -4416,11 +4613,21 @@
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="10"/>
-      <c r="G115" s="10"/>
+      <c r="C115" s="78" t="s">
+        <v>159</v>
+      </c>
+      <c r="D115" s="78" t="s">
+        <v>160</v>
+      </c>
+      <c r="E115" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="F115" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="G115" s="78" t="s">
+        <v>163</v>
+      </c>
       <c r="H115" s="10"/>
       <c r="I115" s="10"/>
       <c r="J115" s="10"/>
@@ -4434,7 +4641,7 @@
       <c r="R115" s="10"/>
       <c r="S115" s="12"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A116" s="7">
         <v>1840</v>
       </c>
@@ -4460,7 +4667,7 @@
       <c r="R116" s="10"/>
       <c r="S116" s="12"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A117" s="3">
         <v>1856</v>
       </c>
@@ -4486,7 +4693,7 @@
       <c r="R117" s="10"/>
       <c r="S117" s="12"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A118" s="3">
         <v>1872</v>
       </c>
@@ -4512,7 +4719,7 @@
       <c r="R118" s="10"/>
       <c r="S118" s="12"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A119" s="7">
         <v>1888</v>
       </c>
@@ -4538,7 +4745,7 @@
       <c r="R119" s="10"/>
       <c r="S119" s="12"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A120" s="7">
         <v>1904</v>
       </c>
@@ -4564,7 +4771,7 @@
       <c r="R120" s="10"/>
       <c r="S120" s="12"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A121" s="3">
         <v>1920</v>
       </c>
@@ -4590,7 +4797,7 @@
       <c r="R121" s="10"/>
       <c r="S121" s="12"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A122" s="3">
         <v>1936</v>
       </c>
@@ -4616,7 +4823,7 @@
       <c r="R122" s="10"/>
       <c r="S122" s="12"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A123" s="7">
         <v>1952</v>
       </c>
@@ -4636,15 +4843,15 @@
       <c r="L123" s="10"/>
       <c r="M123" s="10"/>
       <c r="N123" s="10"/>
-      <c r="O123" s="70"/>
-      <c r="P123" s="61"/>
-      <c r="Q123" s="61"/>
-      <c r="R123" s="61"/>
+      <c r="O123" s="51"/>
+      <c r="P123" s="43"/>
+      <c r="Q123" s="43"/>
+      <c r="R123" s="43"/>
       <c r="S123" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A124" s="7">
         <v>1968</v>
       </c>
@@ -4652,25 +4859,25 @@
         <f t="shared" si="0"/>
         <v>7B0</v>
       </c>
-      <c r="C124" s="70"/>
-      <c r="D124" s="61"/>
-      <c r="E124" s="61"/>
-      <c r="F124" s="61"/>
-      <c r="G124" s="61"/>
-      <c r="H124" s="61"/>
-      <c r="I124" s="61"/>
-      <c r="J124" s="61"/>
-      <c r="K124" s="61"/>
-      <c r="L124" s="61"/>
-      <c r="M124" s="61"/>
-      <c r="N124" s="61"/>
-      <c r="O124" s="61"/>
-      <c r="P124" s="61"/>
-      <c r="Q124" s="61"/>
-      <c r="R124" s="61"/>
+      <c r="C124" s="51"/>
+      <c r="D124" s="43"/>
+      <c r="E124" s="43"/>
+      <c r="F124" s="43"/>
+      <c r="G124" s="43"/>
+      <c r="H124" s="43"/>
+      <c r="I124" s="43"/>
+      <c r="J124" s="43"/>
+      <c r="K124" s="43"/>
+      <c r="L124" s="43"/>
+      <c r="M124" s="43"/>
+      <c r="N124" s="43"/>
+      <c r="O124" s="43"/>
+      <c r="P124" s="43"/>
+      <c r="Q124" s="43"/>
+      <c r="R124" s="43"/>
       <c r="S124" s="12"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:19" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>1984</v>
       </c>
@@ -4678,25 +4885,25 @@
         <f t="shared" si="0"/>
         <v>7C0</v>
       </c>
-      <c r="C125" s="61"/>
-      <c r="D125" s="61"/>
-      <c r="E125" s="61"/>
-      <c r="F125" s="61"/>
-      <c r="G125" s="61"/>
-      <c r="H125" s="61"/>
-      <c r="I125" s="61"/>
-      <c r="J125" s="61"/>
-      <c r="K125" s="61"/>
-      <c r="L125" s="61"/>
-      <c r="M125" s="61"/>
-      <c r="N125" s="61"/>
-      <c r="O125" s="61"/>
-      <c r="P125" s="61"/>
-      <c r="Q125" s="61"/>
-      <c r="R125" s="61"/>
+      <c r="C125" s="43"/>
+      <c r="D125" s="43"/>
+      <c r="E125" s="43"/>
+      <c r="F125" s="43"/>
+      <c r="G125" s="43"/>
+      <c r="H125" s="43"/>
+      <c r="I125" s="43"/>
+      <c r="J125" s="43"/>
+      <c r="K125" s="43"/>
+      <c r="L125" s="43"/>
+      <c r="M125" s="43"/>
+      <c r="N125" s="43"/>
+      <c r="O125" s="43"/>
+      <c r="P125" s="43"/>
+      <c r="Q125" s="43"/>
+      <c r="R125" s="43"/>
       <c r="S125" s="12"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:19" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>2000</v>
       </c>
@@ -4704,25 +4911,25 @@
         <f t="shared" si="0"/>
         <v>7D0</v>
       </c>
-      <c r="C126" s="61"/>
-      <c r="D126" s="61"/>
-      <c r="E126" s="61"/>
-      <c r="F126" s="61"/>
-      <c r="G126" s="61"/>
-      <c r="H126" s="61"/>
-      <c r="I126" s="61"/>
-      <c r="J126" s="61"/>
-      <c r="K126" s="61"/>
-      <c r="L126" s="61"/>
-      <c r="M126" s="61"/>
-      <c r="N126" s="61"/>
-      <c r="O126" s="61"/>
-      <c r="P126" s="61"/>
-      <c r="Q126" s="61"/>
-      <c r="R126" s="61"/>
+      <c r="C126" s="43"/>
+      <c r="D126" s="43"/>
+      <c r="E126" s="43"/>
+      <c r="F126" s="43"/>
+      <c r="G126" s="43"/>
+      <c r="H126" s="43"/>
+      <c r="I126" s="43"/>
+      <c r="J126" s="43"/>
+      <c r="K126" s="43"/>
+      <c r="L126" s="43"/>
+      <c r="M126" s="43"/>
+      <c r="N126" s="43"/>
+      <c r="O126" s="43"/>
+      <c r="P126" s="43"/>
+      <c r="Q126" s="43"/>
+      <c r="R126" s="43"/>
       <c r="S126" s="12"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:19" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A127" s="7">
         <v>2016</v>
       </c>
@@ -4730,25 +4937,25 @@
         <f t="shared" si="0"/>
         <v>7E0</v>
       </c>
-      <c r="C127" s="61"/>
-      <c r="D127" s="61"/>
-      <c r="E127" s="61"/>
-      <c r="F127" s="61"/>
-      <c r="G127" s="61"/>
-      <c r="H127" s="61"/>
-      <c r="I127" s="61"/>
-      <c r="J127" s="61"/>
-      <c r="K127" s="61"/>
-      <c r="L127" s="61"/>
-      <c r="M127" s="61"/>
-      <c r="N127" s="61"/>
-      <c r="O127" s="61"/>
-      <c r="P127" s="61"/>
-      <c r="Q127" s="61"/>
-      <c r="R127" s="61"/>
+      <c r="C127" s="43"/>
+      <c r="D127" s="43"/>
+      <c r="E127" s="43"/>
+      <c r="F127" s="43"/>
+      <c r="G127" s="43"/>
+      <c r="H127" s="43"/>
+      <c r="I127" s="43"/>
+      <c r="J127" s="43"/>
+      <c r="K127" s="43"/>
+      <c r="L127" s="43"/>
+      <c r="M127" s="43"/>
+      <c r="N127" s="43"/>
+      <c r="O127" s="43"/>
+      <c r="P127" s="43"/>
+      <c r="Q127" s="43"/>
+      <c r="R127" s="43"/>
       <c r="S127" s="12"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:19" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A128" s="7">
         <v>2032</v>
       </c>
@@ -4756,25 +4963,25 @@
         <f t="shared" si="0"/>
         <v>7F0</v>
       </c>
-      <c r="C128" s="61"/>
-      <c r="D128" s="61"/>
-      <c r="E128" s="61"/>
-      <c r="F128" s="61"/>
-      <c r="G128" s="61"/>
-      <c r="H128" s="61"/>
-      <c r="I128" s="61"/>
-      <c r="J128" s="61"/>
-      <c r="K128" s="61"/>
-      <c r="L128" s="61"/>
-      <c r="M128" s="61"/>
-      <c r="N128" s="61"/>
-      <c r="O128" s="61"/>
-      <c r="P128" s="61"/>
-      <c r="Q128" s="61"/>
-      <c r="R128" s="61"/>
+      <c r="C128" s="43"/>
+      <c r="D128" s="43"/>
+      <c r="E128" s="43"/>
+      <c r="F128" s="43"/>
+      <c r="G128" s="43"/>
+      <c r="H128" s="43"/>
+      <c r="I128" s="43"/>
+      <c r="J128" s="43"/>
+      <c r="K128" s="43"/>
+      <c r="L128" s="43"/>
+      <c r="M128" s="43"/>
+      <c r="N128" s="43"/>
+      <c r="O128" s="43"/>
+      <c r="P128" s="43"/>
+      <c r="Q128" s="43"/>
+      <c r="R128" s="43"/>
       <c r="S128" s="12"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A129" s="3">
         <v>2048</v>
       </c>
@@ -4800,7 +5007,7 @@
       <c r="R129" s="10"/>
       <c r="S129" s="12"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A130" s="3">
         <v>2064</v>
       </c>
@@ -4826,7 +5033,7 @@
       <c r="R130" s="10"/>
       <c r="S130" s="12"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A131" s="7">
         <v>2080</v>
       </c>
@@ -4852,7 +5059,7 @@
       <c r="R131" s="10"/>
       <c r="S131" s="12"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A132" s="7">
         <v>2096</v>
       </c>
@@ -4878,7 +5085,7 @@
       <c r="R132" s="10"/>
       <c r="S132" s="12"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A133" s="3">
         <v>2112</v>
       </c>
@@ -4904,7 +5111,7 @@
       <c r="R133" s="10"/>
       <c r="S133" s="12"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A134" s="3">
         <v>2128</v>
       </c>
@@ -4930,7 +5137,7 @@
       <c r="R134" s="10"/>
       <c r="S134" s="12"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A135" s="7">
         <v>2144</v>
       </c>
@@ -4956,7 +5163,7 @@
       <c r="R135" s="10"/>
       <c r="S135" s="12"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A136" s="7">
         <v>2160</v>
       </c>
@@ -4982,7 +5189,7 @@
       <c r="R136" s="10"/>
       <c r="S136" s="12"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A137" s="3">
         <v>2176</v>
       </c>
@@ -5008,7 +5215,7 @@
       <c r="R137" s="10"/>
       <c r="S137" s="12"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A138" s="3">
         <v>2192</v>
       </c>
@@ -5034,7 +5241,7 @@
       <c r="R138" s="10"/>
       <c r="S138" s="12"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A139" s="7">
         <v>2208</v>
       </c>
@@ -5060,7 +5267,7 @@
       <c r="R139" s="10"/>
       <c r="S139" s="12"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A140" s="7">
         <v>2224</v>
       </c>
@@ -5086,7 +5293,7 @@
       <c r="R140" s="10"/>
       <c r="S140" s="12"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A141" s="3">
         <v>2240</v>
       </c>
@@ -5112,7 +5319,7 @@
       <c r="R141" s="10"/>
       <c r="S141" s="12"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A142" s="3">
         <v>2256</v>
       </c>
@@ -5138,7 +5345,7 @@
       <c r="R142" s="10"/>
       <c r="S142" s="12"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A143" s="7">
         <v>2272</v>
       </c>
@@ -5164,7 +5371,7 @@
       <c r="R143" s="10"/>
       <c r="S143" s="12"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A144" s="7">
         <v>2288</v>
       </c>
@@ -5190,7 +5397,7 @@
       <c r="R144" s="10"/>
       <c r="S144" s="12"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A145" s="3">
         <v>2304</v>
       </c>
@@ -5216,7 +5423,7 @@
       <c r="R145" s="10"/>
       <c r="S145" s="12"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A146" s="3">
         <v>2320</v>
       </c>
@@ -5242,7 +5449,7 @@
       <c r="R146" s="10"/>
       <c r="S146" s="12"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A147" s="7">
         <v>2336</v>
       </c>
@@ -5268,7 +5475,7 @@
       <c r="R147" s="10"/>
       <c r="S147" s="12"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A148" s="7">
         <v>2352</v>
       </c>
@@ -5294,7 +5501,7 @@
       <c r="R148" s="10"/>
       <c r="S148" s="12"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A149" s="3">
         <v>2368</v>
       </c>
@@ -5320,7 +5527,7 @@
       <c r="R149" s="10"/>
       <c r="S149" s="12"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A150" s="3">
         <v>2384</v>
       </c>
@@ -5346,7 +5553,7 @@
       <c r="R150" s="10"/>
       <c r="S150" s="12"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A151" s="7">
         <v>2400</v>
       </c>
@@ -5372,7 +5579,7 @@
       <c r="R151" s="10"/>
       <c r="S151" s="12"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A152" s="7">
         <v>2416</v>
       </c>
@@ -5398,7 +5605,7 @@
       <c r="R152" s="10"/>
       <c r="S152" s="12"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A153" s="3">
         <v>2432</v>
       </c>
@@ -5424,7 +5631,7 @@
       <c r="R153" s="10"/>
       <c r="S153" s="12"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A154" s="3">
         <v>2448</v>
       </c>
@@ -5450,7 +5657,7 @@
       <c r="R154" s="10"/>
       <c r="S154" s="12"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A155" s="7">
         <v>2464</v>
       </c>
@@ -5476,7 +5683,7 @@
       <c r="R155" s="10"/>
       <c r="S155" s="12"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A156" s="7">
         <v>2480</v>
       </c>
@@ -5502,7 +5709,7 @@
       <c r="R156" s="10"/>
       <c r="S156" s="12"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A157" s="3">
         <v>2496</v>
       </c>
@@ -5528,7 +5735,7 @@
       <c r="R157" s="10"/>
       <c r="S157" s="12"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A158" s="3">
         <v>2512</v>
       </c>
@@ -5554,7 +5761,7 @@
       <c r="R158" s="10"/>
       <c r="S158" s="12"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A159" s="7">
         <v>2528</v>
       </c>
@@ -5580,7 +5787,7 @@
       <c r="R159" s="10"/>
       <c r="S159" s="12"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A160" s="7">
         <v>2544</v>
       </c>
@@ -5606,7 +5813,7 @@
       <c r="R160" s="10"/>
       <c r="S160" s="12"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A161" s="3">
         <v>2560</v>
       </c>
@@ -5632,7 +5839,7 @@
       <c r="R161" s="10"/>
       <c r="S161" s="12"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A162" s="3">
         <v>2576</v>
       </c>
@@ -5658,7 +5865,7 @@
       <c r="R162" s="10"/>
       <c r="S162" s="12"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A163" s="7">
         <v>2592</v>
       </c>
@@ -5684,7 +5891,7 @@
       <c r="R163" s="10"/>
       <c r="S163" s="12"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A164" s="7">
         <v>2608</v>
       </c>
@@ -5710,7 +5917,7 @@
       <c r="R164" s="10"/>
       <c r="S164" s="12"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A165" s="3">
         <v>2624</v>
       </c>
@@ -5736,7 +5943,7 @@
       <c r="R165" s="10"/>
       <c r="S165" s="12"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A166" s="3">
         <v>2640</v>
       </c>
@@ -5762,7 +5969,7 @@
       <c r="R166" s="10"/>
       <c r="S166" s="12"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A167" s="7">
         <v>2656</v>
       </c>
@@ -5788,7 +5995,7 @@
       <c r="R167" s="10"/>
       <c r="S167" s="12"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A168" s="7">
         <v>2672</v>
       </c>
@@ -5814,7 +6021,7 @@
       <c r="R168" s="10"/>
       <c r="S168" s="12"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A169" s="3">
         <v>2688</v>
       </c>
@@ -5840,7 +6047,7 @@
       <c r="R169" s="10"/>
       <c r="S169" s="12"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A170" s="3">
         <v>2704</v>
       </c>
@@ -5866,7 +6073,7 @@
       <c r="R170" s="10"/>
       <c r="S170" s="12"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A171" s="7">
         <v>2720</v>
       </c>
@@ -5892,7 +6099,7 @@
       <c r="R171" s="10"/>
       <c r="S171" s="12"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A172" s="7">
         <v>2736</v>
       </c>
@@ -5918,7 +6125,7 @@
       <c r="R172" s="10"/>
       <c r="S172" s="12"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A173" s="3">
         <v>2752</v>
       </c>
@@ -5944,7 +6151,7 @@
       <c r="R173" s="10"/>
       <c r="S173" s="12"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A174" s="3">
         <v>2768</v>
       </c>
@@ -5970,7 +6177,7 @@
       <c r="R174" s="10"/>
       <c r="S174" s="12"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A175" s="7">
         <v>2784</v>
       </c>
@@ -5996,7 +6203,7 @@
       <c r="R175" s="10"/>
       <c r="S175" s="12"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A176" s="7">
         <v>2800</v>
       </c>
@@ -6022,7 +6229,7 @@
       <c r="R176" s="10"/>
       <c r="S176" s="12"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A177" s="3">
         <v>2816</v>
       </c>
@@ -6048,7 +6255,7 @@
       <c r="R177" s="10"/>
       <c r="S177" s="12"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A178" s="3">
         <v>2832</v>
       </c>
@@ -6074,7 +6281,7 @@
       <c r="R178" s="10"/>
       <c r="S178" s="12"/>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A179" s="7">
         <v>2848</v>
       </c>
@@ -6100,7 +6307,7 @@
       <c r="R179" s="10"/>
       <c r="S179" s="12"/>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A180" s="7">
         <v>2864</v>
       </c>
@@ -6126,7 +6333,7 @@
       <c r="R180" s="10"/>
       <c r="S180" s="12"/>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A181" s="3">
         <v>2880</v>
       </c>
@@ -6152,7 +6359,7 @@
       <c r="R181" s="10"/>
       <c r="S181" s="12"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A182" s="3">
         <v>2896</v>
       </c>
@@ -6178,7 +6385,7 @@
       <c r="R182" s="10"/>
       <c r="S182" s="12"/>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A183" s="7">
         <v>2912</v>
       </c>
@@ -6204,7 +6411,7 @@
       <c r="R183" s="10"/>
       <c r="S183" s="12"/>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A184" s="7">
         <v>2928</v>
       </c>
@@ -6230,7 +6437,7 @@
       <c r="R184" s="10"/>
       <c r="S184" s="12"/>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A185" s="3">
         <v>2944</v>
       </c>
@@ -6256,7 +6463,7 @@
       <c r="R185" s="10"/>
       <c r="S185" s="12"/>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A186" s="3">
         <v>2960</v>
       </c>
@@ -6282,7 +6489,7 @@
       <c r="R186" s="10"/>
       <c r="S186" s="12"/>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A187" s="7">
         <v>2976</v>
       </c>
@@ -6308,7 +6515,7 @@
       <c r="R187" s="10"/>
       <c r="S187" s="12"/>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A188" s="7">
         <v>2992</v>
       </c>
@@ -6334,7 +6541,7 @@
       <c r="R188" s="10"/>
       <c r="S188" s="12"/>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A189" s="3">
         <v>3008</v>
       </c>
@@ -6360,7 +6567,7 @@
       <c r="R189" s="10"/>
       <c r="S189" s="12"/>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A190" s="3">
         <v>3024</v>
       </c>
@@ -6386,7 +6593,7 @@
       <c r="R190" s="10"/>
       <c r="S190" s="12"/>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A191" s="7">
         <v>3040</v>
       </c>
@@ -6412,7 +6619,7 @@
       <c r="R191" s="10"/>
       <c r="S191" s="12"/>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A192" s="7">
         <v>3056</v>
       </c>
@@ -6438,7 +6645,7 @@
       <c r="R192" s="10"/>
       <c r="S192" s="12"/>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A193" s="3">
         <v>3072</v>
       </c>
@@ -6464,7 +6671,7 @@
       <c r="R193" s="10"/>
       <c r="S193" s="12"/>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A194" s="3">
         <v>3088</v>
       </c>
@@ -6490,7 +6697,7 @@
       <c r="R194" s="10"/>
       <c r="S194" s="12"/>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A195" s="7">
         <v>3104</v>
       </c>
@@ -6516,7 +6723,7 @@
       <c r="R195" s="10"/>
       <c r="S195" s="12"/>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A196" s="7">
         <v>3120</v>
       </c>
@@ -6542,7 +6749,7 @@
       <c r="R196" s="10"/>
       <c r="S196" s="12"/>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A197" s="3">
         <v>3136</v>
       </c>
@@ -6568,7 +6775,7 @@
       <c r="R197" s="10"/>
       <c r="S197" s="12"/>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A198" s="3">
         <v>3152</v>
       </c>
@@ -6594,7 +6801,7 @@
       <c r="R198" s="10"/>
       <c r="S198" s="12"/>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A199" s="7">
         <v>3168</v>
       </c>
@@ -6620,7 +6827,7 @@
       <c r="R199" s="10"/>
       <c r="S199" s="12"/>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A200" s="7">
         <v>3184</v>
       </c>
@@ -6646,7 +6853,7 @@
       <c r="R200" s="10"/>
       <c r="S200" s="12"/>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A201" s="3">
         <v>3200</v>
       </c>
@@ -6672,7 +6879,7 @@
       <c r="R201" s="10"/>
       <c r="S201" s="12"/>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A202" s="3">
         <v>3216</v>
       </c>
@@ -6698,7 +6905,7 @@
       <c r="R202" s="10"/>
       <c r="S202" s="12"/>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A203" s="7">
         <v>3232</v>
       </c>
@@ -6724,7 +6931,7 @@
       <c r="R203" s="10"/>
       <c r="S203" s="12"/>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A204" s="7">
         <v>3248</v>
       </c>
@@ -6750,7 +6957,7 @@
       <c r="R204" s="10"/>
       <c r="S204" s="12"/>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A205" s="3">
         <v>3264</v>
       </c>
@@ -6776,7 +6983,7 @@
       <c r="R205" s="10"/>
       <c r="S205" s="12"/>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A206" s="3">
         <v>3280</v>
       </c>
@@ -6802,7 +7009,7 @@
       <c r="R206" s="10"/>
       <c r="S206" s="12"/>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A207" s="7">
         <v>3296</v>
       </c>
@@ -6828,7 +7035,7 @@
       <c r="R207" s="10"/>
       <c r="S207" s="12"/>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A208" s="7">
         <v>3312</v>
       </c>
@@ -6854,7 +7061,7 @@
       <c r="R208" s="10"/>
       <c r="S208" s="12"/>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A209" s="3">
         <v>3328</v>
       </c>
@@ -6880,7 +7087,7 @@
       <c r="R209" s="10"/>
       <c r="S209" s="12"/>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A210" s="3">
         <v>3344</v>
       </c>
@@ -6906,7 +7113,7 @@
       <c r="R210" s="10"/>
       <c r="S210" s="12"/>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A211" s="7">
         <v>3360</v>
       </c>
@@ -6932,7 +7139,7 @@
       <c r="R211" s="10"/>
       <c r="S211" s="12"/>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A212" s="7">
         <v>3376</v>
       </c>
@@ -6958,7 +7165,7 @@
       <c r="R212" s="10"/>
       <c r="S212" s="12"/>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A213" s="3">
         <v>3392</v>
       </c>
@@ -6984,7 +7191,7 @@
       <c r="R213" s="10"/>
       <c r="S213" s="12"/>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A214" s="3">
         <v>3408</v>
       </c>
@@ -7010,7 +7217,7 @@
       <c r="R214" s="10"/>
       <c r="S214" s="12"/>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A215" s="7">
         <v>3424</v>
       </c>
@@ -7036,7 +7243,7 @@
       <c r="R215" s="10"/>
       <c r="S215" s="12"/>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A216" s="7">
         <v>3440</v>
       </c>
@@ -7062,7 +7269,7 @@
       <c r="R216" s="10"/>
       <c r="S216" s="12"/>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A217" s="3">
         <v>3456</v>
       </c>
@@ -7088,7 +7295,7 @@
       <c r="R217" s="10"/>
       <c r="S217" s="12"/>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A218" s="3">
         <v>3472</v>
       </c>
@@ -7114,7 +7321,7 @@
       <c r="R218" s="10"/>
       <c r="S218" s="12"/>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A219" s="7">
         <v>3488</v>
       </c>
@@ -7140,7 +7347,7 @@
       <c r="R219" s="10"/>
       <c r="S219" s="12"/>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A220" s="7">
         <v>3504</v>
       </c>
@@ -7166,7 +7373,7 @@
       <c r="R220" s="10"/>
       <c r="S220" s="12"/>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A221" s="3">
         <v>3520</v>
       </c>
@@ -7192,7 +7399,7 @@
       <c r="R221" s="10"/>
       <c r="S221" s="12"/>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A222" s="3">
         <v>3536</v>
       </c>
@@ -7218,7 +7425,7 @@
       <c r="R222" s="10"/>
       <c r="S222" s="12"/>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A223" s="7">
         <v>3552</v>
       </c>
@@ -7244,7 +7451,7 @@
       <c r="R223" s="10"/>
       <c r="S223" s="12"/>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A224" s="7">
         <v>3568</v>
       </c>
@@ -7270,7 +7477,7 @@
       <c r="R224" s="10"/>
       <c r="S224" s="12"/>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A225" s="3">
         <v>3584</v>
       </c>
@@ -7296,7 +7503,7 @@
       <c r="R225" s="10"/>
       <c r="S225" s="12"/>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A226" s="3">
         <v>3600</v>
       </c>
@@ -7322,7 +7529,7 @@
       <c r="R226" s="10"/>
       <c r="S226" s="12"/>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A227" s="7">
         <v>3616</v>
       </c>
@@ -7348,7 +7555,7 @@
       <c r="R227" s="10"/>
       <c r="S227" s="12"/>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A228" s="7">
         <v>3632</v>
       </c>
@@ -7374,7 +7581,7 @@
       <c r="R228" s="10"/>
       <c r="S228" s="12"/>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A229" s="3">
         <v>3648</v>
       </c>
@@ -7400,7 +7607,7 @@
       <c r="R229" s="10"/>
       <c r="S229" s="12"/>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A230" s="3">
         <v>3664</v>
       </c>
@@ -7426,7 +7633,7 @@
       <c r="R230" s="10"/>
       <c r="S230" s="12"/>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A231" s="7">
         <v>3680</v>
       </c>
@@ -7452,7 +7659,7 @@
       <c r="R231" s="10"/>
       <c r="S231" s="12"/>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A232" s="7">
         <v>3696</v>
       </c>
@@ -7478,7 +7685,7 @@
       <c r="R232" s="10"/>
       <c r="S232" s="12"/>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A233" s="3">
         <v>3712</v>
       </c>
@@ -7504,7 +7711,7 @@
       <c r="R233" s="10"/>
       <c r="S233" s="12"/>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A234" s="3">
         <v>3728</v>
       </c>
@@ -7530,7 +7737,7 @@
       <c r="R234" s="10"/>
       <c r="S234" s="12"/>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A235" s="7">
         <v>3744</v>
       </c>
@@ -7556,7 +7763,7 @@
       <c r="R235" s="10"/>
       <c r="S235" s="12"/>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A236" s="7">
         <v>3760</v>
       </c>
@@ -7582,7 +7789,7 @@
       <c r="R236" s="10"/>
       <c r="S236" s="12"/>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A237" s="3">
         <v>3776</v>
       </c>
@@ -7608,7 +7815,7 @@
       <c r="R237" s="10"/>
       <c r="S237" s="12"/>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A238" s="3">
         <v>3792</v>
       </c>
@@ -7634,7 +7841,7 @@
       <c r="R238" s="10"/>
       <c r="S238" s="12"/>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A239" s="7">
         <v>3808</v>
       </c>
@@ -7660,7 +7867,7 @@
       <c r="R239" s="10"/>
       <c r="S239" s="12"/>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A240" s="7">
         <v>3824</v>
       </c>
@@ -7686,7 +7893,7 @@
       <c r="R240" s="10"/>
       <c r="S240" s="12"/>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A241" s="3">
         <v>3840</v>
       </c>
@@ -7712,7 +7919,7 @@
       <c r="R241" s="10"/>
       <c r="S241" s="12"/>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A242" s="3">
         <v>3856</v>
       </c>
@@ -7738,7 +7945,7 @@
       <c r="R242" s="10"/>
       <c r="S242" s="12"/>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A243" s="7">
         <v>3872</v>
       </c>
@@ -7764,7 +7971,7 @@
       <c r="R243" s="10"/>
       <c r="S243" s="12"/>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A244" s="7">
         <v>3888</v>
       </c>
@@ -7790,7 +7997,7 @@
       <c r="R244" s="10"/>
       <c r="S244" s="12"/>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A245" s="3">
         <v>3904</v>
       </c>
@@ -7816,7 +8023,7 @@
       <c r="R245" s="10"/>
       <c r="S245" s="12"/>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A246" s="3">
         <v>3920</v>
       </c>
@@ -7842,7 +8049,7 @@
       <c r="R246" s="10"/>
       <c r="S246" s="12"/>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A247" s="7">
         <v>3936</v>
       </c>
@@ -7868,7 +8075,7 @@
       <c r="R247" s="10"/>
       <c r="S247" s="12"/>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A248" s="7">
         <v>3952</v>
       </c>
@@ -7894,7 +8101,7 @@
       <c r="R248" s="10"/>
       <c r="S248" s="12"/>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A249" s="3">
         <v>3968</v>
       </c>
@@ -7920,7 +8127,7 @@
       <c r="R249" s="10"/>
       <c r="S249" s="12"/>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A250" s="3">
         <v>3984</v>
       </c>
@@ -7946,7 +8153,7 @@
       <c r="R250" s="10"/>
       <c r="S250" s="12"/>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A251" s="7">
         <v>4000</v>
       </c>
@@ -7972,7 +8179,7 @@
       <c r="R251" s="10"/>
       <c r="S251" s="12"/>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A252" s="7">
         <v>4016</v>
       </c>
@@ -7998,7 +8205,7 @@
       <c r="R252" s="10"/>
       <c r="S252" s="12"/>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A253" s="3">
         <v>4032</v>
       </c>
@@ -8024,7 +8231,7 @@
       <c r="R253" s="10"/>
       <c r="S253" s="12"/>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A254" s="3">
         <v>4048</v>
       </c>
@@ -8050,7 +8257,7 @@
       <c r="R254" s="10"/>
       <c r="S254" s="12"/>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A255" s="7">
         <v>4064</v>
       </c>
@@ -8076,7 +8283,7 @@
       <c r="R255" s="10"/>
       <c r="S255" s="12"/>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A256" s="7">
         <v>4080</v>
       </c>
@@ -8102,7 +8309,7 @@
       <c r="R256" s="10"/>
       <c r="S256" s="12"/>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A257" s="3">
         <v>4096</v>
       </c>
@@ -8128,7 +8335,7 @@
       <c r="R257" s="10"/>
       <c r="S257" s="12"/>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A258" s="3">
         <v>4112</v>
       </c>
@@ -8154,7 +8361,7 @@
       <c r="R258" s="10"/>
       <c r="S258" s="12"/>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A259" s="7">
         <v>4128</v>
       </c>
@@ -8180,7 +8387,7 @@
       <c r="R259" s="10"/>
       <c r="S259" s="12"/>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A260" s="7">
         <v>4144</v>
       </c>
@@ -8206,7 +8413,7 @@
       <c r="R260" s="10"/>
       <c r="S260" s="12"/>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A261" s="3">
         <v>4160</v>
       </c>
@@ -8232,7 +8439,7 @@
       <c r="R261" s="10"/>
       <c r="S261" s="12"/>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A262" s="3">
         <v>4176</v>
       </c>
@@ -8258,7 +8465,7 @@
       <c r="R262" s="10"/>
       <c r="S262" s="12"/>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A263" s="7">
         <v>4192</v>
       </c>
@@ -8284,7 +8491,7 @@
       <c r="R263" s="10"/>
       <c r="S263" s="12"/>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A264" s="7">
         <v>4208</v>
       </c>
@@ -8310,7 +8517,7 @@
       <c r="R264" s="10"/>
       <c r="S264" s="12"/>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A265" s="3">
         <v>4224</v>
       </c>
@@ -8336,7 +8543,7 @@
       <c r="R265" s="10"/>
       <c r="S265" s="12"/>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A266" s="3">
         <v>4240</v>
       </c>
@@ -8362,7 +8569,7 @@
       <c r="R266" s="10"/>
       <c r="S266" s="12"/>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A267" s="7">
         <v>4256</v>
       </c>
@@ -8388,7 +8595,7 @@
       <c r="R267" s="10"/>
       <c r="S267" s="12"/>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A268" s="7">
         <v>4272</v>
       </c>
@@ -8414,7 +8621,7 @@
       <c r="R268" s="10"/>
       <c r="S268" s="12"/>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A269" s="3">
         <v>4288</v>
       </c>
@@ -8440,7 +8647,7 @@
       <c r="R269" s="10"/>
       <c r="S269" s="12"/>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A270" s="3">
         <v>4304</v>
       </c>
@@ -8466,7 +8673,7 @@
       <c r="R270" s="10"/>
       <c r="S270" s="12"/>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A271" s="7">
         <v>4320</v>
       </c>
@@ -8492,7 +8699,7 @@
       <c r="R271" s="10"/>
       <c r="S271" s="12"/>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A272" s="7">
         <v>4336</v>
       </c>
@@ -8518,7 +8725,7 @@
       <c r="R272" s="10"/>
       <c r="S272" s="12"/>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A273" s="3">
         <v>4352</v>
       </c>
@@ -8544,7 +8751,7 @@
       <c r="R273" s="10"/>
       <c r="S273" s="12"/>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A274" s="3">
         <v>4368</v>
       </c>
@@ -8570,7 +8777,7 @@
       <c r="R274" s="10"/>
       <c r="S274" s="12"/>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A275" s="7">
         <v>4384</v>
       </c>
@@ -8596,7 +8803,7 @@
       <c r="R275" s="10"/>
       <c r="S275" s="12"/>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A276" s="7">
         <v>4400</v>
       </c>
@@ -8622,7 +8829,7 @@
       <c r="R276" s="10"/>
       <c r="S276" s="12"/>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A277" s="3">
         <v>4416</v>
       </c>
@@ -8648,7 +8855,7 @@
       <c r="R277" s="10"/>
       <c r="S277" s="12"/>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A278" s="3">
         <v>4432</v>
       </c>
@@ -8674,7 +8881,7 @@
       <c r="R278" s="10"/>
       <c r="S278" s="12"/>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A279" s="7">
         <v>4448</v>
       </c>
@@ -8700,7 +8907,7 @@
       <c r="R279" s="10"/>
       <c r="S279" s="12"/>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A280" s="7">
         <v>4464</v>
       </c>
@@ -8726,7 +8933,7 @@
       <c r="R280" s="10"/>
       <c r="S280" s="12"/>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A281" s="3">
         <v>4480</v>
       </c>
@@ -8752,7 +8959,7 @@
       <c r="R281" s="10"/>
       <c r="S281" s="12"/>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A282" s="3">
         <v>4496</v>
       </c>
@@ -8778,7 +8985,7 @@
       <c r="R282" s="10"/>
       <c r="S282" s="12"/>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A283" s="7">
         <v>4512</v>
       </c>
@@ -8804,7 +9011,7 @@
       <c r="R283" s="10"/>
       <c r="S283" s="12"/>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A284" s="7">
         <v>4528</v>
       </c>
@@ -8830,7 +9037,7 @@
       <c r="R284" s="10"/>
       <c r="S284" s="12"/>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A285" s="3">
         <v>4544</v>
       </c>
@@ -8856,7 +9063,7 @@
       <c r="R285" s="10"/>
       <c r="S285" s="12"/>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A286" s="3">
         <v>4560</v>
       </c>
@@ -8882,7 +9089,7 @@
       <c r="R286" s="10"/>
       <c r="S286" s="12"/>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A287" s="7">
         <v>4576</v>
       </c>
@@ -8908,7 +9115,7 @@
       <c r="R287" s="10"/>
       <c r="S287" s="12"/>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A288" s="7">
         <v>4592</v>
       </c>
@@ -8934,7 +9141,7 @@
       <c r="R288" s="10"/>
       <c r="S288" s="12"/>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A289" s="3">
         <v>4608</v>
       </c>
@@ -8960,7 +9167,7 @@
       <c r="R289" s="10"/>
       <c r="S289" s="12"/>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A290" s="3">
         <v>4624</v>
       </c>
@@ -8986,7 +9193,7 @@
       <c r="R290" s="10"/>
       <c r="S290" s="12"/>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A291" s="7">
         <v>4640</v>
       </c>
@@ -9012,7 +9219,7 @@
       <c r="R291" s="10"/>
       <c r="S291" s="12"/>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A292" s="7">
         <v>4656</v>
       </c>
@@ -9038,7 +9245,7 @@
       <c r="R292" s="10"/>
       <c r="S292" s="12"/>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A293" s="3">
         <v>4672</v>
       </c>
@@ -9064,7 +9271,7 @@
       <c r="R293" s="10"/>
       <c r="S293" s="12"/>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A294" s="3">
         <v>4688</v>
       </c>
@@ -9090,7 +9297,7 @@
       <c r="R294" s="10"/>
       <c r="S294" s="12"/>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A295" s="7">
         <v>4704</v>
       </c>
@@ -9116,7 +9323,7 @@
       <c r="R295" s="10"/>
       <c r="S295" s="12"/>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A296" s="7">
         <v>4720</v>
       </c>
@@ -9142,7 +9349,7 @@
       <c r="R296" s="10"/>
       <c r="S296" s="12"/>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A297" s="3">
         <v>4736</v>
       </c>
@@ -9168,7 +9375,7 @@
       <c r="R297" s="10"/>
       <c r="S297" s="12"/>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A298" s="3">
         <v>4752</v>
       </c>
@@ -9194,7 +9401,7 @@
       <c r="R298" s="10"/>
       <c r="S298" s="12"/>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A299" s="7">
         <v>4768</v>
       </c>
@@ -9220,7 +9427,7 @@
       <c r="R299" s="10"/>
       <c r="S299" s="12"/>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A300" s="7">
         <v>4784</v>
       </c>
@@ -9246,7 +9453,7 @@
       <c r="R300" s="10"/>
       <c r="S300" s="12"/>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A301" s="3">
         <v>4800</v>
       </c>
@@ -9272,7 +9479,7 @@
       <c r="R301" s="10"/>
       <c r="S301" s="12"/>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A302" s="3">
         <v>4816</v>
       </c>
@@ -9298,7 +9505,7 @@
       <c r="R302" s="10"/>
       <c r="S302" s="12"/>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A303" s="7">
         <v>4832</v>
       </c>
@@ -9324,7 +9531,7 @@
       <c r="R303" s="10"/>
       <c r="S303" s="12"/>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A304" s="7">
         <v>4848</v>
       </c>
@@ -9350,7 +9557,7 @@
       <c r="R304" s="10"/>
       <c r="S304" s="12"/>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A305" s="3">
         <v>4864</v>
       </c>
@@ -9376,7 +9583,7 @@
       <c r="R305" s="10"/>
       <c r="S305" s="12"/>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A306" s="3">
         <v>4880</v>
       </c>
@@ -9402,7 +9609,7 @@
       <c r="R306" s="10"/>
       <c r="S306" s="12"/>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A307" s="7">
         <v>4896</v>
       </c>
@@ -9428,7 +9635,7 @@
       <c r="R307" s="10"/>
       <c r="S307" s="12"/>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A308" s="7">
         <v>4912</v>
       </c>
@@ -9454,7 +9661,7 @@
       <c r="R308" s="10"/>
       <c r="S308" s="12"/>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A309" s="3">
         <v>4928</v>
       </c>
@@ -9480,7 +9687,7 @@
       <c r="R309" s="10"/>
       <c r="S309" s="12"/>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A310" s="3">
         <v>4944</v>
       </c>
@@ -9506,7 +9713,7 @@
       <c r="R310" s="10"/>
       <c r="S310" s="12"/>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A311" s="7">
         <v>4960</v>
       </c>
@@ -9532,7 +9739,7 @@
       <c r="R311" s="10"/>
       <c r="S311" s="12"/>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A312" s="7">
         <v>4976</v>
       </c>
@@ -9558,7 +9765,7 @@
       <c r="R312" s="10"/>
       <c r="S312" s="12"/>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A313" s="3">
         <v>4992</v>
       </c>
@@ -9584,7 +9791,7 @@
       <c r="R313" s="10"/>
       <c r="S313" s="12"/>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A314" s="3">
         <v>5008</v>
       </c>
@@ -9610,7 +9817,7 @@
       <c r="R314" s="10"/>
       <c r="S314" s="12"/>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A315" s="7">
         <v>5024</v>
       </c>
@@ -9636,7 +9843,7 @@
       <c r="R315" s="10"/>
       <c r="S315" s="12"/>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A316" s="7">
         <v>5040</v>
       </c>
@@ -9662,7 +9869,7 @@
       <c r="R316" s="10"/>
       <c r="S316" s="12"/>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A317" s="3">
         <v>5056</v>
       </c>
@@ -9688,7 +9895,7 @@
       <c r="R317" s="10"/>
       <c r="S317" s="12"/>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A318" s="3">
         <v>5072</v>
       </c>
@@ -9714,7 +9921,7 @@
       <c r="R318" s="10"/>
       <c r="S318" s="12"/>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A319" s="7">
         <v>5088</v>
       </c>
@@ -9740,7 +9947,7 @@
       <c r="R319" s="10"/>
       <c r="S319" s="12"/>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A320" s="7">
         <v>5104</v>
       </c>
@@ -9766,7 +9973,7 @@
       <c r="R320" s="10"/>
       <c r="S320" s="12"/>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A321" s="3">
         <v>5120</v>
       </c>
@@ -9792,7 +9999,7 @@
       <c r="R321" s="10"/>
       <c r="S321" s="12"/>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A322" s="3">
         <v>5136</v>
       </c>
@@ -9818,7 +10025,7 @@
       <c r="R322" s="10"/>
       <c r="S322" s="12"/>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A323" s="7">
         <v>5152</v>
       </c>
@@ -9844,7 +10051,7 @@
       <c r="R323" s="10"/>
       <c r="S323" s="12"/>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A324" s="7">
         <v>5168</v>
       </c>
@@ -9870,7 +10077,7 @@
       <c r="R324" s="10"/>
       <c r="S324" s="12"/>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A325" s="3">
         <v>5184</v>
       </c>
@@ -9896,7 +10103,7 @@
       <c r="R325" s="10"/>
       <c r="S325" s="12"/>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A326" s="3">
         <v>5200</v>
       </c>
@@ -9922,7 +10129,7 @@
       <c r="R326" s="10"/>
       <c r="S326" s="12"/>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A327" s="7">
         <v>5216</v>
       </c>
@@ -9948,7 +10155,7 @@
       <c r="R327" s="10"/>
       <c r="S327" s="12"/>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A328" s="7">
         <v>5232</v>
       </c>
@@ -9974,7 +10181,7 @@
       <c r="R328" s="10"/>
       <c r="S328" s="12"/>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A329" s="3">
         <v>5248</v>
       </c>
@@ -10000,7 +10207,7 @@
       <c r="R329" s="10"/>
       <c r="S329" s="12"/>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A330" s="3">
         <v>5264</v>
       </c>
@@ -10026,7 +10233,7 @@
       <c r="R330" s="10"/>
       <c r="S330" s="12"/>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A331" s="7">
         <v>5280</v>
       </c>
@@ -10052,7 +10259,7 @@
       <c r="R331" s="10"/>
       <c r="S331" s="12"/>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A332" s="7">
         <v>5296</v>
       </c>
@@ -10078,7 +10285,7 @@
       <c r="R332" s="10"/>
       <c r="S332" s="12"/>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A333" s="3">
         <v>5312</v>
       </c>
@@ -10104,7 +10311,7 @@
       <c r="R333" s="10"/>
       <c r="S333" s="12"/>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A334" s="3">
         <v>5328</v>
       </c>
@@ -10130,7 +10337,7 @@
       <c r="R334" s="10"/>
       <c r="S334" s="12"/>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A335" s="7">
         <v>5344</v>
       </c>
@@ -10156,7 +10363,7 @@
       <c r="R335" s="10"/>
       <c r="S335" s="12"/>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A336" s="7">
         <v>5360</v>
       </c>
@@ -10182,7 +10389,7 @@
       <c r="R336" s="10"/>
       <c r="S336" s="12"/>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A337" s="3">
         <v>5376</v>
       </c>
@@ -10208,7 +10415,7 @@
       <c r="R337" s="10"/>
       <c r="S337" s="12"/>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A338" s="3">
         <v>5392</v>
       </c>
@@ -10234,7 +10441,7 @@
       <c r="R338" s="10"/>
       <c r="S338" s="12"/>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A339" s="7">
         <v>5408</v>
       </c>
@@ -10260,7 +10467,7 @@
       <c r="R339" s="10"/>
       <c r="S339" s="12"/>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A340" s="7">
         <v>5424</v>
       </c>
@@ -10286,7 +10493,7 @@
       <c r="R340" s="10"/>
       <c r="S340" s="12"/>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A341" s="3">
         <v>5440</v>
       </c>
@@ -10312,7 +10519,7 @@
       <c r="R341" s="10"/>
       <c r="S341" s="12"/>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A342" s="3">
         <v>5456</v>
       </c>
@@ -10338,7 +10545,7 @@
       <c r="R342" s="10"/>
       <c r="S342" s="12"/>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A343" s="7">
         <v>5472</v>
       </c>
@@ -10364,7 +10571,7 @@
       <c r="R343" s="10"/>
       <c r="S343" s="12"/>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A344" s="3">
         <v>5488</v>
       </c>
@@ -10390,7 +10597,7 @@
       <c r="R344" s="10"/>
       <c r="S344" s="12"/>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A345" s="7">
         <v>5504</v>
       </c>
@@ -10416,7 +10623,7 @@
       <c r="R345" s="10"/>
       <c r="S345" s="12"/>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A346" s="7">
         <v>5520</v>
       </c>
@@ -10442,7 +10649,7 @@
       <c r="R346" s="10"/>
       <c r="S346" s="12"/>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A347" s="3">
         <v>5536</v>
       </c>
@@ -10468,7 +10675,7 @@
       <c r="R347" s="10"/>
       <c r="S347" s="12"/>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A348" s="3">
         <v>5552</v>
       </c>
@@ -10494,7 +10701,7 @@
       <c r="R348" s="10"/>
       <c r="S348" s="12"/>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A349" s="7">
         <v>5568</v>
       </c>
@@ -10520,7 +10727,7 @@
       <c r="R349" s="10"/>
       <c r="S349" s="12"/>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A350" s="7">
         <v>5584</v>
       </c>
@@ -10546,7 +10753,7 @@
       <c r="R350" s="10"/>
       <c r="S350" s="12"/>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A351" s="3">
         <v>5600</v>
       </c>
@@ -10572,7 +10779,7 @@
       <c r="R351" s="10"/>
       <c r="S351" s="12"/>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A352" s="3">
         <v>5616</v>
       </c>
@@ -10598,7 +10805,7 @@
       <c r="R352" s="10"/>
       <c r="S352" s="12"/>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A353" s="7">
         <v>5632</v>
       </c>
@@ -10624,7 +10831,7 @@
       <c r="R353" s="10"/>
       <c r="S353" s="12"/>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A354" s="7">
         <v>5648</v>
       </c>
@@ -10650,7 +10857,7 @@
       <c r="R354" s="10"/>
       <c r="S354" s="12"/>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A355" s="3">
         <v>5664</v>
       </c>
@@ -10676,7 +10883,7 @@
       <c r="R355" s="10"/>
       <c r="S355" s="12"/>
     </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A356" s="3">
         <v>5680</v>
       </c>
@@ -10702,7 +10909,7 @@
       <c r="R356" s="10"/>
       <c r="S356" s="12"/>
     </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A357" s="7">
         <v>5696</v>
       </c>
@@ -10728,7 +10935,7 @@
       <c r="R357" s="10"/>
       <c r="S357" s="12"/>
     </row>
-    <row r="358" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A358" s="7">
         <v>5712</v>
       </c>
@@ -10754,7 +10961,7 @@
       <c r="R358" s="10"/>
       <c r="S358" s="12"/>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A359" s="3">
         <v>5728</v>
       </c>
@@ -10780,7 +10987,7 @@
       <c r="R359" s="10"/>
       <c r="S359" s="12"/>
     </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A360" s="3">
         <v>5744</v>
       </c>
@@ -10806,7 +11013,7 @@
       <c r="R360" s="10"/>
       <c r="S360" s="12"/>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A361" s="7">
         <v>5760</v>
       </c>
@@ -10832,7 +11039,7 @@
       <c r="R361" s="10"/>
       <c r="S361" s="12"/>
     </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A362" s="7">
         <v>5776</v>
       </c>
@@ -10858,7 +11065,7 @@
       <c r="R362" s="10"/>
       <c r="S362" s="12"/>
     </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A363" s="3">
         <v>5792</v>
       </c>
@@ -10884,7 +11091,7 @@
       <c r="R363" s="10"/>
       <c r="S363" s="12"/>
     </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A364" s="3">
         <v>5808</v>
       </c>
@@ -10910,7 +11117,7 @@
       <c r="R364" s="10"/>
       <c r="S364" s="12"/>
     </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A365" s="7">
         <v>5824</v>
       </c>
@@ -10936,7 +11143,7 @@
       <c r="R365" s="10"/>
       <c r="S365" s="12"/>
     </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A366" s="7">
         <v>5840</v>
       </c>
@@ -10962,7 +11169,7 @@
       <c r="R366" s="10"/>
       <c r="S366" s="12"/>
     </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A367" s="3">
         <v>5856</v>
       </c>
@@ -10988,7 +11195,7 @@
       <c r="R367" s="10"/>
       <c r="S367" s="12"/>
     </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A368" s="3">
         <v>5872</v>
       </c>
@@ -11014,7 +11221,7 @@
       <c r="R368" s="10"/>
       <c r="S368" s="12"/>
     </row>
-    <row r="369" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A369" s="7">
         <v>5888</v>
       </c>
@@ -11040,7 +11247,7 @@
       <c r="R369" s="10"/>
       <c r="S369" s="12"/>
     </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A370" s="7">
         <v>5904</v>
       </c>
@@ -11066,7 +11273,7 @@
       <c r="R370" s="10"/>
       <c r="S370" s="12"/>
     </row>
-    <row r="371" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A371" s="3">
         <v>5920</v>
       </c>
@@ -11092,7 +11299,7 @@
       <c r="R371" s="10"/>
       <c r="S371" s="12"/>
     </row>
-    <row r="372" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A372" s="3">
         <v>5936</v>
       </c>
@@ -11118,7 +11325,7 @@
       <c r="R372" s="10"/>
       <c r="S372" s="12"/>
     </row>
-    <row r="373" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A373" s="7">
         <v>5952</v>
       </c>
@@ -11144,7 +11351,7 @@
       <c r="R373" s="10"/>
       <c r="S373" s="12"/>
     </row>
-    <row r="374" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A374" s="7">
         <v>5968</v>
       </c>
@@ -11170,7 +11377,7 @@
       <c r="R374" s="10"/>
       <c r="S374" s="12"/>
     </row>
-    <row r="375" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A375" s="3">
         <v>5984</v>
       </c>
@@ -11196,7 +11403,7 @@
       <c r="R375" s="10"/>
       <c r="S375" s="12"/>
     </row>
-    <row r="376" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A376" s="3">
         <v>6000</v>
       </c>
@@ -11222,7 +11429,7 @@
       <c r="R376" s="10"/>
       <c r="S376" s="12"/>
     </row>
-    <row r="377" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A377" s="7">
         <v>6016</v>
       </c>
@@ -11248,7 +11455,7 @@
       <c r="R377" s="10"/>
       <c r="S377" s="12"/>
     </row>
-    <row r="378" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A378" s="7">
         <v>6032</v>
       </c>
@@ -11274,7 +11481,7 @@
       <c r="R378" s="10"/>
       <c r="S378" s="12"/>
     </row>
-    <row r="379" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A379" s="3">
         <v>6048</v>
       </c>
@@ -11300,7 +11507,7 @@
       <c r="R379" s="10"/>
       <c r="S379" s="12"/>
     </row>
-    <row r="380" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A380" s="3">
         <v>6064</v>
       </c>
@@ -11326,7 +11533,7 @@
       <c r="R380" s="10"/>
       <c r="S380" s="12"/>
     </row>
-    <row r="381" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A381" s="7">
         <v>6080</v>
       </c>
@@ -11352,7 +11559,7 @@
       <c r="R381" s="10"/>
       <c r="S381" s="12"/>
     </row>
-    <row r="382" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A382" s="7">
         <v>6096</v>
       </c>
@@ -11378,7 +11585,7 @@
       <c r="R382" s="10"/>
       <c r="S382" s="12"/>
     </row>
-    <row r="383" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A383" s="3">
         <v>6112</v>
       </c>
@@ -11404,7 +11611,7 @@
       <c r="R383" s="10"/>
       <c r="S383" s="12"/>
     </row>
-    <row r="384" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A384" s="3">
         <v>6128</v>
       </c>
@@ -11430,7 +11637,7 @@
       <c r="R384" s="10"/>
       <c r="S384" s="12"/>
     </row>
-    <row r="385" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A385" s="7">
         <v>6144</v>
       </c>
@@ -11456,7 +11663,7 @@
       <c r="R385" s="10"/>
       <c r="S385" s="12"/>
     </row>
-    <row r="386" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A386" s="7">
         <v>6160</v>
       </c>
@@ -11482,7 +11689,7 @@
       <c r="R386" s="10"/>
       <c r="S386" s="12"/>
     </row>
-    <row r="387" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A387" s="3">
         <v>6176</v>
       </c>
@@ -11508,7 +11715,7 @@
       <c r="R387" s="10"/>
       <c r="S387" s="12"/>
     </row>
-    <row r="388" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A388" s="3">
         <v>6192</v>
       </c>
@@ -11534,7 +11741,7 @@
       <c r="R388" s="10"/>
       <c r="S388" s="12"/>
     </row>
-    <row r="389" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A389" s="7">
         <v>6208</v>
       </c>
@@ -11560,7 +11767,7 @@
       <c r="R389" s="10"/>
       <c r="S389" s="12"/>
     </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A390" s="7">
         <v>6224</v>
       </c>
@@ -11586,7 +11793,7 @@
       <c r="R390" s="10"/>
       <c r="S390" s="12"/>
     </row>
-    <row r="391" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A391" s="3">
         <v>6240</v>
       </c>
@@ -11612,7 +11819,7 @@
       <c r="R391" s="10"/>
       <c r="S391" s="12"/>
     </row>
-    <row r="392" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A392" s="3">
         <v>6256</v>
       </c>
@@ -11638,7 +11845,7 @@
       <c r="R392" s="10"/>
       <c r="S392" s="12"/>
     </row>
-    <row r="393" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A393" s="7">
         <v>6272</v>
       </c>
@@ -11664,7 +11871,7 @@
       <c r="R393" s="10"/>
       <c r="S393" s="12"/>
     </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A394" s="7">
         <v>6288</v>
       </c>
@@ -11690,7 +11897,7 @@
       <c r="R394" s="10"/>
       <c r="S394" s="12"/>
     </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A395" s="3">
         <v>6304</v>
       </c>
@@ -11716,7 +11923,7 @@
       <c r="R395" s="10"/>
       <c r="S395" s="12"/>
     </row>
-    <row r="396" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A396" s="3">
         <v>6320</v>
       </c>
@@ -11742,7 +11949,7 @@
       <c r="R396" s="10"/>
       <c r="S396" s="12"/>
     </row>
-    <row r="397" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A397" s="7">
         <v>6336</v>
       </c>
@@ -11768,7 +11975,7 @@
       <c r="R397" s="10"/>
       <c r="S397" s="12"/>
     </row>
-    <row r="398" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A398" s="7">
         <v>6352</v>
       </c>
@@ -11794,7 +12001,7 @@
       <c r="R398" s="10"/>
       <c r="S398" s="12"/>
     </row>
-    <row r="399" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A399" s="3">
         <v>6368</v>
       </c>
@@ -11820,7 +12027,7 @@
       <c r="R399" s="10"/>
       <c r="S399" s="12"/>
     </row>
-    <row r="400" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A400" s="3">
         <v>6384</v>
       </c>
@@ -11846,7 +12053,7 @@
       <c r="R400" s="10"/>
       <c r="S400" s="12"/>
     </row>
-    <row r="401" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A401" s="7">
         <v>6400</v>
       </c>
@@ -11872,7 +12079,7 @@
       <c r="R401" s="10"/>
       <c r="S401" s="12"/>
     </row>
-    <row r="402" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A402" s="7">
         <v>6416</v>
       </c>
@@ -11898,7 +12105,7 @@
       <c r="R402" s="10"/>
       <c r="S402" s="12"/>
     </row>
-    <row r="403" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A403" s="3">
         <v>6432</v>
       </c>
@@ -11924,7 +12131,7 @@
       <c r="R403" s="10"/>
       <c r="S403" s="12"/>
     </row>
-    <row r="404" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A404" s="3">
         <v>6448</v>
       </c>
@@ -11950,7 +12157,7 @@
       <c r="R404" s="10"/>
       <c r="S404" s="12"/>
     </row>
-    <row r="405" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A405" s="7">
         <v>6464</v>
       </c>
@@ -11976,7 +12183,7 @@
       <c r="R405" s="10"/>
       <c r="S405" s="12"/>
     </row>
-    <row r="406" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A406" s="7">
         <v>6480</v>
       </c>
@@ -12002,7 +12209,7 @@
       <c r="R406" s="10"/>
       <c r="S406" s="12"/>
     </row>
-    <row r="407" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A407" s="3">
         <v>6496</v>
       </c>
@@ -12028,7 +12235,7 @@
       <c r="R407" s="10"/>
       <c r="S407" s="12"/>
     </row>
-    <row r="408" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A408" s="3">
         <v>6512</v>
       </c>
@@ -12054,7 +12261,7 @@
       <c r="R408" s="10"/>
       <c r="S408" s="12"/>
     </row>
-    <row r="409" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A409" s="7">
         <v>6528</v>
       </c>
@@ -12080,7 +12287,7 @@
       <c r="R409" s="10"/>
       <c r="S409" s="12"/>
     </row>
-    <row r="410" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A410" s="7">
         <v>6544</v>
       </c>
@@ -12106,7 +12313,7 @@
       <c r="R410" s="10"/>
       <c r="S410" s="12"/>
     </row>
-    <row r="411" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A411" s="3">
         <v>6560</v>
       </c>
@@ -12132,7 +12339,7 @@
       <c r="R411" s="10"/>
       <c r="S411" s="12"/>
     </row>
-    <row r="412" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A412" s="3">
         <v>6576</v>
       </c>
@@ -12158,7 +12365,7 @@
       <c r="R412" s="10"/>
       <c r="S412" s="12"/>
     </row>
-    <row r="413" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A413" s="7">
         <v>6592</v>
       </c>
@@ -12184,7 +12391,7 @@
       <c r="R413" s="10"/>
       <c r="S413" s="12"/>
     </row>
-    <row r="414" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A414" s="7">
         <v>6608</v>
       </c>
@@ -12210,7 +12417,7 @@
       <c r="R414" s="10"/>
       <c r="S414" s="12"/>
     </row>
-    <row r="415" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A415" s="3">
         <v>6624</v>
       </c>
@@ -12236,7 +12443,7 @@
       <c r="R415" s="10"/>
       <c r="S415" s="12"/>
     </row>
-    <row r="416" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A416" s="3">
         <v>6640</v>
       </c>
@@ -12262,7 +12469,7 @@
       <c r="R416" s="10"/>
       <c r="S416" s="12"/>
     </row>
-    <row r="417" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A417" s="7">
         <v>6656</v>
       </c>
@@ -12288,7 +12495,7 @@
       <c r="R417" s="10"/>
       <c r="S417" s="12"/>
     </row>
-    <row r="418" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A418" s="7">
         <v>6672</v>
       </c>
@@ -12314,7 +12521,7 @@
       <c r="R418" s="10"/>
       <c r="S418" s="12"/>
     </row>
-    <row r="419" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A419" s="3">
         <v>6688</v>
       </c>
@@ -12340,7 +12547,7 @@
       <c r="R419" s="10"/>
       <c r="S419" s="12"/>
     </row>
-    <row r="420" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A420" s="3">
         <v>6704</v>
       </c>
@@ -12366,7 +12573,7 @@
       <c r="R420" s="10"/>
       <c r="S420" s="12"/>
     </row>
-    <row r="421" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A421" s="7">
         <v>6720</v>
       </c>
@@ -12392,7 +12599,7 @@
       <c r="R421" s="10"/>
       <c r="S421" s="12"/>
     </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A422" s="7">
         <v>6736</v>
       </c>
@@ -12418,7 +12625,7 @@
       <c r="R422" s="10"/>
       <c r="S422" s="12"/>
     </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A423" s="3">
         <v>6752</v>
       </c>
@@ -12444,7 +12651,7 @@
       <c r="R423" s="10"/>
       <c r="S423" s="12"/>
     </row>
-    <row r="424" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A424" s="3">
         <v>6768</v>
       </c>
@@ -12470,7 +12677,7 @@
       <c r="R424" s="10"/>
       <c r="S424" s="12"/>
     </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A425" s="7">
         <v>6784</v>
       </c>
@@ -12496,7 +12703,7 @@
       <c r="R425" s="10"/>
       <c r="S425" s="12"/>
     </row>
-    <row r="426" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A426" s="7">
         <v>6800</v>
       </c>
@@ -12522,7 +12729,7 @@
       <c r="R426" s="10"/>
       <c r="S426" s="12"/>
     </row>
-    <row r="427" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A427" s="3">
         <v>6816</v>
       </c>
@@ -12548,7 +12755,7 @@
       <c r="R427" s="10"/>
       <c r="S427" s="12"/>
     </row>
-    <row r="428" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A428" s="3">
         <v>6832</v>
       </c>
@@ -12574,7 +12781,7 @@
       <c r="R428" s="10"/>
       <c r="S428" s="12"/>
     </row>
-    <row r="429" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A429" s="7">
         <v>6848</v>
       </c>
@@ -12600,7 +12807,7 @@
       <c r="R429" s="10"/>
       <c r="S429" s="12"/>
     </row>
-    <row r="430" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A430" s="7">
         <v>6864</v>
       </c>
@@ -12626,7 +12833,7 @@
       <c r="R430" s="10"/>
       <c r="S430" s="12"/>
     </row>
-    <row r="431" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A431" s="3">
         <v>6880</v>
       </c>
@@ -12652,7 +12859,7 @@
       <c r="R431" s="10"/>
       <c r="S431" s="12"/>
     </row>
-    <row r="432" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A432" s="3">
         <v>6896</v>
       </c>
@@ -12678,7 +12885,7 @@
       <c r="R432" s="10"/>
       <c r="S432" s="12"/>
     </row>
-    <row r="433" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A433" s="7">
         <v>6912</v>
       </c>
@@ -12704,7 +12911,7 @@
       <c r="R433" s="10"/>
       <c r="S433" s="12"/>
     </row>
-    <row r="434" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A434" s="7">
         <v>6928</v>
       </c>
@@ -12730,7 +12937,7 @@
       <c r="R434" s="10"/>
       <c r="S434" s="12"/>
     </row>
-    <row r="435" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A435" s="3">
         <v>6944</v>
       </c>
@@ -12756,7 +12963,7 @@
       <c r="R435" s="10"/>
       <c r="S435" s="12"/>
     </row>
-    <row r="436" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A436" s="3">
         <v>6960</v>
       </c>
@@ -12782,7 +12989,7 @@
       <c r="R436" s="10"/>
       <c r="S436" s="12"/>
     </row>
-    <row r="437" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A437" s="7">
         <v>6976</v>
       </c>
@@ -12808,7 +13015,7 @@
       <c r="R437" s="10"/>
       <c r="S437" s="12"/>
     </row>
-    <row r="438" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A438" s="7">
         <v>6992</v>
       </c>
@@ -12834,7 +13041,7 @@
       <c r="R438" s="10"/>
       <c r="S438" s="12"/>
     </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A439" s="3">
         <v>7008</v>
       </c>
@@ -12860,7 +13067,7 @@
       <c r="R439" s="10"/>
       <c r="S439" s="12"/>
     </row>
-    <row r="440" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A440" s="3">
         <v>7024</v>
       </c>
@@ -12886,7 +13093,7 @@
       <c r="R440" s="10"/>
       <c r="S440" s="12"/>
     </row>
-    <row r="441" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A441" s="7">
         <v>7040</v>
       </c>
@@ -12912,7 +13119,7 @@
       <c r="R441" s="10"/>
       <c r="S441" s="12"/>
     </row>
-    <row r="442" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A442" s="7">
         <v>7056</v>
       </c>
@@ -12938,7 +13145,7 @@
       <c r="R442" s="10"/>
       <c r="S442" s="12"/>
     </row>
-    <row r="443" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A443" s="3">
         <v>7072</v>
       </c>
@@ -12964,7 +13171,7 @@
       <c r="R443" s="10"/>
       <c r="S443" s="12"/>
     </row>
-    <row r="444" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A444" s="3">
         <v>7088</v>
       </c>
@@ -12990,7 +13197,7 @@
       <c r="R444" s="10"/>
       <c r="S444" s="12"/>
     </row>
-    <row r="445" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A445" s="7">
         <v>7104</v>
       </c>
@@ -13016,7 +13223,7 @@
       <c r="R445" s="10"/>
       <c r="S445" s="12"/>
     </row>
-    <row r="446" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A446" s="7">
         <v>7120</v>
       </c>
@@ -13042,7 +13249,7 @@
       <c r="R446" s="10"/>
       <c r="S446" s="12"/>
     </row>
-    <row r="447" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A447" s="3">
         <v>7136</v>
       </c>
@@ -13068,7 +13275,7 @@
       <c r="R447" s="10"/>
       <c r="S447" s="12"/>
     </row>
-    <row r="448" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A448" s="7">
         <v>7152</v>
       </c>
@@ -13094,7 +13301,7 @@
       <c r="R448" s="10"/>
       <c r="S448" s="12"/>
     </row>
-    <row r="449" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A449" s="7">
         <v>7168</v>
       </c>
@@ -13120,7 +13327,7 @@
       <c r="R449" s="10"/>
       <c r="S449" s="12"/>
     </row>
-    <row r="450" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A450" s="3">
         <v>7184</v>
       </c>
@@ -13146,7 +13353,7 @@
       <c r="R450" s="10"/>
       <c r="S450" s="12"/>
     </row>
-    <row r="451" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A451" s="3">
         <v>7200</v>
       </c>
@@ -13172,7 +13379,7 @@
       <c r="R451" s="10"/>
       <c r="S451" s="12"/>
     </row>
-    <row r="452" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A452" s="7">
         <v>7216</v>
       </c>
@@ -13198,7 +13405,7 @@
       <c r="R452" s="10"/>
       <c r="S452" s="12"/>
     </row>
-    <row r="453" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A453" s="7">
         <v>7232</v>
       </c>
@@ -13224,7 +13431,7 @@
       <c r="R453" s="10"/>
       <c r="S453" s="12"/>
     </row>
-    <row r="454" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A454" s="3">
         <v>7248</v>
       </c>
@@ -13250,7 +13457,7 @@
       <c r="R454" s="10"/>
       <c r="S454" s="12"/>
     </row>
-    <row r="455" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A455" s="3">
         <v>7264</v>
       </c>
@@ -13276,7 +13483,7 @@
       <c r="R455" s="10"/>
       <c r="S455" s="12"/>
     </row>
-    <row r="456" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A456" s="7">
         <v>7280</v>
       </c>
@@ -13302,7 +13509,7 @@
       <c r="R456" s="10"/>
       <c r="S456" s="12"/>
     </row>
-    <row r="457" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A457" s="7">
         <v>7296</v>
       </c>
@@ -13328,7 +13535,7 @@
       <c r="R457" s="10"/>
       <c r="S457" s="12"/>
     </row>
-    <row r="458" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A458" s="3">
         <v>7312</v>
       </c>
@@ -13354,7 +13561,7 @@
       <c r="R458" s="10"/>
       <c r="S458" s="12"/>
     </row>
-    <row r="459" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A459" s="3">
         <v>7328</v>
       </c>
@@ -13380,7 +13587,7 @@
       <c r="R459" s="10"/>
       <c r="S459" s="12"/>
     </row>
-    <row r="460" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A460" s="7">
         <v>7344</v>
       </c>
@@ -13406,7 +13613,7 @@
       <c r="R460" s="10"/>
       <c r="S460" s="12"/>
     </row>
-    <row r="461" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A461" s="7">
         <v>7360</v>
       </c>
@@ -13432,7 +13639,7 @@
       <c r="R461" s="10"/>
       <c r="S461" s="12"/>
     </row>
-    <row r="462" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A462" s="3">
         <v>7376</v>
       </c>
@@ -13458,7 +13665,7 @@
       <c r="R462" s="10"/>
       <c r="S462" s="12"/>
     </row>
-    <row r="463" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A463" s="3">
         <v>7392</v>
       </c>
@@ -13484,7 +13691,7 @@
       <c r="R463" s="10"/>
       <c r="S463" s="12"/>
     </row>
-    <row r="464" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A464" s="7">
         <v>7408</v>
       </c>
@@ -13510,7 +13717,7 @@
       <c r="R464" s="10"/>
       <c r="S464" s="12"/>
     </row>
-    <row r="465" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A465" s="7">
         <v>7424</v>
       </c>
@@ -13536,7 +13743,7 @@
       <c r="R465" s="10"/>
       <c r="S465" s="12"/>
     </row>
-    <row r="466" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A466" s="3">
         <v>7440</v>
       </c>
@@ -13562,7 +13769,7 @@
       <c r="R466" s="10"/>
       <c r="S466" s="12"/>
     </row>
-    <row r="467" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A467" s="3">
         <v>7456</v>
       </c>
@@ -13588,7 +13795,7 @@
       <c r="R467" s="10"/>
       <c r="S467" s="12"/>
     </row>
-    <row r="468" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A468" s="7">
         <v>7472</v>
       </c>
@@ -13614,7 +13821,7 @@
       <c r="R468" s="10"/>
       <c r="S468" s="12"/>
     </row>
-    <row r="469" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A469" s="7">
         <v>7488</v>
       </c>
@@ -13640,7 +13847,7 @@
       <c r="R469" s="10"/>
       <c r="S469" s="12"/>
     </row>
-    <row r="470" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A470" s="3">
         <v>7504</v>
       </c>
@@ -13666,7 +13873,7 @@
       <c r="R470" s="10"/>
       <c r="S470" s="12"/>
     </row>
-    <row r="471" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A471" s="3">
         <v>7520</v>
       </c>
@@ -13692,7 +13899,7 @@
       <c r="R471" s="10"/>
       <c r="S471" s="12"/>
     </row>
-    <row r="472" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A472" s="7">
         <v>7536</v>
       </c>
@@ -13718,7 +13925,7 @@
       <c r="R472" s="10"/>
       <c r="S472" s="12"/>
     </row>
-    <row r="473" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A473" s="7">
         <v>7552</v>
       </c>
@@ -13744,7 +13951,7 @@
       <c r="R473" s="10"/>
       <c r="S473" s="12"/>
     </row>
-    <row r="474" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A474" s="3">
         <v>7568</v>
       </c>
@@ -13770,7 +13977,7 @@
       <c r="R474" s="10"/>
       <c r="S474" s="12"/>
     </row>
-    <row r="475" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A475" s="7">
         <v>7584</v>
       </c>
@@ -13796,7 +14003,7 @@
       <c r="R475" s="10"/>
       <c r="S475" s="12"/>
     </row>
-    <row r="476" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A476" s="7">
         <v>7600</v>
       </c>
@@ -13822,7 +14029,7 @@
       <c r="R476" s="10"/>
       <c r="S476" s="12"/>
     </row>
-    <row r="477" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A477" s="3">
         <v>7616</v>
       </c>
@@ -13848,7 +14055,7 @@
       <c r="R477" s="10"/>
       <c r="S477" s="12"/>
     </row>
-    <row r="478" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A478" s="3">
         <v>7632</v>
       </c>
@@ -13874,7 +14081,7 @@
       <c r="R478" s="10"/>
       <c r="S478" s="12"/>
     </row>
-    <row r="479" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A479" s="7">
         <v>7648</v>
       </c>
@@ -13900,7 +14107,7 @@
       <c r="R479" s="10"/>
       <c r="S479" s="12"/>
     </row>
-    <row r="480" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A480" s="7">
         <v>7664</v>
       </c>
@@ -13926,7 +14133,7 @@
       <c r="R480" s="10"/>
       <c r="S480" s="12"/>
     </row>
-    <row r="481" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A481" s="3">
         <v>7680</v>
       </c>
@@ -13952,7 +14159,7 @@
       <c r="R481" s="10"/>
       <c r="S481" s="12"/>
     </row>
-    <row r="482" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A482" s="3">
         <v>7696</v>
       </c>
@@ -13978,7 +14185,7 @@
       <c r="R482" s="10"/>
       <c r="S482" s="12"/>
     </row>
-    <row r="483" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A483" s="7">
         <v>7712</v>
       </c>
@@ -14004,7 +14211,7 @@
       <c r="R483" s="10"/>
       <c r="S483" s="12"/>
     </row>
-    <row r="484" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A484" s="7">
         <v>7728</v>
       </c>
@@ -14030,7 +14237,7 @@
       <c r="R484" s="10"/>
       <c r="S484" s="12"/>
     </row>
-    <row r="485" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A485" s="3">
         <v>7744</v>
       </c>
@@ -14056,7 +14263,7 @@
       <c r="R485" s="10"/>
       <c r="S485" s="12"/>
     </row>
-    <row r="486" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A486" s="3">
         <v>7760</v>
       </c>
@@ -14082,7 +14289,7 @@
       <c r="R486" s="10"/>
       <c r="S486" s="12"/>
     </row>
-    <row r="487" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A487" s="7">
         <v>7776</v>
       </c>
@@ -14108,7 +14315,7 @@
       <c r="R487" s="10"/>
       <c r="S487" s="12"/>
     </row>
-    <row r="488" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A488" s="7">
         <v>7792</v>
       </c>
@@ -14134,7 +14341,7 @@
       <c r="R488" s="10"/>
       <c r="S488" s="12"/>
     </row>
-    <row r="489" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A489" s="3">
         <v>7808</v>
       </c>
@@ -14160,7 +14367,7 @@
       <c r="R489" s="10"/>
       <c r="S489" s="12"/>
     </row>
-    <row r="490" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A490" s="3">
         <v>7824</v>
       </c>
@@ -14186,7 +14393,7 @@
       <c r="R490" s="10"/>
       <c r="S490" s="12"/>
     </row>
-    <row r="491" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A491" s="7">
         <v>7840</v>
       </c>
@@ -14212,7 +14419,7 @@
       <c r="R491" s="10"/>
       <c r="S491" s="12"/>
     </row>
-    <row r="492" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A492" s="7">
         <v>7856</v>
       </c>
@@ -14238,7 +14445,7 @@
       <c r="R492" s="10"/>
       <c r="S492" s="12"/>
     </row>
-    <row r="493" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A493" s="3">
         <v>7872</v>
       </c>
@@ -14264,7 +14471,7 @@
       <c r="R493" s="10"/>
       <c r="S493" s="12"/>
     </row>
-    <row r="494" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A494" s="3">
         <v>7888</v>
       </c>
@@ -14290,7 +14497,7 @@
       <c r="R494" s="10"/>
       <c r="S494" s="12"/>
     </row>
-    <row r="495" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A495" s="7">
         <v>7904</v>
       </c>
@@ -14316,7 +14523,7 @@
       <c r="R495" s="10"/>
       <c r="S495" s="12"/>
     </row>
-    <row r="496" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A496" s="7">
         <v>7920</v>
       </c>
@@ -14342,7 +14549,7 @@
       <c r="R496" s="10"/>
       <c r="S496" s="12"/>
     </row>
-    <row r="497" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A497" s="3">
         <v>7936</v>
       </c>
@@ -14368,7 +14575,7 @@
       <c r="R497" s="10"/>
       <c r="S497" s="12"/>
     </row>
-    <row r="498" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A498" s="3">
         <v>7952</v>
       </c>
@@ -14394,7 +14601,7 @@
       <c r="R498" s="10"/>
       <c r="S498" s="12"/>
     </row>
-    <row r="499" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A499" s="7">
         <v>7968</v>
       </c>
@@ -14420,7 +14627,7 @@
       <c r="R499" s="10"/>
       <c r="S499" s="12"/>
     </row>
-    <row r="500" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A500" s="7">
         <v>7984</v>
       </c>
@@ -14446,7 +14653,7 @@
       <c r="R500" s="10"/>
       <c r="S500" s="12"/>
     </row>
-    <row r="501" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A501" s="3">
         <v>8000</v>
       </c>
@@ -14472,7 +14679,7 @@
       <c r="R501" s="10"/>
       <c r="S501" s="12"/>
     </row>
-    <row r="502" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A502" s="3">
         <v>8016</v>
       </c>
@@ -14498,7 +14705,7 @@
       <c r="R502" s="10"/>
       <c r="S502" s="12"/>
     </row>
-    <row r="503" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A503" s="7">
         <v>8032</v>
       </c>
@@ -14524,7 +14731,7 @@
       <c r="R503" s="10"/>
       <c r="S503" s="12"/>
     </row>
-    <row r="504" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A504" s="7">
         <v>8048</v>
       </c>
@@ -14550,7 +14757,7 @@
       <c r="R504" s="10"/>
       <c r="S504" s="12"/>
     </row>
-    <row r="505" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A505" s="3">
         <v>8064</v>
       </c>
@@ -14576,7 +14783,7 @@
       <c r="R505" s="10"/>
       <c r="S505" s="12"/>
     </row>
-    <row r="506" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A506" s="3">
         <v>8080</v>
       </c>
@@ -14602,7 +14809,7 @@
       <c r="R506" s="10"/>
       <c r="S506" s="12"/>
     </row>
-    <row r="507" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A507" s="7">
         <v>8096</v>
       </c>
@@ -14628,7 +14835,7 @@
       <c r="R507" s="10"/>
       <c r="S507" s="12"/>
     </row>
-    <row r="508" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A508" s="7">
         <v>8112</v>
       </c>
@@ -14654,7 +14861,7 @@
       <c r="R508" s="10"/>
       <c r="S508" s="12"/>
     </row>
-    <row r="509" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A509" s="3">
         <v>8128</v>
       </c>
@@ -14680,7 +14887,7 @@
       <c r="R509" s="10"/>
       <c r="S509" s="12"/>
     </row>
-    <row r="510" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A510" s="3">
         <v>8144</v>
       </c>
@@ -14706,7 +14913,7 @@
       <c r="R510" s="10"/>
       <c r="S510" s="12"/>
     </row>
-    <row r="511" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A511" s="3">
         <v>8160</v>
       </c>
@@ -14732,7 +14939,7 @@
       <c r="R511" s="10"/>
       <c r="S511" s="12"/>
     </row>
-    <row r="512" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A512" s="7">
         <v>8176</v>
       </c>
@@ -14758,7 +14965,7 @@
       <c r="R512" s="10"/>
       <c r="S512" s="12"/>
     </row>
-    <row r="513" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A513" s="7">
         <v>8192</v>
       </c>
@@ -14784,7 +14991,7 @@
       <c r="R513" s="10"/>
       <c r="S513" s="12"/>
     </row>
-    <row r="514" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A514" s="3">
         <v>8208</v>
       </c>
@@ -14810,7 +15017,7 @@
       <c r="R514" s="10"/>
       <c r="S514" s="12"/>
     </row>
-    <row r="515" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A515" s="3">
         <v>8224</v>
       </c>
@@ -14836,7 +15043,7 @@
       <c r="R515" s="10"/>
       <c r="S515" s="12"/>
     </row>
-    <row r="516" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A516" s="7">
         <v>8240</v>
       </c>
@@ -14862,7 +15069,7 @@
       <c r="R516" s="10"/>
       <c r="S516" s="12"/>
     </row>
-    <row r="517" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A517" s="7">
         <v>8256</v>
       </c>
@@ -14888,7 +15095,7 @@
       <c r="R517" s="10"/>
       <c r="S517" s="12"/>
     </row>
-    <row r="518" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A518" s="3">
         <v>8272</v>
       </c>
@@ -14914,7 +15121,7 @@
       <c r="R518" s="10"/>
       <c r="S518" s="12"/>
     </row>
-    <row r="519" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A519" s="7">
         <v>8288</v>
       </c>
@@ -14940,7 +15147,7 @@
       <c r="R519" s="10"/>
       <c r="S519" s="12"/>
     </row>
-    <row r="520" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A520" s="7">
         <v>8304</v>
       </c>
@@ -14967,7 +15174,68 @@
       <c r="S520" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="76">
+  <mergeCells count="75">
+    <mergeCell ref="O113:R113"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="I114:J114"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="M114:N114"/>
+    <mergeCell ref="M111:N111"/>
+    <mergeCell ref="O111:P111"/>
+    <mergeCell ref="Q111:R111"/>
+    <mergeCell ref="C111:F111"/>
+    <mergeCell ref="K111:L111"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="Q108:R108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="O100:P100"/>
+    <mergeCell ref="Q100:R100"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="Q97:R97"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="O108:P108"/>
+    <mergeCell ref="O97:P97"/>
+    <mergeCell ref="K100:L100"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="M103:N103"/>
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="C72:R86"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="L87:R87"/>
+    <mergeCell ref="C88:R88"/>
+    <mergeCell ref="C89:K89"/>
+    <mergeCell ref="L89:R89"/>
+    <mergeCell ref="C90:R90"/>
+    <mergeCell ref="O123:R123"/>
+    <mergeCell ref="C124:R128"/>
+    <mergeCell ref="C91:K91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="C100:F100"/>
+    <mergeCell ref="G108:J108"/>
+    <mergeCell ref="G97:J97"/>
+    <mergeCell ref="O102:R102"/>
+    <mergeCell ref="K105:N105"/>
+    <mergeCell ref="O91:R91"/>
+    <mergeCell ref="C106:D106"/>
     <mergeCell ref="G50:J50"/>
     <mergeCell ref="C51:F51"/>
     <mergeCell ref="G52:H52"/>
@@ -14982,68 +15250,6 @@
     <mergeCell ref="K35:N35"/>
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="K34:L34"/>
-    <mergeCell ref="C90:R90"/>
-    <mergeCell ref="O123:R123"/>
-    <mergeCell ref="C124:R128"/>
-    <mergeCell ref="C91:K91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="K92:L92"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="C100:F100"/>
-    <mergeCell ref="G108:J108"/>
-    <mergeCell ref="G97:J97"/>
-    <mergeCell ref="O102:R102"/>
-    <mergeCell ref="K105:N105"/>
-    <mergeCell ref="C72:R86"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="L87:R87"/>
-    <mergeCell ref="C88:R88"/>
-    <mergeCell ref="C89:K89"/>
-    <mergeCell ref="L89:R89"/>
-    <mergeCell ref="C2:M2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="I3:R3"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="O91:R91"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="O108:P108"/>
-    <mergeCell ref="O97:P97"/>
-    <mergeCell ref="K100:L100"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="Q97:R97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="O100:P100"/>
-    <mergeCell ref="Q100:R100"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="K103:L103"/>
-    <mergeCell ref="M103:N103"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="I106:J106"/>
-    <mergeCell ref="Q108:R108"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="M111:N111"/>
-    <mergeCell ref="O111:P111"/>
-    <mergeCell ref="Q111:R111"/>
-    <mergeCell ref="C111:F111"/>
-    <mergeCell ref="K111:L111"/>
-    <mergeCell ref="O113:R113"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="I114:J114"/>
-    <mergeCell ref="K114:L114"/>
-    <mergeCell ref="M114:N114"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LODEdit/Additional/memory_map.xlsx
+++ b/LODEdit/Additional/memory_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brett\Documents\memcardrex-plugins-LODEdit\LODEdit\Additional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0C1685-5FFB-4FA3-903E-AA78E5712D7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7939FF0F-9D6D-4447-A470-3A278CD9E061}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="177">
   <si>
     <t>Address</t>
   </si>
@@ -538,6 +538,30 @@
   </si>
   <si>
     <t>KA</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>G2 = Goods 9-16 state</t>
   </si>
 </sst>
 </file>
@@ -603,7 +627,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -802,6 +826,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -815,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -920,95 +950,15 @@
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1020,11 +970,94 @@
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1246,19 +1279,19 @@
   <dimension ref="A1:T520"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K113" sqref="K113"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S65" sqref="S65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1328125" hidden="1" customWidth="1"/>
-    <col min="3" max="18" width="3.3984375" customWidth="1"/>
-    <col min="19" max="19" width="188.86328125" customWidth="1"/>
-    <col min="20" max="20" width="25.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" hidden="1" customWidth="1"/>
+    <col min="3" max="18" width="3.42578125" customWidth="1"/>
+    <col min="19" max="19" width="188.85546875" customWidth="1"/>
+    <col min="20" max="20" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1317,7 +1350,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>16</v>
       </c>
@@ -1325,32 +1358,32 @@
         <f t="shared" ref="B2:B520" si="0">DEC2HEX(A2)</f>
         <v>10</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="61" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
       <c r="S2" s="6"/>
       <c r="T2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>32</v>
       </c>
@@ -1358,29 +1391,29 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="47" t="s">
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
       <c r="S3" s="6"/>
     </row>
-    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>48</v>
       </c>
@@ -1406,7 +1439,7 @@
       <c r="R4" s="10"/>
       <c r="S4" s="11"/>
     </row>
-    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>64</v>
       </c>
@@ -1432,7 +1465,7 @@
       <c r="R5" s="10"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>80</v>
       </c>
@@ -1458,7 +1491,7 @@
       <c r="R6" s="10"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>96</v>
       </c>
@@ -1484,7 +1517,7 @@
       <c r="R7" s="10"/>
       <c r="S7" s="13"/>
     </row>
-    <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>112</v>
       </c>
@@ -1510,7 +1543,7 @@
       <c r="R8" s="10"/>
       <c r="S8" s="13"/>
     </row>
-    <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>128</v>
       </c>
@@ -1536,7 +1569,7 @@
       <c r="R9" s="21"/>
       <c r="S9" s="13"/>
     </row>
-    <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>144</v>
       </c>
@@ -1562,7 +1595,7 @@
       <c r="R10" s="10"/>
       <c r="S10" s="13"/>
     </row>
-    <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>160</v>
       </c>
@@ -1588,7 +1621,7 @@
       <c r="R11" s="10"/>
       <c r="S11" s="13"/>
     </row>
-    <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>176</v>
       </c>
@@ -1614,7 +1647,7 @@
       <c r="R12" s="10"/>
       <c r="S12" s="13"/>
     </row>
-    <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>192</v>
       </c>
@@ -1640,7 +1673,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>208</v>
       </c>
@@ -1666,7 +1699,7 @@
       <c r="R14" s="10"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>224</v>
       </c>
@@ -1692,7 +1725,7 @@
       <c r="R15" s="10"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>240</v>
       </c>
@@ -1718,7 +1751,7 @@
       <c r="R16" s="10"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>256</v>
       </c>
@@ -1744,7 +1777,7 @@
       <c r="R17" s="10"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>272</v>
       </c>
@@ -1770,7 +1803,7 @@
       <c r="R18" s="10"/>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>288</v>
       </c>
@@ -1796,7 +1829,7 @@
       <c r="R19" s="10"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>304</v>
       </c>
@@ -1822,7 +1855,7 @@
       <c r="R20" s="10"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>320</v>
       </c>
@@ -1848,7 +1881,7 @@
       <c r="R21" s="10"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>336</v>
       </c>
@@ -1874,7 +1907,7 @@
       <c r="R22" s="10"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>352</v>
       </c>
@@ -1900,7 +1933,7 @@
       <c r="R23" s="10"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>368</v>
       </c>
@@ -1926,7 +1959,7 @@
       <c r="R24" s="10"/>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>384</v>
       </c>
@@ -1952,7 +1985,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>400</v>
       </c>
@@ -1978,7 +2011,7 @@
       <c r="R26" s="10"/>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>416</v>
       </c>
@@ -2004,7 +2037,7 @@
       <c r="R27" s="10"/>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>432</v>
       </c>
@@ -2030,7 +2063,7 @@
       <c r="R28" s="10"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>448</v>
       </c>
@@ -2056,7 +2089,7 @@
       <c r="R29" s="10"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>464</v>
       </c>
@@ -2082,7 +2115,7 @@
       <c r="R30" s="10"/>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>480</v>
       </c>
@@ -2108,7 +2141,7 @@
       <c r="R31" s="10"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>496</v>
       </c>
@@ -2134,7 +2167,7 @@
       <c r="R32" s="10"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>512</v>
       </c>
@@ -2150,21 +2183,21 @@
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
-      <c r="K33" s="47" t="s">
+      <c r="K33" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="45" t="s">
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="43"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="62"/>
+      <c r="R33" s="62"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>528</v>
       </c>
@@ -2172,37 +2205,37 @@
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
       <c r="G34" s="27" t="s">
         <v>69</v>
       </c>
       <c r="H34" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="I34" s="49" t="s">
+      <c r="I34" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="J34" s="49"/>
-      <c r="K34" s="50" t="s">
+      <c r="J34" s="77"/>
+      <c r="K34" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="L34" s="50"/>
+      <c r="L34" s="78"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
-      <c r="O34" s="42" t="s">
+      <c r="O34" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="43"/>
-      <c r="R34" s="43"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="62"/>
       <c r="S34" s="16"/>
     </row>
-    <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>544</v>
       </c>
@@ -2210,24 +2243,24 @@
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
       <c r="G35" s="17" t="s">
         <v>16</v>
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
-      <c r="K35" s="48" t="s">
+      <c r="K35" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="48"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
       <c r="O35" s="25"/>
       <c r="P35" s="20"/>
       <c r="Q35" s="20"/>
@@ -2236,7 +2269,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>560</v>
       </c>
@@ -2262,7 +2295,7 @@
       <c r="R36" s="10"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>576</v>
       </c>
@@ -2288,7 +2321,7 @@
       <c r="R37" s="10"/>
       <c r="S37" s="12"/>
     </row>
-    <row r="38" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>592</v>
       </c>
@@ -2314,7 +2347,7 @@
       <c r="R38" s="10"/>
       <c r="S38" s="12"/>
     </row>
-    <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>608</v>
       </c>
@@ -2340,7 +2373,7 @@
       <c r="R39" s="10"/>
       <c r="S39" s="12"/>
     </row>
-    <row r="40" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>624</v>
       </c>
@@ -2366,7 +2399,7 @@
       <c r="R40" s="10"/>
       <c r="S40" s="12"/>
     </row>
-    <row r="41" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>640</v>
       </c>
@@ -2392,7 +2425,7 @@
       <c r="R41" s="10"/>
       <c r="S41" s="12"/>
     </row>
-    <row r="42" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>656</v>
       </c>
@@ -2418,7 +2451,7 @@
       <c r="R42" s="10"/>
       <c r="S42" s="12"/>
     </row>
-    <row r="43" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>672</v>
       </c>
@@ -2444,7 +2477,7 @@
       <c r="R43" s="10"/>
       <c r="S43" s="12"/>
     </row>
-    <row r="44" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>688</v>
       </c>
@@ -2470,7 +2503,7 @@
       <c r="R44" s="10"/>
       <c r="S44" s="12"/>
     </row>
-    <row r="45" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>704</v>
       </c>
@@ -2496,7 +2529,7 @@
       <c r="R45" s="10"/>
       <c r="S45" s="12"/>
     </row>
-    <row r="46" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>720</v>
       </c>
@@ -2522,7 +2555,7 @@
       <c r="R46" s="10"/>
       <c r="S46" s="12"/>
     </row>
-    <row r="47" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>736</v>
       </c>
@@ -2548,7 +2581,7 @@
       <c r="R47" s="10"/>
       <c r="S47" s="12"/>
     </row>
-    <row r="48" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>752</v>
       </c>
@@ -2574,7 +2607,7 @@
       <c r="R48" s="10"/>
       <c r="S48" s="12"/>
     </row>
-    <row r="49" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>768</v>
       </c>
@@ -2590,21 +2623,21 @@
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
-      <c r="K49" s="47" t="s">
+      <c r="K49" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L49" s="43"/>
-      <c r="M49" s="43"/>
-      <c r="N49" s="43"/>
-      <c r="O49" s="45" t="s">
+      <c r="L49" s="62"/>
+      <c r="M49" s="62"/>
+      <c r="N49" s="62"/>
+      <c r="O49" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="P49" s="43"/>
-      <c r="Q49" s="43"/>
-      <c r="R49" s="43"/>
+      <c r="P49" s="62"/>
+      <c r="Q49" s="62"/>
+      <c r="R49" s="62"/>
       <c r="S49" s="12"/>
     </row>
-    <row r="50" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>784</v>
       </c>
@@ -2612,31 +2645,31 @@
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="C50" s="46" t="s">
+      <c r="C50" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="42" t="s">
+      <c r="D50" s="62"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="43"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="62"/>
+      <c r="J50" s="62"/>
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
-      <c r="O50" s="48" t="s">
+      <c r="O50" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="P50" s="48"/>
-      <c r="Q50" s="48"/>
-      <c r="R50" s="48"/>
+      <c r="P50" s="57"/>
+      <c r="Q50" s="57"/>
+      <c r="R50" s="57"/>
       <c r="S50" s="12"/>
     </row>
-    <row r="51" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>800</v>
       </c>
@@ -2644,12 +2677,12 @@
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="C51" s="44" t="s">
+      <c r="C51" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
       <c r="G51" s="5" t="s">
         <v>18</v>
       </c>
@@ -2668,7 +2701,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>816</v>
       </c>
@@ -2680,10 +2713,10 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
-      <c r="G52" s="45" t="s">
+      <c r="G52" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="H52" s="43"/>
+      <c r="H52" s="62"/>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
       <c r="L52" s="10"/>
@@ -2697,7 +2730,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>832</v>
       </c>
@@ -2723,7 +2756,7 @@
       <c r="R53" s="10"/>
       <c r="S53" s="12"/>
     </row>
-    <row r="54" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>848</v>
       </c>
@@ -2749,7 +2782,7 @@
       <c r="R54" s="10"/>
       <c r="S54" s="12"/>
     </row>
-    <row r="55" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>864</v>
       </c>
@@ -2775,7 +2808,7 @@
       <c r="R55" s="10"/>
       <c r="S55" s="12"/>
     </row>
-    <row r="56" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>880</v>
       </c>
@@ -2801,7 +2834,7 @@
       <c r="R56" s="10"/>
       <c r="S56" s="12"/>
     </row>
-    <row r="57" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>896</v>
       </c>
@@ -2831,7 +2864,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>912</v>
       </c>
@@ -2857,7 +2890,7 @@
       <c r="R58" s="10"/>
       <c r="S58" s="12"/>
     </row>
-    <row r="59" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>928</v>
       </c>
@@ -2883,7 +2916,7 @@
       <c r="R59" s="10"/>
       <c r="S59" s="12"/>
     </row>
-    <row r="60" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>944</v>
       </c>
@@ -2909,7 +2942,7 @@
       <c r="R60" s="10"/>
       <c r="S60" s="12"/>
     </row>
-    <row r="61" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>960</v>
       </c>
@@ -2935,7 +2968,7 @@
       <c r="R61" s="10"/>
       <c r="S61" s="12"/>
     </row>
-    <row r="62" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>976</v>
       </c>
@@ -2961,7 +2994,7 @@
       <c r="R62" s="10"/>
       <c r="S62" s="12"/>
     </row>
-    <row r="63" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>992</v>
       </c>
@@ -2987,7 +3020,7 @@
       <c r="R63" s="10"/>
       <c r="S63" s="12"/>
     </row>
-    <row r="64" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>1008</v>
       </c>
@@ -3013,7 +3046,7 @@
       <c r="R64" s="10"/>
       <c r="S64" s="12"/>
     </row>
-    <row r="65" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>1024</v>
       </c>
@@ -3039,7 +3072,7 @@
       <c r="R65" s="10"/>
       <c r="S65" s="12"/>
     </row>
-    <row r="66" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>1040</v>
       </c>
@@ -3059,13 +3092,23 @@
       <c r="L66" s="10"/>
       <c r="M66" s="10"/>
       <c r="N66" s="10"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="10"/>
-      <c r="R66" s="10"/>
-      <c r="S66" s="12"/>
-    </row>
-    <row r="67" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O66" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="P66" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q66" s="79" t="s">
+        <v>170</v>
+      </c>
+      <c r="R66" s="79" t="s">
+        <v>171</v>
+      </c>
+      <c r="S66" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>1056</v>
       </c>
@@ -3073,10 +3116,18 @@
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
+      <c r="C67" s="79" t="s">
+        <v>172</v>
+      </c>
+      <c r="D67" s="79" t="s">
+        <v>173</v>
+      </c>
+      <c r="E67" s="79" t="s">
+        <v>174</v>
+      </c>
+      <c r="F67" s="79" t="s">
+        <v>175</v>
+      </c>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
@@ -3091,7 +3142,7 @@
       <c r="R67" s="10"/>
       <c r="S67" s="12"/>
     </row>
-    <row r="68" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <v>1072</v>
       </c>
@@ -3117,7 +3168,7 @@
       <c r="R68" s="10"/>
       <c r="S68" s="12"/>
     </row>
-    <row r="69" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>1088</v>
       </c>
@@ -3147,7 +3198,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>1104</v>
       </c>
@@ -3173,7 +3224,7 @@
       <c r="R70" s="10"/>
       <c r="S70" s="12"/>
     </row>
-    <row r="71" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
         <v>1120</v>
       </c>
@@ -3193,19 +3244,19 @@
         <v>25</v>
       </c>
       <c r="J71" s="10"/>
-      <c r="K71" s="44"/>
-      <c r="L71" s="43"/>
-      <c r="M71" s="43"/>
-      <c r="N71" s="43"/>
-      <c r="O71" s="43"/>
-      <c r="P71" s="43"/>
-      <c r="Q71" s="43"/>
-      <c r="R71" s="43"/>
+      <c r="K71" s="67"/>
+      <c r="L71" s="62"/>
+      <c r="M71" s="62"/>
+      <c r="N71" s="62"/>
+      <c r="O71" s="62"/>
+      <c r="P71" s="62"/>
+      <c r="Q71" s="62"/>
+      <c r="R71" s="62"/>
       <c r="S71" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
         <v>1136</v>
       </c>
@@ -3213,27 +3264,27 @@
         <f t="shared" si="0"/>
         <v>470</v>
       </c>
-      <c r="C72" s="58" t="s">
+      <c r="C72" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="D72" s="43"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="43"/>
-      <c r="G72" s="43"/>
-      <c r="H72" s="43"/>
-      <c r="I72" s="43"/>
-      <c r="J72" s="43"/>
-      <c r="K72" s="43"/>
-      <c r="L72" s="43"/>
-      <c r="M72" s="43"/>
-      <c r="N72" s="43"/>
-      <c r="O72" s="43"/>
-      <c r="P72" s="43"/>
-      <c r="Q72" s="43"/>
-      <c r="R72" s="43"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="62"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="62"/>
+      <c r="H72" s="62"/>
+      <c r="I72" s="62"/>
+      <c r="J72" s="62"/>
+      <c r="K72" s="62"/>
+      <c r="L72" s="62"/>
+      <c r="M72" s="62"/>
+      <c r="N72" s="62"/>
+      <c r="O72" s="62"/>
+      <c r="P72" s="62"/>
+      <c r="Q72" s="62"/>
+      <c r="R72" s="62"/>
       <c r="S72" s="12"/>
     </row>
-    <row r="73" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>1152</v>
       </c>
@@ -3241,25 +3292,25 @@
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
-      <c r="C73" s="43"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="43"/>
-      <c r="F73" s="43"/>
-      <c r="G73" s="43"/>
-      <c r="H73" s="43"/>
-      <c r="I73" s="43"/>
-      <c r="J73" s="43"/>
-      <c r="K73" s="43"/>
-      <c r="L73" s="43"/>
-      <c r="M73" s="43"/>
-      <c r="N73" s="43"/>
-      <c r="O73" s="43"/>
-      <c r="P73" s="43"/>
-      <c r="Q73" s="43"/>
-      <c r="R73" s="43"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="62"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="62"/>
+      <c r="H73" s="62"/>
+      <c r="I73" s="62"/>
+      <c r="J73" s="62"/>
+      <c r="K73" s="62"/>
+      <c r="L73" s="62"/>
+      <c r="M73" s="62"/>
+      <c r="N73" s="62"/>
+      <c r="O73" s="62"/>
+      <c r="P73" s="62"/>
+      <c r="Q73" s="62"/>
+      <c r="R73" s="62"/>
       <c r="S73" s="12"/>
     </row>
-    <row r="74" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>1168</v>
       </c>
@@ -3267,25 +3318,25 @@
         <f t="shared" si="0"/>
         <v>490</v>
       </c>
-      <c r="C74" s="43"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="43"/>
-      <c r="I74" s="43"/>
-      <c r="J74" s="43"/>
-      <c r="K74" s="43"/>
-      <c r="L74" s="43"/>
-      <c r="M74" s="43"/>
-      <c r="N74" s="43"/>
-      <c r="O74" s="43"/>
-      <c r="P74" s="43"/>
-      <c r="Q74" s="43"/>
-      <c r="R74" s="43"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="62"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="62"/>
+      <c r="H74" s="62"/>
+      <c r="I74" s="62"/>
+      <c r="J74" s="62"/>
+      <c r="K74" s="62"/>
+      <c r="L74" s="62"/>
+      <c r="M74" s="62"/>
+      <c r="N74" s="62"/>
+      <c r="O74" s="62"/>
+      <c r="P74" s="62"/>
+      <c r="Q74" s="62"/>
+      <c r="R74" s="62"/>
       <c r="S74" s="12"/>
     </row>
-    <row r="75" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
         <v>1184</v>
       </c>
@@ -3293,25 +3344,25 @@
         <f t="shared" si="0"/>
         <v>4A0</v>
       </c>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="43"/>
-      <c r="I75" s="43"/>
-      <c r="J75" s="43"/>
-      <c r="K75" s="43"/>
-      <c r="L75" s="43"/>
-      <c r="M75" s="43"/>
-      <c r="N75" s="43"/>
-      <c r="O75" s="43"/>
-      <c r="P75" s="43"/>
-      <c r="Q75" s="43"/>
-      <c r="R75" s="43"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="62"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="62"/>
+      <c r="G75" s="62"/>
+      <c r="H75" s="62"/>
+      <c r="I75" s="62"/>
+      <c r="J75" s="62"/>
+      <c r="K75" s="62"/>
+      <c r="L75" s="62"/>
+      <c r="M75" s="62"/>
+      <c r="N75" s="62"/>
+      <c r="O75" s="62"/>
+      <c r="P75" s="62"/>
+      <c r="Q75" s="62"/>
+      <c r="R75" s="62"/>
       <c r="S75" s="12"/>
     </row>
-    <row r="76" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
         <v>1200</v>
       </c>
@@ -3319,25 +3370,25 @@
         <f t="shared" si="0"/>
         <v>4B0</v>
       </c>
-      <c r="C76" s="43"/>
-      <c r="D76" s="43"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="43"/>
-      <c r="G76" s="43"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="43"/>
-      <c r="J76" s="43"/>
-      <c r="K76" s="43"/>
-      <c r="L76" s="43"/>
-      <c r="M76" s="43"/>
-      <c r="N76" s="43"/>
-      <c r="O76" s="43"/>
-      <c r="P76" s="43"/>
-      <c r="Q76" s="43"/>
-      <c r="R76" s="43"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="62"/>
+      <c r="E76" s="62"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="62"/>
+      <c r="H76" s="62"/>
+      <c r="I76" s="62"/>
+      <c r="J76" s="62"/>
+      <c r="K76" s="62"/>
+      <c r="L76" s="62"/>
+      <c r="M76" s="62"/>
+      <c r="N76" s="62"/>
+      <c r="O76" s="62"/>
+      <c r="P76" s="62"/>
+      <c r="Q76" s="62"/>
+      <c r="R76" s="62"/>
       <c r="S76" s="12"/>
     </row>
-    <row r="77" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>1216</v>
       </c>
@@ -3345,25 +3396,25 @@
         <f t="shared" si="0"/>
         <v>4C0</v>
       </c>
-      <c r="C77" s="43"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="43"/>
-      <c r="I77" s="43"/>
-      <c r="J77" s="43"/>
-      <c r="K77" s="43"/>
-      <c r="L77" s="43"/>
-      <c r="M77" s="43"/>
-      <c r="N77" s="43"/>
-      <c r="O77" s="43"/>
-      <c r="P77" s="43"/>
-      <c r="Q77" s="43"/>
-      <c r="R77" s="43"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="62"/>
+      <c r="E77" s="62"/>
+      <c r="F77" s="62"/>
+      <c r="G77" s="62"/>
+      <c r="H77" s="62"/>
+      <c r="I77" s="62"/>
+      <c r="J77" s="62"/>
+      <c r="K77" s="62"/>
+      <c r="L77" s="62"/>
+      <c r="M77" s="62"/>
+      <c r="N77" s="62"/>
+      <c r="O77" s="62"/>
+      <c r="P77" s="62"/>
+      <c r="Q77" s="62"/>
+      <c r="R77" s="62"/>
       <c r="S77" s="12"/>
     </row>
-    <row r="78" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>1232</v>
       </c>
@@ -3371,25 +3422,25 @@
         <f t="shared" si="0"/>
         <v>4D0</v>
       </c>
-      <c r="C78" s="43"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="43"/>
-      <c r="F78" s="43"/>
-      <c r="G78" s="43"/>
-      <c r="H78" s="43"/>
-      <c r="I78" s="43"/>
-      <c r="J78" s="43"/>
-      <c r="K78" s="43"/>
-      <c r="L78" s="43"/>
-      <c r="M78" s="43"/>
-      <c r="N78" s="43"/>
-      <c r="O78" s="43"/>
-      <c r="P78" s="43"/>
-      <c r="Q78" s="43"/>
-      <c r="R78" s="43"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="62"/>
+      <c r="E78" s="62"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="62"/>
+      <c r="H78" s="62"/>
+      <c r="I78" s="62"/>
+      <c r="J78" s="62"/>
+      <c r="K78" s="62"/>
+      <c r="L78" s="62"/>
+      <c r="M78" s="62"/>
+      <c r="N78" s="62"/>
+      <c r="O78" s="62"/>
+      <c r="P78" s="62"/>
+      <c r="Q78" s="62"/>
+      <c r="R78" s="62"/>
       <c r="S78" s="12"/>
     </row>
-    <row r="79" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
         <v>1248</v>
       </c>
@@ -3397,25 +3448,25 @@
         <f t="shared" si="0"/>
         <v>4E0</v>
       </c>
-      <c r="C79" s="43"/>
-      <c r="D79" s="43"/>
-      <c r="E79" s="43"/>
-      <c r="F79" s="43"/>
-      <c r="G79" s="43"/>
-      <c r="H79" s="43"/>
-      <c r="I79" s="43"/>
-      <c r="J79" s="43"/>
-      <c r="K79" s="43"/>
-      <c r="L79" s="43"/>
-      <c r="M79" s="43"/>
-      <c r="N79" s="43"/>
-      <c r="O79" s="43"/>
-      <c r="P79" s="43"/>
-      <c r="Q79" s="43"/>
-      <c r="R79" s="43"/>
+      <c r="C79" s="62"/>
+      <c r="D79" s="62"/>
+      <c r="E79" s="62"/>
+      <c r="F79" s="62"/>
+      <c r="G79" s="62"/>
+      <c r="H79" s="62"/>
+      <c r="I79" s="62"/>
+      <c r="J79" s="62"/>
+      <c r="K79" s="62"/>
+      <c r="L79" s="62"/>
+      <c r="M79" s="62"/>
+      <c r="N79" s="62"/>
+      <c r="O79" s="62"/>
+      <c r="P79" s="62"/>
+      <c r="Q79" s="62"/>
+      <c r="R79" s="62"/>
       <c r="S79" s="12"/>
     </row>
-    <row r="80" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
         <v>1264</v>
       </c>
@@ -3423,25 +3474,25 @@
         <f t="shared" si="0"/>
         <v>4F0</v>
       </c>
-      <c r="C80" s="43"/>
-      <c r="D80" s="43"/>
-      <c r="E80" s="43"/>
-      <c r="F80" s="43"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="43"/>
-      <c r="I80" s="43"/>
-      <c r="J80" s="43"/>
-      <c r="K80" s="43"/>
-      <c r="L80" s="43"/>
-      <c r="M80" s="43"/>
-      <c r="N80" s="43"/>
-      <c r="O80" s="43"/>
-      <c r="P80" s="43"/>
-      <c r="Q80" s="43"/>
-      <c r="R80" s="43"/>
+      <c r="C80" s="62"/>
+      <c r="D80" s="62"/>
+      <c r="E80" s="62"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="62"/>
+      <c r="H80" s="62"/>
+      <c r="I80" s="62"/>
+      <c r="J80" s="62"/>
+      <c r="K80" s="62"/>
+      <c r="L80" s="62"/>
+      <c r="M80" s="62"/>
+      <c r="N80" s="62"/>
+      <c r="O80" s="62"/>
+      <c r="P80" s="62"/>
+      <c r="Q80" s="62"/>
+      <c r="R80" s="62"/>
       <c r="S80" s="12"/>
     </row>
-    <row r="81" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>1280</v>
       </c>
@@ -3449,25 +3500,25 @@
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="C81" s="43"/>
-      <c r="D81" s="43"/>
-      <c r="E81" s="43"/>
-      <c r="F81" s="43"/>
-      <c r="G81" s="43"/>
-      <c r="H81" s="43"/>
-      <c r="I81" s="43"/>
-      <c r="J81" s="43"/>
-      <c r="K81" s="43"/>
-      <c r="L81" s="43"/>
-      <c r="M81" s="43"/>
-      <c r="N81" s="43"/>
-      <c r="O81" s="43"/>
-      <c r="P81" s="43"/>
-      <c r="Q81" s="43"/>
-      <c r="R81" s="43"/>
+      <c r="C81" s="62"/>
+      <c r="D81" s="62"/>
+      <c r="E81" s="62"/>
+      <c r="F81" s="62"/>
+      <c r="G81" s="62"/>
+      <c r="H81" s="62"/>
+      <c r="I81" s="62"/>
+      <c r="J81" s="62"/>
+      <c r="K81" s="62"/>
+      <c r="L81" s="62"/>
+      <c r="M81" s="62"/>
+      <c r="N81" s="62"/>
+      <c r="O81" s="62"/>
+      <c r="P81" s="62"/>
+      <c r="Q81" s="62"/>
+      <c r="R81" s="62"/>
       <c r="S81" s="12"/>
     </row>
-    <row r="82" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>1296</v>
       </c>
@@ -3475,25 +3526,25 @@
         <f t="shared" si="0"/>
         <v>510</v>
       </c>
-      <c r="C82" s="43"/>
-      <c r="D82" s="43"/>
-      <c r="E82" s="43"/>
-      <c r="F82" s="43"/>
-      <c r="G82" s="43"/>
-      <c r="H82" s="43"/>
-      <c r="I82" s="43"/>
-      <c r="J82" s="43"/>
-      <c r="K82" s="43"/>
-      <c r="L82" s="43"/>
-      <c r="M82" s="43"/>
-      <c r="N82" s="43"/>
-      <c r="O82" s="43"/>
-      <c r="P82" s="43"/>
-      <c r="Q82" s="43"/>
-      <c r="R82" s="43"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="62"/>
+      <c r="E82" s="62"/>
+      <c r="F82" s="62"/>
+      <c r="G82" s="62"/>
+      <c r="H82" s="62"/>
+      <c r="I82" s="62"/>
+      <c r="J82" s="62"/>
+      <c r="K82" s="62"/>
+      <c r="L82" s="62"/>
+      <c r="M82" s="62"/>
+      <c r="N82" s="62"/>
+      <c r="O82" s="62"/>
+      <c r="P82" s="62"/>
+      <c r="Q82" s="62"/>
+      <c r="R82" s="62"/>
       <c r="S82" s="12"/>
     </row>
-    <row r="83" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
         <v>1312</v>
       </c>
@@ -3501,25 +3552,25 @@
         <f t="shared" si="0"/>
         <v>520</v>
       </c>
-      <c r="C83" s="43"/>
-      <c r="D83" s="43"/>
-      <c r="E83" s="43"/>
-      <c r="F83" s="43"/>
-      <c r="G83" s="43"/>
-      <c r="H83" s="43"/>
-      <c r="I83" s="43"/>
-      <c r="J83" s="43"/>
-      <c r="K83" s="43"/>
-      <c r="L83" s="43"/>
-      <c r="M83" s="43"/>
-      <c r="N83" s="43"/>
-      <c r="O83" s="43"/>
-      <c r="P83" s="43"/>
-      <c r="Q83" s="43"/>
-      <c r="R83" s="43"/>
+      <c r="C83" s="62"/>
+      <c r="D83" s="62"/>
+      <c r="E83" s="62"/>
+      <c r="F83" s="62"/>
+      <c r="G83" s="62"/>
+      <c r="H83" s="62"/>
+      <c r="I83" s="62"/>
+      <c r="J83" s="62"/>
+      <c r="K83" s="62"/>
+      <c r="L83" s="62"/>
+      <c r="M83" s="62"/>
+      <c r="N83" s="62"/>
+      <c r="O83" s="62"/>
+      <c r="P83" s="62"/>
+      <c r="Q83" s="62"/>
+      <c r="R83" s="62"/>
       <c r="S83" s="12"/>
     </row>
-    <row r="84" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
         <v>1328</v>
       </c>
@@ -3527,25 +3578,25 @@
         <f t="shared" si="0"/>
         <v>530</v>
       </c>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="43"/>
-      <c r="I84" s="43"/>
-      <c r="J84" s="43"/>
-      <c r="K84" s="43"/>
-      <c r="L84" s="43"/>
-      <c r="M84" s="43"/>
-      <c r="N84" s="43"/>
-      <c r="O84" s="43"/>
-      <c r="P84" s="43"/>
-      <c r="Q84" s="43"/>
-      <c r="R84" s="43"/>
+      <c r="C84" s="62"/>
+      <c r="D84" s="62"/>
+      <c r="E84" s="62"/>
+      <c r="F84" s="62"/>
+      <c r="G84" s="62"/>
+      <c r="H84" s="62"/>
+      <c r="I84" s="62"/>
+      <c r="J84" s="62"/>
+      <c r="K84" s="62"/>
+      <c r="L84" s="62"/>
+      <c r="M84" s="62"/>
+      <c r="N84" s="62"/>
+      <c r="O84" s="62"/>
+      <c r="P84" s="62"/>
+      <c r="Q84" s="62"/>
+      <c r="R84" s="62"/>
       <c r="S84" s="12"/>
     </row>
-    <row r="85" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>1344</v>
       </c>
@@ -3553,25 +3604,25 @@
         <f t="shared" si="0"/>
         <v>540</v>
       </c>
-      <c r="C85" s="43"/>
-      <c r="D85" s="43"/>
-      <c r="E85" s="43"/>
-      <c r="F85" s="43"/>
-      <c r="G85" s="43"/>
-      <c r="H85" s="43"/>
-      <c r="I85" s="43"/>
-      <c r="J85" s="43"/>
-      <c r="K85" s="43"/>
-      <c r="L85" s="43"/>
-      <c r="M85" s="43"/>
-      <c r="N85" s="43"/>
-      <c r="O85" s="43"/>
-      <c r="P85" s="43"/>
-      <c r="Q85" s="43"/>
-      <c r="R85" s="43"/>
+      <c r="C85" s="62"/>
+      <c r="D85" s="62"/>
+      <c r="E85" s="62"/>
+      <c r="F85" s="62"/>
+      <c r="G85" s="62"/>
+      <c r="H85" s="62"/>
+      <c r="I85" s="62"/>
+      <c r="J85" s="62"/>
+      <c r="K85" s="62"/>
+      <c r="L85" s="62"/>
+      <c r="M85" s="62"/>
+      <c r="N85" s="62"/>
+      <c r="O85" s="62"/>
+      <c r="P85" s="62"/>
+      <c r="Q85" s="62"/>
+      <c r="R85" s="62"/>
       <c r="S85" s="12"/>
     </row>
-    <row r="86" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>1360</v>
       </c>
@@ -3579,25 +3630,25 @@
         <f t="shared" si="0"/>
         <v>550</v>
       </c>
-      <c r="C86" s="43"/>
-      <c r="D86" s="43"/>
-      <c r="E86" s="43"/>
-      <c r="F86" s="43"/>
-      <c r="G86" s="43"/>
-      <c r="H86" s="43"/>
-      <c r="I86" s="43"/>
-      <c r="J86" s="43"/>
-      <c r="K86" s="43"/>
-      <c r="L86" s="43"/>
-      <c r="M86" s="43"/>
-      <c r="N86" s="43"/>
-      <c r="O86" s="43"/>
-      <c r="P86" s="43"/>
-      <c r="Q86" s="43"/>
-      <c r="R86" s="43"/>
+      <c r="C86" s="62"/>
+      <c r="D86" s="62"/>
+      <c r="E86" s="62"/>
+      <c r="F86" s="62"/>
+      <c r="G86" s="62"/>
+      <c r="H86" s="62"/>
+      <c r="I86" s="62"/>
+      <c r="J86" s="62"/>
+      <c r="K86" s="62"/>
+      <c r="L86" s="62"/>
+      <c r="M86" s="62"/>
+      <c r="N86" s="62"/>
+      <c r="O86" s="62"/>
+      <c r="P86" s="62"/>
+      <c r="Q86" s="62"/>
+      <c r="R86" s="62"/>
       <c r="S86" s="12"/>
     </row>
-    <row r="87" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
         <v>1376</v>
       </c>
@@ -3605,25 +3656,25 @@
         <f t="shared" si="0"/>
         <v>560</v>
       </c>
-      <c r="C87" s="44"/>
-      <c r="D87" s="43"/>
-      <c r="E87" s="43"/>
-      <c r="F87" s="43"/>
-      <c r="G87" s="43"/>
-      <c r="H87" s="43"/>
-      <c r="I87" s="43"/>
-      <c r="J87" s="43"/>
+      <c r="C87" s="67"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="62"/>
+      <c r="F87" s="62"/>
+      <c r="G87" s="62"/>
+      <c r="H87" s="62"/>
+      <c r="I87" s="62"/>
+      <c r="J87" s="62"/>
       <c r="K87" s="10"/>
-      <c r="L87" s="59"/>
-      <c r="M87" s="43"/>
-      <c r="N87" s="43"/>
-      <c r="O87" s="43"/>
-      <c r="P87" s="43"/>
-      <c r="Q87" s="43"/>
-      <c r="R87" s="43"/>
+      <c r="L87" s="68"/>
+      <c r="M87" s="62"/>
+      <c r="N87" s="62"/>
+      <c r="O87" s="62"/>
+      <c r="P87" s="62"/>
+      <c r="Q87" s="62"/>
+      <c r="R87" s="62"/>
       <c r="S87" s="12"/>
     </row>
-    <row r="88" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
         <v>1392</v>
       </c>
@@ -3631,27 +3682,27 @@
         <f t="shared" si="0"/>
         <v>570</v>
       </c>
-      <c r="C88" s="60" t="s">
+      <c r="C88" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="43"/>
-      <c r="E88" s="43"/>
-      <c r="F88" s="43"/>
-      <c r="G88" s="43"/>
-      <c r="H88" s="43"/>
-      <c r="I88" s="43"/>
-      <c r="J88" s="43"/>
-      <c r="K88" s="43"/>
-      <c r="L88" s="43"/>
-      <c r="M88" s="43"/>
-      <c r="N88" s="43"/>
-      <c r="O88" s="43"/>
-      <c r="P88" s="43"/>
-      <c r="Q88" s="43"/>
-      <c r="R88" s="43"/>
+      <c r="D88" s="62"/>
+      <c r="E88" s="62"/>
+      <c r="F88" s="62"/>
+      <c r="G88" s="62"/>
+      <c r="H88" s="62"/>
+      <c r="I88" s="62"/>
+      <c r="J88" s="62"/>
+      <c r="K88" s="62"/>
+      <c r="L88" s="62"/>
+      <c r="M88" s="62"/>
+      <c r="N88" s="62"/>
+      <c r="O88" s="62"/>
+      <c r="P88" s="62"/>
+      <c r="Q88" s="62"/>
+      <c r="R88" s="62"/>
       <c r="S88" s="12"/>
     </row>
-    <row r="89" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>1408</v>
       </c>
@@ -3659,25 +3710,25 @@
         <f t="shared" si="0"/>
         <v>580</v>
       </c>
-      <c r="C89" s="59"/>
-      <c r="D89" s="43"/>
-      <c r="E89" s="43"/>
-      <c r="F89" s="43"/>
-      <c r="G89" s="43"/>
-      <c r="H89" s="43"/>
-      <c r="I89" s="43"/>
-      <c r="J89" s="43"/>
-      <c r="K89" s="43"/>
-      <c r="L89" s="42"/>
-      <c r="M89" s="43"/>
-      <c r="N89" s="43"/>
-      <c r="O89" s="43"/>
-      <c r="P89" s="43"/>
-      <c r="Q89" s="43"/>
-      <c r="R89" s="43"/>
+      <c r="C89" s="68"/>
+      <c r="D89" s="62"/>
+      <c r="E89" s="62"/>
+      <c r="F89" s="62"/>
+      <c r="G89" s="62"/>
+      <c r="H89" s="62"/>
+      <c r="I89" s="62"/>
+      <c r="J89" s="62"/>
+      <c r="K89" s="62"/>
+      <c r="L89" s="70"/>
+      <c r="M89" s="62"/>
+      <c r="N89" s="62"/>
+      <c r="O89" s="62"/>
+      <c r="P89" s="62"/>
+      <c r="Q89" s="62"/>
+      <c r="R89" s="62"/>
       <c r="S89" s="12"/>
     </row>
-    <row r="90" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>1424</v>
       </c>
@@ -3685,27 +3736,27 @@
         <f t="shared" si="0"/>
         <v>590</v>
       </c>
-      <c r="C90" s="42" t="s">
+      <c r="C90" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="D90" s="43"/>
-      <c r="E90" s="43"/>
-      <c r="F90" s="43"/>
-      <c r="G90" s="43"/>
-      <c r="H90" s="43"/>
-      <c r="I90" s="43"/>
-      <c r="J90" s="43"/>
-      <c r="K90" s="43"/>
-      <c r="L90" s="43"/>
-      <c r="M90" s="43"/>
-      <c r="N90" s="43"/>
-      <c r="O90" s="43"/>
-      <c r="P90" s="43"/>
-      <c r="Q90" s="43"/>
-      <c r="R90" s="43"/>
+      <c r="D90" s="62"/>
+      <c r="E90" s="62"/>
+      <c r="F90" s="62"/>
+      <c r="G90" s="62"/>
+      <c r="H90" s="62"/>
+      <c r="I90" s="62"/>
+      <c r="J90" s="62"/>
+      <c r="K90" s="62"/>
+      <c r="L90" s="62"/>
+      <c r="M90" s="62"/>
+      <c r="N90" s="62"/>
+      <c r="O90" s="62"/>
+      <c r="P90" s="62"/>
+      <c r="Q90" s="62"/>
+      <c r="R90" s="62"/>
       <c r="S90" s="12"/>
     </row>
-    <row r="91" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7">
         <v>1440</v>
       </c>
@@ -3713,27 +3764,27 @@
         <f t="shared" si="0"/>
         <v>5A0</v>
       </c>
-      <c r="C91" s="42"/>
-      <c r="D91" s="43"/>
-      <c r="E91" s="43"/>
-      <c r="F91" s="43"/>
-      <c r="G91" s="43"/>
-      <c r="H91" s="43"/>
-      <c r="I91" s="43"/>
-      <c r="J91" s="43"/>
-      <c r="K91" s="43"/>
+      <c r="C91" s="70"/>
+      <c r="D91" s="62"/>
+      <c r="E91" s="62"/>
+      <c r="F91" s="62"/>
+      <c r="G91" s="62"/>
+      <c r="H91" s="62"/>
+      <c r="I91" s="62"/>
+      <c r="J91" s="62"/>
+      <c r="K91" s="62"/>
       <c r="L91" s="10"/>
       <c r="M91" s="10"/>
       <c r="N91" s="10"/>
-      <c r="O91" s="62" t="s">
+      <c r="O91" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="P91" s="62"/>
-      <c r="Q91" s="62"/>
-      <c r="R91" s="62"/>
+      <c r="P91" s="76"/>
+      <c r="Q91" s="76"/>
+      <c r="R91" s="76"/>
       <c r="S91" s="12"/>
     </row>
-    <row r="92" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
         <v>1456</v>
       </c>
@@ -3743,22 +3794,22 @@
       </c>
       <c r="E92" s="10"/>
       <c r="F92" s="10"/>
-      <c r="G92" s="52" t="s">
+      <c r="G92" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="H92" s="43"/>
-      <c r="I92" s="53" t="s">
+      <c r="H92" s="62"/>
+      <c r="I92" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="J92" s="43"/>
-      <c r="K92" s="46" t="s">
+      <c r="J92" s="62"/>
+      <c r="K92" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="L92" s="43"/>
-      <c r="M92" s="54" t="s">
+      <c r="L92" s="62"/>
+      <c r="M92" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="N92" s="43"/>
+      <c r="N92" s="62"/>
       <c r="O92" s="10"/>
       <c r="P92" s="10"/>
       <c r="Q92" s="31" t="s">
@@ -3769,7 +3820,7 @@
       </c>
       <c r="S92" s="12"/>
     </row>
-    <row r="93" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>1472</v>
       </c>
@@ -3777,22 +3828,22 @@
         <f t="shared" si="0"/>
         <v>5C0</v>
       </c>
-      <c r="C93" s="78" t="s">
+      <c r="C93" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="D93" s="78" t="s">
+      <c r="D93" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="E93" s="78" t="s">
+      <c r="E93" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="F93" s="78" t="s">
+      <c r="F93" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="G93" s="78" t="s">
+      <c r="G93" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="H93" s="77"/>
+      <c r="H93" s="42"/>
       <c r="I93" s="10"/>
       <c r="J93" s="10"/>
       <c r="K93" s="10"/>
@@ -3811,7 +3862,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>1488</v>
       </c>
@@ -3837,19 +3888,19 @@
       <c r="H94" s="10"/>
       <c r="I94" s="10"/>
       <c r="J94" s="10"/>
-      <c r="K94" s="57" t="s">
+      <c r="K94" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="L94" s="57"/>
-      <c r="M94" s="57"/>
-      <c r="N94" s="57"/>
+      <c r="L94" s="51"/>
+      <c r="M94" s="51"/>
+      <c r="N94" s="51"/>
       <c r="O94" s="10"/>
       <c r="P94" s="10"/>
       <c r="Q94" s="10"/>
       <c r="R94" s="10"/>
       <c r="S94" s="12"/>
     </row>
-    <row r="95" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7">
         <v>1504</v>
       </c>
@@ -3857,22 +3908,22 @@
         <f t="shared" si="0"/>
         <v>5E0</v>
       </c>
-      <c r="C95" s="57" t="s">
+      <c r="C95" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="D95" s="57"/>
-      <c r="E95" s="66" t="s">
+      <c r="D95" s="51"/>
+      <c r="E95" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="F95" s="66"/>
-      <c r="G95" s="67" t="s">
+      <c r="F95" s="50"/>
+      <c r="G95" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="H95" s="67"/>
-      <c r="I95" s="66" t="s">
+      <c r="H95" s="58"/>
+      <c r="I95" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="J95" s="66"/>
+      <c r="J95" s="50"/>
       <c r="K95" s="22"/>
       <c r="L95" s="22"/>
       <c r="M95" s="30" t="s">
@@ -3881,21 +3932,21 @@
       <c r="N95" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="O95" s="78" t="s">
+      <c r="O95" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="P95" s="78" t="s">
+      <c r="P95" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="Q95" s="78" t="s">
+      <c r="Q95" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="R95" s="78" t="s">
+      <c r="R95" s="43" t="s">
         <v>137</v>
       </c>
       <c r="S95" s="12"/>
     </row>
-    <row r="96" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="7">
         <v>1520</v>
       </c>
@@ -3903,7 +3954,7 @@
         <f t="shared" si="0"/>
         <v>5F0</v>
       </c>
-      <c r="C96" s="78" t="s">
+      <c r="C96" s="43" t="s">
         <v>138</v>
       </c>
       <c r="D96" s="10"/>
@@ -3933,7 +3984,7 @@
       <c r="R96" s="10"/>
       <c r="S96" s="12"/>
     </row>
-    <row r="97" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>1536</v>
       </c>
@@ -3945,27 +3996,27 @@
       <c r="D97" s="10"/>
       <c r="E97" s="10"/>
       <c r="F97" s="10"/>
-      <c r="G97" s="56" t="s">
+      <c r="G97" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="H97" s="56"/>
-      <c r="I97" s="56"/>
-      <c r="J97" s="56"/>
+      <c r="H97" s="75"/>
+      <c r="I97" s="75"/>
+      <c r="J97" s="75"/>
       <c r="K97" s="10"/>
       <c r="L97" s="10"/>
       <c r="M97" s="10"/>
       <c r="N97" s="10"/>
-      <c r="O97" s="63" t="s">
+      <c r="O97" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="P97" s="64"/>
-      <c r="Q97" s="68" t="s">
+      <c r="P97" s="44"/>
+      <c r="Q97" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="R97" s="68"/>
+      <c r="R97" s="46"/>
       <c r="S97" s="12"/>
     </row>
-    <row r="98" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>1552</v>
       </c>
@@ -3973,14 +4024,14 @@
         <f t="shared" si="0"/>
         <v>610</v>
       </c>
-      <c r="C98" s="68" t="s">
+      <c r="C98" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="D98" s="68"/>
-      <c r="E98" s="69" t="s">
+      <c r="D98" s="46"/>
+      <c r="E98" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="F98" s="69"/>
+      <c r="F98" s="55"/>
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
       <c r="I98" s="34" t="s">
@@ -3989,19 +4040,19 @@
       <c r="J98" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="K98" s="78" t="s">
+      <c r="K98" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="L98" s="78" t="s">
+      <c r="L98" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="M98" s="78" t="s">
+      <c r="M98" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="N98" s="78" t="s">
+      <c r="N98" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="O98" s="78" t="s">
+      <c r="O98" s="43" t="s">
         <v>143</v>
       </c>
       <c r="P98" s="10"/>
@@ -4009,7 +4060,7 @@
       <c r="R98" s="10"/>
       <c r="S98" s="12"/>
     </row>
-    <row r="99" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="7">
         <v>1568</v>
       </c>
@@ -4035,7 +4086,7 @@
       <c r="R99" s="10"/>
       <c r="S99" s="12"/>
     </row>
-    <row r="100" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="7">
         <v>1584</v>
       </c>
@@ -4043,35 +4094,35 @@
         <f t="shared" si="0"/>
         <v>630</v>
       </c>
-      <c r="C100" s="48" t="s">
+      <c r="C100" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="D100" s="48"/>
-      <c r="E100" s="48"/>
-      <c r="F100" s="48"/>
+      <c r="D100" s="57"/>
+      <c r="E100" s="57"/>
+      <c r="F100" s="57"/>
       <c r="G100" s="10"/>
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
       <c r="J100" s="10"/>
-      <c r="K100" s="65" t="s">
+      <c r="K100" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="L100" s="48"/>
-      <c r="M100" s="70" t="s">
+      <c r="L100" s="57"/>
+      <c r="M100" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="N100" s="70"/>
-      <c r="O100" s="48" t="s">
+      <c r="N100" s="56"/>
+      <c r="O100" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="P100" s="48"/>
-      <c r="Q100" s="70" t="s">
+      <c r="P100" s="57"/>
+      <c r="Q100" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="R100" s="70"/>
+      <c r="R100" s="56"/>
       <c r="S100" s="12"/>
     </row>
-    <row r="101" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>1600</v>
       </c>
@@ -4087,19 +4138,19 @@
       <c r="F101" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="G101" s="78" t="s">
+      <c r="G101" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="H101" s="78" t="s">
+      <c r="H101" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="I101" s="78" t="s">
+      <c r="I101" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="J101" s="78" t="s">
+      <c r="J101" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="K101" s="78" t="s">
+      <c r="K101" s="43" t="s">
         <v>148</v>
       </c>
       <c r="L101" s="10"/>
@@ -4111,7 +4162,7 @@
       <c r="R101" s="10"/>
       <c r="S101" s="12"/>
     </row>
-    <row r="102" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>1616</v>
       </c>
@@ -4139,15 +4190,15 @@
       <c r="L102" s="10"/>
       <c r="M102" s="10"/>
       <c r="N102" s="10"/>
-      <c r="O102" s="48" t="s">
+      <c r="O102" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="P102" s="48"/>
-      <c r="Q102" s="48"/>
-      <c r="R102" s="48"/>
+      <c r="P102" s="57"/>
+      <c r="Q102" s="57"/>
+      <c r="R102" s="57"/>
       <c r="S102" s="12"/>
     </row>
-    <row r="103" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="7">
         <v>1632</v>
       </c>
@@ -4159,22 +4210,22 @@
       <c r="D103" s="10"/>
       <c r="E103" s="10"/>
       <c r="F103" s="10"/>
-      <c r="G103" s="48" t="s">
+      <c r="G103" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="H103" s="48"/>
-      <c r="I103" s="70" t="s">
+      <c r="H103" s="57"/>
+      <c r="I103" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="J103" s="70"/>
-      <c r="K103" s="48" t="s">
+      <c r="J103" s="56"/>
+      <c r="K103" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="L103" s="48"/>
-      <c r="M103" s="70" t="s">
+      <c r="L103" s="57"/>
+      <c r="M103" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="N103" s="70"/>
+      <c r="N103" s="56"/>
       <c r="O103" s="10"/>
       <c r="P103" s="10"/>
       <c r="Q103" s="24" t="s">
@@ -4185,7 +4236,7 @@
       </c>
       <c r="S103" s="12"/>
     </row>
-    <row r="104" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="7">
         <v>1648</v>
       </c>
@@ -4193,19 +4244,19 @@
         <f t="shared" si="0"/>
         <v>670</v>
       </c>
-      <c r="C104" s="78" t="s">
+      <c r="C104" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="D104" s="78" t="s">
+      <c r="D104" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="E104" s="78" t="s">
+      <c r="E104" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="F104" s="78" t="s">
+      <c r="F104" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="G104" s="78" t="s">
+      <c r="G104" s="43" t="s">
         <v>153</v>
       </c>
       <c r="H104" s="10"/>
@@ -4225,7 +4276,7 @@
       </c>
       <c r="S104" s="12"/>
     </row>
-    <row r="105" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>1664</v>
       </c>
@@ -4249,19 +4300,19 @@
       <c r="H105" s="10"/>
       <c r="I105" s="10"/>
       <c r="J105" s="10"/>
-      <c r="K105" s="57" t="s">
+      <c r="K105" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="L105" s="57"/>
-      <c r="M105" s="57"/>
-      <c r="N105" s="57"/>
+      <c r="L105" s="51"/>
+      <c r="M105" s="51"/>
+      <c r="N105" s="51"/>
       <c r="O105" s="10"/>
       <c r="P105" s="10"/>
       <c r="Q105" s="10"/>
       <c r="R105" s="10"/>
       <c r="S105" s="12"/>
     </row>
-    <row r="106" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>1680</v>
       </c>
@@ -4269,22 +4320,22 @@
         <f t="shared" si="0"/>
         <v>690</v>
       </c>
-      <c r="C106" s="57" t="s">
+      <c r="C106" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="D106" s="57"/>
-      <c r="E106" s="66" t="s">
+      <c r="D106" s="51"/>
+      <c r="E106" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="F106" s="66"/>
-      <c r="G106" s="57" t="s">
+      <c r="F106" s="50"/>
+      <c r="G106" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="H106" s="57"/>
-      <c r="I106" s="66" t="s">
+      <c r="H106" s="51"/>
+      <c r="I106" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="J106" s="66"/>
+      <c r="J106" s="50"/>
       <c r="K106" s="10"/>
       <c r="L106" s="10"/>
       <c r="M106" s="36" t="s">
@@ -4293,21 +4344,21 @@
       <c r="N106" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="O106" s="78" t="s">
+      <c r="O106" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="P106" s="78" t="s">
+      <c r="P106" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="Q106" s="78" t="s">
+      <c r="Q106" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="R106" s="78" t="s">
+      <c r="R106" s="43" t="s">
         <v>157</v>
       </c>
       <c r="S106" s="12"/>
     </row>
-    <row r="107" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="7">
         <v>1696</v>
       </c>
@@ -4315,7 +4366,7 @@
         <f t="shared" si="0"/>
         <v>6A0</v>
       </c>
-      <c r="C107" s="78" t="s">
+      <c r="C107" s="43" t="s">
         <v>158</v>
       </c>
       <c r="D107" s="10"/>
@@ -4345,7 +4396,7 @@
       <c r="R107" s="10"/>
       <c r="S107" s="12"/>
     </row>
-    <row r="108" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="7">
         <v>1712</v>
       </c>
@@ -4357,27 +4408,27 @@
       <c r="D108" s="10"/>
       <c r="E108" s="10"/>
       <c r="F108" s="10"/>
-      <c r="G108" s="55" t="s">
+      <c r="G108" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="H108" s="55"/>
-      <c r="I108" s="55"/>
-      <c r="J108" s="55"/>
+      <c r="H108" s="53"/>
+      <c r="I108" s="53"/>
+      <c r="J108" s="53"/>
       <c r="K108" s="10"/>
       <c r="L108" s="10"/>
       <c r="M108" s="10"/>
       <c r="N108" s="10"/>
-      <c r="O108" s="55" t="s">
+      <c r="O108" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="P108" s="55"/>
-      <c r="Q108" s="71" t="s">
+      <c r="P108" s="53"/>
+      <c r="Q108" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="R108" s="71"/>
+      <c r="R108" s="52"/>
       <c r="S108" s="12"/>
     </row>
-    <row r="109" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>1728</v>
       </c>
@@ -4385,14 +4436,14 @@
         <f t="shared" si="0"/>
         <v>6C0</v>
       </c>
-      <c r="C109" s="55" t="s">
+      <c r="C109" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="D109" s="55"/>
-      <c r="E109" s="72" t="s">
+      <c r="D109" s="53"/>
+      <c r="E109" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="F109" s="72"/>
+      <c r="F109" s="54"/>
       <c r="G109" s="10"/>
       <c r="H109" s="10"/>
       <c r="I109" s="37" t="s">
@@ -4401,19 +4452,19 @@
       <c r="J109" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="K109" s="78" t="s">
+      <c r="K109" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="L109" s="78" t="s">
+      <c r="L109" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="M109" s="78" t="s">
+      <c r="M109" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="N109" s="78" t="s">
+      <c r="N109" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="O109" s="78" t="s">
+      <c r="O109" s="43" t="s">
         <v>163</v>
       </c>
       <c r="P109" s="10"/>
@@ -4421,7 +4472,7 @@
       <c r="R109" s="10"/>
       <c r="S109" s="12"/>
     </row>
-    <row r="110" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>1744</v>
       </c>
@@ -4457,7 +4508,7 @@
       <c r="R110" s="10"/>
       <c r="S110" s="12"/>
     </row>
-    <row r="111" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="7">
         <v>1760</v>
       </c>
@@ -4465,35 +4516,35 @@
         <f t="shared" si="0"/>
         <v>6E0</v>
       </c>
-      <c r="C111" s="74" t="s">
+      <c r="C111" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="D111" s="74"/>
-      <c r="E111" s="74"/>
-      <c r="F111" s="74"/>
+      <c r="D111" s="48"/>
+      <c r="E111" s="48"/>
+      <c r="F111" s="48"/>
       <c r="G111" s="10"/>
       <c r="H111" s="10"/>
       <c r="I111" s="10"/>
       <c r="J111" s="10"/>
-      <c r="K111" s="75" t="s">
+      <c r="K111" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="L111" s="74"/>
-      <c r="M111" s="73" t="s">
+      <c r="L111" s="48"/>
+      <c r="M111" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="N111" s="73"/>
-      <c r="O111" s="74" t="s">
+      <c r="N111" s="47"/>
+      <c r="O111" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="P111" s="74"/>
-      <c r="Q111" s="73" t="s">
+      <c r="P111" s="48"/>
+      <c r="Q111" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="R111" s="73"/>
+      <c r="R111" s="47"/>
       <c r="S111" s="12"/>
     </row>
-    <row r="112" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="7">
         <v>1776</v>
       </c>
@@ -4509,19 +4560,19 @@
       <c r="F112" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="G112" s="78" t="s">
+      <c r="G112" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="H112" s="78" t="s">
+      <c r="H112" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="I112" s="78" t="s">
+      <c r="I112" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="J112" s="78" t="s">
+      <c r="J112" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="K112" s="78" t="s">
+      <c r="K112" s="43" t="s">
         <v>168</v>
       </c>
       <c r="L112" s="10"/>
@@ -4533,7 +4584,7 @@
       <c r="R112" s="10"/>
       <c r="S112" s="12"/>
     </row>
-    <row r="113" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>1792</v>
       </c>
@@ -4559,15 +4610,15 @@
       <c r="L113" s="10"/>
       <c r="M113" s="10"/>
       <c r="N113" s="10"/>
-      <c r="O113" s="64" t="s">
+      <c r="O113" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="P113" s="64"/>
-      <c r="Q113" s="64"/>
-      <c r="R113" s="64"/>
+      <c r="P113" s="44"/>
+      <c r="Q113" s="44"/>
+      <c r="R113" s="44"/>
       <c r="S113" s="12"/>
     </row>
-    <row r="114" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>1808</v>
       </c>
@@ -4579,22 +4630,22 @@
       <c r="D114" s="10"/>
       <c r="E114" s="10"/>
       <c r="F114" s="10"/>
-      <c r="G114" s="76" t="s">
+      <c r="G114" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="H114" s="76"/>
-      <c r="I114" s="68" t="s">
+      <c r="H114" s="45"/>
+      <c r="I114" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="J114" s="68"/>
-      <c r="K114" s="64" t="s">
+      <c r="J114" s="46"/>
+      <c r="K114" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="L114" s="64"/>
-      <c r="M114" s="68" t="s">
+      <c r="L114" s="44"/>
+      <c r="M114" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="N114" s="68"/>
+      <c r="N114" s="46"/>
       <c r="O114" s="10"/>
       <c r="P114" s="10"/>
       <c r="Q114" s="41" t="s">
@@ -4605,7 +4656,7 @@
       </c>
       <c r="S114" s="12"/>
     </row>
-    <row r="115" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A115" s="7">
         <v>1824</v>
       </c>
@@ -4613,19 +4664,19 @@
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="C115" s="78" t="s">
+      <c r="C115" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="D115" s="78" t="s">
+      <c r="D115" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="E115" s="78" t="s">
+      <c r="E115" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="F115" s="78" t="s">
+      <c r="F115" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="G115" s="78" t="s">
+      <c r="G115" s="43" t="s">
         <v>163</v>
       </c>
       <c r="H115" s="10"/>
@@ -4641,7 +4692,7 @@
       <c r="R115" s="10"/>
       <c r="S115" s="12"/>
     </row>
-    <row r="116" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A116" s="7">
         <v>1840</v>
       </c>
@@ -4667,7 +4718,7 @@
       <c r="R116" s="10"/>
       <c r="S116" s="12"/>
     </row>
-    <row r="117" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>1856</v>
       </c>
@@ -4693,7 +4744,7 @@
       <c r="R117" s="10"/>
       <c r="S117" s="12"/>
     </row>
-    <row r="118" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>1872</v>
       </c>
@@ -4719,7 +4770,7 @@
       <c r="R118" s="10"/>
       <c r="S118" s="12"/>
     </row>
-    <row r="119" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A119" s="7">
         <v>1888</v>
       </c>
@@ -4745,7 +4796,7 @@
       <c r="R119" s="10"/>
       <c r="S119" s="12"/>
     </row>
-    <row r="120" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A120" s="7">
         <v>1904</v>
       </c>
@@ -4771,7 +4822,7 @@
       <c r="R120" s="10"/>
       <c r="S120" s="12"/>
     </row>
-    <row r="121" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>1920</v>
       </c>
@@ -4797,7 +4848,7 @@
       <c r="R121" s="10"/>
       <c r="S121" s="12"/>
     </row>
-    <row r="122" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>1936</v>
       </c>
@@ -4823,7 +4874,7 @@
       <c r="R122" s="10"/>
       <c r="S122" s="12"/>
     </row>
-    <row r="123" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A123" s="7">
         <v>1952</v>
       </c>
@@ -4843,15 +4894,15 @@
       <c r="L123" s="10"/>
       <c r="M123" s="10"/>
       <c r="N123" s="10"/>
-      <c r="O123" s="51"/>
-      <c r="P123" s="43"/>
-      <c r="Q123" s="43"/>
-      <c r="R123" s="43"/>
+      <c r="O123" s="71"/>
+      <c r="P123" s="62"/>
+      <c r="Q123" s="62"/>
+      <c r="R123" s="62"/>
       <c r="S123" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A124" s="7">
         <v>1968</v>
       </c>
@@ -4859,25 +4910,25 @@
         <f t="shared" si="0"/>
         <v>7B0</v>
       </c>
-      <c r="C124" s="51"/>
-      <c r="D124" s="43"/>
-      <c r="E124" s="43"/>
-      <c r="F124" s="43"/>
-      <c r="G124" s="43"/>
-      <c r="H124" s="43"/>
-      <c r="I124" s="43"/>
-      <c r="J124" s="43"/>
-      <c r="K124" s="43"/>
-      <c r="L124" s="43"/>
-      <c r="M124" s="43"/>
-      <c r="N124" s="43"/>
-      <c r="O124" s="43"/>
-      <c r="P124" s="43"/>
-      <c r="Q124" s="43"/>
-      <c r="R124" s="43"/>
+      <c r="C124" s="71"/>
+      <c r="D124" s="62"/>
+      <c r="E124" s="62"/>
+      <c r="F124" s="62"/>
+      <c r="G124" s="62"/>
+      <c r="H124" s="62"/>
+      <c r="I124" s="62"/>
+      <c r="J124" s="62"/>
+      <c r="K124" s="62"/>
+      <c r="L124" s="62"/>
+      <c r="M124" s="62"/>
+      <c r="N124" s="62"/>
+      <c r="O124" s="62"/>
+      <c r="P124" s="62"/>
+      <c r="Q124" s="62"/>
+      <c r="R124" s="62"/>
       <c r="S124" s="12"/>
     </row>
-    <row r="125" spans="1:19" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>1984</v>
       </c>
@@ -4885,25 +4936,25 @@
         <f t="shared" si="0"/>
         <v>7C0</v>
       </c>
-      <c r="C125" s="43"/>
-      <c r="D125" s="43"/>
-      <c r="E125" s="43"/>
-      <c r="F125" s="43"/>
-      <c r="G125" s="43"/>
-      <c r="H125" s="43"/>
-      <c r="I125" s="43"/>
-      <c r="J125" s="43"/>
-      <c r="K125" s="43"/>
-      <c r="L125" s="43"/>
-      <c r="M125" s="43"/>
-      <c r="N125" s="43"/>
-      <c r="O125" s="43"/>
-      <c r="P125" s="43"/>
-      <c r="Q125" s="43"/>
-      <c r="R125" s="43"/>
+      <c r="C125" s="62"/>
+      <c r="D125" s="62"/>
+      <c r="E125" s="62"/>
+      <c r="F125" s="62"/>
+      <c r="G125" s="62"/>
+      <c r="H125" s="62"/>
+      <c r="I125" s="62"/>
+      <c r="J125" s="62"/>
+      <c r="K125" s="62"/>
+      <c r="L125" s="62"/>
+      <c r="M125" s="62"/>
+      <c r="N125" s="62"/>
+      <c r="O125" s="62"/>
+      <c r="P125" s="62"/>
+      <c r="Q125" s="62"/>
+      <c r="R125" s="62"/>
       <c r="S125" s="12"/>
     </row>
-    <row r="126" spans="1:19" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>2000</v>
       </c>
@@ -4911,25 +4962,25 @@
         <f t="shared" si="0"/>
         <v>7D0</v>
       </c>
-      <c r="C126" s="43"/>
-      <c r="D126" s="43"/>
-      <c r="E126" s="43"/>
-      <c r="F126" s="43"/>
-      <c r="G126" s="43"/>
-      <c r="H126" s="43"/>
-      <c r="I126" s="43"/>
-      <c r="J126" s="43"/>
-      <c r="K126" s="43"/>
-      <c r="L126" s="43"/>
-      <c r="M126" s="43"/>
-      <c r="N126" s="43"/>
-      <c r="O126" s="43"/>
-      <c r="P126" s="43"/>
-      <c r="Q126" s="43"/>
-      <c r="R126" s="43"/>
+      <c r="C126" s="62"/>
+      <c r="D126" s="62"/>
+      <c r="E126" s="62"/>
+      <c r="F126" s="62"/>
+      <c r="G126" s="62"/>
+      <c r="H126" s="62"/>
+      <c r="I126" s="62"/>
+      <c r="J126" s="62"/>
+      <c r="K126" s="62"/>
+      <c r="L126" s="62"/>
+      <c r="M126" s="62"/>
+      <c r="N126" s="62"/>
+      <c r="O126" s="62"/>
+      <c r="P126" s="62"/>
+      <c r="Q126" s="62"/>
+      <c r="R126" s="62"/>
       <c r="S126" s="12"/>
     </row>
-    <row r="127" spans="1:19" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A127" s="7">
         <v>2016</v>
       </c>
@@ -4937,25 +4988,25 @@
         <f t="shared" si="0"/>
         <v>7E0</v>
       </c>
-      <c r="C127" s="43"/>
-      <c r="D127" s="43"/>
-      <c r="E127" s="43"/>
-      <c r="F127" s="43"/>
-      <c r="G127" s="43"/>
-      <c r="H127" s="43"/>
-      <c r="I127" s="43"/>
-      <c r="J127" s="43"/>
-      <c r="K127" s="43"/>
-      <c r="L127" s="43"/>
-      <c r="M127" s="43"/>
-      <c r="N127" s="43"/>
-      <c r="O127" s="43"/>
-      <c r="P127" s="43"/>
-      <c r="Q127" s="43"/>
-      <c r="R127" s="43"/>
+      <c r="C127" s="62"/>
+      <c r="D127" s="62"/>
+      <c r="E127" s="62"/>
+      <c r="F127" s="62"/>
+      <c r="G127" s="62"/>
+      <c r="H127" s="62"/>
+      <c r="I127" s="62"/>
+      <c r="J127" s="62"/>
+      <c r="K127" s="62"/>
+      <c r="L127" s="62"/>
+      <c r="M127" s="62"/>
+      <c r="N127" s="62"/>
+      <c r="O127" s="62"/>
+      <c r="P127" s="62"/>
+      <c r="Q127" s="62"/>
+      <c r="R127" s="62"/>
       <c r="S127" s="12"/>
     </row>
-    <row r="128" spans="1:19" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A128" s="7">
         <v>2032</v>
       </c>
@@ -4963,25 +5014,25 @@
         <f t="shared" si="0"/>
         <v>7F0</v>
       </c>
-      <c r="C128" s="43"/>
-      <c r="D128" s="43"/>
-      <c r="E128" s="43"/>
-      <c r="F128" s="43"/>
-      <c r="G128" s="43"/>
-      <c r="H128" s="43"/>
-      <c r="I128" s="43"/>
-      <c r="J128" s="43"/>
-      <c r="K128" s="43"/>
-      <c r="L128" s="43"/>
-      <c r="M128" s="43"/>
-      <c r="N128" s="43"/>
-      <c r="O128" s="43"/>
-      <c r="P128" s="43"/>
-      <c r="Q128" s="43"/>
-      <c r="R128" s="43"/>
+      <c r="C128" s="62"/>
+      <c r="D128" s="62"/>
+      <c r="E128" s="62"/>
+      <c r="F128" s="62"/>
+      <c r="G128" s="62"/>
+      <c r="H128" s="62"/>
+      <c r="I128" s="62"/>
+      <c r="J128" s="62"/>
+      <c r="K128" s="62"/>
+      <c r="L128" s="62"/>
+      <c r="M128" s="62"/>
+      <c r="N128" s="62"/>
+      <c r="O128" s="62"/>
+      <c r="P128" s="62"/>
+      <c r="Q128" s="62"/>
+      <c r="R128" s="62"/>
       <c r="S128" s="12"/>
     </row>
-    <row r="129" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>2048</v>
       </c>
@@ -5007,7 +5058,7 @@
       <c r="R129" s="10"/>
       <c r="S129" s="12"/>
     </row>
-    <row r="130" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>2064</v>
       </c>
@@ -5033,7 +5084,7 @@
       <c r="R130" s="10"/>
       <c r="S130" s="12"/>
     </row>
-    <row r="131" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A131" s="7">
         <v>2080</v>
       </c>
@@ -5059,7 +5110,7 @@
       <c r="R131" s="10"/>
       <c r="S131" s="12"/>
     </row>
-    <row r="132" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A132" s="7">
         <v>2096</v>
       </c>
@@ -5085,7 +5136,7 @@
       <c r="R132" s="10"/>
       <c r="S132" s="12"/>
     </row>
-    <row r="133" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>2112</v>
       </c>
@@ -5111,7 +5162,7 @@
       <c r="R133" s="10"/>
       <c r="S133" s="12"/>
     </row>
-    <row r="134" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>2128</v>
       </c>
@@ -5137,7 +5188,7 @@
       <c r="R134" s="10"/>
       <c r="S134" s="12"/>
     </row>
-    <row r="135" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A135" s="7">
         <v>2144</v>
       </c>
@@ -5163,7 +5214,7 @@
       <c r="R135" s="10"/>
       <c r="S135" s="12"/>
     </row>
-    <row r="136" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A136" s="7">
         <v>2160</v>
       </c>
@@ -5189,7 +5240,7 @@
       <c r="R136" s="10"/>
       <c r="S136" s="12"/>
     </row>
-    <row r="137" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>2176</v>
       </c>
@@ -5215,7 +5266,7 @@
       <c r="R137" s="10"/>
       <c r="S137" s="12"/>
     </row>
-    <row r="138" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
         <v>2192</v>
       </c>
@@ -5241,7 +5292,7 @@
       <c r="R138" s="10"/>
       <c r="S138" s="12"/>
     </row>
-    <row r="139" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A139" s="7">
         <v>2208</v>
       </c>
@@ -5267,7 +5318,7 @@
       <c r="R139" s="10"/>
       <c r="S139" s="12"/>
     </row>
-    <row r="140" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A140" s="7">
         <v>2224</v>
       </c>
@@ -5293,7 +5344,7 @@
       <c r="R140" s="10"/>
       <c r="S140" s="12"/>
     </row>
-    <row r="141" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
         <v>2240</v>
       </c>
@@ -5319,7 +5370,7 @@
       <c r="R141" s="10"/>
       <c r="S141" s="12"/>
     </row>
-    <row r="142" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>2256</v>
       </c>
@@ -5345,7 +5396,7 @@
       <c r="R142" s="10"/>
       <c r="S142" s="12"/>
     </row>
-    <row r="143" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A143" s="7">
         <v>2272</v>
       </c>
@@ -5371,7 +5422,7 @@
       <c r="R143" s="10"/>
       <c r="S143" s="12"/>
     </row>
-    <row r="144" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A144" s="7">
         <v>2288</v>
       </c>
@@ -5397,7 +5448,7 @@
       <c r="R144" s="10"/>
       <c r="S144" s="12"/>
     </row>
-    <row r="145" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>2304</v>
       </c>
@@ -5423,7 +5474,7 @@
       <c r="R145" s="10"/>
       <c r="S145" s="12"/>
     </row>
-    <row r="146" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>2320</v>
       </c>
@@ -5449,7 +5500,7 @@
       <c r="R146" s="10"/>
       <c r="S146" s="12"/>
     </row>
-    <row r="147" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A147" s="7">
         <v>2336</v>
       </c>
@@ -5475,7 +5526,7 @@
       <c r="R147" s="10"/>
       <c r="S147" s="12"/>
     </row>
-    <row r="148" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A148" s="7">
         <v>2352</v>
       </c>
@@ -5501,7 +5552,7 @@
       <c r="R148" s="10"/>
       <c r="S148" s="12"/>
     </row>
-    <row r="149" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>2368</v>
       </c>
@@ -5527,7 +5578,7 @@
       <c r="R149" s="10"/>
       <c r="S149" s="12"/>
     </row>
-    <row r="150" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>2384</v>
       </c>
@@ -5553,7 +5604,7 @@
       <c r="R150" s="10"/>
       <c r="S150" s="12"/>
     </row>
-    <row r="151" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A151" s="7">
         <v>2400</v>
       </c>
@@ -5579,7 +5630,7 @@
       <c r="R151" s="10"/>
       <c r="S151" s="12"/>
     </row>
-    <row r="152" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A152" s="7">
         <v>2416</v>
       </c>
@@ -5605,7 +5656,7 @@
       <c r="R152" s="10"/>
       <c r="S152" s="12"/>
     </row>
-    <row r="153" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
         <v>2432</v>
       </c>
@@ -5631,7 +5682,7 @@
       <c r="R153" s="10"/>
       <c r="S153" s="12"/>
     </row>
-    <row r="154" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>2448</v>
       </c>
@@ -5657,7 +5708,7 @@
       <c r="R154" s="10"/>
       <c r="S154" s="12"/>
     </row>
-    <row r="155" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A155" s="7">
         <v>2464</v>
       </c>
@@ -5683,7 +5734,7 @@
       <c r="R155" s="10"/>
       <c r="S155" s="12"/>
     </row>
-    <row r="156" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A156" s="7">
         <v>2480</v>
       </c>
@@ -5709,7 +5760,7 @@
       <c r="R156" s="10"/>
       <c r="S156" s="12"/>
     </row>
-    <row r="157" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <v>2496</v>
       </c>
@@ -5735,7 +5786,7 @@
       <c r="R157" s="10"/>
       <c r="S157" s="12"/>
     </row>
-    <row r="158" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>2512</v>
       </c>
@@ -5761,7 +5812,7 @@
       <c r="R158" s="10"/>
       <c r="S158" s="12"/>
     </row>
-    <row r="159" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A159" s="7">
         <v>2528</v>
       </c>
@@ -5787,7 +5838,7 @@
       <c r="R159" s="10"/>
       <c r="S159" s="12"/>
     </row>
-    <row r="160" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A160" s="7">
         <v>2544</v>
       </c>
@@ -5813,7 +5864,7 @@
       <c r="R160" s="10"/>
       <c r="S160" s="12"/>
     </row>
-    <row r="161" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
         <v>2560</v>
       </c>
@@ -5839,7 +5890,7 @@
       <c r="R161" s="10"/>
       <c r="S161" s="12"/>
     </row>
-    <row r="162" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
         <v>2576</v>
       </c>
@@ -5865,7 +5916,7 @@
       <c r="R162" s="10"/>
       <c r="S162" s="12"/>
     </row>
-    <row r="163" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A163" s="7">
         <v>2592</v>
       </c>
@@ -5891,7 +5942,7 @@
       <c r="R163" s="10"/>
       <c r="S163" s="12"/>
     </row>
-    <row r="164" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A164" s="7">
         <v>2608</v>
       </c>
@@ -5917,7 +5968,7 @@
       <c r="R164" s="10"/>
       <c r="S164" s="12"/>
     </row>
-    <row r="165" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <v>2624</v>
       </c>
@@ -5943,7 +5994,7 @@
       <c r="R165" s="10"/>
       <c r="S165" s="12"/>
     </row>
-    <row r="166" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
         <v>2640</v>
       </c>
@@ -5969,7 +6020,7 @@
       <c r="R166" s="10"/>
       <c r="S166" s="12"/>
     </row>
-    <row r="167" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A167" s="7">
         <v>2656</v>
       </c>
@@ -5995,7 +6046,7 @@
       <c r="R167" s="10"/>
       <c r="S167" s="12"/>
     </row>
-    <row r="168" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A168" s="7">
         <v>2672</v>
       </c>
@@ -6021,7 +6072,7 @@
       <c r="R168" s="10"/>
       <c r="S168" s="12"/>
     </row>
-    <row r="169" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
         <v>2688</v>
       </c>
@@ -6047,7 +6098,7 @@
       <c r="R169" s="10"/>
       <c r="S169" s="12"/>
     </row>
-    <row r="170" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <v>2704</v>
       </c>
@@ -6073,7 +6124,7 @@
       <c r="R170" s="10"/>
       <c r="S170" s="12"/>
     </row>
-    <row r="171" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A171" s="7">
         <v>2720</v>
       </c>
@@ -6099,7 +6150,7 @@
       <c r="R171" s="10"/>
       <c r="S171" s="12"/>
     </row>
-    <row r="172" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A172" s="7">
         <v>2736</v>
       </c>
@@ -6125,7 +6176,7 @@
       <c r="R172" s="10"/>
       <c r="S172" s="12"/>
     </row>
-    <row r="173" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>2752</v>
       </c>
@@ -6151,7 +6202,7 @@
       <c r="R173" s="10"/>
       <c r="S173" s="12"/>
     </row>
-    <row r="174" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>2768</v>
       </c>
@@ -6177,7 +6228,7 @@
       <c r="R174" s="10"/>
       <c r="S174" s="12"/>
     </row>
-    <row r="175" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A175" s="7">
         <v>2784</v>
       </c>
@@ -6203,7 +6254,7 @@
       <c r="R175" s="10"/>
       <c r="S175" s="12"/>
     </row>
-    <row r="176" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A176" s="7">
         <v>2800</v>
       </c>
@@ -6229,7 +6280,7 @@
       <c r="R176" s="10"/>
       <c r="S176" s="12"/>
     </row>
-    <row r="177" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
         <v>2816</v>
       </c>
@@ -6255,7 +6306,7 @@
       <c r="R177" s="10"/>
       <c r="S177" s="12"/>
     </row>
-    <row r="178" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>2832</v>
       </c>
@@ -6281,7 +6332,7 @@
       <c r="R178" s="10"/>
       <c r="S178" s="12"/>
     </row>
-    <row r="179" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A179" s="7">
         <v>2848</v>
       </c>
@@ -6307,7 +6358,7 @@
       <c r="R179" s="10"/>
       <c r="S179" s="12"/>
     </row>
-    <row r="180" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A180" s="7">
         <v>2864</v>
       </c>
@@ -6333,7 +6384,7 @@
       <c r="R180" s="10"/>
       <c r="S180" s="12"/>
     </row>
-    <row r="181" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>2880</v>
       </c>
@@ -6359,7 +6410,7 @@
       <c r="R181" s="10"/>
       <c r="S181" s="12"/>
     </row>
-    <row r="182" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
         <v>2896</v>
       </c>
@@ -6385,7 +6436,7 @@
       <c r="R182" s="10"/>
       <c r="S182" s="12"/>
     </row>
-    <row r="183" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A183" s="7">
         <v>2912</v>
       </c>
@@ -6411,7 +6462,7 @@
       <c r="R183" s="10"/>
       <c r="S183" s="12"/>
     </row>
-    <row r="184" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A184" s="7">
         <v>2928</v>
       </c>
@@ -6437,7 +6488,7 @@
       <c r="R184" s="10"/>
       <c r="S184" s="12"/>
     </row>
-    <row r="185" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>2944</v>
       </c>
@@ -6463,7 +6514,7 @@
       <c r="R185" s="10"/>
       <c r="S185" s="12"/>
     </row>
-    <row r="186" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>2960</v>
       </c>
@@ -6489,7 +6540,7 @@
       <c r="R186" s="10"/>
       <c r="S186" s="12"/>
     </row>
-    <row r="187" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A187" s="7">
         <v>2976</v>
       </c>
@@ -6515,7 +6566,7 @@
       <c r="R187" s="10"/>
       <c r="S187" s="12"/>
     </row>
-    <row r="188" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A188" s="7">
         <v>2992</v>
       </c>
@@ -6541,7 +6592,7 @@
       <c r="R188" s="10"/>
       <c r="S188" s="12"/>
     </row>
-    <row r="189" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
         <v>3008</v>
       </c>
@@ -6567,7 +6618,7 @@
       <c r="R189" s="10"/>
       <c r="S189" s="12"/>
     </row>
-    <row r="190" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>3024</v>
       </c>
@@ -6593,7 +6644,7 @@
       <c r="R190" s="10"/>
       <c r="S190" s="12"/>
     </row>
-    <row r="191" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A191" s="7">
         <v>3040</v>
       </c>
@@ -6619,7 +6670,7 @@
       <c r="R191" s="10"/>
       <c r="S191" s="12"/>
     </row>
-    <row r="192" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A192" s="7">
         <v>3056</v>
       </c>
@@ -6645,7 +6696,7 @@
       <c r="R192" s="10"/>
       <c r="S192" s="12"/>
     </row>
-    <row r="193" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>3072</v>
       </c>
@@ -6671,7 +6722,7 @@
       <c r="R193" s="10"/>
       <c r="S193" s="12"/>
     </row>
-    <row r="194" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
         <v>3088</v>
       </c>
@@ -6697,7 +6748,7 @@
       <c r="R194" s="10"/>
       <c r="S194" s="12"/>
     </row>
-    <row r="195" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A195" s="7">
         <v>3104</v>
       </c>
@@ -6723,7 +6774,7 @@
       <c r="R195" s="10"/>
       <c r="S195" s="12"/>
     </row>
-    <row r="196" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A196" s="7">
         <v>3120</v>
       </c>
@@ -6749,7 +6800,7 @@
       <c r="R196" s="10"/>
       <c r="S196" s="12"/>
     </row>
-    <row r="197" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>3136</v>
       </c>
@@ -6775,7 +6826,7 @@
       <c r="R197" s="10"/>
       <c r="S197" s="12"/>
     </row>
-    <row r="198" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
         <v>3152</v>
       </c>
@@ -6801,7 +6852,7 @@
       <c r="R198" s="10"/>
       <c r="S198" s="12"/>
     </row>
-    <row r="199" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A199" s="7">
         <v>3168</v>
       </c>
@@ -6827,7 +6878,7 @@
       <c r="R199" s="10"/>
       <c r="S199" s="12"/>
     </row>
-    <row r="200" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A200" s="7">
         <v>3184</v>
       </c>
@@ -6853,7 +6904,7 @@
       <c r="R200" s="10"/>
       <c r="S200" s="12"/>
     </row>
-    <row r="201" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>3200</v>
       </c>
@@ -6879,7 +6930,7 @@
       <c r="R201" s="10"/>
       <c r="S201" s="12"/>
     </row>
-    <row r="202" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
         <v>3216</v>
       </c>
@@ -6905,7 +6956,7 @@
       <c r="R202" s="10"/>
       <c r="S202" s="12"/>
     </row>
-    <row r="203" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A203" s="7">
         <v>3232</v>
       </c>
@@ -6931,7 +6982,7 @@
       <c r="R203" s="10"/>
       <c r="S203" s="12"/>
     </row>
-    <row r="204" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A204" s="7">
         <v>3248</v>
       </c>
@@ -6957,7 +7008,7 @@
       <c r="R204" s="10"/>
       <c r="S204" s="12"/>
     </row>
-    <row r="205" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>3264</v>
       </c>
@@ -6983,7 +7034,7 @@
       <c r="R205" s="10"/>
       <c r="S205" s="12"/>
     </row>
-    <row r="206" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
         <v>3280</v>
       </c>
@@ -7009,7 +7060,7 @@
       <c r="R206" s="10"/>
       <c r="S206" s="12"/>
     </row>
-    <row r="207" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A207" s="7">
         <v>3296</v>
       </c>
@@ -7035,7 +7086,7 @@
       <c r="R207" s="10"/>
       <c r="S207" s="12"/>
     </row>
-    <row r="208" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A208" s="7">
         <v>3312</v>
       </c>
@@ -7061,7 +7112,7 @@
       <c r="R208" s="10"/>
       <c r="S208" s="12"/>
     </row>
-    <row r="209" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
         <v>3328</v>
       </c>
@@ -7087,7 +7138,7 @@
       <c r="R209" s="10"/>
       <c r="S209" s="12"/>
     </row>
-    <row r="210" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
         <v>3344</v>
       </c>
@@ -7113,7 +7164,7 @@
       <c r="R210" s="10"/>
       <c r="S210" s="12"/>
     </row>
-    <row r="211" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A211" s="7">
         <v>3360</v>
       </c>
@@ -7139,7 +7190,7 @@
       <c r="R211" s="10"/>
       <c r="S211" s="12"/>
     </row>
-    <row r="212" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A212" s="7">
         <v>3376</v>
       </c>
@@ -7165,7 +7216,7 @@
       <c r="R212" s="10"/>
       <c r="S212" s="12"/>
     </row>
-    <row r="213" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
         <v>3392</v>
       </c>
@@ -7191,7 +7242,7 @@
       <c r="R213" s="10"/>
       <c r="S213" s="12"/>
     </row>
-    <row r="214" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
         <v>3408</v>
       </c>
@@ -7217,7 +7268,7 @@
       <c r="R214" s="10"/>
       <c r="S214" s="12"/>
     </row>
-    <row r="215" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A215" s="7">
         <v>3424</v>
       </c>
@@ -7243,7 +7294,7 @@
       <c r="R215" s="10"/>
       <c r="S215" s="12"/>
     </row>
-    <row r="216" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A216" s="7">
         <v>3440</v>
       </c>
@@ -7269,7 +7320,7 @@
       <c r="R216" s="10"/>
       <c r="S216" s="12"/>
     </row>
-    <row r="217" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
         <v>3456</v>
       </c>
@@ -7295,7 +7346,7 @@
       <c r="R217" s="10"/>
       <c r="S217" s="12"/>
     </row>
-    <row r="218" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="3">
         <v>3472</v>
       </c>
@@ -7321,7 +7372,7 @@
       <c r="R218" s="10"/>
       <c r="S218" s="12"/>
     </row>
-    <row r="219" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A219" s="7">
         <v>3488</v>
       </c>
@@ -7347,7 +7398,7 @@
       <c r="R219" s="10"/>
       <c r="S219" s="12"/>
     </row>
-    <row r="220" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A220" s="7">
         <v>3504</v>
       </c>
@@ -7373,7 +7424,7 @@
       <c r="R220" s="10"/>
       <c r="S220" s="12"/>
     </row>
-    <row r="221" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="3">
         <v>3520</v>
       </c>
@@ -7399,7 +7450,7 @@
       <c r="R221" s="10"/>
       <c r="S221" s="12"/>
     </row>
-    <row r="222" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="3">
         <v>3536</v>
       </c>
@@ -7425,7 +7476,7 @@
       <c r="R222" s="10"/>
       <c r="S222" s="12"/>
     </row>
-    <row r="223" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A223" s="7">
         <v>3552</v>
       </c>
@@ -7451,7 +7502,7 @@
       <c r="R223" s="10"/>
       <c r="S223" s="12"/>
     </row>
-    <row r="224" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A224" s="7">
         <v>3568</v>
       </c>
@@ -7477,7 +7528,7 @@
       <c r="R224" s="10"/>
       <c r="S224" s="12"/>
     </row>
-    <row r="225" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="3">
         <v>3584</v>
       </c>
@@ -7503,7 +7554,7 @@
       <c r="R225" s="10"/>
       <c r="S225" s="12"/>
     </row>
-    <row r="226" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="3">
         <v>3600</v>
       </c>
@@ -7529,7 +7580,7 @@
       <c r="R226" s="10"/>
       <c r="S226" s="12"/>
     </row>
-    <row r="227" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A227" s="7">
         <v>3616</v>
       </c>
@@ -7555,7 +7606,7 @@
       <c r="R227" s="10"/>
       <c r="S227" s="12"/>
     </row>
-    <row r="228" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A228" s="7">
         <v>3632</v>
       </c>
@@ -7581,7 +7632,7 @@
       <c r="R228" s="10"/>
       <c r="S228" s="12"/>
     </row>
-    <row r="229" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="3">
         <v>3648</v>
       </c>
@@ -7607,7 +7658,7 @@
       <c r="R229" s="10"/>
       <c r="S229" s="12"/>
     </row>
-    <row r="230" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="3">
         <v>3664</v>
       </c>
@@ -7633,7 +7684,7 @@
       <c r="R230" s="10"/>
       <c r="S230" s="12"/>
     </row>
-    <row r="231" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A231" s="7">
         <v>3680</v>
       </c>
@@ -7659,7 +7710,7 @@
       <c r="R231" s="10"/>
       <c r="S231" s="12"/>
     </row>
-    <row r="232" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A232" s="7">
         <v>3696</v>
       </c>
@@ -7685,7 +7736,7 @@
       <c r="R232" s="10"/>
       <c r="S232" s="12"/>
     </row>
-    <row r="233" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="3">
         <v>3712</v>
       </c>
@@ -7711,7 +7762,7 @@
       <c r="R233" s="10"/>
       <c r="S233" s="12"/>
     </row>
-    <row r="234" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="3">
         <v>3728</v>
       </c>
@@ -7737,7 +7788,7 @@
       <c r="R234" s="10"/>
       <c r="S234" s="12"/>
     </row>
-    <row r="235" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A235" s="7">
         <v>3744</v>
       </c>
@@ -7763,7 +7814,7 @@
       <c r="R235" s="10"/>
       <c r="S235" s="12"/>
     </row>
-    <row r="236" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A236" s="7">
         <v>3760</v>
       </c>
@@ -7789,7 +7840,7 @@
       <c r="R236" s="10"/>
       <c r="S236" s="12"/>
     </row>
-    <row r="237" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="3">
         <v>3776</v>
       </c>
@@ -7815,7 +7866,7 @@
       <c r="R237" s="10"/>
       <c r="S237" s="12"/>
     </row>
-    <row r="238" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="3">
         <v>3792</v>
       </c>
@@ -7841,7 +7892,7 @@
       <c r="R238" s="10"/>
       <c r="S238" s="12"/>
     </row>
-    <row r="239" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A239" s="7">
         <v>3808</v>
       </c>
@@ -7867,7 +7918,7 @@
       <c r="R239" s="10"/>
       <c r="S239" s="12"/>
     </row>
-    <row r="240" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A240" s="7">
         <v>3824</v>
       </c>
@@ -7893,7 +7944,7 @@
       <c r="R240" s="10"/>
       <c r="S240" s="12"/>
     </row>
-    <row r="241" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="3">
         <v>3840</v>
       </c>
@@ -7919,7 +7970,7 @@
       <c r="R241" s="10"/>
       <c r="S241" s="12"/>
     </row>
-    <row r="242" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="3">
         <v>3856</v>
       </c>
@@ -7945,7 +7996,7 @@
       <c r="R242" s="10"/>
       <c r="S242" s="12"/>
     </row>
-    <row r="243" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A243" s="7">
         <v>3872</v>
       </c>
@@ -7971,7 +8022,7 @@
       <c r="R243" s="10"/>
       <c r="S243" s="12"/>
     </row>
-    <row r="244" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A244" s="7">
         <v>3888</v>
       </c>
@@ -7997,7 +8048,7 @@
       <c r="R244" s="10"/>
       <c r="S244" s="12"/>
     </row>
-    <row r="245" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="3">
         <v>3904</v>
       </c>
@@ -8023,7 +8074,7 @@
       <c r="R245" s="10"/>
       <c r="S245" s="12"/>
     </row>
-    <row r="246" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="3">
         <v>3920</v>
       </c>
@@ -8049,7 +8100,7 @@
       <c r="R246" s="10"/>
       <c r="S246" s="12"/>
     </row>
-    <row r="247" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A247" s="7">
         <v>3936</v>
       </c>
@@ -8075,7 +8126,7 @@
       <c r="R247" s="10"/>
       <c r="S247" s="12"/>
     </row>
-    <row r="248" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A248" s="7">
         <v>3952</v>
       </c>
@@ -8101,7 +8152,7 @@
       <c r="R248" s="10"/>
       <c r="S248" s="12"/>
     </row>
-    <row r="249" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="3">
         <v>3968</v>
       </c>
@@ -8127,7 +8178,7 @@
       <c r="R249" s="10"/>
       <c r="S249" s="12"/>
     </row>
-    <row r="250" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="3">
         <v>3984</v>
       </c>
@@ -8153,7 +8204,7 @@
       <c r="R250" s="10"/>
       <c r="S250" s="12"/>
     </row>
-    <row r="251" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A251" s="7">
         <v>4000</v>
       </c>
@@ -8179,7 +8230,7 @@
       <c r="R251" s="10"/>
       <c r="S251" s="12"/>
     </row>
-    <row r="252" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A252" s="7">
         <v>4016</v>
       </c>
@@ -8205,7 +8256,7 @@
       <c r="R252" s="10"/>
       <c r="S252" s="12"/>
     </row>
-    <row r="253" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="3">
         <v>4032</v>
       </c>
@@ -8231,7 +8282,7 @@
       <c r="R253" s="10"/>
       <c r="S253" s="12"/>
     </row>
-    <row r="254" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="3">
         <v>4048</v>
       </c>
@@ -8257,7 +8308,7 @@
       <c r="R254" s="10"/>
       <c r="S254" s="12"/>
     </row>
-    <row r="255" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A255" s="7">
         <v>4064</v>
       </c>
@@ -8283,7 +8334,7 @@
       <c r="R255" s="10"/>
       <c r="S255" s="12"/>
     </row>
-    <row r="256" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A256" s="7">
         <v>4080</v>
       </c>
@@ -8309,7 +8360,7 @@
       <c r="R256" s="10"/>
       <c r="S256" s="12"/>
     </row>
-    <row r="257" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="3">
         <v>4096</v>
       </c>
@@ -8335,7 +8386,7 @@
       <c r="R257" s="10"/>
       <c r="S257" s="12"/>
     </row>
-    <row r="258" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="3">
         <v>4112</v>
       </c>
@@ -8361,7 +8412,7 @@
       <c r="R258" s="10"/>
       <c r="S258" s="12"/>
     </row>
-    <row r="259" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A259" s="7">
         <v>4128</v>
       </c>
@@ -8387,7 +8438,7 @@
       <c r="R259" s="10"/>
       <c r="S259" s="12"/>
     </row>
-    <row r="260" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A260" s="7">
         <v>4144</v>
       </c>
@@ -8413,7 +8464,7 @@
       <c r="R260" s="10"/>
       <c r="S260" s="12"/>
     </row>
-    <row r="261" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="3">
         <v>4160</v>
       </c>
@@ -8439,7 +8490,7 @@
       <c r="R261" s="10"/>
       <c r="S261" s="12"/>
     </row>
-    <row r="262" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="3">
         <v>4176</v>
       </c>
@@ -8465,7 +8516,7 @@
       <c r="R262" s="10"/>
       <c r="S262" s="12"/>
     </row>
-    <row r="263" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A263" s="7">
         <v>4192</v>
       </c>
@@ -8491,7 +8542,7 @@
       <c r="R263" s="10"/>
       <c r="S263" s="12"/>
     </row>
-    <row r="264" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A264" s="7">
         <v>4208</v>
       </c>
@@ -8517,7 +8568,7 @@
       <c r="R264" s="10"/>
       <c r="S264" s="12"/>
     </row>
-    <row r="265" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="3">
         <v>4224</v>
       </c>
@@ -8543,7 +8594,7 @@
       <c r="R265" s="10"/>
       <c r="S265" s="12"/>
     </row>
-    <row r="266" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="3">
         <v>4240</v>
       </c>
@@ -8569,7 +8620,7 @@
       <c r="R266" s="10"/>
       <c r="S266" s="12"/>
     </row>
-    <row r="267" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A267" s="7">
         <v>4256</v>
       </c>
@@ -8595,7 +8646,7 @@
       <c r="R267" s="10"/>
       <c r="S267" s="12"/>
     </row>
-    <row r="268" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A268" s="7">
         <v>4272</v>
       </c>
@@ -8621,7 +8672,7 @@
       <c r="R268" s="10"/>
       <c r="S268" s="12"/>
     </row>
-    <row r="269" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="3">
         <v>4288</v>
       </c>
@@ -8647,7 +8698,7 @@
       <c r="R269" s="10"/>
       <c r="S269" s="12"/>
     </row>
-    <row r="270" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="3">
         <v>4304</v>
       </c>
@@ -8673,7 +8724,7 @@
       <c r="R270" s="10"/>
       <c r="S270" s="12"/>
     </row>
-    <row r="271" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A271" s="7">
         <v>4320</v>
       </c>
@@ -8699,7 +8750,7 @@
       <c r="R271" s="10"/>
       <c r="S271" s="12"/>
     </row>
-    <row r="272" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A272" s="7">
         <v>4336</v>
       </c>
@@ -8725,7 +8776,7 @@
       <c r="R272" s="10"/>
       <c r="S272" s="12"/>
     </row>
-    <row r="273" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="3">
         <v>4352</v>
       </c>
@@ -8751,7 +8802,7 @@
       <c r="R273" s="10"/>
       <c r="S273" s="12"/>
     </row>
-    <row r="274" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="3">
         <v>4368</v>
       </c>
@@ -8777,7 +8828,7 @@
       <c r="R274" s="10"/>
       <c r="S274" s="12"/>
     </row>
-    <row r="275" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A275" s="7">
         <v>4384</v>
       </c>
@@ -8803,7 +8854,7 @@
       <c r="R275" s="10"/>
       <c r="S275" s="12"/>
     </row>
-    <row r="276" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A276" s="7">
         <v>4400</v>
       </c>
@@ -8829,7 +8880,7 @@
       <c r="R276" s="10"/>
       <c r="S276" s="12"/>
     </row>
-    <row r="277" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="3">
         <v>4416</v>
       </c>
@@ -8855,7 +8906,7 @@
       <c r="R277" s="10"/>
       <c r="S277" s="12"/>
     </row>
-    <row r="278" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="3">
         <v>4432</v>
       </c>
@@ -8881,7 +8932,7 @@
       <c r="R278" s="10"/>
       <c r="S278" s="12"/>
     </row>
-    <row r="279" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A279" s="7">
         <v>4448</v>
       </c>
@@ -8907,7 +8958,7 @@
       <c r="R279" s="10"/>
       <c r="S279" s="12"/>
     </row>
-    <row r="280" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A280" s="7">
         <v>4464</v>
       </c>
@@ -8933,7 +8984,7 @@
       <c r="R280" s="10"/>
       <c r="S280" s="12"/>
     </row>
-    <row r="281" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="3">
         <v>4480</v>
       </c>
@@ -8959,7 +9010,7 @@
       <c r="R281" s="10"/>
       <c r="S281" s="12"/>
     </row>
-    <row r="282" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="3">
         <v>4496</v>
       </c>
@@ -8985,7 +9036,7 @@
       <c r="R282" s="10"/>
       <c r="S282" s="12"/>
     </row>
-    <row r="283" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A283" s="7">
         <v>4512</v>
       </c>
@@ -9011,7 +9062,7 @@
       <c r="R283" s="10"/>
       <c r="S283" s="12"/>
     </row>
-    <row r="284" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A284" s="7">
         <v>4528</v>
       </c>
@@ -9037,7 +9088,7 @@
       <c r="R284" s="10"/>
       <c r="S284" s="12"/>
     </row>
-    <row r="285" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="3">
         <v>4544</v>
       </c>
@@ -9063,7 +9114,7 @@
       <c r="R285" s="10"/>
       <c r="S285" s="12"/>
     </row>
-    <row r="286" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" s="3">
         <v>4560</v>
       </c>
@@ -9089,7 +9140,7 @@
       <c r="R286" s="10"/>
       <c r="S286" s="12"/>
     </row>
-    <row r="287" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A287" s="7">
         <v>4576</v>
       </c>
@@ -9115,7 +9166,7 @@
       <c r="R287" s="10"/>
       <c r="S287" s="12"/>
     </row>
-    <row r="288" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A288" s="7">
         <v>4592</v>
       </c>
@@ -9141,7 +9192,7 @@
       <c r="R288" s="10"/>
       <c r="S288" s="12"/>
     </row>
-    <row r="289" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A289" s="3">
         <v>4608</v>
       </c>
@@ -9167,7 +9218,7 @@
       <c r="R289" s="10"/>
       <c r="S289" s="12"/>
     </row>
-    <row r="290" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A290" s="3">
         <v>4624</v>
       </c>
@@ -9193,7 +9244,7 @@
       <c r="R290" s="10"/>
       <c r="S290" s="12"/>
     </row>
-    <row r="291" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A291" s="7">
         <v>4640</v>
       </c>
@@ -9219,7 +9270,7 @@
       <c r="R291" s="10"/>
       <c r="S291" s="12"/>
     </row>
-    <row r="292" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A292" s="7">
         <v>4656</v>
       </c>
@@ -9245,7 +9296,7 @@
       <c r="R292" s="10"/>
       <c r="S292" s="12"/>
     </row>
-    <row r="293" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" s="3">
         <v>4672</v>
       </c>
@@ -9271,7 +9322,7 @@
       <c r="R293" s="10"/>
       <c r="S293" s="12"/>
     </row>
-    <row r="294" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" s="3">
         <v>4688</v>
       </c>
@@ -9297,7 +9348,7 @@
       <c r="R294" s="10"/>
       <c r="S294" s="12"/>
     </row>
-    <row r="295" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A295" s="7">
         <v>4704</v>
       </c>
@@ -9323,7 +9374,7 @@
       <c r="R295" s="10"/>
       <c r="S295" s="12"/>
     </row>
-    <row r="296" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A296" s="7">
         <v>4720</v>
       </c>
@@ -9349,7 +9400,7 @@
       <c r="R296" s="10"/>
       <c r="S296" s="12"/>
     </row>
-    <row r="297" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="3">
         <v>4736</v>
       </c>
@@ -9375,7 +9426,7 @@
       <c r="R297" s="10"/>
       <c r="S297" s="12"/>
     </row>
-    <row r="298" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="3">
         <v>4752</v>
       </c>
@@ -9401,7 +9452,7 @@
       <c r="R298" s="10"/>
       <c r="S298" s="12"/>
     </row>
-    <row r="299" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A299" s="7">
         <v>4768</v>
       </c>
@@ -9427,7 +9478,7 @@
       <c r="R299" s="10"/>
       <c r="S299" s="12"/>
     </row>
-    <row r="300" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A300" s="7">
         <v>4784</v>
       </c>
@@ -9453,7 +9504,7 @@
       <c r="R300" s="10"/>
       <c r="S300" s="12"/>
     </row>
-    <row r="301" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="3">
         <v>4800</v>
       </c>
@@ -9479,7 +9530,7 @@
       <c r="R301" s="10"/>
       <c r="S301" s="12"/>
     </row>
-    <row r="302" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="3">
         <v>4816</v>
       </c>
@@ -9505,7 +9556,7 @@
       <c r="R302" s="10"/>
       <c r="S302" s="12"/>
     </row>
-    <row r="303" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A303" s="7">
         <v>4832</v>
       </c>
@@ -9531,7 +9582,7 @@
       <c r="R303" s="10"/>
       <c r="S303" s="12"/>
     </row>
-    <row r="304" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A304" s="7">
         <v>4848</v>
       </c>
@@ -9557,7 +9608,7 @@
       <c r="R304" s="10"/>
       <c r="S304" s="12"/>
     </row>
-    <row r="305" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A305" s="3">
         <v>4864</v>
       </c>
@@ -9583,7 +9634,7 @@
       <c r="R305" s="10"/>
       <c r="S305" s="12"/>
     </row>
-    <row r="306" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A306" s="3">
         <v>4880</v>
       </c>
@@ -9609,7 +9660,7 @@
       <c r="R306" s="10"/>
       <c r="S306" s="12"/>
     </row>
-    <row r="307" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A307" s="7">
         <v>4896</v>
       </c>
@@ -9635,7 +9686,7 @@
       <c r="R307" s="10"/>
       <c r="S307" s="12"/>
     </row>
-    <row r="308" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A308" s="7">
         <v>4912</v>
       </c>
@@ -9661,7 +9712,7 @@
       <c r="R308" s="10"/>
       <c r="S308" s="12"/>
     </row>
-    <row r="309" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A309" s="3">
         <v>4928</v>
       </c>
@@ -9687,7 +9738,7 @@
       <c r="R309" s="10"/>
       <c r="S309" s="12"/>
     </row>
-    <row r="310" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A310" s="3">
         <v>4944</v>
       </c>
@@ -9713,7 +9764,7 @@
       <c r="R310" s="10"/>
       <c r="S310" s="12"/>
     </row>
-    <row r="311" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A311" s="7">
         <v>4960</v>
       </c>
@@ -9739,7 +9790,7 @@
       <c r="R311" s="10"/>
       <c r="S311" s="12"/>
     </row>
-    <row r="312" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A312" s="7">
         <v>4976</v>
       </c>
@@ -9765,7 +9816,7 @@
       <c r="R312" s="10"/>
       <c r="S312" s="12"/>
     </row>
-    <row r="313" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A313" s="3">
         <v>4992</v>
       </c>
@@ -9791,7 +9842,7 @@
       <c r="R313" s="10"/>
       <c r="S313" s="12"/>
     </row>
-    <row r="314" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="3">
         <v>5008</v>
       </c>
@@ -9817,7 +9868,7 @@
       <c r="R314" s="10"/>
       <c r="S314" s="12"/>
     </row>
-    <row r="315" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A315" s="7">
         <v>5024</v>
       </c>
@@ -9843,7 +9894,7 @@
       <c r="R315" s="10"/>
       <c r="S315" s="12"/>
     </row>
-    <row r="316" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A316" s="7">
         <v>5040</v>
       </c>
@@ -9869,7 +9920,7 @@
       <c r="R316" s="10"/>
       <c r="S316" s="12"/>
     </row>
-    <row r="317" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A317" s="3">
         <v>5056</v>
       </c>
@@ -9895,7 +9946,7 @@
       <c r="R317" s="10"/>
       <c r="S317" s="12"/>
     </row>
-    <row r="318" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A318" s="3">
         <v>5072</v>
       </c>
@@ -9921,7 +9972,7 @@
       <c r="R318" s="10"/>
       <c r="S318" s="12"/>
     </row>
-    <row r="319" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A319" s="7">
         <v>5088</v>
       </c>
@@ -9947,7 +9998,7 @@
       <c r="R319" s="10"/>
       <c r="S319" s="12"/>
     </row>
-    <row r="320" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A320" s="7">
         <v>5104</v>
       </c>
@@ -9973,7 +10024,7 @@
       <c r="R320" s="10"/>
       <c r="S320" s="12"/>
     </row>
-    <row r="321" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A321" s="3">
         <v>5120</v>
       </c>
@@ -9999,7 +10050,7 @@
       <c r="R321" s="10"/>
       <c r="S321" s="12"/>
     </row>
-    <row r="322" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="3">
         <v>5136</v>
       </c>
@@ -10025,7 +10076,7 @@
       <c r="R322" s="10"/>
       <c r="S322" s="12"/>
     </row>
-    <row r="323" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A323" s="7">
         <v>5152</v>
       </c>
@@ -10051,7 +10102,7 @@
       <c r="R323" s="10"/>
       <c r="S323" s="12"/>
     </row>
-    <row r="324" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A324" s="7">
         <v>5168</v>
       </c>
@@ -10077,7 +10128,7 @@
       <c r="R324" s="10"/>
       <c r="S324" s="12"/>
     </row>
-    <row r="325" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A325" s="3">
         <v>5184</v>
       </c>
@@ -10103,7 +10154,7 @@
       <c r="R325" s="10"/>
       <c r="S325" s="12"/>
     </row>
-    <row r="326" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A326" s="3">
         <v>5200</v>
       </c>
@@ -10129,7 +10180,7 @@
       <c r="R326" s="10"/>
       <c r="S326" s="12"/>
     </row>
-    <row r="327" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A327" s="7">
         <v>5216</v>
       </c>
@@ -10155,7 +10206,7 @@
       <c r="R327" s="10"/>
       <c r="S327" s="12"/>
     </row>
-    <row r="328" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A328" s="7">
         <v>5232</v>
       </c>
@@ -10181,7 +10232,7 @@
       <c r="R328" s="10"/>
       <c r="S328" s="12"/>
     </row>
-    <row r="329" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A329" s="3">
         <v>5248</v>
       </c>
@@ -10207,7 +10258,7 @@
       <c r="R329" s="10"/>
       <c r="S329" s="12"/>
     </row>
-    <row r="330" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A330" s="3">
         <v>5264</v>
       </c>
@@ -10233,7 +10284,7 @@
       <c r="R330" s="10"/>
       <c r="S330" s="12"/>
     </row>
-    <row r="331" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A331" s="7">
         <v>5280</v>
       </c>
@@ -10259,7 +10310,7 @@
       <c r="R331" s="10"/>
       <c r="S331" s="12"/>
     </row>
-    <row r="332" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A332" s="7">
         <v>5296</v>
       </c>
@@ -10285,7 +10336,7 @@
       <c r="R332" s="10"/>
       <c r="S332" s="12"/>
     </row>
-    <row r="333" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A333" s="3">
         <v>5312</v>
       </c>
@@ -10311,7 +10362,7 @@
       <c r="R333" s="10"/>
       <c r="S333" s="12"/>
     </row>
-    <row r="334" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A334" s="3">
         <v>5328</v>
       </c>
@@ -10337,7 +10388,7 @@
       <c r="R334" s="10"/>
       <c r="S334" s="12"/>
     </row>
-    <row r="335" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A335" s="7">
         <v>5344</v>
       </c>
@@ -10363,7 +10414,7 @@
       <c r="R335" s="10"/>
       <c r="S335" s="12"/>
     </row>
-    <row r="336" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A336" s="7">
         <v>5360</v>
       </c>
@@ -10389,7 +10440,7 @@
       <c r="R336" s="10"/>
       <c r="S336" s="12"/>
     </row>
-    <row r="337" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A337" s="3">
         <v>5376</v>
       </c>
@@ -10415,7 +10466,7 @@
       <c r="R337" s="10"/>
       <c r="S337" s="12"/>
     </row>
-    <row r="338" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A338" s="3">
         <v>5392</v>
       </c>
@@ -10441,7 +10492,7 @@
       <c r="R338" s="10"/>
       <c r="S338" s="12"/>
     </row>
-    <row r="339" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A339" s="7">
         <v>5408</v>
       </c>
@@ -10467,7 +10518,7 @@
       <c r="R339" s="10"/>
       <c r="S339" s="12"/>
     </row>
-    <row r="340" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A340" s="7">
         <v>5424</v>
       </c>
@@ -10493,7 +10544,7 @@
       <c r="R340" s="10"/>
       <c r="S340" s="12"/>
     </row>
-    <row r="341" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A341" s="3">
         <v>5440</v>
       </c>
@@ -10519,7 +10570,7 @@
       <c r="R341" s="10"/>
       <c r="S341" s="12"/>
     </row>
-    <row r="342" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A342" s="3">
         <v>5456</v>
       </c>
@@ -10545,7 +10596,7 @@
       <c r="R342" s="10"/>
       <c r="S342" s="12"/>
     </row>
-    <row r="343" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A343" s="7">
         <v>5472</v>
       </c>
@@ -10571,7 +10622,7 @@
       <c r="R343" s="10"/>
       <c r="S343" s="12"/>
     </row>
-    <row r="344" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A344" s="3">
         <v>5488</v>
       </c>
@@ -10597,7 +10648,7 @@
       <c r="R344" s="10"/>
       <c r="S344" s="12"/>
     </row>
-    <row r="345" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A345" s="7">
         <v>5504</v>
       </c>
@@ -10623,7 +10674,7 @@
       <c r="R345" s="10"/>
       <c r="S345" s="12"/>
     </row>
-    <row r="346" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A346" s="7">
         <v>5520</v>
       </c>
@@ -10649,7 +10700,7 @@
       <c r="R346" s="10"/>
       <c r="S346" s="12"/>
     </row>
-    <row r="347" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A347" s="3">
         <v>5536</v>
       </c>
@@ -10675,7 +10726,7 @@
       <c r="R347" s="10"/>
       <c r="S347" s="12"/>
     </row>
-    <row r="348" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A348" s="3">
         <v>5552</v>
       </c>
@@ -10701,7 +10752,7 @@
       <c r="R348" s="10"/>
       <c r="S348" s="12"/>
     </row>
-    <row r="349" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A349" s="7">
         <v>5568</v>
       </c>
@@ -10727,7 +10778,7 @@
       <c r="R349" s="10"/>
       <c r="S349" s="12"/>
     </row>
-    <row r="350" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A350" s="7">
         <v>5584</v>
       </c>
@@ -10753,7 +10804,7 @@
       <c r="R350" s="10"/>
       <c r="S350" s="12"/>
     </row>
-    <row r="351" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A351" s="3">
         <v>5600</v>
       </c>
@@ -10779,7 +10830,7 @@
       <c r="R351" s="10"/>
       <c r="S351" s="12"/>
     </row>
-    <row r="352" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A352" s="3">
         <v>5616</v>
       </c>
@@ -10805,7 +10856,7 @@
       <c r="R352" s="10"/>
       <c r="S352" s="12"/>
     </row>
-    <row r="353" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A353" s="7">
         <v>5632</v>
       </c>
@@ -10831,7 +10882,7 @@
       <c r="R353" s="10"/>
       <c r="S353" s="12"/>
     </row>
-    <row r="354" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A354" s="7">
         <v>5648</v>
       </c>
@@ -10857,7 +10908,7 @@
       <c r="R354" s="10"/>
       <c r="S354" s="12"/>
     </row>
-    <row r="355" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A355" s="3">
         <v>5664</v>
       </c>
@@ -10883,7 +10934,7 @@
       <c r="R355" s="10"/>
       <c r="S355" s="12"/>
     </row>
-    <row r="356" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A356" s="3">
         <v>5680</v>
       </c>
@@ -10909,7 +10960,7 @@
       <c r="R356" s="10"/>
       <c r="S356" s="12"/>
     </row>
-    <row r="357" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A357" s="7">
         <v>5696</v>
       </c>
@@ -10935,7 +10986,7 @@
       <c r="R357" s="10"/>
       <c r="S357" s="12"/>
     </row>
-    <row r="358" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A358" s="7">
         <v>5712</v>
       </c>
@@ -10961,7 +11012,7 @@
       <c r="R358" s="10"/>
       <c r="S358" s="12"/>
     </row>
-    <row r="359" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A359" s="3">
         <v>5728</v>
       </c>
@@ -10987,7 +11038,7 @@
       <c r="R359" s="10"/>
       <c r="S359" s="12"/>
     </row>
-    <row r="360" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A360" s="3">
         <v>5744</v>
       </c>
@@ -11013,7 +11064,7 @@
       <c r="R360" s="10"/>
       <c r="S360" s="12"/>
     </row>
-    <row r="361" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A361" s="7">
         <v>5760</v>
       </c>
@@ -11039,7 +11090,7 @@
       <c r="R361" s="10"/>
       <c r="S361" s="12"/>
     </row>
-    <row r="362" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A362" s="7">
         <v>5776</v>
       </c>
@@ -11065,7 +11116,7 @@
       <c r="R362" s="10"/>
       <c r="S362" s="12"/>
     </row>
-    <row r="363" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A363" s="3">
         <v>5792</v>
       </c>
@@ -11091,7 +11142,7 @@
       <c r="R363" s="10"/>
       <c r="S363" s="12"/>
     </row>
-    <row r="364" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A364" s="3">
         <v>5808</v>
       </c>
@@ -11117,7 +11168,7 @@
       <c r="R364" s="10"/>
       <c r="S364" s="12"/>
     </row>
-    <row r="365" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A365" s="7">
         <v>5824</v>
       </c>
@@ -11143,7 +11194,7 @@
       <c r="R365" s="10"/>
       <c r="S365" s="12"/>
     </row>
-    <row r="366" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A366" s="7">
         <v>5840</v>
       </c>
@@ -11169,7 +11220,7 @@
       <c r="R366" s="10"/>
       <c r="S366" s="12"/>
     </row>
-    <row r="367" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A367" s="3">
         <v>5856</v>
       </c>
@@ -11195,7 +11246,7 @@
       <c r="R367" s="10"/>
       <c r="S367" s="12"/>
     </row>
-    <row r="368" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A368" s="3">
         <v>5872</v>
       </c>
@@ -11221,7 +11272,7 @@
       <c r="R368" s="10"/>
       <c r="S368" s="12"/>
     </row>
-    <row r="369" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A369" s="7">
         <v>5888</v>
       </c>
@@ -11247,7 +11298,7 @@
       <c r="R369" s="10"/>
       <c r="S369" s="12"/>
     </row>
-    <row r="370" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A370" s="7">
         <v>5904</v>
       </c>
@@ -11273,7 +11324,7 @@
       <c r="R370" s="10"/>
       <c r="S370" s="12"/>
     </row>
-    <row r="371" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A371" s="3">
         <v>5920</v>
       </c>
@@ -11299,7 +11350,7 @@
       <c r="R371" s="10"/>
       <c r="S371" s="12"/>
     </row>
-    <row r="372" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A372" s="3">
         <v>5936</v>
       </c>
@@ -11325,7 +11376,7 @@
       <c r="R372" s="10"/>
       <c r="S372" s="12"/>
     </row>
-    <row r="373" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A373" s="7">
         <v>5952</v>
       </c>
@@ -11351,7 +11402,7 @@
       <c r="R373" s="10"/>
       <c r="S373" s="12"/>
     </row>
-    <row r="374" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A374" s="7">
         <v>5968</v>
       </c>
@@ -11377,7 +11428,7 @@
       <c r="R374" s="10"/>
       <c r="S374" s="12"/>
     </row>
-    <row r="375" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A375" s="3">
         <v>5984</v>
       </c>
@@ -11403,7 +11454,7 @@
       <c r="R375" s="10"/>
       <c r="S375" s="12"/>
     </row>
-    <row r="376" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A376" s="3">
         <v>6000</v>
       </c>
@@ -11429,7 +11480,7 @@
       <c r="R376" s="10"/>
       <c r="S376" s="12"/>
     </row>
-    <row r="377" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A377" s="7">
         <v>6016</v>
       </c>
@@ -11455,7 +11506,7 @@
       <c r="R377" s="10"/>
       <c r="S377" s="12"/>
     </row>
-    <row r="378" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A378" s="7">
         <v>6032</v>
       </c>
@@ -11481,7 +11532,7 @@
       <c r="R378" s="10"/>
       <c r="S378" s="12"/>
     </row>
-    <row r="379" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A379" s="3">
         <v>6048</v>
       </c>
@@ -11507,7 +11558,7 @@
       <c r="R379" s="10"/>
       <c r="S379" s="12"/>
     </row>
-    <row r="380" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A380" s="3">
         <v>6064</v>
       </c>
@@ -11533,7 +11584,7 @@
       <c r="R380" s="10"/>
       <c r="S380" s="12"/>
     </row>
-    <row r="381" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A381" s="7">
         <v>6080</v>
       </c>
@@ -11559,7 +11610,7 @@
       <c r="R381" s="10"/>
       <c r="S381" s="12"/>
     </row>
-    <row r="382" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A382" s="7">
         <v>6096</v>
       </c>
@@ -11585,7 +11636,7 @@
       <c r="R382" s="10"/>
       <c r="S382" s="12"/>
     </row>
-    <row r="383" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A383" s="3">
         <v>6112</v>
       </c>
@@ -11611,7 +11662,7 @@
       <c r="R383" s="10"/>
       <c r="S383" s="12"/>
     </row>
-    <row r="384" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A384" s="3">
         <v>6128</v>
       </c>
@@ -11637,7 +11688,7 @@
       <c r="R384" s="10"/>
       <c r="S384" s="12"/>
     </row>
-    <row r="385" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A385" s="7">
         <v>6144</v>
       </c>
@@ -11663,7 +11714,7 @@
       <c r="R385" s="10"/>
       <c r="S385" s="12"/>
     </row>
-    <row r="386" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A386" s="7">
         <v>6160</v>
       </c>
@@ -11689,7 +11740,7 @@
       <c r="R386" s="10"/>
       <c r="S386" s="12"/>
     </row>
-    <row r="387" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A387" s="3">
         <v>6176</v>
       </c>
@@ -11715,7 +11766,7 @@
       <c r="R387" s="10"/>
       <c r="S387" s="12"/>
     </row>
-    <row r="388" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A388" s="3">
         <v>6192</v>
       </c>
@@ -11741,7 +11792,7 @@
       <c r="R388" s="10"/>
       <c r="S388" s="12"/>
     </row>
-    <row r="389" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A389" s="7">
         <v>6208</v>
       </c>
@@ -11767,7 +11818,7 @@
       <c r="R389" s="10"/>
       <c r="S389" s="12"/>
     </row>
-    <row r="390" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A390" s="7">
         <v>6224</v>
       </c>
@@ -11793,7 +11844,7 @@
       <c r="R390" s="10"/>
       <c r="S390" s="12"/>
     </row>
-    <row r="391" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A391" s="3">
         <v>6240</v>
       </c>
@@ -11819,7 +11870,7 @@
       <c r="R391" s="10"/>
       <c r="S391" s="12"/>
     </row>
-    <row r="392" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A392" s="3">
         <v>6256</v>
       </c>
@@ -11845,7 +11896,7 @@
       <c r="R392" s="10"/>
       <c r="S392" s="12"/>
     </row>
-    <row r="393" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A393" s="7">
         <v>6272</v>
       </c>
@@ -11871,7 +11922,7 @@
       <c r="R393" s="10"/>
       <c r="S393" s="12"/>
     </row>
-    <row r="394" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A394" s="7">
         <v>6288</v>
       </c>
@@ -11897,7 +11948,7 @@
       <c r="R394" s="10"/>
       <c r="S394" s="12"/>
     </row>
-    <row r="395" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A395" s="3">
         <v>6304</v>
       </c>
@@ -11923,7 +11974,7 @@
       <c r="R395" s="10"/>
       <c r="S395" s="12"/>
     </row>
-    <row r="396" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A396" s="3">
         <v>6320</v>
       </c>
@@ -11949,7 +12000,7 @@
       <c r="R396" s="10"/>
       <c r="S396" s="12"/>
     </row>
-    <row r="397" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A397" s="7">
         <v>6336</v>
       </c>
@@ -11975,7 +12026,7 @@
       <c r="R397" s="10"/>
       <c r="S397" s="12"/>
     </row>
-    <row r="398" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A398" s="7">
         <v>6352</v>
       </c>
@@ -12001,7 +12052,7 @@
       <c r="R398" s="10"/>
       <c r="S398" s="12"/>
     </row>
-    <row r="399" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A399" s="3">
         <v>6368</v>
       </c>
@@ -12027,7 +12078,7 @@
       <c r="R399" s="10"/>
       <c r="S399" s="12"/>
     </row>
-    <row r="400" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A400" s="3">
         <v>6384</v>
       </c>
@@ -12053,7 +12104,7 @@
       <c r="R400" s="10"/>
       <c r="S400" s="12"/>
     </row>
-    <row r="401" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A401" s="7">
         <v>6400</v>
       </c>
@@ -12079,7 +12130,7 @@
       <c r="R401" s="10"/>
       <c r="S401" s="12"/>
     </row>
-    <row r="402" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A402" s="7">
         <v>6416</v>
       </c>
@@ -12105,7 +12156,7 @@
       <c r="R402" s="10"/>
       <c r="S402" s="12"/>
     </row>
-    <row r="403" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A403" s="3">
         <v>6432</v>
       </c>
@@ -12131,7 +12182,7 @@
       <c r="R403" s="10"/>
       <c r="S403" s="12"/>
     </row>
-    <row r="404" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A404" s="3">
         <v>6448</v>
       </c>
@@ -12157,7 +12208,7 @@
       <c r="R404" s="10"/>
       <c r="S404" s="12"/>
     </row>
-    <row r="405" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A405" s="7">
         <v>6464</v>
       </c>
@@ -12183,7 +12234,7 @@
       <c r="R405" s="10"/>
       <c r="S405" s="12"/>
     </row>
-    <row r="406" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A406" s="7">
         <v>6480</v>
       </c>
@@ -12209,7 +12260,7 @@
       <c r="R406" s="10"/>
       <c r="S406" s="12"/>
     </row>
-    <row r="407" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A407" s="3">
         <v>6496</v>
       </c>
@@ -12235,7 +12286,7 @@
       <c r="R407" s="10"/>
       <c r="S407" s="12"/>
     </row>
-    <row r="408" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A408" s="3">
         <v>6512</v>
       </c>
@@ -12261,7 +12312,7 @@
       <c r="R408" s="10"/>
       <c r="S408" s="12"/>
     </row>
-    <row r="409" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A409" s="7">
         <v>6528</v>
       </c>
@@ -12287,7 +12338,7 @@
       <c r="R409" s="10"/>
       <c r="S409" s="12"/>
     </row>
-    <row r="410" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A410" s="7">
         <v>6544</v>
       </c>
@@ -12313,7 +12364,7 @@
       <c r="R410" s="10"/>
       <c r="S410" s="12"/>
     </row>
-    <row r="411" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A411" s="3">
         <v>6560</v>
       </c>
@@ -12339,7 +12390,7 @@
       <c r="R411" s="10"/>
       <c r="S411" s="12"/>
     </row>
-    <row r="412" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A412" s="3">
         <v>6576</v>
       </c>
@@ -12365,7 +12416,7 @@
       <c r="R412" s="10"/>
       <c r="S412" s="12"/>
     </row>
-    <row r="413" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A413" s="7">
         <v>6592</v>
       </c>
@@ -12391,7 +12442,7 @@
       <c r="R413" s="10"/>
       <c r="S413" s="12"/>
     </row>
-    <row r="414" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A414" s="7">
         <v>6608</v>
       </c>
@@ -12417,7 +12468,7 @@
       <c r="R414" s="10"/>
       <c r="S414" s="12"/>
     </row>
-    <row r="415" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A415" s="3">
         <v>6624</v>
       </c>
@@ -12443,7 +12494,7 @@
       <c r="R415" s="10"/>
       <c r="S415" s="12"/>
     </row>
-    <row r="416" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A416" s="3">
         <v>6640</v>
       </c>
@@ -12469,7 +12520,7 @@
       <c r="R416" s="10"/>
       <c r="S416" s="12"/>
     </row>
-    <row r="417" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A417" s="7">
         <v>6656</v>
       </c>
@@ -12495,7 +12546,7 @@
       <c r="R417" s="10"/>
       <c r="S417" s="12"/>
     </row>
-    <row r="418" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A418" s="7">
         <v>6672</v>
       </c>
@@ -12521,7 +12572,7 @@
       <c r="R418" s="10"/>
       <c r="S418" s="12"/>
     </row>
-    <row r="419" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A419" s="3">
         <v>6688</v>
       </c>
@@ -12547,7 +12598,7 @@
       <c r="R419" s="10"/>
       <c r="S419" s="12"/>
     </row>
-    <row r="420" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A420" s="3">
         <v>6704</v>
       </c>
@@ -12573,7 +12624,7 @@
       <c r="R420" s="10"/>
       <c r="S420" s="12"/>
     </row>
-    <row r="421" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A421" s="7">
         <v>6720</v>
       </c>
@@ -12599,7 +12650,7 @@
       <c r="R421" s="10"/>
       <c r="S421" s="12"/>
     </row>
-    <row r="422" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A422" s="7">
         <v>6736</v>
       </c>
@@ -12625,7 +12676,7 @@
       <c r="R422" s="10"/>
       <c r="S422" s="12"/>
     </row>
-    <row r="423" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A423" s="3">
         <v>6752</v>
       </c>
@@ -12651,7 +12702,7 @@
       <c r="R423" s="10"/>
       <c r="S423" s="12"/>
     </row>
-    <row r="424" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A424" s="3">
         <v>6768</v>
       </c>
@@ -12677,7 +12728,7 @@
       <c r="R424" s="10"/>
       <c r="S424" s="12"/>
     </row>
-    <row r="425" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A425" s="7">
         <v>6784</v>
       </c>
@@ -12703,7 +12754,7 @@
       <c r="R425" s="10"/>
       <c r="S425" s="12"/>
     </row>
-    <row r="426" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A426" s="7">
         <v>6800</v>
       </c>
@@ -12729,7 +12780,7 @@
       <c r="R426" s="10"/>
       <c r="S426" s="12"/>
     </row>
-    <row r="427" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A427" s="3">
         <v>6816</v>
       </c>
@@ -12755,7 +12806,7 @@
       <c r="R427" s="10"/>
       <c r="S427" s="12"/>
     </row>
-    <row r="428" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A428" s="3">
         <v>6832</v>
       </c>
@@ -12781,7 +12832,7 @@
       <c r="R428" s="10"/>
       <c r="S428" s="12"/>
     </row>
-    <row r="429" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A429" s="7">
         <v>6848</v>
       </c>
@@ -12807,7 +12858,7 @@
       <c r="R429" s="10"/>
       <c r="S429" s="12"/>
     </row>
-    <row r="430" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A430" s="7">
         <v>6864</v>
       </c>
@@ -12833,7 +12884,7 @@
       <c r="R430" s="10"/>
       <c r="S430" s="12"/>
     </row>
-    <row r="431" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A431" s="3">
         <v>6880</v>
       </c>
@@ -12859,7 +12910,7 @@
       <c r="R431" s="10"/>
       <c r="S431" s="12"/>
     </row>
-    <row r="432" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A432" s="3">
         <v>6896</v>
       </c>
@@ -12885,7 +12936,7 @@
       <c r="R432" s="10"/>
       <c r="S432" s="12"/>
     </row>
-    <row r="433" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A433" s="7">
         <v>6912</v>
       </c>
@@ -12911,7 +12962,7 @@
       <c r="R433" s="10"/>
       <c r="S433" s="12"/>
     </row>
-    <row r="434" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A434" s="7">
         <v>6928</v>
       </c>
@@ -12937,7 +12988,7 @@
       <c r="R434" s="10"/>
       <c r="S434" s="12"/>
     </row>
-    <row r="435" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A435" s="3">
         <v>6944</v>
       </c>
@@ -12963,7 +13014,7 @@
       <c r="R435" s="10"/>
       <c r="S435" s="12"/>
     </row>
-    <row r="436" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A436" s="3">
         <v>6960</v>
       </c>
@@ -12989,7 +13040,7 @@
       <c r="R436" s="10"/>
       <c r="S436" s="12"/>
     </row>
-    <row r="437" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A437" s="7">
         <v>6976</v>
       </c>
@@ -13015,7 +13066,7 @@
       <c r="R437" s="10"/>
       <c r="S437" s="12"/>
     </row>
-    <row r="438" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A438" s="7">
         <v>6992</v>
       </c>
@@ -13041,7 +13092,7 @@
       <c r="R438" s="10"/>
       <c r="S438" s="12"/>
     </row>
-    <row r="439" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A439" s="3">
         <v>7008</v>
       </c>
@@ -13067,7 +13118,7 @@
       <c r="R439" s="10"/>
       <c r="S439" s="12"/>
     </row>
-    <row r="440" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A440" s="3">
         <v>7024</v>
       </c>
@@ -13093,7 +13144,7 @@
       <c r="R440" s="10"/>
       <c r="S440" s="12"/>
     </row>
-    <row r="441" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A441" s="7">
         <v>7040</v>
       </c>
@@ -13119,7 +13170,7 @@
       <c r="R441" s="10"/>
       <c r="S441" s="12"/>
     </row>
-    <row r="442" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A442" s="7">
         <v>7056</v>
       </c>
@@ -13145,7 +13196,7 @@
       <c r="R442" s="10"/>
       <c r="S442" s="12"/>
     </row>
-    <row r="443" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A443" s="3">
         <v>7072</v>
       </c>
@@ -13171,7 +13222,7 @@
       <c r="R443" s="10"/>
       <c r="S443" s="12"/>
     </row>
-    <row r="444" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A444" s="3">
         <v>7088</v>
       </c>
@@ -13197,7 +13248,7 @@
       <c r="R444" s="10"/>
       <c r="S444" s="12"/>
     </row>
-    <row r="445" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A445" s="7">
         <v>7104</v>
       </c>
@@ -13223,7 +13274,7 @@
       <c r="R445" s="10"/>
       <c r="S445" s="12"/>
     </row>
-    <row r="446" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A446" s="7">
         <v>7120</v>
       </c>
@@ -13249,7 +13300,7 @@
       <c r="R446" s="10"/>
       <c r="S446" s="12"/>
     </row>
-    <row r="447" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A447" s="3">
         <v>7136</v>
       </c>
@@ -13275,7 +13326,7 @@
       <c r="R447" s="10"/>
       <c r="S447" s="12"/>
     </row>
-    <row r="448" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A448" s="7">
         <v>7152</v>
       </c>
@@ -13301,7 +13352,7 @@
       <c r="R448" s="10"/>
       <c r="S448" s="12"/>
     </row>
-    <row r="449" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A449" s="7">
         <v>7168</v>
       </c>
@@ -13327,7 +13378,7 @@
       <c r="R449" s="10"/>
       <c r="S449" s="12"/>
     </row>
-    <row r="450" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A450" s="3">
         <v>7184</v>
       </c>
@@ -13353,7 +13404,7 @@
       <c r="R450" s="10"/>
       <c r="S450" s="12"/>
     </row>
-    <row r="451" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A451" s="3">
         <v>7200</v>
       </c>
@@ -13379,7 +13430,7 @@
       <c r="R451" s="10"/>
       <c r="S451" s="12"/>
     </row>
-    <row r="452" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A452" s="7">
         <v>7216</v>
       </c>
@@ -13405,7 +13456,7 @@
       <c r="R452" s="10"/>
       <c r="S452" s="12"/>
     </row>
-    <row r="453" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A453" s="7">
         <v>7232</v>
       </c>
@@ -13431,7 +13482,7 @@
       <c r="R453" s="10"/>
       <c r="S453" s="12"/>
     </row>
-    <row r="454" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A454" s="3">
         <v>7248</v>
       </c>
@@ -13457,7 +13508,7 @@
       <c r="R454" s="10"/>
       <c r="S454" s="12"/>
     </row>
-    <row r="455" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A455" s="3">
         <v>7264</v>
       </c>
@@ -13483,7 +13534,7 @@
       <c r="R455" s="10"/>
       <c r="S455" s="12"/>
     </row>
-    <row r="456" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A456" s="7">
         <v>7280</v>
       </c>
@@ -13509,7 +13560,7 @@
       <c r="R456" s="10"/>
       <c r="S456" s="12"/>
     </row>
-    <row r="457" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A457" s="7">
         <v>7296</v>
       </c>
@@ -13535,7 +13586,7 @@
       <c r="R457" s="10"/>
       <c r="S457" s="12"/>
     </row>
-    <row r="458" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A458" s="3">
         <v>7312</v>
       </c>
@@ -13561,7 +13612,7 @@
       <c r="R458" s="10"/>
       <c r="S458" s="12"/>
     </row>
-    <row r="459" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A459" s="3">
         <v>7328</v>
       </c>
@@ -13587,7 +13638,7 @@
       <c r="R459" s="10"/>
       <c r="S459" s="12"/>
     </row>
-    <row r="460" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A460" s="7">
         <v>7344</v>
       </c>
@@ -13613,7 +13664,7 @@
       <c r="R460" s="10"/>
       <c r="S460" s="12"/>
     </row>
-    <row r="461" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A461" s="7">
         <v>7360</v>
       </c>
@@ -13639,7 +13690,7 @@
       <c r="R461" s="10"/>
       <c r="S461" s="12"/>
     </row>
-    <row r="462" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A462" s="3">
         <v>7376</v>
       </c>
@@ -13665,7 +13716,7 @@
       <c r="R462" s="10"/>
       <c r="S462" s="12"/>
     </row>
-    <row r="463" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A463" s="3">
         <v>7392</v>
       </c>
@@ -13691,7 +13742,7 @@
       <c r="R463" s="10"/>
       <c r="S463" s="12"/>
     </row>
-    <row r="464" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A464" s="7">
         <v>7408</v>
       </c>
@@ -13717,7 +13768,7 @@
       <c r="R464" s="10"/>
       <c r="S464" s="12"/>
     </row>
-    <row r="465" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A465" s="7">
         <v>7424</v>
       </c>
@@ -13743,7 +13794,7 @@
       <c r="R465" s="10"/>
       <c r="S465" s="12"/>
     </row>
-    <row r="466" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A466" s="3">
         <v>7440</v>
       </c>
@@ -13769,7 +13820,7 @@
       <c r="R466" s="10"/>
       <c r="S466" s="12"/>
     </row>
-    <row r="467" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A467" s="3">
         <v>7456</v>
       </c>
@@ -13795,7 +13846,7 @@
       <c r="R467" s="10"/>
       <c r="S467" s="12"/>
     </row>
-    <row r="468" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A468" s="7">
         <v>7472</v>
       </c>
@@ -13821,7 +13872,7 @@
       <c r="R468" s="10"/>
       <c r="S468" s="12"/>
     </row>
-    <row r="469" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A469" s="7">
         <v>7488</v>
       </c>
@@ -13847,7 +13898,7 @@
       <c r="R469" s="10"/>
       <c r="S469" s="12"/>
     </row>
-    <row r="470" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A470" s="3">
         <v>7504</v>
       </c>
@@ -13873,7 +13924,7 @@
       <c r="R470" s="10"/>
       <c r="S470" s="12"/>
     </row>
-    <row r="471" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A471" s="3">
         <v>7520</v>
       </c>
@@ -13899,7 +13950,7 @@
       <c r="R471" s="10"/>
       <c r="S471" s="12"/>
     </row>
-    <row r="472" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A472" s="7">
         <v>7536</v>
       </c>
@@ -13925,7 +13976,7 @@
       <c r="R472" s="10"/>
       <c r="S472" s="12"/>
     </row>
-    <row r="473" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A473" s="7">
         <v>7552</v>
       </c>
@@ -13951,7 +14002,7 @@
       <c r="R473" s="10"/>
       <c r="S473" s="12"/>
     </row>
-    <row r="474" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A474" s="3">
         <v>7568</v>
       </c>
@@ -13977,7 +14028,7 @@
       <c r="R474" s="10"/>
       <c r="S474" s="12"/>
     </row>
-    <row r="475" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A475" s="7">
         <v>7584</v>
       </c>
@@ -14003,7 +14054,7 @@
       <c r="R475" s="10"/>
       <c r="S475" s="12"/>
     </row>
-    <row r="476" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A476" s="7">
         <v>7600</v>
       </c>
@@ -14029,7 +14080,7 @@
       <c r="R476" s="10"/>
       <c r="S476" s="12"/>
     </row>
-    <row r="477" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A477" s="3">
         <v>7616</v>
       </c>
@@ -14055,7 +14106,7 @@
       <c r="R477" s="10"/>
       <c r="S477" s="12"/>
     </row>
-    <row r="478" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A478" s="3">
         <v>7632</v>
       </c>
@@ -14081,7 +14132,7 @@
       <c r="R478" s="10"/>
       <c r="S478" s="12"/>
     </row>
-    <row r="479" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A479" s="7">
         <v>7648</v>
       </c>
@@ -14107,7 +14158,7 @@
       <c r="R479" s="10"/>
       <c r="S479" s="12"/>
     </row>
-    <row r="480" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A480" s="7">
         <v>7664</v>
       </c>
@@ -14133,7 +14184,7 @@
       <c r="R480" s="10"/>
       <c r="S480" s="12"/>
     </row>
-    <row r="481" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A481" s="3">
         <v>7680</v>
       </c>
@@ -14159,7 +14210,7 @@
       <c r="R481" s="10"/>
       <c r="S481" s="12"/>
     </row>
-    <row r="482" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A482" s="3">
         <v>7696</v>
       </c>
@@ -14185,7 +14236,7 @@
       <c r="R482" s="10"/>
       <c r="S482" s="12"/>
     </row>
-    <row r="483" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A483" s="7">
         <v>7712</v>
       </c>
@@ -14211,7 +14262,7 @@
       <c r="R483" s="10"/>
       <c r="S483" s="12"/>
     </row>
-    <row r="484" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A484" s="7">
         <v>7728</v>
       </c>
@@ -14237,7 +14288,7 @@
       <c r="R484" s="10"/>
       <c r="S484" s="12"/>
     </row>
-    <row r="485" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A485" s="3">
         <v>7744</v>
       </c>
@@ -14263,7 +14314,7 @@
       <c r="R485" s="10"/>
       <c r="S485" s="12"/>
     </row>
-    <row r="486" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A486" s="3">
         <v>7760</v>
       </c>
@@ -14289,7 +14340,7 @@
       <c r="R486" s="10"/>
       <c r="S486" s="12"/>
     </row>
-    <row r="487" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A487" s="7">
         <v>7776</v>
       </c>
@@ -14315,7 +14366,7 @@
       <c r="R487" s="10"/>
       <c r="S487" s="12"/>
     </row>
-    <row r="488" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A488" s="7">
         <v>7792</v>
       </c>
@@ -14341,7 +14392,7 @@
       <c r="R488" s="10"/>
       <c r="S488" s="12"/>
     </row>
-    <row r="489" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A489" s="3">
         <v>7808</v>
       </c>
@@ -14367,7 +14418,7 @@
       <c r="R489" s="10"/>
       <c r="S489" s="12"/>
     </row>
-    <row r="490" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A490" s="3">
         <v>7824</v>
       </c>
@@ -14393,7 +14444,7 @@
       <c r="R490" s="10"/>
       <c r="S490" s="12"/>
     </row>
-    <row r="491" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A491" s="7">
         <v>7840</v>
       </c>
@@ -14419,7 +14470,7 @@
       <c r="R491" s="10"/>
       <c r="S491" s="12"/>
     </row>
-    <row r="492" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A492" s="7">
         <v>7856</v>
       </c>
@@ -14445,7 +14496,7 @@
       <c r="R492" s="10"/>
       <c r="S492" s="12"/>
     </row>
-    <row r="493" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A493" s="3">
         <v>7872</v>
       </c>
@@ -14471,7 +14522,7 @@
       <c r="R493" s="10"/>
       <c r="S493" s="12"/>
     </row>
-    <row r="494" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A494" s="3">
         <v>7888</v>
       </c>
@@ -14497,7 +14548,7 @@
       <c r="R494" s="10"/>
       <c r="S494" s="12"/>
     </row>
-    <row r="495" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A495" s="7">
         <v>7904</v>
       </c>
@@ -14523,7 +14574,7 @@
       <c r="R495" s="10"/>
       <c r="S495" s="12"/>
     </row>
-    <row r="496" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A496" s="7">
         <v>7920</v>
       </c>
@@ -14549,7 +14600,7 @@
       <c r="R496" s="10"/>
       <c r="S496" s="12"/>
     </row>
-    <row r="497" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A497" s="3">
         <v>7936</v>
       </c>
@@ -14575,7 +14626,7 @@
       <c r="R497" s="10"/>
       <c r="S497" s="12"/>
     </row>
-    <row r="498" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A498" s="3">
         <v>7952</v>
       </c>
@@ -14601,7 +14652,7 @@
       <c r="R498" s="10"/>
       <c r="S498" s="12"/>
     </row>
-    <row r="499" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A499" s="7">
         <v>7968</v>
       </c>
@@ -14627,7 +14678,7 @@
       <c r="R499" s="10"/>
       <c r="S499" s="12"/>
     </row>
-    <row r="500" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A500" s="7">
         <v>7984</v>
       </c>
@@ -14653,7 +14704,7 @@
       <c r="R500" s="10"/>
       <c r="S500" s="12"/>
     </row>
-    <row r="501" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A501" s="3">
         <v>8000</v>
       </c>
@@ -14679,7 +14730,7 @@
       <c r="R501" s="10"/>
       <c r="S501" s="12"/>
     </row>
-    <row r="502" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A502" s="3">
         <v>8016</v>
       </c>
@@ -14705,7 +14756,7 @@
       <c r="R502" s="10"/>
       <c r="S502" s="12"/>
     </row>
-    <row r="503" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A503" s="7">
         <v>8032</v>
       </c>
@@ -14731,7 +14782,7 @@
       <c r="R503" s="10"/>
       <c r="S503" s="12"/>
     </row>
-    <row r="504" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A504" s="7">
         <v>8048</v>
       </c>
@@ -14757,7 +14808,7 @@
       <c r="R504" s="10"/>
       <c r="S504" s="12"/>
     </row>
-    <row r="505" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A505" s="3">
         <v>8064</v>
       </c>
@@ -14783,7 +14834,7 @@
       <c r="R505" s="10"/>
       <c r="S505" s="12"/>
     </row>
-    <row r="506" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A506" s="3">
         <v>8080</v>
       </c>
@@ -14809,7 +14860,7 @@
       <c r="R506" s="10"/>
       <c r="S506" s="12"/>
     </row>
-    <row r="507" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A507" s="7">
         <v>8096</v>
       </c>
@@ -14835,7 +14886,7 @@
       <c r="R507" s="10"/>
       <c r="S507" s="12"/>
     </row>
-    <row r="508" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A508" s="7">
         <v>8112</v>
       </c>
@@ -14861,7 +14912,7 @@
       <c r="R508" s="10"/>
       <c r="S508" s="12"/>
     </row>
-    <row r="509" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A509" s="3">
         <v>8128</v>
       </c>
@@ -14887,7 +14938,7 @@
       <c r="R509" s="10"/>
       <c r="S509" s="12"/>
     </row>
-    <row r="510" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A510" s="3">
         <v>8144</v>
       </c>
@@ -14913,7 +14964,7 @@
       <c r="R510" s="10"/>
       <c r="S510" s="12"/>
     </row>
-    <row r="511" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A511" s="3">
         <v>8160</v>
       </c>
@@ -14939,7 +14990,7 @@
       <c r="R511" s="10"/>
       <c r="S511" s="12"/>
     </row>
-    <row r="512" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A512" s="7">
         <v>8176</v>
       </c>
@@ -14965,7 +15016,7 @@
       <c r="R512" s="10"/>
       <c r="S512" s="12"/>
     </row>
-    <row r="513" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A513" s="7">
         <v>8192</v>
       </c>
@@ -14991,7 +15042,7 @@
       <c r="R513" s="10"/>
       <c r="S513" s="12"/>
     </row>
-    <row r="514" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A514" s="3">
         <v>8208</v>
       </c>
@@ -15017,7 +15068,7 @@
       <c r="R514" s="10"/>
       <c r="S514" s="12"/>
     </row>
-    <row r="515" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A515" s="3">
         <v>8224</v>
       </c>
@@ -15043,7 +15094,7 @@
       <c r="R515" s="10"/>
       <c r="S515" s="12"/>
     </row>
-    <row r="516" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A516" s="7">
         <v>8240</v>
       </c>
@@ -15069,7 +15120,7 @@
       <c r="R516" s="10"/>
       <c r="S516" s="12"/>
     </row>
-    <row r="517" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A517" s="7">
         <v>8256</v>
       </c>
@@ -15095,7 +15146,7 @@
       <c r="R517" s="10"/>
       <c r="S517" s="12"/>
     </row>
-    <row r="518" spans="1:19" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A518" s="3">
         <v>8272</v>
       </c>
@@ -15121,7 +15172,7 @@
       <c r="R518" s="10"/>
       <c r="S518" s="12"/>
     </row>
-    <row r="519" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A519" s="7">
         <v>8288</v>
       </c>
@@ -15147,7 +15198,7 @@
       <c r="R519" s="10"/>
       <c r="S519" s="12"/>
     </row>
-    <row r="520" spans="1:19" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A520" s="7">
         <v>8304</v>
       </c>
@@ -15175,52 +15226,20 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="O113:R113"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="I114:J114"/>
-    <mergeCell ref="K114:L114"/>
-    <mergeCell ref="M114:N114"/>
-    <mergeCell ref="M111:N111"/>
-    <mergeCell ref="O111:P111"/>
-    <mergeCell ref="Q111:R111"/>
-    <mergeCell ref="C111:F111"/>
-    <mergeCell ref="K111:L111"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="I106:J106"/>
-    <mergeCell ref="Q108:R108"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="O100:P100"/>
-    <mergeCell ref="Q100:R100"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="Q97:R97"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="O108:P108"/>
-    <mergeCell ref="O97:P97"/>
-    <mergeCell ref="K100:L100"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="K103:L103"/>
-    <mergeCell ref="M103:N103"/>
-    <mergeCell ref="C2:M2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="I3:R3"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="C72:R86"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="L87:R87"/>
-    <mergeCell ref="C88:R88"/>
-    <mergeCell ref="C89:K89"/>
-    <mergeCell ref="L89:R89"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="K71:R71"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="O49:R49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="O50:R50"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
     <mergeCell ref="C90:R90"/>
     <mergeCell ref="O123:R123"/>
     <mergeCell ref="C124:R128"/>
@@ -15236,20 +15255,52 @@
     <mergeCell ref="K105:N105"/>
     <mergeCell ref="O91:R91"/>
     <mergeCell ref="C106:D106"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="K71:R71"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="O49:R49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="O50:R50"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="C72:R86"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="L87:R87"/>
+    <mergeCell ref="C88:R88"/>
+    <mergeCell ref="C89:K89"/>
+    <mergeCell ref="L89:R89"/>
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="O108:P108"/>
+    <mergeCell ref="O97:P97"/>
+    <mergeCell ref="K100:L100"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="M103:N103"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="Q97:R97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="O100:P100"/>
+    <mergeCell ref="Q100:R100"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="Q108:R108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="M111:N111"/>
+    <mergeCell ref="O111:P111"/>
+    <mergeCell ref="Q111:R111"/>
+    <mergeCell ref="C111:F111"/>
+    <mergeCell ref="K111:L111"/>
+    <mergeCell ref="O113:R113"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="I114:J114"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="M114:N114"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LODEdit/Additional/memory_map.xlsx
+++ b/LODEdit/Additional/memory_map.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="200">
   <si>
     <t xml:space="preserve">Address</t>
   </si>
@@ -61,6 +61,42 @@
     <t xml:space="preserve">Slot ID</t>
   </si>
   <si>
+    <t xml:space="preserve">Party Slot 1 Save Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Party Slot 2 Save Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Party Slot 3 Save Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dart Lv Save Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dart Dragoon Lv Save Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dart HP Save Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dart Max HP Save Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold Save Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time Played Save Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragoon Spirits Save Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stardust Count Save Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warp Save Text</t>
+  </si>
+  <si>
     <t xml:space="preserve">Party Slot 1</t>
   </si>
   <si>
@@ -70,108 +106,99 @@
     <t xml:space="preserve">Party Slot 3</t>
   </si>
   <si>
+    <t xml:space="preserve">Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stardust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time Played</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W1?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W2?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W1? = part of save area?? W2? =60 00 40 10 is outside, otherwise indicates area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BC=BATTLE COUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E=EVENT FLAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragoon Spirits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G2 = Goods 9-16 state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T=TREASURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A=ARMOR COUNT I=ITEM COUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armor Inventory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item Inventory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unused Inventory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dart Exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dart HP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dart MP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dart SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dart TSP</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dart Lv</t>
   </si>
   <si>
-    <t xml:space="preserve">Dart Dragoon Lv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dart HP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dart Max HP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time Played</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dragoon Spirits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stardust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W1?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W2?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W1? = part of save area?? W2? =60 00 40 10 is outside, otherwise indicates area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BC=BATTLE COUNT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E=EVENT FLAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G2 = Goods 9-16 state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T=TREASURE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A=ARMOR COUNT I=ITEM COUNT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armor Inventory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item Inventory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unused Inventory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dart Exp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dart MP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dart SP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dart TSP</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dart Dlv</t>
   </si>
   <si>
@@ -581,6 +608,9 @@
   </si>
   <si>
     <t xml:space="preserve">Miranda Accessory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Config Options</t>
   </si>
   <si>
     <t xml:space="preserve">W3?</t>
@@ -683,7 +713,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="29">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -852,6 +882,12 @@
         <bgColor rgb="FFF28E86"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF666699"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
@@ -887,7 +923,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1160,6 +1196,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="29" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1248,12 +1288,12 @@
   <dimension ref="A1:T520"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L69" activeCellId="0" sqref="L69"/>
+      <selection pane="bottomLeft" activeCell="C120" activeCellId="0" sqref="C120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="14.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="3" style="0" width="3.42"/>
@@ -2594,13 +2634,13 @@
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
       <c r="K49" s="8" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
       <c r="O49" s="14" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="P49" s="14"/>
       <c r="Q49" s="14"/>
@@ -2616,13 +2656,13 @@
         <v>310</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
       <c r="G50" s="20" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H50" s="20"/>
       <c r="I50" s="20"/>
@@ -2632,7 +2672,7 @@
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
       <c r="O50" s="23" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="P50" s="23"/>
       <c r="Q50" s="23"/>
@@ -2648,19 +2688,19 @@
         <v>320</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D51" s="21"/>
       <c r="E51" s="21"/>
       <c r="F51" s="21"/>
       <c r="G51" s="25" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
       <c r="K51" s="26" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L51" s="26"/>
       <c r="M51" s="26"/>
@@ -2670,7 +2710,7 @@
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
       <c r="S51" s="27" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2686,7 +2726,7 @@
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
       <c r="G52" s="14" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H52" s="14"/>
       <c r="I52" s="10"/>
@@ -2699,7 +2739,7 @@
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
       <c r="S52" s="12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2833,7 +2873,7 @@
       <c r="Q57" s="10"/>
       <c r="R57" s="10"/>
       <c r="S57" s="12" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3065,19 +3105,19 @@
       <c r="M66" s="10"/>
       <c r="N66" s="10"/>
       <c r="O66" s="22" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="P66" s="29" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="Q66" s="29" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="R66" s="29" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="S66" s="12" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3089,16 +3129,16 @@
         <v>420</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D67" s="29" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E67" s="29" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F67" s="29" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
@@ -3153,7 +3193,7 @@
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
       <c r="G69" s="30" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
@@ -3167,7 +3207,7 @@
       <c r="Q69" s="10"/>
       <c r="R69" s="10"/>
       <c r="S69" s="12" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3213,7 +3253,7 @@
       </c>
       <c r="H71" s="10"/>
       <c r="I71" s="30" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="J71" s="10"/>
       <c r="K71" s="21"/>
@@ -3225,7 +3265,7 @@
       <c r="Q71" s="21"/>
       <c r="R71" s="21"/>
       <c r="S71" s="12" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3237,7 +3277,7 @@
         <v>470</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D72" s="32"/>
       <c r="E72" s="32"/>
@@ -3655,7 +3695,7 @@
         <v>570</v>
       </c>
       <c r="C88" s="34" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D88" s="34"/>
       <c r="E88" s="34"/>
@@ -3709,7 +3749,7 @@
         <v>590</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D90" s="20"/>
       <c r="E90" s="20"/>
@@ -3749,7 +3789,7 @@
       <c r="M91" s="10"/>
       <c r="N91" s="10"/>
       <c r="O91" s="35" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="P91" s="35"/>
       <c r="Q91" s="35"/>
@@ -3767,28 +3807,28 @@
       <c r="E92" s="10"/>
       <c r="F92" s="10"/>
       <c r="G92" s="21" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="H92" s="21"/>
       <c r="I92" s="4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J92" s="4"/>
       <c r="K92" s="15" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="L92" s="15"/>
       <c r="M92" s="36" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="N92" s="36"/>
       <c r="O92" s="10"/>
       <c r="P92" s="10"/>
       <c r="Q92" s="37" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="R92" s="38" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="S92" s="12"/>
     </row>
@@ -3801,19 +3841,19 @@
         <v>5C0</v>
       </c>
       <c r="C93" s="39" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D93" s="39" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E93" s="39" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F93" s="39" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G93" s="39" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="H93" s="40"/>
       <c r="I93" s="10"/>
@@ -3825,10 +3865,10 @@
       <c r="O93" s="10"/>
       <c r="P93" s="10"/>
       <c r="Q93" s="22" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="R93" s="22" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="S93" s="12"/>
     </row>
@@ -3841,25 +3881,25 @@
         <v>5D0</v>
       </c>
       <c r="C94" s="22" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D94" s="22" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E94" s="22" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F94" s="22" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G94" s="22" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="H94" s="10"/>
       <c r="I94" s="10"/>
       <c r="J94" s="10"/>
       <c r="K94" s="41" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="L94" s="41"/>
       <c r="M94" s="41"/>
@@ -3879,40 +3919,40 @@
         <v>5E0</v>
       </c>
       <c r="C95" s="41" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D95" s="41"/>
       <c r="E95" s="42" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F95" s="42"/>
       <c r="G95" s="43" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="H95" s="43"/>
       <c r="I95" s="42" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="J95" s="42"/>
       <c r="K95" s="13"/>
       <c r="L95" s="13"/>
       <c r="M95" s="44" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="N95" s="45" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="O95" s="39" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="P95" s="39" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="Q95" s="39" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="R95" s="39" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="S95" s="12"/>
     </row>
@@ -3925,7 +3965,7 @@
         <v>5F0</v>
       </c>
       <c r="C96" s="39" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D96" s="10"/>
       <c r="E96" s="10"/>
@@ -3937,19 +3977,19 @@
       <c r="K96" s="10"/>
       <c r="L96" s="10"/>
       <c r="M96" s="22" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="N96" s="22" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="O96" s="22" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="P96" s="22" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="Q96" s="22" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="R96" s="10"/>
       <c r="S96" s="12"/>
@@ -3967,7 +4007,7 @@
       <c r="E97" s="10"/>
       <c r="F97" s="10"/>
       <c r="G97" s="46" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H97" s="46"/>
       <c r="I97" s="46"/>
@@ -3977,11 +4017,11 @@
       <c r="M97" s="10"/>
       <c r="N97" s="10"/>
       <c r="O97" s="47" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="P97" s="47"/>
       <c r="Q97" s="48" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="R97" s="48"/>
       <c r="S97" s="12"/>
@@ -3995,35 +4035,35 @@
         <v>610</v>
       </c>
       <c r="C98" s="48" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D98" s="48"/>
       <c r="E98" s="49" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F98" s="49"/>
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
       <c r="I98" s="50" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="J98" s="51" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="K98" s="39" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="L98" s="39" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="M98" s="39" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="N98" s="39" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="O98" s="39" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="P98" s="10"/>
       <c r="Q98" s="10"/>
@@ -4065,7 +4105,7 @@
         <v>630</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D100" s="23"/>
       <c r="E100" s="23"/>
@@ -4075,19 +4115,19 @@
       <c r="I100" s="10"/>
       <c r="J100" s="10"/>
       <c r="K100" s="52" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="L100" s="52"/>
       <c r="M100" s="53" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="N100" s="53"/>
       <c r="O100" s="23" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="P100" s="23"/>
       <c r="Q100" s="53" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="R100" s="53"/>
       <c r="S100" s="12"/>
@@ -4103,25 +4143,25 @@
       <c r="C101" s="10"/>
       <c r="D101" s="10"/>
       <c r="E101" s="54" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F101" s="55" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G101" s="39" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="H101" s="39" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="I101" s="39" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J101" s="39" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K101" s="39" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="L101" s="10"/>
       <c r="M101" s="10"/>
@@ -4143,16 +4183,16 @@
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
       <c r="E102" s="22" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="F102" s="22" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G102" s="22" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H102" s="22" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="I102" s="10"/>
       <c r="J102" s="10"/>
@@ -4161,7 +4201,7 @@
       <c r="M102" s="10"/>
       <c r="N102" s="10"/>
       <c r="O102" s="23" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="P102" s="23"/>
       <c r="Q102" s="23"/>
@@ -4181,28 +4221,28 @@
       <c r="E103" s="10"/>
       <c r="F103" s="10"/>
       <c r="G103" s="23" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="H103" s="23"/>
       <c r="I103" s="53" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="J103" s="53"/>
       <c r="K103" s="23" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="L103" s="23"/>
       <c r="M103" s="53" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="N103" s="53"/>
       <c r="O103" s="10"/>
       <c r="P103" s="10"/>
       <c r="Q103" s="54" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="R103" s="55" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="S103" s="12"/>
     </row>
@@ -4215,19 +4255,19 @@
         <v>670</v>
       </c>
       <c r="C104" s="39" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D104" s="39" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E104" s="39" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="F104" s="39" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G104" s="39" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="H104" s="10"/>
       <c r="I104" s="10"/>
@@ -4239,10 +4279,10 @@
       <c r="O104" s="10"/>
       <c r="P104" s="10"/>
       <c r="Q104" s="22" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="R104" s="22" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="S104" s="12"/>
     </row>
@@ -4255,23 +4295,23 @@
         <v>680</v>
       </c>
       <c r="C105" s="22" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D105" s="22" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E105" s="22" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="F105" s="22" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="G105" s="10"/>
       <c r="H105" s="10"/>
       <c r="I105" s="10"/>
       <c r="J105" s="10"/>
       <c r="K105" s="41" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L105" s="41"/>
       <c r="M105" s="41"/>
@@ -4291,40 +4331,40 @@
         <v>690</v>
       </c>
       <c r="C106" s="41" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D106" s="41"/>
       <c r="E106" s="42" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F106" s="42"/>
       <c r="G106" s="41" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="H106" s="41"/>
       <c r="I106" s="42" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="J106" s="42"/>
       <c r="K106" s="10"/>
       <c r="L106" s="10"/>
       <c r="M106" s="56" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="N106" s="45" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="O106" s="39" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="P106" s="39" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="Q106" s="39" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="R106" s="39" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="S106" s="12"/>
     </row>
@@ -4337,7 +4377,7 @@
         <v>6A0</v>
       </c>
       <c r="C107" s="39" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D107" s="10"/>
       <c r="E107" s="10"/>
@@ -4349,19 +4389,19 @@
       <c r="K107" s="10"/>
       <c r="L107" s="10"/>
       <c r="M107" s="22" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="N107" s="22" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="O107" s="22" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="P107" s="22" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="Q107" s="22" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="R107" s="10"/>
       <c r="S107" s="12"/>
@@ -4379,7 +4419,7 @@
       <c r="E108" s="10"/>
       <c r="F108" s="10"/>
       <c r="G108" s="57" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="H108" s="57"/>
       <c r="I108" s="57"/>
@@ -4389,11 +4429,11 @@
       <c r="M108" s="10"/>
       <c r="N108" s="10"/>
       <c r="O108" s="57" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="P108" s="57"/>
       <c r="Q108" s="58" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="R108" s="58"/>
       <c r="S108" s="12"/>
@@ -4407,35 +4447,35 @@
         <v>6C0</v>
       </c>
       <c r="C109" s="57" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D109" s="57"/>
       <c r="E109" s="59" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F109" s="59"/>
       <c r="G109" s="10"/>
       <c r="H109" s="10"/>
       <c r="I109" s="60" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="J109" s="61" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="K109" s="39" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="L109" s="39" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="M109" s="39" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="N109" s="39" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="O109" s="39" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="P109" s="10"/>
       <c r="Q109" s="10"/>
@@ -4457,19 +4497,19 @@
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
       <c r="I110" s="22" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="J110" s="22" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="K110" s="22" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="L110" s="22" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="M110" s="22" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="N110" s="10"/>
       <c r="O110" s="10"/>
@@ -4487,7 +4527,7 @@
         <v>6E0</v>
       </c>
       <c r="C111" s="62" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D111" s="62"/>
       <c r="E111" s="62"/>
@@ -4497,19 +4537,19 @@
       <c r="I111" s="10"/>
       <c r="J111" s="10"/>
       <c r="K111" s="63" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L111" s="63"/>
       <c r="M111" s="64" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="N111" s="64"/>
       <c r="O111" s="62" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="P111" s="62"/>
       <c r="Q111" s="64" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="R111" s="64"/>
       <c r="S111" s="12"/>
@@ -4525,25 +4565,25 @@
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
       <c r="E112" s="65" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="F112" s="66" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G112" s="39" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H112" s="39" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="I112" s="39" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="J112" s="39" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="K112" s="39" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L112" s="10"/>
       <c r="M112" s="10"/>
@@ -4565,13 +4605,13 @@
       <c r="C113" s="10"/>
       <c r="D113" s="10"/>
       <c r="E113" s="22" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F113" s="22" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="G113" s="22" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="H113" s="10"/>
       <c r="I113" s="10"/>
@@ -4581,7 +4621,7 @@
       <c r="M113" s="10"/>
       <c r="N113" s="10"/>
       <c r="O113" s="49" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="P113" s="49"/>
       <c r="Q113" s="49"/>
@@ -4601,28 +4641,28 @@
       <c r="E114" s="10"/>
       <c r="F114" s="10"/>
       <c r="G114" s="46" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="H114" s="46"/>
       <c r="I114" s="48" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="J114" s="48"/>
       <c r="K114" s="49" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="L114" s="49"/>
       <c r="M114" s="48" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="N114" s="48"/>
       <c r="O114" s="10"/>
       <c r="P114" s="10"/>
       <c r="Q114" s="67" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="R114" s="51" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="S114" s="12"/>
     </row>
@@ -4635,19 +4675,19 @@
         <v>720</v>
       </c>
       <c r="C115" s="39" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="D115" s="39" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E115" s="39" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F115" s="39" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="G115" s="39" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="H115" s="10"/>
       <c r="I115" s="10"/>
@@ -4747,12 +4787,14 @@
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(A119)</f>
         <v>760</v>
       </c>
-      <c r="C119" s="10"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="10"/>
-      <c r="F119" s="10"/>
-      <c r="G119" s="68" t="s">
-        <v>187</v>
+      <c r="C119" s="68" t="s">
+        <v>196</v>
+      </c>
+      <c r="D119" s="68"/>
+      <c r="E119" s="68"/>
+      <c r="F119" s="68"/>
+      <c r="G119" s="69" t="s">
+        <v>197</v>
       </c>
       <c r="H119" s="10"/>
       <c r="I119" s="10"/>
@@ -4766,7 +4808,7 @@
       <c r="Q119" s="10"/>
       <c r="R119" s="10"/>
       <c r="S119" s="27" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4867,12 +4909,12 @@
       <c r="L123" s="10"/>
       <c r="M123" s="10"/>
       <c r="N123" s="10"/>
-      <c r="O123" s="69"/>
-      <c r="P123" s="69"/>
-      <c r="Q123" s="69"/>
-      <c r="R123" s="69"/>
+      <c r="O123" s="70"/>
+      <c r="P123" s="70"/>
+      <c r="Q123" s="70"/>
+      <c r="R123" s="70"/>
       <c r="S123" s="12" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4883,22 +4925,22 @@
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(A124)</f>
         <v>7B0</v>
       </c>
-      <c r="C124" s="69"/>
-      <c r="D124" s="69"/>
-      <c r="E124" s="69"/>
-      <c r="F124" s="69"/>
-      <c r="G124" s="69"/>
-      <c r="H124" s="69"/>
-      <c r="I124" s="69"/>
-      <c r="J124" s="69"/>
-      <c r="K124" s="69"/>
-      <c r="L124" s="69"/>
-      <c r="M124" s="69"/>
-      <c r="N124" s="69"/>
-      <c r="O124" s="69"/>
-      <c r="P124" s="69"/>
-      <c r="Q124" s="69"/>
-      <c r="R124" s="69"/>
+      <c r="C124" s="70"/>
+      <c r="D124" s="70"/>
+      <c r="E124" s="70"/>
+      <c r="F124" s="70"/>
+      <c r="G124" s="70"/>
+      <c r="H124" s="70"/>
+      <c r="I124" s="70"/>
+      <c r="J124" s="70"/>
+      <c r="K124" s="70"/>
+      <c r="L124" s="70"/>
+      <c r="M124" s="70"/>
+      <c r="N124" s="70"/>
+      <c r="O124" s="70"/>
+      <c r="P124" s="70"/>
+      <c r="Q124" s="70"/>
+      <c r="R124" s="70"/>
       <c r="S124" s="12"/>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4909,22 +4951,22 @@
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(A125)</f>
         <v>7C0</v>
       </c>
-      <c r="C125" s="69"/>
-      <c r="D125" s="69"/>
-      <c r="E125" s="69"/>
-      <c r="F125" s="69"/>
-      <c r="G125" s="69"/>
-      <c r="H125" s="69"/>
-      <c r="I125" s="69"/>
-      <c r="J125" s="69"/>
-      <c r="K125" s="69"/>
-      <c r="L125" s="69"/>
-      <c r="M125" s="69"/>
-      <c r="N125" s="69"/>
-      <c r="O125" s="69"/>
-      <c r="P125" s="69"/>
-      <c r="Q125" s="69"/>
-      <c r="R125" s="69"/>
+      <c r="C125" s="70"/>
+      <c r="D125" s="70"/>
+      <c r="E125" s="70"/>
+      <c r="F125" s="70"/>
+      <c r="G125" s="70"/>
+      <c r="H125" s="70"/>
+      <c r="I125" s="70"/>
+      <c r="J125" s="70"/>
+      <c r="K125" s="70"/>
+      <c r="L125" s="70"/>
+      <c r="M125" s="70"/>
+      <c r="N125" s="70"/>
+      <c r="O125" s="70"/>
+      <c r="P125" s="70"/>
+      <c r="Q125" s="70"/>
+      <c r="R125" s="70"/>
       <c r="S125" s="12"/>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4935,22 +4977,22 @@
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(A126)</f>
         <v>7D0</v>
       </c>
-      <c r="C126" s="69"/>
-      <c r="D126" s="69"/>
-      <c r="E126" s="69"/>
-      <c r="F126" s="69"/>
-      <c r="G126" s="69"/>
-      <c r="H126" s="69"/>
-      <c r="I126" s="69"/>
-      <c r="J126" s="69"/>
-      <c r="K126" s="69"/>
-      <c r="L126" s="69"/>
-      <c r="M126" s="69"/>
-      <c r="N126" s="69"/>
-      <c r="O126" s="69"/>
-      <c r="P126" s="69"/>
-      <c r="Q126" s="69"/>
-      <c r="R126" s="69"/>
+      <c r="C126" s="70"/>
+      <c r="D126" s="70"/>
+      <c r="E126" s="70"/>
+      <c r="F126" s="70"/>
+      <c r="G126" s="70"/>
+      <c r="H126" s="70"/>
+      <c r="I126" s="70"/>
+      <c r="J126" s="70"/>
+      <c r="K126" s="70"/>
+      <c r="L126" s="70"/>
+      <c r="M126" s="70"/>
+      <c r="N126" s="70"/>
+      <c r="O126" s="70"/>
+      <c r="P126" s="70"/>
+      <c r="Q126" s="70"/>
+      <c r="R126" s="70"/>
       <c r="S126" s="12"/>
     </row>
     <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4961,22 +5003,22 @@
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(A127)</f>
         <v>7E0</v>
       </c>
-      <c r="C127" s="69"/>
-      <c r="D127" s="69"/>
-      <c r="E127" s="69"/>
-      <c r="F127" s="69"/>
-      <c r="G127" s="69"/>
-      <c r="H127" s="69"/>
-      <c r="I127" s="69"/>
-      <c r="J127" s="69"/>
-      <c r="K127" s="69"/>
-      <c r="L127" s="69"/>
-      <c r="M127" s="69"/>
-      <c r="N127" s="69"/>
-      <c r="O127" s="69"/>
-      <c r="P127" s="69"/>
-      <c r="Q127" s="69"/>
-      <c r="R127" s="69"/>
+      <c r="C127" s="70"/>
+      <c r="D127" s="70"/>
+      <c r="E127" s="70"/>
+      <c r="F127" s="70"/>
+      <c r="G127" s="70"/>
+      <c r="H127" s="70"/>
+      <c r="I127" s="70"/>
+      <c r="J127" s="70"/>
+      <c r="K127" s="70"/>
+      <c r="L127" s="70"/>
+      <c r="M127" s="70"/>
+      <c r="N127" s="70"/>
+      <c r="O127" s="70"/>
+      <c r="P127" s="70"/>
+      <c r="Q127" s="70"/>
+      <c r="R127" s="70"/>
       <c r="S127" s="12"/>
     </row>
     <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4987,22 +5029,22 @@
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(A128)</f>
         <v>7F0</v>
       </c>
-      <c r="C128" s="69"/>
-      <c r="D128" s="69"/>
-      <c r="E128" s="69"/>
-      <c r="F128" s="69"/>
-      <c r="G128" s="69"/>
-      <c r="H128" s="69"/>
-      <c r="I128" s="69"/>
-      <c r="J128" s="69"/>
-      <c r="K128" s="69"/>
-      <c r="L128" s="69"/>
-      <c r="M128" s="69"/>
-      <c r="N128" s="69"/>
-      <c r="O128" s="69"/>
-      <c r="P128" s="69"/>
-      <c r="Q128" s="69"/>
-      <c r="R128" s="69"/>
+      <c r="C128" s="70"/>
+      <c r="D128" s="70"/>
+      <c r="E128" s="70"/>
+      <c r="F128" s="70"/>
+      <c r="G128" s="70"/>
+      <c r="H128" s="70"/>
+      <c r="I128" s="70"/>
+      <c r="J128" s="70"/>
+      <c r="K128" s="70"/>
+      <c r="L128" s="70"/>
+      <c r="M128" s="70"/>
+      <c r="N128" s="70"/>
+      <c r="O128" s="70"/>
+      <c r="P128" s="70"/>
+      <c r="Q128" s="70"/>
+      <c r="R128" s="70"/>
       <c r="S128" s="12"/>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15198,7 +15240,7 @@
       <c r="S520" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="78">
     <mergeCell ref="C2:M2"/>
     <mergeCell ref="N2:R2"/>
     <mergeCell ref="C3:H3"/>
@@ -15274,6 +15316,7 @@
     <mergeCell ref="I114:J114"/>
     <mergeCell ref="K114:L114"/>
     <mergeCell ref="M114:N114"/>
+    <mergeCell ref="C119:F119"/>
     <mergeCell ref="O123:R123"/>
     <mergeCell ref="C124:R128"/>
   </mergeCells>
